--- a/Resources/Steel-Trans/Trans book Steel_MATCHED.xlsx
+++ b/Resources/Steel-Trans/Trans book Steel_MATCHED.xlsx
@@ -76,7 +76,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -101,15 +101,6 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -737,7 +728,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr"/>
-      <c r="B10" s="2" t="inlineStr"/>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. Amounts don't match: 57747209.26 vs 57747208.25</t>
+        </is>
+      </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
@@ -766,4586 +763,5908 @@
       <c r="L10" s="1" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr"/>
-      <c r="B11" s="2" t="inlineStr"/>
-      <c r="C11" s="6" t="inlineStr">
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="inlineStr"/>
+      <c r="C11" s="11" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="D11" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="E11" s="12" t="inlineStr">
         <is>
           <t>(as per details)</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr"/>
-      <c r="G11" s="1" t="inlineStr"/>
-      <c r="H11" s="9" t="inlineStr">
+      <c r="F11" s="9" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr"/>
+      <c r="H11" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="I11" s="9" t="inlineStr">
         <is>
           <t>847</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr"/>
-      <c r="K11" s="8" t="inlineStr">
+      <c r="J11" s="9" t="inlineStr"/>
+      <c r="K11" s="14" t="inlineStr">
         <is>
           <t>36010</t>
         </is>
       </c>
-      <c r="L11" s="1" t="inlineStr"/>
+      <c r="L11" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr"/>
-      <c r="B12" s="2" t="inlineStr"/>
-      <c r="C12" s="1" t="inlineStr"/>
-      <c r="D12" s="1" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr">
+      <c r="A12" s="9" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="inlineStr"/>
+      <c r="C12" s="9" t="inlineStr"/>
+      <c r="D12" s="9" t="inlineStr"/>
+      <c r="E12" s="12" t="inlineStr">
         <is>
           <t>AP-Stardust Telecom Ltd.</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr"/>
-      <c r="G12" s="1" t="inlineStr"/>
-      <c r="H12" s="1" t="inlineStr"/>
-      <c r="I12" s="1" t="inlineStr"/>
-      <c r="J12" s="8" t="inlineStr">
+      <c r="F12" s="9" t="inlineStr"/>
+      <c r="G12" s="9" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr"/>
+      <c r="I12" s="9" t="inlineStr"/>
+      <c r="J12" s="14" t="inlineStr">
         <is>
           <t>1528</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr"/>
-      <c r="L12" s="1" t="inlineStr"/>
+      <c r="K12" s="9" t="inlineStr"/>
+      <c r="L12" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr"/>
-      <c r="B13" s="2" t="inlineStr"/>
-      <c r="C13" s="1" t="inlineStr"/>
-      <c r="D13" s="1" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr">
+      <c r="A13" s="9" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="inlineStr"/>
+      <c r="C13" s="9" t="inlineStr"/>
+      <c r="D13" s="9" t="inlineStr"/>
+      <c r="E13" s="12" t="inlineStr">
         <is>
           <t>AP-Stardust Telecom Ltd.</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr"/>
-      <c r="G13" s="1" t="inlineStr"/>
-      <c r="H13" s="1" t="inlineStr"/>
-      <c r="I13" s="1" t="inlineStr"/>
-      <c r="J13" s="8" t="inlineStr">
+      <c r="F13" s="9" t="inlineStr"/>
+      <c r="G13" s="9" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr"/>
+      <c r="I13" s="9" t="inlineStr"/>
+      <c r="J13" s="14" t="inlineStr">
         <is>
           <t>25950</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr"/>
-      <c r="L13" s="1" t="inlineStr"/>
+      <c r="K13" s="9" t="inlineStr"/>
+      <c r="L13" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr"/>
-      <c r="B14" s="2" t="inlineStr"/>
-      <c r="C14" s="1" t="inlineStr"/>
-      <c r="D14" s="1" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr">
+      <c r="A14" s="9" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="inlineStr"/>
+      <c r="C14" s="9" t="inlineStr"/>
+      <c r="D14" s="9" t="inlineStr"/>
+      <c r="E14" s="12" t="inlineStr">
         <is>
           <t>AP-Stardust Telecom Ltd.</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr"/>
-      <c r="G14" s="1" t="inlineStr"/>
-      <c r="H14" s="1" t="inlineStr"/>
-      <c r="I14" s="1" t="inlineStr"/>
-      <c r="J14" s="8" t="inlineStr">
+      <c r="F14" s="9" t="inlineStr"/>
+      <c r="G14" s="9" t="inlineStr"/>
+      <c r="H14" s="9" t="inlineStr"/>
+      <c r="I14" s="9" t="inlineStr"/>
+      <c r="J14" s="14" t="inlineStr">
         <is>
           <t>5575</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr"/>
-      <c r="L14" s="1" t="inlineStr"/>
+      <c r="K14" s="9" t="inlineStr"/>
+      <c r="L14" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr"/>
-      <c r="B15" s="2" t="inlineStr"/>
-      <c r="C15" s="1" t="inlineStr"/>
-      <c r="D15" s="1" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr">
+      <c r="A15" s="9" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="inlineStr"/>
+      <c r="C15" s="9" t="inlineStr"/>
+      <c r="D15" s="9" t="inlineStr"/>
+      <c r="E15" s="12" t="inlineStr">
         <is>
           <t>AP-Stardust Telecom Ltd.</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr"/>
-      <c r="G15" s="1" t="inlineStr"/>
-      <c r="H15" s="1" t="inlineStr"/>
-      <c r="I15" s="1" t="inlineStr"/>
-      <c r="J15" s="8" t="inlineStr">
+      <c r="F15" s="9" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr"/>
+      <c r="H15" s="9" t="inlineStr"/>
+      <c r="I15" s="9" t="inlineStr"/>
+      <c r="J15" s="14" t="inlineStr">
         <is>
           <t>2957</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr"/>
-      <c r="L15" s="1" t="inlineStr"/>
+      <c r="K15" s="9" t="inlineStr"/>
+      <c r="L15" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr"/>
-      <c r="B16" s="2" t="inlineStr"/>
-      <c r="C16" s="1" t="inlineStr"/>
-      <c r="D16" s="1" t="inlineStr"/>
-      <c r="E16" s="10" t="inlineStr">
+      <c r="A16" s="9" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 36010.00
+Borrower Amount: 36010.00</t>
+        </is>
+      </c>
+      <c r="C16" s="9" t="inlineStr"/>
+      <c r="D16" s="9" t="inlineStr"/>
+      <c r="E16" s="15" t="inlineStr">
         <is>
           <t>Amount paid to Stardust Telecom Ltd agt ISP Expenses for the month of December-2024. Bill no. MIME/2425/00012870, INV/DEC/202403167  MIME/2425/00012871, MIME/2425/00012872</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr"/>
-      <c r="G16" s="1" t="inlineStr"/>
-      <c r="H16" s="1" t="inlineStr"/>
-      <c r="I16" s="1" t="inlineStr"/>
-      <c r="J16" s="1" t="inlineStr"/>
-      <c r="K16" s="1" t="inlineStr"/>
-      <c r="L16" s="1" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr"/>
+      <c r="G16" s="9" t="inlineStr"/>
+      <c r="H16" s="9" t="inlineStr"/>
+      <c r="I16" s="9" t="inlineStr"/>
+      <c r="J16" s="9" t="inlineStr"/>
+      <c r="K16" s="9" t="inlineStr"/>
+      <c r="L16" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr"/>
-      <c r="B17" s="2" t="inlineStr"/>
-      <c r="C17" s="1" t="inlineStr"/>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="A17" s="9" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="inlineStr"/>
+      <c r="C17" s="9" t="inlineStr"/>
+      <c r="D17" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E17" s="11" t="inlineStr">
+      <c r="E17" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr"/>
-      <c r="G17" s="1" t="inlineStr"/>
-      <c r="H17" s="1" t="inlineStr"/>
-      <c r="I17" s="1" t="inlineStr"/>
-      <c r="J17" s="1" t="inlineStr"/>
-      <c r="K17" s="1" t="inlineStr"/>
-      <c r="L17" s="1" t="inlineStr"/>
+      <c r="F17" s="9" t="inlineStr"/>
+      <c r="G17" s="9" t="inlineStr"/>
+      <c r="H17" s="9" t="inlineStr"/>
+      <c r="I17" s="9" t="inlineStr"/>
+      <c r="J17" s="9" t="inlineStr"/>
+      <c r="K17" s="9" t="inlineStr"/>
+      <c r="L17" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr"/>
-      <c r="B18" s="2" t="inlineStr"/>
-      <c r="C18" s="6" t="inlineStr">
+      <c r="A18" s="17" t="inlineStr">
+        <is>
+          <t>M026</t>
+        </is>
+      </c>
+      <c r="B18" s="18" t="inlineStr"/>
+      <c r="C18" s="19" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="D18" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E18" s="7" t="inlineStr">
+      <c r="E18" s="20" t="inlineStr">
         <is>
           <t>Payable to Suhel Mia-ID:11370</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr"/>
-      <c r="G18" s="1" t="inlineStr"/>
-      <c r="H18" s="9" t="inlineStr">
+      <c r="F18" s="17" t="inlineStr"/>
+      <c r="G18" s="17" t="inlineStr"/>
+      <c r="H18" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="I18" s="17" t="inlineStr">
         <is>
           <t>848</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr"/>
-      <c r="K18" s="8" t="inlineStr">
+      <c r="J18" s="17" t="inlineStr"/>
+      <c r="K18" s="22" t="inlineStr">
         <is>
           <t>99317</t>
         </is>
       </c>
-      <c r="L18" s="1" t="inlineStr"/>
+      <c r="L18" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr"/>
-      <c r="B19" s="2" t="inlineStr"/>
-      <c r="C19" s="1" t="inlineStr"/>
-      <c r="D19" s="1" t="inlineStr"/>
-      <c r="E19" s="10" t="inlineStr">
+      <c r="A19" s="17" t="inlineStr">
+        <is>
+          <t>M026</t>
+        </is>
+      </c>
+      <c r="B19" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 99317.00
+Borrower Amount: 99317.00</t>
+        </is>
+      </c>
+      <c r="C19" s="17" t="inlineStr"/>
+      <c r="D19" s="17" t="inlineStr"/>
+      <c r="E19" s="23" t="inlineStr">
         <is>
           <t>Amount paid to Suhel Mia, Technician for final settlement. Employee ID: 11370</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr"/>
-      <c r="G19" s="1" t="inlineStr"/>
-      <c r="H19" s="1" t="inlineStr"/>
-      <c r="I19" s="1" t="inlineStr"/>
-      <c r="J19" s="1" t="inlineStr"/>
-      <c r="K19" s="1" t="inlineStr"/>
-      <c r="L19" s="1" t="inlineStr"/>
+      <c r="F19" s="17" t="inlineStr"/>
+      <c r="G19" s="17" t="inlineStr"/>
+      <c r="H19" s="17" t="inlineStr"/>
+      <c r="I19" s="17" t="inlineStr"/>
+      <c r="J19" s="17" t="inlineStr"/>
+      <c r="K19" s="17" t="inlineStr"/>
+      <c r="L19" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr"/>
-      <c r="B20" s="2" t="inlineStr"/>
-      <c r="C20" s="1" t="inlineStr"/>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="A20" s="17" t="inlineStr">
+        <is>
+          <t>M026</t>
+        </is>
+      </c>
+      <c r="B20" s="18" t="inlineStr"/>
+      <c r="C20" s="17" t="inlineStr"/>
+      <c r="D20" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E20" s="11" t="inlineStr">
+      <c r="E20" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr"/>
-      <c r="G20" s="1" t="inlineStr"/>
-      <c r="H20" s="1" t="inlineStr"/>
-      <c r="I20" s="1" t="inlineStr"/>
-      <c r="J20" s="1" t="inlineStr"/>
-      <c r="K20" s="1" t="inlineStr"/>
-      <c r="L20" s="1" t="inlineStr"/>
+      <c r="F20" s="17" t="inlineStr"/>
+      <c r="G20" s="17" t="inlineStr"/>
+      <c r="H20" s="17" t="inlineStr"/>
+      <c r="I20" s="17" t="inlineStr"/>
+      <c r="J20" s="17" t="inlineStr"/>
+      <c r="K20" s="17" t="inlineStr"/>
+      <c r="L20" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr"/>
-      <c r="B21" s="2" t="inlineStr"/>
-      <c r="C21" s="6" t="inlineStr">
+      <c r="A21" s="9" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="inlineStr"/>
+      <c r="C21" s="11" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="D21" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E21" s="7" t="inlineStr">
+      <c r="E21" s="12" t="inlineStr">
         <is>
           <t>Payable to Poritosh Chandra Das-ID:10199</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr"/>
-      <c r="G21" s="1" t="inlineStr"/>
-      <c r="H21" s="9" t="inlineStr">
+      <c r="F21" s="9" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr"/>
+      <c r="H21" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="I21" s="9" t="inlineStr">
         <is>
           <t>849</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr"/>
-      <c r="K21" s="8" t="inlineStr">
+      <c r="J21" s="9" t="inlineStr"/>
+      <c r="K21" s="14" t="inlineStr">
         <is>
           <t>20130</t>
         </is>
       </c>
-      <c r="L21" s="1" t="inlineStr"/>
+      <c r="L21" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr"/>
-      <c r="B22" s="2" t="inlineStr"/>
-      <c r="C22" s="1" t="inlineStr"/>
-      <c r="D22" s="1" t="inlineStr"/>
-      <c r="E22" s="10" t="inlineStr">
+      <c r="A22" s="9" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 20130.00
+Borrower Amount: 20130.00</t>
+        </is>
+      </c>
+      <c r="C22" s="9" t="inlineStr"/>
+      <c r="D22" s="9" t="inlineStr"/>
+      <c r="E22" s="15" t="inlineStr">
         <is>
           <t>Amount paid to Poritosh Chandra Das, Security Supervisor-Human Resources &amp; Administration for final settlement. Employee ID: 10199</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr"/>
-      <c r="G22" s="1" t="inlineStr"/>
-      <c r="H22" s="1" t="inlineStr"/>
-      <c r="I22" s="1" t="inlineStr"/>
-      <c r="J22" s="1" t="inlineStr"/>
-      <c r="K22" s="1" t="inlineStr"/>
-      <c r="L22" s="1" t="inlineStr"/>
+      <c r="F22" s="9" t="inlineStr"/>
+      <c r="G22" s="9" t="inlineStr"/>
+      <c r="H22" s="9" t="inlineStr"/>
+      <c r="I22" s="9" t="inlineStr"/>
+      <c r="J22" s="9" t="inlineStr"/>
+      <c r="K22" s="9" t="inlineStr"/>
+      <c r="L22" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr"/>
-      <c r="B23" s="2" t="inlineStr"/>
-      <c r="C23" s="1" t="inlineStr"/>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="A23" s="9" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
+      <c r="B23" s="10" t="inlineStr"/>
+      <c r="C23" s="9" t="inlineStr"/>
+      <c r="D23" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E23" s="11" t="inlineStr">
+      <c r="E23" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr"/>
-      <c r="G23" s="1" t="inlineStr"/>
-      <c r="H23" s="1" t="inlineStr"/>
-      <c r="I23" s="1" t="inlineStr"/>
-      <c r="J23" s="1" t="inlineStr"/>
-      <c r="K23" s="1" t="inlineStr"/>
-      <c r="L23" s="1" t="inlineStr"/>
+      <c r="F23" s="9" t="inlineStr"/>
+      <c r="G23" s="9" t="inlineStr"/>
+      <c r="H23" s="9" t="inlineStr"/>
+      <c r="I23" s="9" t="inlineStr"/>
+      <c r="J23" s="9" t="inlineStr"/>
+      <c r="K23" s="9" t="inlineStr"/>
+      <c r="L23" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr"/>
-      <c r="B24" s="2" t="inlineStr"/>
-      <c r="C24" s="6" t="inlineStr">
+      <c r="A24" s="17" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
+      <c r="B24" s="18" t="inlineStr"/>
+      <c r="C24" s="19" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="D24" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E24" s="7" t="inlineStr">
+      <c r="E24" s="20" t="inlineStr">
         <is>
           <t>Payable to Md. Nor Mohammad-ID:11711</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr"/>
-      <c r="G24" s="1" t="inlineStr"/>
-      <c r="H24" s="9" t="inlineStr">
+      <c r="F24" s="17" t="inlineStr"/>
+      <c r="G24" s="17" t="inlineStr"/>
+      <c r="H24" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="I24" s="17" t="inlineStr">
         <is>
           <t>850</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr"/>
-      <c r="K24" s="8" t="inlineStr">
+      <c r="J24" s="17" t="inlineStr"/>
+      <c r="K24" s="22" t="inlineStr">
         <is>
           <t>94109</t>
         </is>
       </c>
-      <c r="L24" s="1" t="inlineStr"/>
+      <c r="L24" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr"/>
-      <c r="B25" s="2" t="inlineStr"/>
-      <c r="C25" s="1" t="inlineStr"/>
-      <c r="D25" s="1" t="inlineStr"/>
-      <c r="E25" s="10" t="inlineStr">
+      <c r="A25" s="17" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
+      <c r="B25" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 94109.00
+Borrower Amount: 94109.00</t>
+        </is>
+      </c>
+      <c r="C25" s="17" t="inlineStr"/>
+      <c r="D25" s="17" t="inlineStr"/>
+      <c r="E25" s="23" t="inlineStr">
         <is>
           <t>Amount paid to Md. Nor Mahammad, Technician for final settlement. Employee ID: 11711</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr"/>
-      <c r="G25" s="1" t="inlineStr"/>
-      <c r="H25" s="1" t="inlineStr"/>
-      <c r="I25" s="1" t="inlineStr"/>
-      <c r="J25" s="1" t="inlineStr"/>
-      <c r="K25" s="1" t="inlineStr"/>
-      <c r="L25" s="1" t="inlineStr"/>
+      <c r="F25" s="17" t="inlineStr"/>
+      <c r="G25" s="17" t="inlineStr"/>
+      <c r="H25" s="17" t="inlineStr"/>
+      <c r="I25" s="17" t="inlineStr"/>
+      <c r="J25" s="17" t="inlineStr"/>
+      <c r="K25" s="17" t="inlineStr"/>
+      <c r="L25" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr"/>
-      <c r="B26" s="2" t="inlineStr"/>
-      <c r="C26" s="1" t="inlineStr"/>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="A26" s="17" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
+      <c r="B26" s="18" t="inlineStr"/>
+      <c r="C26" s="17" t="inlineStr"/>
+      <c r="D26" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E26" s="11" t="inlineStr">
+      <c r="E26" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr"/>
-      <c r="G26" s="1" t="inlineStr"/>
-      <c r="H26" s="1" t="inlineStr"/>
-      <c r="I26" s="1" t="inlineStr"/>
-      <c r="J26" s="1" t="inlineStr"/>
-      <c r="K26" s="1" t="inlineStr"/>
-      <c r="L26" s="1" t="inlineStr"/>
+      <c r="F26" s="17" t="inlineStr"/>
+      <c r="G26" s="17" t="inlineStr"/>
+      <c r="H26" s="17" t="inlineStr"/>
+      <c r="I26" s="17" t="inlineStr"/>
+      <c r="J26" s="17" t="inlineStr"/>
+      <c r="K26" s="17" t="inlineStr"/>
+      <c r="L26" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr"/>
-      <c r="B27" s="2" t="inlineStr"/>
-      <c r="C27" s="6" t="inlineStr">
+      <c r="A27" s="9" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
+      <c r="B27" s="10" t="inlineStr"/>
+      <c r="C27" s="11" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="D27" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E27" s="7" t="inlineStr">
+      <c r="E27" s="12" t="inlineStr">
         <is>
           <t>Payable to Md. Ahsan Habib-ID:12107</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr"/>
-      <c r="G27" s="1" t="inlineStr"/>
-      <c r="H27" s="9" t="inlineStr">
+      <c r="F27" s="9" t="inlineStr"/>
+      <c r="G27" s="9" t="inlineStr"/>
+      <c r="H27" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="I27" s="9" t="inlineStr">
         <is>
           <t>851</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr"/>
-      <c r="K27" s="8" t="inlineStr">
+      <c r="J27" s="9" t="inlineStr"/>
+      <c r="K27" s="14" t="inlineStr">
         <is>
           <t>93314</t>
         </is>
       </c>
-      <c r="L27" s="1" t="inlineStr"/>
+      <c r="L27" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr"/>
-      <c r="B28" s="2" t="inlineStr"/>
-      <c r="C28" s="1" t="inlineStr"/>
-      <c r="D28" s="1" t="inlineStr"/>
-      <c r="E28" s="10" t="inlineStr">
+      <c r="A28" s="9" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 93314.00
+Borrower Amount: 93314.00</t>
+        </is>
+      </c>
+      <c r="C28" s="9" t="inlineStr"/>
+      <c r="D28" s="9" t="inlineStr"/>
+      <c r="E28" s="15" t="inlineStr">
         <is>
           <t>Amount paid to Md. Ahsan Habib, Executive-Internal Audit &amp; Compliance for final settlement. Employee ID: 12107</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr"/>
-      <c r="G28" s="1" t="inlineStr"/>
-      <c r="H28" s="1" t="inlineStr"/>
-      <c r="I28" s="1" t="inlineStr"/>
-      <c r="J28" s="1" t="inlineStr"/>
-      <c r="K28" s="1" t="inlineStr"/>
-      <c r="L28" s="1" t="inlineStr"/>
+      <c r="F28" s="9" t="inlineStr"/>
+      <c r="G28" s="9" t="inlineStr"/>
+      <c r="H28" s="9" t="inlineStr"/>
+      <c r="I28" s="9" t="inlineStr"/>
+      <c r="J28" s="9" t="inlineStr"/>
+      <c r="K28" s="9" t="inlineStr"/>
+      <c r="L28" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr"/>
-      <c r="B29" s="2" t="inlineStr"/>
-      <c r="C29" s="1" t="inlineStr"/>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="A29" s="9" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
+      <c r="B29" s="10" t="inlineStr"/>
+      <c r="C29" s="9" t="inlineStr"/>
+      <c r="D29" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E29" s="11" t="inlineStr">
+      <c r="E29" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr"/>
-      <c r="G29" s="1" t="inlineStr"/>
-      <c r="H29" s="1" t="inlineStr"/>
-      <c r="I29" s="1" t="inlineStr"/>
-      <c r="J29" s="1" t="inlineStr"/>
-      <c r="K29" s="1" t="inlineStr"/>
-      <c r="L29" s="1" t="inlineStr"/>
+      <c r="F29" s="9" t="inlineStr"/>
+      <c r="G29" s="9" t="inlineStr"/>
+      <c r="H29" s="9" t="inlineStr"/>
+      <c r="I29" s="9" t="inlineStr"/>
+      <c r="J29" s="9" t="inlineStr"/>
+      <c r="K29" s="9" t="inlineStr"/>
+      <c r="L29" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr"/>
-      <c r="B30" s="2" t="inlineStr"/>
-      <c r="C30" s="6" t="inlineStr">
+      <c r="A30" s="17" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B30" s="18" t="inlineStr"/>
+      <c r="C30" s="19" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="D30" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E30" s="7" t="inlineStr">
+      <c r="E30" s="20" t="inlineStr">
         <is>
           <t>Payable to Md. Salah Uddin-ID:11134</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr"/>
-      <c r="G30" s="1" t="inlineStr"/>
-      <c r="H30" s="9" t="inlineStr">
+      <c r="F30" s="17" t="inlineStr"/>
+      <c r="G30" s="17" t="inlineStr"/>
+      <c r="H30" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="I30" s="17" t="inlineStr">
         <is>
           <t>852</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr"/>
-      <c r="K30" s="8" t="inlineStr">
+      <c r="J30" s="17" t="inlineStr"/>
+      <c r="K30" s="22" t="inlineStr">
         <is>
           <t>13909</t>
         </is>
       </c>
-      <c r="L30" s="1" t="inlineStr"/>
+      <c r="L30" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr"/>
-      <c r="B31" s="2" t="inlineStr"/>
-      <c r="C31" s="1" t="inlineStr"/>
-      <c r="D31" s="1" t="inlineStr"/>
-      <c r="E31" s="10" t="inlineStr">
+      <c r="A31" s="17" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B31" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 13909.00
+Borrower Amount: 13909.00</t>
+        </is>
+      </c>
+      <c r="C31" s="17" t="inlineStr"/>
+      <c r="D31" s="17" t="inlineStr"/>
+      <c r="E31" s="23" t="inlineStr">
         <is>
           <t>Amount paid to Md. Salah Uddin, Office Assistant-Human Resources &amp; Administration for final settlement. Employee ID: 11134</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr"/>
-      <c r="G31" s="1" t="inlineStr"/>
-      <c r="H31" s="1" t="inlineStr"/>
-      <c r="I31" s="1" t="inlineStr"/>
-      <c r="J31" s="1" t="inlineStr"/>
-      <c r="K31" s="1" t="inlineStr"/>
-      <c r="L31" s="1" t="inlineStr"/>
+      <c r="F31" s="17" t="inlineStr"/>
+      <c r="G31" s="17" t="inlineStr"/>
+      <c r="H31" s="17" t="inlineStr"/>
+      <c r="I31" s="17" t="inlineStr"/>
+      <c r="J31" s="17" t="inlineStr"/>
+      <c r="K31" s="17" t="inlineStr"/>
+      <c r="L31" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr"/>
-      <c r="B32" s="2" t="inlineStr"/>
-      <c r="C32" s="1" t="inlineStr"/>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="A32" s="17" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B32" s="18" t="inlineStr"/>
+      <c r="C32" s="17" t="inlineStr"/>
+      <c r="D32" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E32" s="11" t="inlineStr">
+      <c r="E32" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr"/>
-      <c r="G32" s="1" t="inlineStr"/>
-      <c r="H32" s="1" t="inlineStr"/>
-      <c r="I32" s="1" t="inlineStr"/>
-      <c r="J32" s="1" t="inlineStr"/>
-      <c r="K32" s="1" t="inlineStr"/>
-      <c r="L32" s="1" t="inlineStr"/>
+      <c r="F32" s="17" t="inlineStr"/>
+      <c r="G32" s="17" t="inlineStr"/>
+      <c r="H32" s="17" t="inlineStr"/>
+      <c r="I32" s="17" t="inlineStr"/>
+      <c r="J32" s="17" t="inlineStr"/>
+      <c r="K32" s="17" t="inlineStr"/>
+      <c r="L32" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="12" t="inlineStr">
+      <c r="A33" s="9" t="inlineStr">
         <is>
           <t>M001</t>
         </is>
       </c>
-      <c r="B33" s="13" t="inlineStr"/>
-      <c r="C33" s="14" t="inlineStr">
+      <c r="B33" s="10" t="inlineStr"/>
+      <c r="C33" s="11" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D33" s="12" t="inlineStr">
+      <c r="D33" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E33" s="15" t="inlineStr">
+      <c r="E33" s="12" t="inlineStr">
         <is>
           <t>(as per details)</t>
         </is>
       </c>
-      <c r="F33" s="12" t="inlineStr"/>
-      <c r="G33" s="12" t="inlineStr"/>
-      <c r="H33" s="16" t="inlineStr">
+      <c r="F33" s="9" t="inlineStr"/>
+      <c r="G33" s="9" t="inlineStr"/>
+      <c r="H33" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I33" s="12" t="inlineStr">
+      <c r="I33" s="9" t="inlineStr">
         <is>
           <t>855</t>
         </is>
       </c>
-      <c r="J33" s="17" t="inlineStr">
+      <c r="J33" s="14" t="inlineStr">
         <is>
           <t>83402</t>
         </is>
       </c>
-      <c r="K33" s="12" t="inlineStr"/>
-      <c r="L33" s="12" t="inlineStr">
+      <c r="K33" s="9" t="inlineStr"/>
+      <c r="L33" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="12" t="inlineStr">
+      <c r="A34" s="9" t="inlineStr">
         <is>
           <t>M001</t>
         </is>
       </c>
-      <c r="B34" s="13" t="inlineStr"/>
-      <c r="C34" s="12" t="inlineStr"/>
-      <c r="D34" s="12" t="inlineStr"/>
-      <c r="E34" s="15" t="inlineStr">
+      <c r="B34" s="10" t="inlineStr"/>
+      <c r="C34" s="9" t="inlineStr"/>
+      <c r="D34" s="9" t="inlineStr"/>
+      <c r="E34" s="12" t="inlineStr">
         <is>
           <t>Sundry Receivable-Pioneer Insurance Co. Ltd.</t>
         </is>
       </c>
-      <c r="F34" s="12" t="inlineStr"/>
-      <c r="G34" s="12" t="inlineStr"/>
-      <c r="H34" s="12" t="inlineStr"/>
-      <c r="I34" s="12" t="inlineStr"/>
-      <c r="J34" s="17" t="inlineStr">
+      <c r="F34" s="9" t="inlineStr"/>
+      <c r="G34" s="9" t="inlineStr"/>
+      <c r="H34" s="9" t="inlineStr"/>
+      <c r="I34" s="9" t="inlineStr"/>
+      <c r="J34" s="14" t="inlineStr">
         <is>
           <t>35023</t>
         </is>
       </c>
-      <c r="K34" s="12" t="inlineStr"/>
-      <c r="L34" s="12" t="inlineStr">
+      <c r="K34" s="9" t="inlineStr"/>
+      <c r="L34" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="inlineStr">
+      <c r="A35" s="9" t="inlineStr">
         <is>
           <t>M001</t>
         </is>
       </c>
-      <c r="B35" s="13" t="inlineStr"/>
-      <c r="C35" s="12" t="inlineStr"/>
-      <c r="D35" s="12" t="inlineStr"/>
-      <c r="E35" s="15" t="inlineStr">
+      <c r="B35" s="10" t="inlineStr"/>
+      <c r="C35" s="9" t="inlineStr"/>
+      <c r="D35" s="9" t="inlineStr"/>
+      <c r="E35" s="12" t="inlineStr">
         <is>
           <t>AP-Pioneer Insurance Company Limited</t>
         </is>
       </c>
-      <c r="F35" s="12" t="inlineStr"/>
-      <c r="G35" s="12" t="inlineStr"/>
-      <c r="H35" s="12" t="inlineStr"/>
-      <c r="I35" s="12" t="inlineStr"/>
-      <c r="J35" s="12" t="inlineStr"/>
-      <c r="K35" s="17" t="inlineStr">
+      <c r="F35" s="9" t="inlineStr"/>
+      <c r="G35" s="9" t="inlineStr"/>
+      <c r="H35" s="9" t="inlineStr"/>
+      <c r="I35" s="9" t="inlineStr"/>
+      <c r="J35" s="9" t="inlineStr"/>
+      <c r="K35" s="14" t="inlineStr">
         <is>
           <t>118425</t>
         </is>
       </c>
-      <c r="L35" s="12" t="inlineStr">
+      <c r="L35" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="12" t="inlineStr">
+      <c r="A36" s="9" t="inlineStr">
         <is>
           <t>M001</t>
         </is>
       </c>
-      <c r="B36" s="13" t="inlineStr">
+      <c r="B36" s="10" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 83402.00
 Borrower Amount: 83402.00</t>
         </is>
       </c>
-      <c r="C36" s="12" t="inlineStr"/>
-      <c r="D36" s="12" t="inlineStr"/>
-      <c r="E36" s="18" t="inlineStr">
+      <c r="C36" s="9" t="inlineStr"/>
+      <c r="D36" s="9" t="inlineStr"/>
+      <c r="E36" s="15" t="inlineStr">
         <is>
           <t>Being the amount payable &amp; receivable 35% On Net premium To Pioneer Insurance Co Ltd agt Insurance Premium cost. LC no.12043</t>
         </is>
       </c>
-      <c r="F36" s="12" t="inlineStr"/>
-      <c r="G36" s="12" t="inlineStr"/>
-      <c r="H36" s="12" t="inlineStr"/>
-      <c r="I36" s="12" t="inlineStr"/>
-      <c r="J36" s="12" t="inlineStr"/>
-      <c r="K36" s="12" t="inlineStr"/>
-      <c r="L36" s="12" t="inlineStr">
+      <c r="F36" s="9" t="inlineStr"/>
+      <c r="G36" s="9" t="inlineStr"/>
+      <c r="H36" s="9" t="inlineStr"/>
+      <c r="I36" s="9" t="inlineStr"/>
+      <c r="J36" s="9" t="inlineStr"/>
+      <c r="K36" s="9" t="inlineStr"/>
+      <c r="L36" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="inlineStr">
+      <c r="A37" s="9" t="inlineStr">
         <is>
           <t>M001</t>
         </is>
       </c>
-      <c r="B37" s="13" t="inlineStr"/>
-      <c r="C37" s="12" t="inlineStr"/>
-      <c r="D37" s="12" t="inlineStr">
+      <c r="B37" s="10" t="inlineStr"/>
+      <c r="C37" s="9" t="inlineStr"/>
+      <c r="D37" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E37" s="19" t="inlineStr">
+      <c r="E37" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F37" s="12" t="inlineStr"/>
-      <c r="G37" s="12" t="inlineStr"/>
-      <c r="H37" s="12" t="inlineStr"/>
-      <c r="I37" s="12" t="inlineStr"/>
-      <c r="J37" s="12" t="inlineStr"/>
-      <c r="K37" s="12" t="inlineStr"/>
-      <c r="L37" s="12" t="inlineStr">
+      <c r="F37" s="9" t="inlineStr"/>
+      <c r="G37" s="9" t="inlineStr"/>
+      <c r="H37" s="9" t="inlineStr"/>
+      <c r="I37" s="9" t="inlineStr"/>
+      <c r="J37" s="9" t="inlineStr"/>
+      <c r="K37" s="9" t="inlineStr"/>
+      <c r="L37" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr"/>
-      <c r="B38" s="2" t="inlineStr"/>
-      <c r="C38" s="6" t="inlineStr">
+      <c r="A38" s="17" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
+      <c r="B38" s="18" t="inlineStr"/>
+      <c r="C38" s="19" t="inlineStr">
         <is>
           <t>02/Jun/2025</t>
         </is>
       </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="D38" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E38" s="7" t="inlineStr">
+      <c r="E38" s="20" t="inlineStr">
         <is>
           <t>Sundry Parties-Jiangsu Dechun Power Electric Co Ltd</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr"/>
-      <c r="G38" s="1" t="inlineStr"/>
-      <c r="H38" s="9" t="inlineStr">
+      <c r="F38" s="17" t="inlineStr"/>
+      <c r="G38" s="17" t="inlineStr"/>
+      <c r="H38" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="I38" s="17" t="inlineStr">
         <is>
           <t>860</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr"/>
-      <c r="K38" s="8" t="inlineStr">
+      <c r="J38" s="17" t="inlineStr"/>
+      <c r="K38" s="22" t="inlineStr">
         <is>
           <t>9075000</t>
         </is>
       </c>
-      <c r="L38" s="1" t="inlineStr"/>
+      <c r="L38" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr"/>
-      <c r="B39" s="2" t="inlineStr"/>
-      <c r="C39" s="1" t="inlineStr"/>
-      <c r="D39" s="1" t="inlineStr"/>
-      <c r="E39" s="10" t="inlineStr">
+      <c r="A39" s="17" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
+      <c r="B39" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 9075000.00
+Borrower Amount: 9075000.00</t>
+        </is>
+      </c>
+      <c r="C39" s="17" t="inlineStr"/>
+      <c r="D39" s="17" t="inlineStr"/>
+      <c r="E39" s="23" t="inlineStr">
         <is>
           <t>Amounts being payment Jiangsu Dechun Power Electric Co Ltd $75000@121, Previous total received(Received Voucher: Amounts received as Advance agt PO number : 27.24.0000.014.14.001.18.125. GD-5, Total $3,68,299 @117/-, CIL-218299 &amp; Jiangsu-150,000)</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr"/>
-      <c r="G39" s="1" t="inlineStr"/>
-      <c r="H39" s="1" t="inlineStr"/>
-      <c r="I39" s="1" t="inlineStr"/>
-      <c r="J39" s="1" t="inlineStr"/>
-      <c r="K39" s="1" t="inlineStr"/>
-      <c r="L39" s="1" t="inlineStr"/>
+      <c r="F39" s="17" t="inlineStr"/>
+      <c r="G39" s="17" t="inlineStr"/>
+      <c r="H39" s="17" t="inlineStr"/>
+      <c r="I39" s="17" t="inlineStr"/>
+      <c r="J39" s="17" t="inlineStr"/>
+      <c r="K39" s="17" t="inlineStr"/>
+      <c r="L39" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr"/>
-      <c r="B40" s="2" t="inlineStr"/>
-      <c r="C40" s="1" t="inlineStr"/>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="A40" s="17" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
+      <c r="B40" s="18" t="inlineStr"/>
+      <c r="C40" s="17" t="inlineStr"/>
+      <c r="D40" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E40" s="11" t="inlineStr">
+      <c r="E40" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr"/>
-      <c r="G40" s="1" t="inlineStr"/>
-      <c r="H40" s="1" t="inlineStr"/>
-      <c r="I40" s="1" t="inlineStr"/>
-      <c r="J40" s="1" t="inlineStr"/>
-      <c r="K40" s="1" t="inlineStr"/>
-      <c r="L40" s="1" t="inlineStr"/>
+      <c r="F40" s="17" t="inlineStr"/>
+      <c r="G40" s="17" t="inlineStr"/>
+      <c r="H40" s="17" t="inlineStr"/>
+      <c r="I40" s="17" t="inlineStr"/>
+      <c r="J40" s="17" t="inlineStr"/>
+      <c r="K40" s="17" t="inlineStr"/>
+      <c r="L40" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="20" t="inlineStr">
+      <c r="A41" s="9" t="inlineStr">
         <is>
           <t>M003</t>
         </is>
       </c>
-      <c r="B41" s="21" t="inlineStr"/>
-      <c r="C41" s="22" t="inlineStr">
+      <c r="B41" s="10" t="inlineStr"/>
+      <c r="C41" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D41" s="20" t="inlineStr">
+      <c r="D41" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E41" s="23" t="inlineStr">
+      <c r="E41" s="12" t="inlineStr">
         <is>
           <t>PBL-SND- 2126312011060</t>
         </is>
       </c>
-      <c r="F41" s="20" t="inlineStr"/>
-      <c r="G41" s="20" t="inlineStr"/>
-      <c r="H41" s="24" t="inlineStr">
+      <c r="F41" s="9" t="inlineStr"/>
+      <c r="G41" s="9" t="inlineStr"/>
+      <c r="H41" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I41" s="20" t="inlineStr">
+      <c r="I41" s="9" t="inlineStr">
         <is>
           <t>18143</t>
         </is>
       </c>
-      <c r="J41" s="25" t="inlineStr">
+      <c r="J41" s="14" t="inlineStr">
         <is>
           <t>9539</t>
         </is>
       </c>
-      <c r="K41" s="20" t="inlineStr"/>
-      <c r="L41" s="20" t="inlineStr">
+      <c r="K41" s="9" t="inlineStr"/>
+      <c r="L41" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="20" t="inlineStr">
+      <c r="A42" s="9" t="inlineStr">
         <is>
           <t>M003</t>
         </is>
       </c>
-      <c r="B42" s="21" t="inlineStr">
-        <is>
-          <t>Narration Match
+      <c r="B42" s="10" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: PBL#11060
 Lender Amount: 9539.00
 Borrower Amount: 9539.00</t>
         </is>
       </c>
-      <c r="C42" s="20" t="inlineStr"/>
-      <c r="D42" s="20" t="inlineStr"/>
-      <c r="E42" s="26" t="inlineStr">
+      <c r="C42" s="9" t="inlineStr"/>
+      <c r="D42" s="9" t="inlineStr"/>
+      <c r="E42" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to IDLC Finance Ltd. agt. Interest for the Loan 1026109496388134  Over Due interest for April-2025, Supporting as Email, date on 03 June-2025 also Bank Dr. same date from CIL-PBL-2126312011060</t>
         </is>
       </c>
-      <c r="F42" s="20" t="inlineStr"/>
-      <c r="G42" s="20" t="inlineStr"/>
-      <c r="H42" s="20" t="inlineStr"/>
-      <c r="I42" s="20" t="inlineStr"/>
-      <c r="J42" s="20" t="inlineStr"/>
-      <c r="K42" s="20" t="inlineStr"/>
-      <c r="L42" s="20" t="inlineStr">
+      <c r="F42" s="9" t="inlineStr"/>
+      <c r="G42" s="9" t="inlineStr"/>
+      <c r="H42" s="9" t="inlineStr"/>
+      <c r="I42" s="9" t="inlineStr"/>
+      <c r="J42" s="9" t="inlineStr"/>
+      <c r="K42" s="9" t="inlineStr"/>
+      <c r="L42" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="20" t="inlineStr">
+      <c r="A43" s="9" t="inlineStr">
         <is>
           <t>M003</t>
         </is>
       </c>
-      <c r="B43" s="21" t="inlineStr"/>
-      <c r="C43" s="20" t="inlineStr"/>
-      <c r="D43" s="20" t="inlineStr">
+      <c r="B43" s="10" t="inlineStr"/>
+      <c r="C43" s="9" t="inlineStr"/>
+      <c r="D43" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E43" s="27" t="inlineStr">
+      <c r="E43" s="16" t="inlineStr">
         <is>
           <t>ziaul</t>
         </is>
       </c>
-      <c r="F43" s="20" t="inlineStr"/>
-      <c r="G43" s="20" t="inlineStr"/>
-      <c r="H43" s="20" t="inlineStr"/>
-      <c r="I43" s="20" t="inlineStr"/>
-      <c r="J43" s="20" t="inlineStr"/>
-      <c r="K43" s="20" t="inlineStr"/>
-      <c r="L43" s="20" t="inlineStr">
+      <c r="F43" s="9" t="inlineStr"/>
+      <c r="G43" s="9" t="inlineStr"/>
+      <c r="H43" s="9" t="inlineStr"/>
+      <c r="I43" s="9" t="inlineStr"/>
+      <c r="J43" s="9" t="inlineStr"/>
+      <c r="K43" s="9" t="inlineStr"/>
+      <c r="L43" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr"/>
-      <c r="B44" s="2" t="inlineStr"/>
-      <c r="C44" s="6" t="inlineStr">
+      <c r="A44" s="17" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
+      <c r="B44" s="18" t="inlineStr"/>
+      <c r="C44" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="D44" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E44" s="7" t="inlineStr">
+      <c r="E44" s="20" t="inlineStr">
         <is>
           <t>Midland Bank Ltd-CE-0011-1060000313</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr"/>
-      <c r="G44" s="1" t="inlineStr"/>
-      <c r="H44" s="9" t="inlineStr">
+      <c r="F44" s="17" t="inlineStr"/>
+      <c r="G44" s="17" t="inlineStr"/>
+      <c r="H44" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="I44" s="17" t="inlineStr">
         <is>
           <t>18148</t>
         </is>
       </c>
-      <c r="J44" s="8" t="inlineStr">
+      <c r="J44" s="22" t="inlineStr">
         <is>
           <t>3700000</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr"/>
-      <c r="L44" s="1" t="inlineStr"/>
+      <c r="K44" s="17" t="inlineStr"/>
+      <c r="L44" s="17" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr"/>
-      <c r="B45" s="2" t="inlineStr"/>
-      <c r="C45" s="1" t="inlineStr"/>
-      <c r="D45" s="1" t="inlineStr"/>
-      <c r="E45" s="10" t="inlineStr">
+      <c r="A45" s="17" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
+      <c r="B45" s="18" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: MDB#0313
+Lender Amount: 3700000.00
+Borrower Amount: 3700000.00</t>
+        </is>
+      </c>
+      <c r="C45" s="17" t="inlineStr"/>
+      <c r="D45" s="17" t="inlineStr"/>
+      <c r="E45" s="23" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Interunit Loan A/C-Steel Unit, DBBL#3834</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr"/>
-      <c r="G45" s="1" t="inlineStr"/>
-      <c r="H45" s="1" t="inlineStr"/>
-      <c r="I45" s="1" t="inlineStr"/>
-      <c r="J45" s="1" t="inlineStr"/>
-      <c r="K45" s="1" t="inlineStr"/>
-      <c r="L45" s="1" t="inlineStr"/>
+      <c r="F45" s="17" t="inlineStr"/>
+      <c r="G45" s="17" t="inlineStr"/>
+      <c r="H45" s="17" t="inlineStr"/>
+      <c r="I45" s="17" t="inlineStr"/>
+      <c r="J45" s="17" t="inlineStr"/>
+      <c r="K45" s="17" t="inlineStr"/>
+      <c r="L45" s="17" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr"/>
-      <c r="B46" s="2" t="inlineStr"/>
-      <c r="C46" s="1" t="inlineStr"/>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="A46" s="17" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
+      <c r="B46" s="18" t="inlineStr"/>
+      <c r="C46" s="17" t="inlineStr"/>
+      <c r="D46" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E46" s="11" t="inlineStr">
+      <c r="E46" s="24" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr"/>
-      <c r="G46" s="1" t="inlineStr"/>
-      <c r="H46" s="1" t="inlineStr"/>
-      <c r="I46" s="1" t="inlineStr"/>
-      <c r="J46" s="1" t="inlineStr"/>
-      <c r="K46" s="1" t="inlineStr"/>
-      <c r="L46" s="1" t="inlineStr"/>
+      <c r="F46" s="17" t="inlineStr"/>
+      <c r="G46" s="17" t="inlineStr"/>
+      <c r="H46" s="17" t="inlineStr"/>
+      <c r="I46" s="17" t="inlineStr"/>
+      <c r="J46" s="17" t="inlineStr"/>
+      <c r="K46" s="17" t="inlineStr"/>
+      <c r="L46" s="17" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr"/>
-      <c r="B47" s="2" t="inlineStr"/>
-      <c r="C47" s="6" t="inlineStr">
+      <c r="A47" s="9" t="inlineStr">
+        <is>
+          <t>M032</t>
+        </is>
+      </c>
+      <c r="B47" s="10" t="inlineStr"/>
+      <c r="C47" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="D47" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E47" s="7" t="inlineStr">
+      <c r="E47" s="12" t="inlineStr">
         <is>
           <t>AP-Kansai Nerolac Paints Bangladesh Ltd.</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr"/>
-      <c r="G47" s="1" t="inlineStr"/>
-      <c r="H47" s="9" t="inlineStr">
+      <c r="F47" s="9" t="inlineStr"/>
+      <c r="G47" s="9" t="inlineStr"/>
+      <c r="H47" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="I47" s="9" t="inlineStr">
         <is>
           <t>863</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr"/>
-      <c r="K47" s="8" t="inlineStr">
+      <c r="J47" s="9" t="inlineStr"/>
+      <c r="K47" s="14" t="inlineStr">
         <is>
           <t>297501</t>
         </is>
       </c>
-      <c r="L47" s="1" t="inlineStr"/>
+      <c r="L47" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr"/>
-      <c r="B48" s="2" t="inlineStr"/>
-      <c r="C48" s="1" t="inlineStr"/>
-      <c r="D48" s="1" t="inlineStr"/>
-      <c r="E48" s="10" t="inlineStr">
+      <c r="A48" s="9" t="inlineStr">
+        <is>
+          <t>M032</t>
+        </is>
+      </c>
+      <c r="B48" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 297501.00
+Borrower Amount: 297501.00</t>
+        </is>
+      </c>
+      <c r="C48" s="9" t="inlineStr"/>
+      <c r="D48" s="9" t="inlineStr"/>
+      <c r="E48" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to Kansai Nerolac Paints (Bangladesh) Limited. Supply of , Invoice Number:  KMBL-JAN'25-001, Challan Number: D303-86125355, Work Order Number: 271/PO/2024/12/30965, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2024-12-10, Goods Received Date: 2025-01-28, Work Order Value: 305640.0, Total Bill Amount: 305470.2, TDS Deduction Amount: 7969.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr"/>
-      <c r="G48" s="1" t="inlineStr"/>
-      <c r="H48" s="1" t="inlineStr"/>
-      <c r="I48" s="1" t="inlineStr"/>
-      <c r="J48" s="1" t="inlineStr"/>
-      <c r="K48" s="1" t="inlineStr"/>
-      <c r="L48" s="1" t="inlineStr"/>
+      <c r="F48" s="9" t="inlineStr"/>
+      <c r="G48" s="9" t="inlineStr"/>
+      <c r="H48" s="9" t="inlineStr"/>
+      <c r="I48" s="9" t="inlineStr"/>
+      <c r="J48" s="9" t="inlineStr"/>
+      <c r="K48" s="9" t="inlineStr"/>
+      <c r="L48" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr"/>
-      <c r="B49" s="2" t="inlineStr"/>
-      <c r="C49" s="1" t="inlineStr"/>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="A49" s="9" t="inlineStr">
+        <is>
+          <t>M032</t>
+        </is>
+      </c>
+      <c r="B49" s="10" t="inlineStr"/>
+      <c r="C49" s="9" t="inlineStr"/>
+      <c r="D49" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E49" s="11" t="inlineStr">
+      <c r="E49" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr"/>
-      <c r="G49" s="1" t="inlineStr"/>
-      <c r="H49" s="1" t="inlineStr"/>
-      <c r="I49" s="1" t="inlineStr"/>
-      <c r="J49" s="1" t="inlineStr"/>
-      <c r="K49" s="1" t="inlineStr"/>
-      <c r="L49" s="1" t="inlineStr"/>
+      <c r="F49" s="9" t="inlineStr"/>
+      <c r="G49" s="9" t="inlineStr"/>
+      <c r="H49" s="9" t="inlineStr"/>
+      <c r="I49" s="9" t="inlineStr"/>
+      <c r="J49" s="9" t="inlineStr"/>
+      <c r="K49" s="9" t="inlineStr"/>
+      <c r="L49" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr"/>
-      <c r="B50" s="2" t="inlineStr"/>
-      <c r="C50" s="6" t="inlineStr">
+      <c r="A50" s="17" t="inlineStr">
+        <is>
+          <t>M033</t>
+        </is>
+      </c>
+      <c r="B50" s="18" t="inlineStr"/>
+      <c r="C50" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="D50" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E50" s="7" t="inlineStr">
+      <c r="E50" s="20" t="inlineStr">
         <is>
           <t>AP-Kansai Nerolac Paints Bangladesh Ltd.</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr"/>
-      <c r="G50" s="1" t="inlineStr"/>
-      <c r="H50" s="9" t="inlineStr">
+      <c r="F50" s="17" t="inlineStr"/>
+      <c r="G50" s="17" t="inlineStr"/>
+      <c r="H50" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="I50" s="17" t="inlineStr">
         <is>
           <t>864</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr"/>
-      <c r="K50" s="8" t="inlineStr">
+      <c r="J50" s="17" t="inlineStr"/>
+      <c r="K50" s="22" t="inlineStr">
         <is>
           <t>95000</t>
         </is>
       </c>
-      <c r="L50" s="1" t="inlineStr"/>
+      <c r="L50" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr"/>
-      <c r="B51" s="2" t="inlineStr"/>
-      <c r="C51" s="1" t="inlineStr"/>
-      <c r="D51" s="1" t="inlineStr"/>
-      <c r="E51" s="10" t="inlineStr">
+      <c r="A51" s="17" t="inlineStr">
+        <is>
+          <t>M033</t>
+        </is>
+      </c>
+      <c r="B51" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 95000.00
+Borrower Amount: 95000.00</t>
+        </is>
+      </c>
+      <c r="C51" s="17" t="inlineStr"/>
+      <c r="D51" s="17" t="inlineStr"/>
+      <c r="E51" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to Kansai Nerolac Paints (Bangladesh) Limited. Supply of , Invoice Number:  KMBL-JAN'25-002, Challan Number: D303-86127504 &amp; D303-86126949,D303-86125356,D303-86126523, Work Order Number: DES/PO/2024/12/30966, BA Team (A), Company Unit: Transformer, Project Name : DESCO 3-Phase Distribution Transformer (GD-5), Work Order date: 2024-12-10, Goods Received Date: 2025-01-28, Work Order Value: 2176430.69, Total Bill Amount: 853945.9212000002, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr"/>
-      <c r="G51" s="1" t="inlineStr"/>
-      <c r="H51" s="1" t="inlineStr"/>
-      <c r="I51" s="1" t="inlineStr"/>
-      <c r="J51" s="1" t="inlineStr"/>
-      <c r="K51" s="1" t="inlineStr"/>
-      <c r="L51" s="1" t="inlineStr"/>
+      <c r="F51" s="17" t="inlineStr"/>
+      <c r="G51" s="17" t="inlineStr"/>
+      <c r="H51" s="17" t="inlineStr"/>
+      <c r="I51" s="17" t="inlineStr"/>
+      <c r="J51" s="17" t="inlineStr"/>
+      <c r="K51" s="17" t="inlineStr"/>
+      <c r="L51" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr"/>
-      <c r="B52" s="2" t="inlineStr"/>
-      <c r="C52" s="1" t="inlineStr"/>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="A52" s="17" t="inlineStr">
+        <is>
+          <t>M033</t>
+        </is>
+      </c>
+      <c r="B52" s="18" t="inlineStr"/>
+      <c r="C52" s="17" t="inlineStr"/>
+      <c r="D52" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E52" s="11" t="inlineStr">
+      <c r="E52" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr"/>
-      <c r="G52" s="1" t="inlineStr"/>
-      <c r="H52" s="1" t="inlineStr"/>
-      <c r="I52" s="1" t="inlineStr"/>
-      <c r="J52" s="1" t="inlineStr"/>
-      <c r="K52" s="1" t="inlineStr"/>
-      <c r="L52" s="1" t="inlineStr"/>
+      <c r="F52" s="17" t="inlineStr"/>
+      <c r="G52" s="17" t="inlineStr"/>
+      <c r="H52" s="17" t="inlineStr"/>
+      <c r="I52" s="17" t="inlineStr"/>
+      <c r="J52" s="17" t="inlineStr"/>
+      <c r="K52" s="17" t="inlineStr"/>
+      <c r="L52" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr"/>
-      <c r="B53" s="2" t="inlineStr"/>
-      <c r="C53" s="6" t="inlineStr">
+      <c r="A53" s="9" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B53" s="10" t="inlineStr"/>
+      <c r="C53" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="D53" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E53" s="7" t="inlineStr">
+      <c r="E53" s="12" t="inlineStr">
         <is>
           <t>AP-Computer Archives IT Service &amp; Solution</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr"/>
-      <c r="G53" s="1" t="inlineStr"/>
-      <c r="H53" s="9" t="inlineStr">
+      <c r="F53" s="9" t="inlineStr"/>
+      <c r="G53" s="9" t="inlineStr"/>
+      <c r="H53" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="I53" s="9" t="inlineStr">
         <is>
           <t>865</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr"/>
-      <c r="K53" s="8" t="inlineStr">
+      <c r="J53" s="9" t="inlineStr"/>
+      <c r="K53" s="14" t="inlineStr">
         <is>
           <t>3300</t>
         </is>
       </c>
-      <c r="L53" s="1" t="inlineStr"/>
+      <c r="L53" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr"/>
-      <c r="B54" s="2" t="inlineStr"/>
-      <c r="C54" s="1" t="inlineStr"/>
-      <c r="D54" s="1" t="inlineStr"/>
-      <c r="E54" s="10" t="inlineStr">
+      <c r="A54" s="9" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B54" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 3300.00
+Borrower Amount: 3300.00</t>
+        </is>
+      </c>
+      <c r="C54" s="9" t="inlineStr"/>
+      <c r="D54" s="9" t="inlineStr"/>
+      <c r="E54" s="15" t="inlineStr">
         <is>
           <t>Amount paid to Computer Archives IT Service &amp; Solution agt SSD 256GB M.2 SATA Kingspec S/N-031617. Bill no.2025/04-0417</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr"/>
-      <c r="G54" s="1" t="inlineStr"/>
-      <c r="H54" s="1" t="inlineStr"/>
-      <c r="I54" s="1" t="inlineStr"/>
-      <c r="J54" s="1" t="inlineStr"/>
-      <c r="K54" s="1" t="inlineStr"/>
-      <c r="L54" s="1" t="inlineStr"/>
+      <c r="F54" s="9" t="inlineStr"/>
+      <c r="G54" s="9" t="inlineStr"/>
+      <c r="H54" s="9" t="inlineStr"/>
+      <c r="I54" s="9" t="inlineStr"/>
+      <c r="J54" s="9" t="inlineStr"/>
+      <c r="K54" s="9" t="inlineStr"/>
+      <c r="L54" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr"/>
-      <c r="B55" s="2" t="inlineStr"/>
-      <c r="C55" s="1" t="inlineStr"/>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="A55" s="9" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B55" s="10" t="inlineStr"/>
+      <c r="C55" s="9" t="inlineStr"/>
+      <c r="D55" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E55" s="11" t="inlineStr">
+      <c r="E55" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr"/>
-      <c r="G55" s="1" t="inlineStr"/>
-      <c r="H55" s="1" t="inlineStr"/>
-      <c r="I55" s="1" t="inlineStr"/>
-      <c r="J55" s="1" t="inlineStr"/>
-      <c r="K55" s="1" t="inlineStr"/>
-      <c r="L55" s="1" t="inlineStr"/>
+      <c r="F55" s="9" t="inlineStr"/>
+      <c r="G55" s="9" t="inlineStr"/>
+      <c r="H55" s="9" t="inlineStr"/>
+      <c r="I55" s="9" t="inlineStr"/>
+      <c r="J55" s="9" t="inlineStr"/>
+      <c r="K55" s="9" t="inlineStr"/>
+      <c r="L55" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr"/>
-      <c r="B56" s="2" t="inlineStr"/>
-      <c r="C56" s="6" t="inlineStr">
+      <c r="A56" s="17" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
+      <c r="B56" s="18" t="inlineStr"/>
+      <c r="C56" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="D56" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E56" s="7" t="inlineStr">
+      <c r="E56" s="20" t="inlineStr">
         <is>
           <t>AP-B, Art &amp; Block</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr"/>
-      <c r="G56" s="1" t="inlineStr"/>
-      <c r="H56" s="9" t="inlineStr">
+      <c r="F56" s="17" t="inlineStr"/>
+      <c r="G56" s="17" t="inlineStr"/>
+      <c r="H56" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="I56" s="17" t="inlineStr">
         <is>
           <t>866</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr"/>
-      <c r="K56" s="8" t="inlineStr">
+      <c r="J56" s="17" t="inlineStr"/>
+      <c r="K56" s="22" t="inlineStr">
         <is>
           <t>11250</t>
         </is>
       </c>
-      <c r="L56" s="1" t="inlineStr"/>
+      <c r="L56" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr"/>
-      <c r="B57" s="2" t="inlineStr"/>
-      <c r="C57" s="1" t="inlineStr"/>
-      <c r="D57" s="1" t="inlineStr"/>
-      <c r="E57" s="10" t="inlineStr">
+      <c r="A57" s="17" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
+      <c r="B57" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 11250.00
+Borrower Amount: 11250.00</t>
+        </is>
+      </c>
+      <c r="C57" s="17" t="inlineStr"/>
+      <c r="D57" s="17" t="inlineStr"/>
+      <c r="E57" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to B. Art &amp; Block. Supply of , Invoice Number:  005, Challan Number: 1266, Work Order Number: MCE/PO/2025/2/32389, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-02-22, Goods Received Date: 2025-03-01, Work Order Value: 169200.0, Total Bill Amount: 11250.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr"/>
-      <c r="G57" s="1" t="inlineStr"/>
-      <c r="H57" s="1" t="inlineStr"/>
-      <c r="I57" s="1" t="inlineStr"/>
-      <c r="J57" s="1" t="inlineStr"/>
-      <c r="K57" s="1" t="inlineStr"/>
-      <c r="L57" s="1" t="inlineStr"/>
+      <c r="F57" s="17" t="inlineStr"/>
+      <c r="G57" s="17" t="inlineStr"/>
+      <c r="H57" s="17" t="inlineStr"/>
+      <c r="I57" s="17" t="inlineStr"/>
+      <c r="J57" s="17" t="inlineStr"/>
+      <c r="K57" s="17" t="inlineStr"/>
+      <c r="L57" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr"/>
-      <c r="B58" s="2" t="inlineStr"/>
-      <c r="C58" s="1" t="inlineStr"/>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="A58" s="17" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
+      <c r="B58" s="18" t="inlineStr"/>
+      <c r="C58" s="17" t="inlineStr"/>
+      <c r="D58" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E58" s="11" t="inlineStr">
+      <c r="E58" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr"/>
-      <c r="G58" s="1" t="inlineStr"/>
-      <c r="H58" s="1" t="inlineStr"/>
-      <c r="I58" s="1" t="inlineStr"/>
-      <c r="J58" s="1" t="inlineStr"/>
-      <c r="K58" s="1" t="inlineStr"/>
-      <c r="L58" s="1" t="inlineStr"/>
+      <c r="F58" s="17" t="inlineStr"/>
+      <c r="G58" s="17" t="inlineStr"/>
+      <c r="H58" s="17" t="inlineStr"/>
+      <c r="I58" s="17" t="inlineStr"/>
+      <c r="J58" s="17" t="inlineStr"/>
+      <c r="K58" s="17" t="inlineStr"/>
+      <c r="L58" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="inlineStr"/>
-      <c r="B59" s="2" t="inlineStr"/>
-      <c r="C59" s="6" t="inlineStr">
+      <c r="A59" s="9" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
+      <c r="B59" s="10" t="inlineStr"/>
+      <c r="C59" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="D59" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E59" s="7" t="inlineStr">
+      <c r="E59" s="12" t="inlineStr">
         <is>
           <t>AP-Berger Paints Bangladesh Ltd</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr"/>
-      <c r="G59" s="1" t="inlineStr"/>
-      <c r="H59" s="9" t="inlineStr">
+      <c r="F59" s="9" t="inlineStr"/>
+      <c r="G59" s="9" t="inlineStr"/>
+      <c r="H59" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="I59" s="9" t="inlineStr">
         <is>
           <t>867</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr"/>
-      <c r="K59" s="8" t="inlineStr">
+      <c r="J59" s="9" t="inlineStr"/>
+      <c r="K59" s="14" t="inlineStr">
         <is>
           <t>240723</t>
         </is>
       </c>
-      <c r="L59" s="1" t="inlineStr"/>
+      <c r="L59" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr"/>
-      <c r="B60" s="2" t="inlineStr"/>
-      <c r="C60" s="1" t="inlineStr"/>
-      <c r="D60" s="1" t="inlineStr"/>
-      <c r="E60" s="10" t="inlineStr">
+      <c r="A60" s="9" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
+      <c r="B60" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 240723.00
+Borrower Amount: 240723.00</t>
+        </is>
+      </c>
+      <c r="C60" s="9" t="inlineStr"/>
+      <c r="D60" s="9" t="inlineStr"/>
+      <c r="E60" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to Berger Paints Bangladesh Ltd.. Supply of , Invoice Number:  185859258, Challan Number: 185859258, Work Order Number: 271/PO/2025/2/31943, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-02-05, Goods Received Date: 2025-03-10, Work Order Value: 577664.4, Total Bill Amount: 240723.4, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr"/>
-      <c r="G60" s="1" t="inlineStr"/>
-      <c r="H60" s="1" t="inlineStr"/>
-      <c r="I60" s="1" t="inlineStr"/>
-      <c r="J60" s="1" t="inlineStr"/>
-      <c r="K60" s="1" t="inlineStr"/>
-      <c r="L60" s="1" t="inlineStr"/>
+      <c r="F60" s="9" t="inlineStr"/>
+      <c r="G60" s="9" t="inlineStr"/>
+      <c r="H60" s="9" t="inlineStr"/>
+      <c r="I60" s="9" t="inlineStr"/>
+      <c r="J60" s="9" t="inlineStr"/>
+      <c r="K60" s="9" t="inlineStr"/>
+      <c r="L60" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr"/>
-      <c r="B61" s="2" t="inlineStr"/>
-      <c r="C61" s="1" t="inlineStr"/>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="A61" s="9" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
+      <c r="B61" s="10" t="inlineStr"/>
+      <c r="C61" s="9" t="inlineStr"/>
+      <c r="D61" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E61" s="11" t="inlineStr">
+      <c r="E61" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr"/>
-      <c r="G61" s="1" t="inlineStr"/>
-      <c r="H61" s="1" t="inlineStr"/>
-      <c r="I61" s="1" t="inlineStr"/>
-      <c r="J61" s="1" t="inlineStr"/>
-      <c r="K61" s="1" t="inlineStr"/>
-      <c r="L61" s="1" t="inlineStr"/>
+      <c r="F61" s="9" t="inlineStr"/>
+      <c r="G61" s="9" t="inlineStr"/>
+      <c r="H61" s="9" t="inlineStr"/>
+      <c r="I61" s="9" t="inlineStr"/>
+      <c r="J61" s="9" t="inlineStr"/>
+      <c r="K61" s="9" t="inlineStr"/>
+      <c r="L61" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr"/>
-      <c r="B62" s="2" t="inlineStr"/>
-      <c r="C62" s="6" t="inlineStr">
+      <c r="A62" s="17" t="inlineStr">
+        <is>
+          <t>M037</t>
+        </is>
+      </c>
+      <c r="B62" s="18" t="inlineStr"/>
+      <c r="C62" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="D62" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E62" s="7" t="inlineStr">
+      <c r="E62" s="20" t="inlineStr">
         <is>
           <t>AP-Delwar Paint &amp; Hardware</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr"/>
-      <c r="G62" s="1" t="inlineStr"/>
-      <c r="H62" s="9" t="inlineStr">
+      <c r="F62" s="17" t="inlineStr"/>
+      <c r="G62" s="17" t="inlineStr"/>
+      <c r="H62" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="I62" s="17" t="inlineStr">
         <is>
           <t>868</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr"/>
-      <c r="K62" s="8" t="inlineStr">
+      <c r="J62" s="17" t="inlineStr"/>
+      <c r="K62" s="22" t="inlineStr">
         <is>
           <t>59000</t>
         </is>
       </c>
-      <c r="L62" s="1" t="inlineStr"/>
+      <c r="L62" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr"/>
-      <c r="B63" s="2" t="inlineStr"/>
-      <c r="C63" s="1" t="inlineStr"/>
-      <c r="D63" s="1" t="inlineStr"/>
-      <c r="E63" s="10" t="inlineStr">
+      <c r="A63" s="17" t="inlineStr">
+        <is>
+          <t>M037</t>
+        </is>
+      </c>
+      <c r="B63" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 59000.00
+Borrower Amount: 59000.00</t>
+        </is>
+      </c>
+      <c r="C63" s="17" t="inlineStr"/>
+      <c r="D63" s="17" t="inlineStr"/>
+      <c r="E63" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to Delwar Paint &amp; Hardware . Supply of , Invoice Number:  32644, Challan Number: 342, Work Order Number: MCE/PO/2025/3/32644, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-03-06, Goods Received Date: 2025-03-11, Work Order Value: 59000.0, Total Bill Amount: 59000.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F63" s="1" t="inlineStr"/>
-      <c r="G63" s="1" t="inlineStr"/>
-      <c r="H63" s="1" t="inlineStr"/>
-      <c r="I63" s="1" t="inlineStr"/>
-      <c r="J63" s="1" t="inlineStr"/>
-      <c r="K63" s="1" t="inlineStr"/>
-      <c r="L63" s="1" t="inlineStr"/>
+      <c r="F63" s="17" t="inlineStr"/>
+      <c r="G63" s="17" t="inlineStr"/>
+      <c r="H63" s="17" t="inlineStr"/>
+      <c r="I63" s="17" t="inlineStr"/>
+      <c r="J63" s="17" t="inlineStr"/>
+      <c r="K63" s="17" t="inlineStr"/>
+      <c r="L63" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="inlineStr"/>
-      <c r="B64" s="2" t="inlineStr"/>
-      <c r="C64" s="1" t="inlineStr"/>
-      <c r="D64" s="1" t="inlineStr">
+      <c r="A64" s="17" t="inlineStr">
+        <is>
+          <t>M037</t>
+        </is>
+      </c>
+      <c r="B64" s="18" t="inlineStr"/>
+      <c r="C64" s="17" t="inlineStr"/>
+      <c r="D64" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E64" s="11" t="inlineStr">
+      <c r="E64" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F64" s="1" t="inlineStr"/>
-      <c r="G64" s="1" t="inlineStr"/>
-      <c r="H64" s="1" t="inlineStr"/>
-      <c r="I64" s="1" t="inlineStr"/>
-      <c r="J64" s="1" t="inlineStr"/>
-      <c r="K64" s="1" t="inlineStr"/>
-      <c r="L64" s="1" t="inlineStr"/>
+      <c r="F64" s="17" t="inlineStr"/>
+      <c r="G64" s="17" t="inlineStr"/>
+      <c r="H64" s="17" t="inlineStr"/>
+      <c r="I64" s="17" t="inlineStr"/>
+      <c r="J64" s="17" t="inlineStr"/>
+      <c r="K64" s="17" t="inlineStr"/>
+      <c r="L64" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="inlineStr"/>
-      <c r="B65" s="2" t="inlineStr"/>
-      <c r="C65" s="6" t="inlineStr">
+      <c r="A65" s="9" t="inlineStr">
+        <is>
+          <t>M038</t>
+        </is>
+      </c>
+      <c r="B65" s="10" t="inlineStr"/>
+      <c r="C65" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D65" s="1" t="inlineStr">
+      <c r="D65" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E65" s="7" t="inlineStr">
+      <c r="E65" s="12" t="inlineStr">
         <is>
           <t>AP-MS. Fardin Enterprise</t>
         </is>
       </c>
-      <c r="F65" s="1" t="inlineStr"/>
-      <c r="G65" s="1" t="inlineStr"/>
-      <c r="H65" s="9" t="inlineStr">
+      <c r="F65" s="9" t="inlineStr"/>
+      <c r="G65" s="9" t="inlineStr"/>
+      <c r="H65" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I65" s="1" t="inlineStr">
+      <c r="I65" s="9" t="inlineStr">
         <is>
           <t>869</t>
         </is>
       </c>
-      <c r="J65" s="1" t="inlineStr"/>
-      <c r="K65" s="8" t="inlineStr">
+      <c r="J65" s="9" t="inlineStr"/>
+      <c r="K65" s="14" t="inlineStr">
         <is>
           <t>3400</t>
         </is>
       </c>
-      <c r="L65" s="1" t="inlineStr"/>
+      <c r="L65" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr"/>
-      <c r="B66" s="2" t="inlineStr"/>
-      <c r="C66" s="1" t="inlineStr"/>
-      <c r="D66" s="1" t="inlineStr"/>
-      <c r="E66" s="10" t="inlineStr">
+      <c r="A66" s="9" t="inlineStr">
+        <is>
+          <t>M038</t>
+        </is>
+      </c>
+      <c r="B66" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 3400.00
+Borrower Amount: 3400.00</t>
+        </is>
+      </c>
+      <c r="C66" s="9" t="inlineStr"/>
+      <c r="D66" s="9" t="inlineStr"/>
+      <c r="E66" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to Fardin Enterprise. Supply of , Invoice Number:  642, Challan Number: 642, Work Order Number: MCE/PO/2025/2/32143, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-02-16, Goods Received Date: 2025-02-26, Work Order Value: 277630.0, Total Bill Amount: 3400.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F66" s="1" t="inlineStr"/>
-      <c r="G66" s="1" t="inlineStr"/>
-      <c r="H66" s="1" t="inlineStr"/>
-      <c r="I66" s="1" t="inlineStr"/>
-      <c r="J66" s="1" t="inlineStr"/>
-      <c r="K66" s="1" t="inlineStr"/>
-      <c r="L66" s="1" t="inlineStr"/>
+      <c r="F66" s="9" t="inlineStr"/>
+      <c r="G66" s="9" t="inlineStr"/>
+      <c r="H66" s="9" t="inlineStr"/>
+      <c r="I66" s="9" t="inlineStr"/>
+      <c r="J66" s="9" t="inlineStr"/>
+      <c r="K66" s="9" t="inlineStr"/>
+      <c r="L66" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr"/>
-      <c r="B67" s="2" t="inlineStr"/>
-      <c r="C67" s="1" t="inlineStr"/>
-      <c r="D67" s="1" t="inlineStr">
+      <c r="A67" s="9" t="inlineStr">
+        <is>
+          <t>M038</t>
+        </is>
+      </c>
+      <c r="B67" s="10" t="inlineStr"/>
+      <c r="C67" s="9" t="inlineStr"/>
+      <c r="D67" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E67" s="11" t="inlineStr">
+      <c r="E67" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F67" s="1" t="inlineStr"/>
-      <c r="G67" s="1" t="inlineStr"/>
-      <c r="H67" s="1" t="inlineStr"/>
-      <c r="I67" s="1" t="inlineStr"/>
-      <c r="J67" s="1" t="inlineStr"/>
-      <c r="K67" s="1" t="inlineStr"/>
-      <c r="L67" s="1" t="inlineStr"/>
+      <c r="F67" s="9" t="inlineStr"/>
+      <c r="G67" s="9" t="inlineStr"/>
+      <c r="H67" s="9" t="inlineStr"/>
+      <c r="I67" s="9" t="inlineStr"/>
+      <c r="J67" s="9" t="inlineStr"/>
+      <c r="K67" s="9" t="inlineStr"/>
+      <c r="L67" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="inlineStr"/>
-      <c r="B68" s="2" t="inlineStr"/>
-      <c r="C68" s="6" t="inlineStr">
+      <c r="A68" s="17" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
+      <c r="B68" s="18" t="inlineStr"/>
+      <c r="C68" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D68" s="1" t="inlineStr">
+      <c r="D68" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E68" s="7" t="inlineStr">
+      <c r="E68" s="20" t="inlineStr">
         <is>
           <t>AP-MS. Fardin Enterprise</t>
         </is>
       </c>
-      <c r="F68" s="1" t="inlineStr"/>
-      <c r="G68" s="1" t="inlineStr"/>
-      <c r="H68" s="9" t="inlineStr">
+      <c r="F68" s="17" t="inlineStr"/>
+      <c r="G68" s="17" t="inlineStr"/>
+      <c r="H68" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I68" s="1" t="inlineStr">
+      <c r="I68" s="17" t="inlineStr">
         <is>
           <t>870</t>
         </is>
       </c>
-      <c r="J68" s="1" t="inlineStr"/>
-      <c r="K68" s="8" t="inlineStr">
+      <c r="J68" s="17" t="inlineStr"/>
+      <c r="K68" s="22" t="inlineStr">
         <is>
           <t>2250</t>
         </is>
       </c>
-      <c r="L68" s="1" t="inlineStr"/>
+      <c r="L68" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="inlineStr"/>
-      <c r="B69" s="2" t="inlineStr"/>
-      <c r="C69" s="1" t="inlineStr"/>
-      <c r="D69" s="1" t="inlineStr"/>
-      <c r="E69" s="10" t="inlineStr">
+      <c r="A69" s="17" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
+      <c r="B69" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 2250.00
+Borrower Amount: 2250.00</t>
+        </is>
+      </c>
+      <c r="C69" s="17" t="inlineStr"/>
+      <c r="D69" s="17" t="inlineStr"/>
+      <c r="E69" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to Fardin Enterprise. Supply of , Invoice Number:  768, Challan Number: 768, Work Order Number: 271/PO/2025/3/32672, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-03-11, Goods Received Date: 2025-03-15, Work Order Value: 2250.0, Total Bill Amount: 2250.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F69" s="1" t="inlineStr"/>
-      <c r="G69" s="1" t="inlineStr"/>
-      <c r="H69" s="1" t="inlineStr"/>
-      <c r="I69" s="1" t="inlineStr"/>
-      <c r="J69" s="1" t="inlineStr"/>
-      <c r="K69" s="1" t="inlineStr"/>
-      <c r="L69" s="1" t="inlineStr"/>
+      <c r="F69" s="17" t="inlineStr"/>
+      <c r="G69" s="17" t="inlineStr"/>
+      <c r="H69" s="17" t="inlineStr"/>
+      <c r="I69" s="17" t="inlineStr"/>
+      <c r="J69" s="17" t="inlineStr"/>
+      <c r="K69" s="17" t="inlineStr"/>
+      <c r="L69" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr"/>
-      <c r="B70" s="2" t="inlineStr"/>
-      <c r="C70" s="1" t="inlineStr"/>
-      <c r="D70" s="1" t="inlineStr">
+      <c r="A70" s="17" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
+      <c r="B70" s="18" t="inlineStr"/>
+      <c r="C70" s="17" t="inlineStr"/>
+      <c r="D70" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E70" s="11" t="inlineStr">
+      <c r="E70" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F70" s="1" t="inlineStr"/>
-      <c r="G70" s="1" t="inlineStr"/>
-      <c r="H70" s="1" t="inlineStr"/>
-      <c r="I70" s="1" t="inlineStr"/>
-      <c r="J70" s="1" t="inlineStr"/>
-      <c r="K70" s="1" t="inlineStr"/>
-      <c r="L70" s="1" t="inlineStr"/>
+      <c r="F70" s="17" t="inlineStr"/>
+      <c r="G70" s="17" t="inlineStr"/>
+      <c r="H70" s="17" t="inlineStr"/>
+      <c r="I70" s="17" t="inlineStr"/>
+      <c r="J70" s="17" t="inlineStr"/>
+      <c r="K70" s="17" t="inlineStr"/>
+      <c r="L70" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="inlineStr"/>
-      <c r="B71" s="2" t="inlineStr"/>
-      <c r="C71" s="6" t="inlineStr">
+      <c r="A71" s="9" t="inlineStr">
+        <is>
+          <t>M040</t>
+        </is>
+      </c>
+      <c r="B71" s="10" t="inlineStr"/>
+      <c r="C71" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D71" s="1" t="inlineStr">
+      <c r="D71" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E71" s="7" t="inlineStr">
+      <c r="E71" s="12" t="inlineStr">
         <is>
           <t>AP-MS. Fardin Enterprise</t>
         </is>
       </c>
-      <c r="F71" s="1" t="inlineStr"/>
-      <c r="G71" s="1" t="inlineStr"/>
-      <c r="H71" s="9" t="inlineStr">
+      <c r="F71" s="9" t="inlineStr"/>
+      <c r="G71" s="9" t="inlineStr"/>
+      <c r="H71" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I71" s="1" t="inlineStr">
+      <c r="I71" s="9" t="inlineStr">
         <is>
           <t>871</t>
         </is>
       </c>
-      <c r="J71" s="1" t="inlineStr"/>
-      <c r="K71" s="8" t="inlineStr">
+      <c r="J71" s="9" t="inlineStr"/>
+      <c r="K71" s="14" t="inlineStr">
         <is>
           <t>4360</t>
         </is>
       </c>
-      <c r="L71" s="1" t="inlineStr"/>
+      <c r="L71" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="inlineStr"/>
-      <c r="B72" s="2" t="inlineStr"/>
-      <c r="C72" s="1" t="inlineStr"/>
-      <c r="D72" s="1" t="inlineStr"/>
-      <c r="E72" s="10" t="inlineStr">
+      <c r="A72" s="9" t="inlineStr">
+        <is>
+          <t>M040</t>
+        </is>
+      </c>
+      <c r="B72" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 4360.00
+Borrower Amount: 4360.00</t>
+        </is>
+      </c>
+      <c r="C72" s="9" t="inlineStr"/>
+      <c r="D72" s="9" t="inlineStr"/>
+      <c r="E72" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to Fardin Enterprise. Supply of , Invoice Number:  10, Challan Number: 766, Work Order Number: MCE/PO/2025/3/32679, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-03-11, Goods Received Date: 2025-03-25, Work Order Value: 4360.0, Total Bill Amount: 4360.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F72" s="1" t="inlineStr"/>
-      <c r="G72" s="1" t="inlineStr"/>
-      <c r="H72" s="1" t="inlineStr"/>
-      <c r="I72" s="1" t="inlineStr"/>
-      <c r="J72" s="1" t="inlineStr"/>
-      <c r="K72" s="1" t="inlineStr"/>
-      <c r="L72" s="1" t="inlineStr"/>
+      <c r="F72" s="9" t="inlineStr"/>
+      <c r="G72" s="9" t="inlineStr"/>
+      <c r="H72" s="9" t="inlineStr"/>
+      <c r="I72" s="9" t="inlineStr"/>
+      <c r="J72" s="9" t="inlineStr"/>
+      <c r="K72" s="9" t="inlineStr"/>
+      <c r="L72" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="inlineStr"/>
-      <c r="B73" s="2" t="inlineStr"/>
-      <c r="C73" s="1" t="inlineStr"/>
-      <c r="D73" s="1" t="inlineStr">
+      <c r="A73" s="9" t="inlineStr">
+        <is>
+          <t>M040</t>
+        </is>
+      </c>
+      <c r="B73" s="10" t="inlineStr"/>
+      <c r="C73" s="9" t="inlineStr"/>
+      <c r="D73" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E73" s="11" t="inlineStr">
+      <c r="E73" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F73" s="1" t="inlineStr"/>
-      <c r="G73" s="1" t="inlineStr"/>
-      <c r="H73" s="1" t="inlineStr"/>
-      <c r="I73" s="1" t="inlineStr"/>
-      <c r="J73" s="1" t="inlineStr"/>
-      <c r="K73" s="1" t="inlineStr"/>
-      <c r="L73" s="1" t="inlineStr"/>
+      <c r="F73" s="9" t="inlineStr"/>
+      <c r="G73" s="9" t="inlineStr"/>
+      <c r="H73" s="9" t="inlineStr"/>
+      <c r="I73" s="9" t="inlineStr"/>
+      <c r="J73" s="9" t="inlineStr"/>
+      <c r="K73" s="9" t="inlineStr"/>
+      <c r="L73" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr"/>
-      <c r="B74" s="2" t="inlineStr"/>
-      <c r="C74" s="6" t="inlineStr">
+      <c r="A74" s="17" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B74" s="18" t="inlineStr"/>
+      <c r="C74" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D74" s="1" t="inlineStr">
+      <c r="D74" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E74" s="7" t="inlineStr">
+      <c r="E74" s="20" t="inlineStr">
         <is>
           <t>AP-MS. Fardin Enterprise</t>
         </is>
       </c>
-      <c r="F74" s="1" t="inlineStr"/>
-      <c r="G74" s="1" t="inlineStr"/>
-      <c r="H74" s="9" t="inlineStr">
+      <c r="F74" s="17" t="inlineStr"/>
+      <c r="G74" s="17" t="inlineStr"/>
+      <c r="H74" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I74" s="1" t="inlineStr">
+      <c r="I74" s="17" t="inlineStr">
         <is>
           <t>872</t>
         </is>
       </c>
-      <c r="J74" s="1" t="inlineStr"/>
-      <c r="K74" s="8" t="inlineStr">
+      <c r="J74" s="17" t="inlineStr"/>
+      <c r="K74" s="22" t="inlineStr">
         <is>
           <t>14940</t>
         </is>
       </c>
-      <c r="L74" s="1" t="inlineStr"/>
+      <c r="L74" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="inlineStr"/>
-      <c r="B75" s="2" t="inlineStr"/>
-      <c r="C75" s="1" t="inlineStr"/>
-      <c r="D75" s="1" t="inlineStr"/>
-      <c r="E75" s="10" t="inlineStr">
+      <c r="A75" s="17" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B75" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 14940.00
+Borrower Amount: 14940.00</t>
+        </is>
+      </c>
+      <c r="C75" s="17" t="inlineStr"/>
+      <c r="D75" s="17" t="inlineStr"/>
+      <c r="E75" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to Fardin Enterprise. Supply of , Invoice Number:  11, Challan Number: 767, Work Order Number: MCE/PO/2025/2/32143, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-02-16, Goods Received Date: 2025-03-23, Work Order Value: 277630.0, Total Bill Amount: 14940.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F75" s="1" t="inlineStr"/>
-      <c r="G75" s="1" t="inlineStr"/>
-      <c r="H75" s="1" t="inlineStr"/>
-      <c r="I75" s="1" t="inlineStr"/>
-      <c r="J75" s="1" t="inlineStr"/>
-      <c r="K75" s="1" t="inlineStr"/>
-      <c r="L75" s="1" t="inlineStr"/>
+      <c r="F75" s="17" t="inlineStr"/>
+      <c r="G75" s="17" t="inlineStr"/>
+      <c r="H75" s="17" t="inlineStr"/>
+      <c r="I75" s="17" t="inlineStr"/>
+      <c r="J75" s="17" t="inlineStr"/>
+      <c r="K75" s="17" t="inlineStr"/>
+      <c r="L75" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="inlineStr"/>
-      <c r="B76" s="2" t="inlineStr"/>
-      <c r="C76" s="1" t="inlineStr"/>
-      <c r="D76" s="1" t="inlineStr">
+      <c r="A76" s="17" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B76" s="18" t="inlineStr"/>
+      <c r="C76" s="17" t="inlineStr"/>
+      <c r="D76" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E76" s="11" t="inlineStr">
+      <c r="E76" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F76" s="1" t="inlineStr"/>
-      <c r="G76" s="1" t="inlineStr"/>
-      <c r="H76" s="1" t="inlineStr"/>
-      <c r="I76" s="1" t="inlineStr"/>
-      <c r="J76" s="1" t="inlineStr"/>
-      <c r="K76" s="1" t="inlineStr"/>
-      <c r="L76" s="1" t="inlineStr"/>
+      <c r="F76" s="17" t="inlineStr"/>
+      <c r="G76" s="17" t="inlineStr"/>
+      <c r="H76" s="17" t="inlineStr"/>
+      <c r="I76" s="17" t="inlineStr"/>
+      <c r="J76" s="17" t="inlineStr"/>
+      <c r="K76" s="17" t="inlineStr"/>
+      <c r="L76" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="inlineStr"/>
-      <c r="B77" s="2" t="inlineStr"/>
-      <c r="C77" s="6" t="inlineStr">
+      <c r="A77" s="9" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B77" s="10" t="inlineStr"/>
+      <c r="C77" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D77" s="1" t="inlineStr">
+      <c r="D77" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E77" s="7" t="inlineStr">
+      <c r="E77" s="12" t="inlineStr">
         <is>
           <t>AP-Islam Electric Co.</t>
         </is>
       </c>
-      <c r="F77" s="1" t="inlineStr"/>
-      <c r="G77" s="1" t="inlineStr"/>
-      <c r="H77" s="9" t="inlineStr">
+      <c r="F77" s="9" t="inlineStr"/>
+      <c r="G77" s="9" t="inlineStr"/>
+      <c r="H77" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I77" s="1" t="inlineStr">
+      <c r="I77" s="9" t="inlineStr">
         <is>
           <t>873</t>
         </is>
       </c>
-      <c r="J77" s="1" t="inlineStr"/>
-      <c r="K77" s="8" t="inlineStr">
+      <c r="J77" s="9" t="inlineStr"/>
+      <c r="K77" s="14" t="inlineStr">
         <is>
           <t>3027.5</t>
         </is>
       </c>
-      <c r="L77" s="1" t="inlineStr"/>
+      <c r="L77" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="inlineStr"/>
-      <c r="B78" s="2" t="inlineStr"/>
-      <c r="C78" s="1" t="inlineStr"/>
-      <c r="D78" s="1" t="inlineStr"/>
-      <c r="E78" s="10" t="inlineStr">
+      <c r="A78" s="9" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B78" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 3027.50
+Borrower Amount: 3027.50</t>
+        </is>
+      </c>
+      <c r="C78" s="9" t="inlineStr"/>
+      <c r="D78" s="9" t="inlineStr"/>
+      <c r="E78" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to Islam Electric Co.. Supply of , Invoice Number:  6453, Challan Number: 6161, Work Order Number: 271/PO/2025/3/32791, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-03-18, Goods Received Date: 2025-03-23, Work Order Value: 3027.5, Total Bill Amount: 3027.5, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F78" s="1" t="inlineStr"/>
-      <c r="G78" s="1" t="inlineStr"/>
-      <c r="H78" s="1" t="inlineStr"/>
-      <c r="I78" s="1" t="inlineStr"/>
-      <c r="J78" s="1" t="inlineStr"/>
-      <c r="K78" s="1" t="inlineStr"/>
-      <c r="L78" s="1" t="inlineStr"/>
+      <c r="F78" s="9" t="inlineStr"/>
+      <c r="G78" s="9" t="inlineStr"/>
+      <c r="H78" s="9" t="inlineStr"/>
+      <c r="I78" s="9" t="inlineStr"/>
+      <c r="J78" s="9" t="inlineStr"/>
+      <c r="K78" s="9" t="inlineStr"/>
+      <c r="L78" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="inlineStr"/>
-      <c r="B79" s="2" t="inlineStr"/>
-      <c r="C79" s="1" t="inlineStr"/>
-      <c r="D79" s="1" t="inlineStr">
+      <c r="A79" s="9" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B79" s="10" t="inlineStr"/>
+      <c r="C79" s="9" t="inlineStr"/>
+      <c r="D79" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E79" s="11" t="inlineStr">
+      <c r="E79" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F79" s="1" t="inlineStr"/>
-      <c r="G79" s="1" t="inlineStr"/>
-      <c r="H79" s="1" t="inlineStr"/>
-      <c r="I79" s="1" t="inlineStr"/>
-      <c r="J79" s="1" t="inlineStr"/>
-      <c r="K79" s="1" t="inlineStr"/>
-      <c r="L79" s="1" t="inlineStr"/>
+      <c r="F79" s="9" t="inlineStr"/>
+      <c r="G79" s="9" t="inlineStr"/>
+      <c r="H79" s="9" t="inlineStr"/>
+      <c r="I79" s="9" t="inlineStr"/>
+      <c r="J79" s="9" t="inlineStr"/>
+      <c r="K79" s="9" t="inlineStr"/>
+      <c r="L79" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="inlineStr"/>
-      <c r="B80" s="2" t="inlineStr"/>
-      <c r="C80" s="6" t="inlineStr">
+      <c r="A80" s="17" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B80" s="18" t="inlineStr"/>
+      <c r="C80" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D80" s="1" t="inlineStr">
+      <c r="D80" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E80" s="7" t="inlineStr">
+      <c r="E80" s="20" t="inlineStr">
         <is>
           <t>AP-Islam Electric Co.</t>
         </is>
       </c>
-      <c r="F80" s="1" t="inlineStr"/>
-      <c r="G80" s="1" t="inlineStr"/>
-      <c r="H80" s="9" t="inlineStr">
+      <c r="F80" s="17" t="inlineStr"/>
+      <c r="G80" s="17" t="inlineStr"/>
+      <c r="H80" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I80" s="1" t="inlineStr">
+      <c r="I80" s="17" t="inlineStr">
         <is>
           <t>874</t>
         </is>
       </c>
-      <c r="J80" s="1" t="inlineStr"/>
-      <c r="K80" s="8" t="inlineStr">
+      <c r="J80" s="17" t="inlineStr"/>
+      <c r="K80" s="22" t="inlineStr">
         <is>
           <t>91900</t>
         </is>
       </c>
-      <c r="L80" s="1" t="inlineStr"/>
+      <c r="L80" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="inlineStr"/>
-      <c r="B81" s="2" t="inlineStr"/>
-      <c r="C81" s="1" t="inlineStr"/>
-      <c r="D81" s="1" t="inlineStr"/>
-      <c r="E81" s="10" t="inlineStr">
+      <c r="A81" s="17" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B81" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 91900.00
+Borrower Amount: 91900.00</t>
+        </is>
+      </c>
+      <c r="C81" s="17" t="inlineStr"/>
+      <c r="D81" s="17" t="inlineStr"/>
+      <c r="E81" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to Islam Electric Co.. Supply of , Invoice Number:  6457, Challan Number: 6162, Work Order Number: MCE/PO/2025/3/32675, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-03-11, Goods Received Date: 2025-03-25, Work Order Value: 309400.0, Total Bill Amount: 91900.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F81" s="1" t="inlineStr"/>
-      <c r="G81" s="1" t="inlineStr"/>
-      <c r="H81" s="1" t="inlineStr"/>
-      <c r="I81" s="1" t="inlineStr"/>
-      <c r="J81" s="1" t="inlineStr"/>
-      <c r="K81" s="1" t="inlineStr"/>
-      <c r="L81" s="1" t="inlineStr"/>
+      <c r="F81" s="17" t="inlineStr"/>
+      <c r="G81" s="17" t="inlineStr"/>
+      <c r="H81" s="17" t="inlineStr"/>
+      <c r="I81" s="17" t="inlineStr"/>
+      <c r="J81" s="17" t="inlineStr"/>
+      <c r="K81" s="17" t="inlineStr"/>
+      <c r="L81" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr"/>
-      <c r="B82" s="2" t="inlineStr"/>
-      <c r="C82" s="1" t="inlineStr"/>
-      <c r="D82" s="1" t="inlineStr">
+      <c r="A82" s="17" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B82" s="18" t="inlineStr"/>
+      <c r="C82" s="17" t="inlineStr"/>
+      <c r="D82" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E82" s="11" t="inlineStr">
+      <c r="E82" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F82" s="1" t="inlineStr"/>
-      <c r="G82" s="1" t="inlineStr"/>
-      <c r="H82" s="1" t="inlineStr"/>
-      <c r="I82" s="1" t="inlineStr"/>
-      <c r="J82" s="1" t="inlineStr"/>
-      <c r="K82" s="1" t="inlineStr"/>
-      <c r="L82" s="1" t="inlineStr"/>
+      <c r="F82" s="17" t="inlineStr"/>
+      <c r="G82" s="17" t="inlineStr"/>
+      <c r="H82" s="17" t="inlineStr"/>
+      <c r="I82" s="17" t="inlineStr"/>
+      <c r="J82" s="17" t="inlineStr"/>
+      <c r="K82" s="17" t="inlineStr"/>
+      <c r="L82" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="inlineStr"/>
-      <c r="B83" s="2" t="inlineStr"/>
-      <c r="C83" s="6" t="inlineStr">
+      <c r="A83" s="9" t="inlineStr">
+        <is>
+          <t>M044</t>
+        </is>
+      </c>
+      <c r="B83" s="10" t="inlineStr"/>
+      <c r="C83" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D83" s="1" t="inlineStr">
+      <c r="D83" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E83" s="7" t="inlineStr">
+      <c r="E83" s="12" t="inlineStr">
         <is>
           <t>AP-Jononi Enterprise</t>
         </is>
       </c>
-      <c r="F83" s="1" t="inlineStr"/>
-      <c r="G83" s="1" t="inlineStr"/>
-      <c r="H83" s="9" t="inlineStr">
+      <c r="F83" s="9" t="inlineStr"/>
+      <c r="G83" s="9" t="inlineStr"/>
+      <c r="H83" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I83" s="1" t="inlineStr">
+      <c r="I83" s="9" t="inlineStr">
         <is>
           <t>875</t>
         </is>
       </c>
-      <c r="J83" s="1" t="inlineStr"/>
-      <c r="K83" s="8" t="inlineStr">
+      <c r="J83" s="9" t="inlineStr"/>
+      <c r="K83" s="14" t="inlineStr">
         <is>
           <t>31050</t>
         </is>
       </c>
-      <c r="L83" s="1" t="inlineStr"/>
+      <c r="L83" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="inlineStr"/>
-      <c r="B84" s="2" t="inlineStr"/>
-      <c r="C84" s="1" t="inlineStr"/>
-      <c r="D84" s="1" t="inlineStr"/>
-      <c r="E84" s="10" t="inlineStr">
+      <c r="A84" s="9" t="inlineStr">
+        <is>
+          <t>M044</t>
+        </is>
+      </c>
+      <c r="B84" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 31050.00
+Borrower Amount: 31050.00</t>
+        </is>
+      </c>
+      <c r="C84" s="9" t="inlineStr"/>
+      <c r="D84" s="9" t="inlineStr"/>
+      <c r="E84" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to Jononi Enterprise. Supply of , Invoice Number:  649, Challan Number: 649, Work Order Number: 271/PO/2025/3/32724, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-03-13, Goods Received Date: 2025-03-25, Work Order Value: 31050.0, Total Bill Amount: 31050.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F84" s="1" t="inlineStr"/>
-      <c r="G84" s="1" t="inlineStr"/>
-      <c r="H84" s="1" t="inlineStr"/>
-      <c r="I84" s="1" t="inlineStr"/>
-      <c r="J84" s="1" t="inlineStr"/>
-      <c r="K84" s="1" t="inlineStr"/>
-      <c r="L84" s="1" t="inlineStr"/>
+      <c r="F84" s="9" t="inlineStr"/>
+      <c r="G84" s="9" t="inlineStr"/>
+      <c r="H84" s="9" t="inlineStr"/>
+      <c r="I84" s="9" t="inlineStr"/>
+      <c r="J84" s="9" t="inlineStr"/>
+      <c r="K84" s="9" t="inlineStr"/>
+      <c r="L84" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="inlineStr"/>
-      <c r="B85" s="2" t="inlineStr"/>
-      <c r="C85" s="1" t="inlineStr"/>
-      <c r="D85" s="1" t="inlineStr">
+      <c r="A85" s="9" t="inlineStr">
+        <is>
+          <t>M044</t>
+        </is>
+      </c>
+      <c r="B85" s="10" t="inlineStr"/>
+      <c r="C85" s="9" t="inlineStr"/>
+      <c r="D85" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E85" s="11" t="inlineStr">
+      <c r="E85" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F85" s="1" t="inlineStr"/>
-      <c r="G85" s="1" t="inlineStr"/>
-      <c r="H85" s="1" t="inlineStr"/>
-      <c r="I85" s="1" t="inlineStr"/>
-      <c r="J85" s="1" t="inlineStr"/>
-      <c r="K85" s="1" t="inlineStr"/>
-      <c r="L85" s="1" t="inlineStr"/>
+      <c r="F85" s="9" t="inlineStr"/>
+      <c r="G85" s="9" t="inlineStr"/>
+      <c r="H85" s="9" t="inlineStr"/>
+      <c r="I85" s="9" t="inlineStr"/>
+      <c r="J85" s="9" t="inlineStr"/>
+      <c r="K85" s="9" t="inlineStr"/>
+      <c r="L85" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="inlineStr"/>
-      <c r="B86" s="2" t="inlineStr"/>
-      <c r="C86" s="6" t="inlineStr">
+      <c r="A86" s="17" t="inlineStr">
+        <is>
+          <t>M045</t>
+        </is>
+      </c>
+      <c r="B86" s="18" t="inlineStr"/>
+      <c r="C86" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D86" s="1" t="inlineStr">
+      <c r="D86" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E86" s="7" t="inlineStr">
+      <c r="E86" s="20" t="inlineStr">
         <is>
           <t>AP-JRS Corporation.</t>
         </is>
       </c>
-      <c r="F86" s="1" t="inlineStr"/>
-      <c r="G86" s="1" t="inlineStr"/>
-      <c r="H86" s="9" t="inlineStr">
+      <c r="F86" s="17" t="inlineStr"/>
+      <c r="G86" s="17" t="inlineStr"/>
+      <c r="H86" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I86" s="1" t="inlineStr">
+      <c r="I86" s="17" t="inlineStr">
         <is>
           <t>876</t>
         </is>
       </c>
-      <c r="J86" s="1" t="inlineStr"/>
-      <c r="K86" s="8" t="inlineStr">
+      <c r="J86" s="17" t="inlineStr"/>
+      <c r="K86" s="22" t="inlineStr">
         <is>
           <t>20000</t>
         </is>
       </c>
-      <c r="L86" s="1" t="inlineStr"/>
+      <c r="L86" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="inlineStr"/>
-      <c r="B87" s="2" t="inlineStr"/>
-      <c r="C87" s="1" t="inlineStr"/>
-      <c r="D87" s="1" t="inlineStr"/>
-      <c r="E87" s="10" t="inlineStr">
+      <c r="A87" s="17" t="inlineStr">
+        <is>
+          <t>M045</t>
+        </is>
+      </c>
+      <c r="B87" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 20000.00
+Borrower Amount: 20000.00</t>
+        </is>
+      </c>
+      <c r="C87" s="17" t="inlineStr"/>
+      <c r="D87" s="17" t="inlineStr"/>
+      <c r="E87" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to JRS Corporation. Supply of , Invoice Number:  JRS-0015, Challan Number: 220225, Work Order Number: DES/PO/2024/12/31363, BA Team (A), Company Unit: Transformer, Project Name : DESCO 3-Phase Distribution Transformer (GD-5), Work Order date: 2024-12-29, Goods Received Date: 2025-02-26, Work Order Value: 251400.0, Total Bill Amount: 20000.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F87" s="1" t="inlineStr"/>
-      <c r="G87" s="1" t="inlineStr"/>
-      <c r="H87" s="1" t="inlineStr"/>
-      <c r="I87" s="1" t="inlineStr"/>
-      <c r="J87" s="1" t="inlineStr"/>
-      <c r="K87" s="1" t="inlineStr"/>
-      <c r="L87" s="1" t="inlineStr"/>
+      <c r="F87" s="17" t="inlineStr"/>
+      <c r="G87" s="17" t="inlineStr"/>
+      <c r="H87" s="17" t="inlineStr"/>
+      <c r="I87" s="17" t="inlineStr"/>
+      <c r="J87" s="17" t="inlineStr"/>
+      <c r="K87" s="17" t="inlineStr"/>
+      <c r="L87" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="inlineStr"/>
-      <c r="B88" s="2" t="inlineStr"/>
-      <c r="C88" s="1" t="inlineStr"/>
-      <c r="D88" s="1" t="inlineStr">
+      <c r="A88" s="17" t="inlineStr">
+        <is>
+          <t>M045</t>
+        </is>
+      </c>
+      <c r="B88" s="18" t="inlineStr"/>
+      <c r="C88" s="17" t="inlineStr"/>
+      <c r="D88" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E88" s="11" t="inlineStr">
+      <c r="E88" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F88" s="1" t="inlineStr"/>
-      <c r="G88" s="1" t="inlineStr"/>
-      <c r="H88" s="1" t="inlineStr"/>
-      <c r="I88" s="1" t="inlineStr"/>
-      <c r="J88" s="1" t="inlineStr"/>
-      <c r="K88" s="1" t="inlineStr"/>
-      <c r="L88" s="1" t="inlineStr"/>
+      <c r="F88" s="17" t="inlineStr"/>
+      <c r="G88" s="17" t="inlineStr"/>
+      <c r="H88" s="17" t="inlineStr"/>
+      <c r="I88" s="17" t="inlineStr"/>
+      <c r="J88" s="17" t="inlineStr"/>
+      <c r="K88" s="17" t="inlineStr"/>
+      <c r="L88" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="inlineStr"/>
-      <c r="B89" s="2" t="inlineStr"/>
-      <c r="C89" s="6" t="inlineStr">
+      <c r="A89" s="9" t="inlineStr">
+        <is>
+          <t>M046</t>
+        </is>
+      </c>
+      <c r="B89" s="10" t="inlineStr"/>
+      <c r="C89" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D89" s="1" t="inlineStr">
+      <c r="D89" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E89" s="7" t="inlineStr">
+      <c r="E89" s="12" t="inlineStr">
         <is>
           <t>AP-JRS Corporation.</t>
         </is>
       </c>
-      <c r="F89" s="1" t="inlineStr"/>
-      <c r="G89" s="1" t="inlineStr"/>
-      <c r="H89" s="9" t="inlineStr">
+      <c r="F89" s="9" t="inlineStr"/>
+      <c r="G89" s="9" t="inlineStr"/>
+      <c r="H89" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I89" s="1" t="inlineStr">
+      <c r="I89" s="9" t="inlineStr">
         <is>
           <t>877</t>
         </is>
       </c>
-      <c r="J89" s="1" t="inlineStr"/>
-      <c r="K89" s="8" t="inlineStr">
+      <c r="J89" s="9" t="inlineStr"/>
+      <c r="K89" s="14" t="inlineStr">
         <is>
           <t>55440</t>
         </is>
       </c>
-      <c r="L89" s="1" t="inlineStr"/>
+      <c r="L89" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="inlineStr"/>
-      <c r="B90" s="2" t="inlineStr"/>
-      <c r="C90" s="1" t="inlineStr"/>
-      <c r="D90" s="1" t="inlineStr"/>
-      <c r="E90" s="10" t="inlineStr">
+      <c r="A90" s="9" t="inlineStr">
+        <is>
+          <t>M046</t>
+        </is>
+      </c>
+      <c r="B90" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 55440.00
+Borrower Amount: 55440.00</t>
+        </is>
+      </c>
+      <c r="C90" s="9" t="inlineStr"/>
+      <c r="D90" s="9" t="inlineStr"/>
+      <c r="E90" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to JRS Corporation. Supply of , Invoice Number:  JRS Bill-0018, Challan Number: 803, Work Order Number: DES/PO/2024/12/31363, BA Team (A), Company Unit: Transformer, Project Name : DESCO 3-Phase Distribution Transformer (GD-5), Work Order date: 2024-12-29, Goods Received Date: 2025-04-22, Work Order Value: 251400.0, Total Bill Amount: 55440.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F90" s="1" t="inlineStr"/>
-      <c r="G90" s="1" t="inlineStr"/>
-      <c r="H90" s="1" t="inlineStr"/>
-      <c r="I90" s="1" t="inlineStr"/>
-      <c r="J90" s="1" t="inlineStr"/>
-      <c r="K90" s="1" t="inlineStr"/>
-      <c r="L90" s="1" t="inlineStr"/>
+      <c r="F90" s="9" t="inlineStr"/>
+      <c r="G90" s="9" t="inlineStr"/>
+      <c r="H90" s="9" t="inlineStr"/>
+      <c r="I90" s="9" t="inlineStr"/>
+      <c r="J90" s="9" t="inlineStr"/>
+      <c r="K90" s="9" t="inlineStr"/>
+      <c r="L90" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="inlineStr"/>
-      <c r="B91" s="2" t="inlineStr"/>
-      <c r="C91" s="1" t="inlineStr"/>
-      <c r="D91" s="1" t="inlineStr">
+      <c r="A91" s="9" t="inlineStr">
+        <is>
+          <t>M046</t>
+        </is>
+      </c>
+      <c r="B91" s="10" t="inlineStr"/>
+      <c r="C91" s="9" t="inlineStr"/>
+      <c r="D91" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E91" s="11" t="inlineStr">
+      <c r="E91" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F91" s="1" t="inlineStr"/>
-      <c r="G91" s="1" t="inlineStr"/>
-      <c r="H91" s="1" t="inlineStr"/>
-      <c r="I91" s="1" t="inlineStr"/>
-      <c r="J91" s="1" t="inlineStr"/>
-      <c r="K91" s="1" t="inlineStr"/>
-      <c r="L91" s="1" t="inlineStr"/>
+      <c r="F91" s="9" t="inlineStr"/>
+      <c r="G91" s="9" t="inlineStr"/>
+      <c r="H91" s="9" t="inlineStr"/>
+      <c r="I91" s="9" t="inlineStr"/>
+      <c r="J91" s="9" t="inlineStr"/>
+      <c r="K91" s="9" t="inlineStr"/>
+      <c r="L91" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="inlineStr"/>
-      <c r="B92" s="2" t="inlineStr"/>
-      <c r="C92" s="6" t="inlineStr">
+      <c r="A92" s="17" t="inlineStr">
+        <is>
+          <t>M047</t>
+        </is>
+      </c>
+      <c r="B92" s="18" t="inlineStr"/>
+      <c r="C92" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D92" s="1" t="inlineStr">
+      <c r="D92" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E92" s="7" t="inlineStr">
+      <c r="E92" s="20" t="inlineStr">
         <is>
           <t>AP-M/S Hafsa Enterprise</t>
         </is>
       </c>
-      <c r="F92" s="1" t="inlineStr"/>
-      <c r="G92" s="1" t="inlineStr"/>
-      <c r="H92" s="9" t="inlineStr">
+      <c r="F92" s="17" t="inlineStr"/>
+      <c r="G92" s="17" t="inlineStr"/>
+      <c r="H92" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I92" s="1" t="inlineStr">
+      <c r="I92" s="17" t="inlineStr">
         <is>
           <t>878</t>
         </is>
       </c>
-      <c r="J92" s="1" t="inlineStr"/>
-      <c r="K92" s="8" t="inlineStr">
+      <c r="J92" s="17" t="inlineStr"/>
+      <c r="K92" s="22" t="inlineStr">
         <is>
           <t>4500</t>
         </is>
       </c>
-      <c r="L92" s="1" t="inlineStr"/>
+      <c r="L92" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="inlineStr"/>
-      <c r="B93" s="2" t="inlineStr"/>
-      <c r="C93" s="1" t="inlineStr"/>
-      <c r="D93" s="1" t="inlineStr"/>
-      <c r="E93" s="10" t="inlineStr">
+      <c r="A93" s="17" t="inlineStr">
+        <is>
+          <t>M047</t>
+        </is>
+      </c>
+      <c r="B93" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 4500.00
+Borrower Amount: 4500.00</t>
+        </is>
+      </c>
+      <c r="C93" s="17" t="inlineStr"/>
+      <c r="D93" s="17" t="inlineStr"/>
+      <c r="E93" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to M/S. Hafsa Enterprise. Supply of , Invoice Number:  2184, Challan Number: 588, Work Order Number: 271/PO/2025/3/32891, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-03-20, Goods Received Date: 2025-05-08, Work Order Value: 46250.0, Total Bill Amount: 4500.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F93" s="1" t="inlineStr"/>
-      <c r="G93" s="1" t="inlineStr"/>
-      <c r="H93" s="1" t="inlineStr"/>
-      <c r="I93" s="1" t="inlineStr"/>
-      <c r="J93" s="1" t="inlineStr"/>
-      <c r="K93" s="1" t="inlineStr"/>
-      <c r="L93" s="1" t="inlineStr"/>
+      <c r="F93" s="17" t="inlineStr"/>
+      <c r="G93" s="17" t="inlineStr"/>
+      <c r="H93" s="17" t="inlineStr"/>
+      <c r="I93" s="17" t="inlineStr"/>
+      <c r="J93" s="17" t="inlineStr"/>
+      <c r="K93" s="17" t="inlineStr"/>
+      <c r="L93" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="inlineStr"/>
-      <c r="B94" s="2" t="inlineStr"/>
-      <c r="C94" s="1" t="inlineStr"/>
-      <c r="D94" s="1" t="inlineStr">
+      <c r="A94" s="17" t="inlineStr">
+        <is>
+          <t>M047</t>
+        </is>
+      </c>
+      <c r="B94" s="18" t="inlineStr"/>
+      <c r="C94" s="17" t="inlineStr"/>
+      <c r="D94" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E94" s="11" t="inlineStr">
+      <c r="E94" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F94" s="1" t="inlineStr"/>
-      <c r="G94" s="1" t="inlineStr"/>
-      <c r="H94" s="1" t="inlineStr"/>
-      <c r="I94" s="1" t="inlineStr"/>
-      <c r="J94" s="1" t="inlineStr"/>
-      <c r="K94" s="1" t="inlineStr"/>
-      <c r="L94" s="1" t="inlineStr"/>
+      <c r="F94" s="17" t="inlineStr"/>
+      <c r="G94" s="17" t="inlineStr"/>
+      <c r="H94" s="17" t="inlineStr"/>
+      <c r="I94" s="17" t="inlineStr"/>
+      <c r="J94" s="17" t="inlineStr"/>
+      <c r="K94" s="17" t="inlineStr"/>
+      <c r="L94" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="inlineStr"/>
-      <c r="B95" s="2" t="inlineStr"/>
-      <c r="C95" s="6" t="inlineStr">
+      <c r="A95" s="9" t="inlineStr">
+        <is>
+          <t>M048</t>
+        </is>
+      </c>
+      <c r="B95" s="10" t="inlineStr"/>
+      <c r="C95" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D95" s="1" t="inlineStr">
+      <c r="D95" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E95" s="7" t="inlineStr">
+      <c r="E95" s="12" t="inlineStr">
         <is>
           <t>AP-M/S.Ishaque Electric</t>
         </is>
       </c>
-      <c r="F95" s="1" t="inlineStr"/>
-      <c r="G95" s="1" t="inlineStr"/>
-      <c r="H95" s="9" t="inlineStr">
+      <c r="F95" s="9" t="inlineStr"/>
+      <c r="G95" s="9" t="inlineStr"/>
+      <c r="H95" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I95" s="1" t="inlineStr">
+      <c r="I95" s="9" t="inlineStr">
         <is>
           <t>879</t>
         </is>
       </c>
-      <c r="J95" s="1" t="inlineStr"/>
-      <c r="K95" s="8" t="inlineStr">
+      <c r="J95" s="9" t="inlineStr"/>
+      <c r="K95" s="14" t="inlineStr">
         <is>
           <t>140000</t>
         </is>
       </c>
-      <c r="L95" s="1" t="inlineStr"/>
+      <c r="L95" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="inlineStr"/>
-      <c r="B96" s="2" t="inlineStr"/>
-      <c r="C96" s="1" t="inlineStr"/>
-      <c r="D96" s="1" t="inlineStr"/>
-      <c r="E96" s="10" t="inlineStr">
+      <c r="A96" s="9" t="inlineStr">
+        <is>
+          <t>M048</t>
+        </is>
+      </c>
+      <c r="B96" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 140000.00
+Borrower Amount: 140000.00</t>
+        </is>
+      </c>
+      <c r="C96" s="9" t="inlineStr"/>
+      <c r="D96" s="9" t="inlineStr"/>
+      <c r="E96" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to M/S. Ishaque Electric. Supply of , Invoice Number:  329, Challan Number: 902, Work Order Number: 271/PO/2025/4/33395, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-04-28, Goods Received Date: 2025-05-04, Work Order Value: 140000.0, Total Bill Amount: 140000.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F96" s="1" t="inlineStr"/>
-      <c r="G96" s="1" t="inlineStr"/>
-      <c r="H96" s="1" t="inlineStr"/>
-      <c r="I96" s="1" t="inlineStr"/>
-      <c r="J96" s="1" t="inlineStr"/>
-      <c r="K96" s="1" t="inlineStr"/>
-      <c r="L96" s="1" t="inlineStr"/>
+      <c r="F96" s="9" t="inlineStr"/>
+      <c r="G96" s="9" t="inlineStr"/>
+      <c r="H96" s="9" t="inlineStr"/>
+      <c r="I96" s="9" t="inlineStr"/>
+      <c r="J96" s="9" t="inlineStr"/>
+      <c r="K96" s="9" t="inlineStr"/>
+      <c r="L96" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="inlineStr"/>
-      <c r="B97" s="2" t="inlineStr"/>
-      <c r="C97" s="1" t="inlineStr"/>
-      <c r="D97" s="1" t="inlineStr">
+      <c r="A97" s="9" t="inlineStr">
+        <is>
+          <t>M048</t>
+        </is>
+      </c>
+      <c r="B97" s="10" t="inlineStr"/>
+      <c r="C97" s="9" t="inlineStr"/>
+      <c r="D97" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E97" s="11" t="inlineStr">
+      <c r="E97" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F97" s="1" t="inlineStr"/>
-      <c r="G97" s="1" t="inlineStr"/>
-      <c r="H97" s="1" t="inlineStr"/>
-      <c r="I97" s="1" t="inlineStr"/>
-      <c r="J97" s="1" t="inlineStr"/>
-      <c r="K97" s="1" t="inlineStr"/>
-      <c r="L97" s="1" t="inlineStr"/>
+      <c r="F97" s="9" t="inlineStr"/>
+      <c r="G97" s="9" t="inlineStr"/>
+      <c r="H97" s="9" t="inlineStr"/>
+      <c r="I97" s="9" t="inlineStr"/>
+      <c r="J97" s="9" t="inlineStr"/>
+      <c r="K97" s="9" t="inlineStr"/>
+      <c r="L97" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="inlineStr"/>
-      <c r="B98" s="2" t="inlineStr"/>
-      <c r="C98" s="6" t="inlineStr">
+      <c r="A98" s="17" t="inlineStr">
+        <is>
+          <t>M049</t>
+        </is>
+      </c>
+      <c r="B98" s="18" t="inlineStr"/>
+      <c r="C98" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D98" s="1" t="inlineStr">
+      <c r="D98" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E98" s="7" t="inlineStr">
+      <c r="E98" s="20" t="inlineStr">
         <is>
           <t>AP-M/S.Ishaque Electric</t>
         </is>
       </c>
-      <c r="F98" s="1" t="inlineStr"/>
-      <c r="G98" s="1" t="inlineStr"/>
-      <c r="H98" s="9" t="inlineStr">
+      <c r="F98" s="17" t="inlineStr"/>
+      <c r="G98" s="17" t="inlineStr"/>
+      <c r="H98" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I98" s="1" t="inlineStr">
+      <c r="I98" s="17" t="inlineStr">
         <is>
           <t>880</t>
         </is>
       </c>
-      <c r="J98" s="1" t="inlineStr"/>
-      <c r="K98" s="8" t="inlineStr">
+      <c r="J98" s="17" t="inlineStr"/>
+      <c r="K98" s="22" t="inlineStr">
         <is>
           <t>38240</t>
         </is>
       </c>
-      <c r="L98" s="1" t="inlineStr"/>
+      <c r="L98" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="inlineStr"/>
-      <c r="B99" s="2" t="inlineStr"/>
-      <c r="C99" s="1" t="inlineStr"/>
-      <c r="D99" s="1" t="inlineStr"/>
-      <c r="E99" s="10" t="inlineStr">
+      <c r="A99" s="17" t="inlineStr">
+        <is>
+          <t>M049</t>
+        </is>
+      </c>
+      <c r="B99" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 38240.00
+Borrower Amount: 38240.00</t>
+        </is>
+      </c>
+      <c r="C99" s="17" t="inlineStr"/>
+      <c r="D99" s="17" t="inlineStr"/>
+      <c r="E99" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to M/S. Ishaque Electric. Supply of , Invoice Number:  330, Challan Number: 798, Work Order Number: BRE/PO/2025/4/33339, BA Team (A), Company Unit: Transformer, Project Name : BREB/DP/PBSF-G-89-Lot-1/1/086/2023-2024 (REB) 3-Phase Power Transformer , Work Order date: 2025-04-24, Goods Received Date: 2025-05-04, Work Order Value: 382400.0, Total Bill Amount: 38240.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F99" s="1" t="inlineStr"/>
-      <c r="G99" s="1" t="inlineStr"/>
-      <c r="H99" s="1" t="inlineStr"/>
-      <c r="I99" s="1" t="inlineStr"/>
-      <c r="J99" s="1" t="inlineStr"/>
-      <c r="K99" s="1" t="inlineStr"/>
-      <c r="L99" s="1" t="inlineStr"/>
+      <c r="F99" s="17" t="inlineStr"/>
+      <c r="G99" s="17" t="inlineStr"/>
+      <c r="H99" s="17" t="inlineStr"/>
+      <c r="I99" s="17" t="inlineStr"/>
+      <c r="J99" s="17" t="inlineStr"/>
+      <c r="K99" s="17" t="inlineStr"/>
+      <c r="L99" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="inlineStr"/>
-      <c r="B100" s="2" t="inlineStr"/>
-      <c r="C100" s="1" t="inlineStr"/>
-      <c r="D100" s="1" t="inlineStr">
+      <c r="A100" s="17" t="inlineStr">
+        <is>
+          <t>M049</t>
+        </is>
+      </c>
+      <c r="B100" s="18" t="inlineStr"/>
+      <c r="C100" s="17" t="inlineStr"/>
+      <c r="D100" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E100" s="11" t="inlineStr">
+      <c r="E100" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F100" s="1" t="inlineStr"/>
-      <c r="G100" s="1" t="inlineStr"/>
-      <c r="H100" s="1" t="inlineStr"/>
-      <c r="I100" s="1" t="inlineStr"/>
-      <c r="J100" s="1" t="inlineStr"/>
-      <c r="K100" s="1" t="inlineStr"/>
-      <c r="L100" s="1" t="inlineStr"/>
+      <c r="F100" s="17" t="inlineStr"/>
+      <c r="G100" s="17" t="inlineStr"/>
+      <c r="H100" s="17" t="inlineStr"/>
+      <c r="I100" s="17" t="inlineStr"/>
+      <c r="J100" s="17" t="inlineStr"/>
+      <c r="K100" s="17" t="inlineStr"/>
+      <c r="L100" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="inlineStr"/>
-      <c r="B101" s="2" t="inlineStr"/>
-      <c r="C101" s="6" t="inlineStr">
+      <c r="A101" s="9" t="inlineStr">
+        <is>
+          <t>M050</t>
+        </is>
+      </c>
+      <c r="B101" s="10" t="inlineStr"/>
+      <c r="C101" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D101" s="1" t="inlineStr">
+      <c r="D101" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E101" s="7" t="inlineStr">
+      <c r="E101" s="12" t="inlineStr">
         <is>
           <t>AP-M/s.Salam &amp; Brothers</t>
         </is>
       </c>
-      <c r="F101" s="1" t="inlineStr"/>
-      <c r="G101" s="1" t="inlineStr"/>
-      <c r="H101" s="9" t="inlineStr">
+      <c r="F101" s="9" t="inlineStr"/>
+      <c r="G101" s="9" t="inlineStr"/>
+      <c r="H101" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I101" s="1" t="inlineStr">
+      <c r="I101" s="9" t="inlineStr">
         <is>
           <t>881</t>
         </is>
       </c>
-      <c r="J101" s="1" t="inlineStr"/>
-      <c r="K101" s="8" t="inlineStr">
+      <c r="J101" s="9" t="inlineStr"/>
+      <c r="K101" s="14" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="L101" s="1" t="inlineStr"/>
+      <c r="L101" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="inlineStr"/>
-      <c r="B102" s="2" t="inlineStr"/>
-      <c r="C102" s="1" t="inlineStr"/>
-      <c r="D102" s="1" t="inlineStr"/>
-      <c r="E102" s="10" t="inlineStr">
+      <c r="A102" s="9" t="inlineStr">
+        <is>
+          <t>M050</t>
+        </is>
+      </c>
+      <c r="B102" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 200000.00
+Borrower Amount: 200000.00</t>
+        </is>
+      </c>
+      <c r="C102" s="9" t="inlineStr"/>
+      <c r="D102" s="9" t="inlineStr"/>
+      <c r="E102" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to Salam &amp; Brothers. Supply of , Invoice Number:  1623/24-25, Challan Number: 060225,1450/24-25, Work Order Number: 271/PO/2025/1/31492, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-01-06, Goods Received Date: 2025-01-23,2025-02-10, Work Order Value: 822000.0, Total Bill Amount: 200000.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F102" s="1" t="inlineStr"/>
-      <c r="G102" s="1" t="inlineStr"/>
-      <c r="H102" s="1" t="inlineStr"/>
-      <c r="I102" s="1" t="inlineStr"/>
-      <c r="J102" s="1" t="inlineStr"/>
-      <c r="K102" s="1" t="inlineStr"/>
-      <c r="L102" s="1" t="inlineStr"/>
+      <c r="F102" s="9" t="inlineStr"/>
+      <c r="G102" s="9" t="inlineStr"/>
+      <c r="H102" s="9" t="inlineStr"/>
+      <c r="I102" s="9" t="inlineStr"/>
+      <c r="J102" s="9" t="inlineStr"/>
+      <c r="K102" s="9" t="inlineStr"/>
+      <c r="L102" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="inlineStr"/>
-      <c r="B103" s="2" t="inlineStr"/>
-      <c r="C103" s="1" t="inlineStr"/>
-      <c r="D103" s="1" t="inlineStr">
+      <c r="A103" s="9" t="inlineStr">
+        <is>
+          <t>M050</t>
+        </is>
+      </c>
+      <c r="B103" s="10" t="inlineStr"/>
+      <c r="C103" s="9" t="inlineStr"/>
+      <c r="D103" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E103" s="11" t="inlineStr">
+      <c r="E103" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F103" s="1" t="inlineStr"/>
-      <c r="G103" s="1" t="inlineStr"/>
-      <c r="H103" s="1" t="inlineStr"/>
-      <c r="I103" s="1" t="inlineStr"/>
-      <c r="J103" s="1" t="inlineStr"/>
-      <c r="K103" s="1" t="inlineStr"/>
-      <c r="L103" s="1" t="inlineStr"/>
+      <c r="F103" s="9" t="inlineStr"/>
+      <c r="G103" s="9" t="inlineStr"/>
+      <c r="H103" s="9" t="inlineStr"/>
+      <c r="I103" s="9" t="inlineStr"/>
+      <c r="J103" s="9" t="inlineStr"/>
+      <c r="K103" s="9" t="inlineStr"/>
+      <c r="L103" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="inlineStr"/>
-      <c r="B104" s="2" t="inlineStr"/>
-      <c r="C104" s="6" t="inlineStr">
+      <c r="A104" s="17" t="inlineStr">
+        <is>
+          <t>M051</t>
+        </is>
+      </c>
+      <c r="B104" s="18" t="inlineStr"/>
+      <c r="C104" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D104" s="1" t="inlineStr">
+      <c r="D104" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E104" s="7" t="inlineStr">
+      <c r="E104" s="20" t="inlineStr">
         <is>
           <t>AP-United Traders</t>
         </is>
       </c>
-      <c r="F104" s="1" t="inlineStr"/>
-      <c r="G104" s="1" t="inlineStr"/>
-      <c r="H104" s="9" t="inlineStr">
+      <c r="F104" s="17" t="inlineStr"/>
+      <c r="G104" s="17" t="inlineStr"/>
+      <c r="H104" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I104" s="1" t="inlineStr">
+      <c r="I104" s="17" t="inlineStr">
         <is>
           <t>882</t>
         </is>
       </c>
-      <c r="J104" s="1" t="inlineStr"/>
-      <c r="K104" s="8" t="inlineStr">
+      <c r="J104" s="17" t="inlineStr"/>
+      <c r="K104" s="22" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="L104" s="1" t="inlineStr"/>
+      <c r="L104" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="inlineStr"/>
-      <c r="B105" s="2" t="inlineStr"/>
-      <c r="C105" s="1" t="inlineStr"/>
-      <c r="D105" s="1" t="inlineStr"/>
-      <c r="E105" s="10" t="inlineStr">
+      <c r="A105" s="17" t="inlineStr">
+        <is>
+          <t>M051</t>
+        </is>
+      </c>
+      <c r="B105" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 200000.00
+Borrower Amount: 200000.00</t>
+        </is>
+      </c>
+      <c r="C105" s="17" t="inlineStr"/>
+      <c r="D105" s="17" t="inlineStr"/>
+      <c r="E105" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to United Traders. Supply of , Invoice Number:  523, Challan Number: 1137, Work Order Number: MCE/PO/2025/2/32380, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-02-20, Goods Received Date: 2025-03-04, Work Order Value: 733200.0, Total Bill Amount: 200000.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F105" s="1" t="inlineStr"/>
-      <c r="G105" s="1" t="inlineStr"/>
-      <c r="H105" s="1" t="inlineStr"/>
-      <c r="I105" s="1" t="inlineStr"/>
-      <c r="J105" s="1" t="inlineStr"/>
-      <c r="K105" s="1" t="inlineStr"/>
-      <c r="L105" s="1" t="inlineStr"/>
+      <c r="F105" s="17" t="inlineStr"/>
+      <c r="G105" s="17" t="inlineStr"/>
+      <c r="H105" s="17" t="inlineStr"/>
+      <c r="I105" s="17" t="inlineStr"/>
+      <c r="J105" s="17" t="inlineStr"/>
+      <c r="K105" s="17" t="inlineStr"/>
+      <c r="L105" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="inlineStr"/>
-      <c r="B106" s="2" t="inlineStr"/>
-      <c r="C106" s="1" t="inlineStr"/>
-      <c r="D106" s="1" t="inlineStr">
+      <c r="A106" s="17" t="inlineStr">
+        <is>
+          <t>M051</t>
+        </is>
+      </c>
+      <c r="B106" s="18" t="inlineStr"/>
+      <c r="C106" s="17" t="inlineStr"/>
+      <c r="D106" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E106" s="11" t="inlineStr">
+      <c r="E106" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F106" s="1" t="inlineStr"/>
-      <c r="G106" s="1" t="inlineStr"/>
-      <c r="H106" s="1" t="inlineStr"/>
-      <c r="I106" s="1" t="inlineStr"/>
-      <c r="J106" s="1" t="inlineStr"/>
-      <c r="K106" s="1" t="inlineStr"/>
-      <c r="L106" s="1" t="inlineStr"/>
+      <c r="F106" s="17" t="inlineStr"/>
+      <c r="G106" s="17" t="inlineStr"/>
+      <c r="H106" s="17" t="inlineStr"/>
+      <c r="I106" s="17" t="inlineStr"/>
+      <c r="J106" s="17" t="inlineStr"/>
+      <c r="K106" s="17" t="inlineStr"/>
+      <c r="L106" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="inlineStr"/>
-      <c r="B107" s="2" t="inlineStr"/>
-      <c r="C107" s="6" t="inlineStr">
+      <c r="A107" s="9" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
+      <c r="B107" s="10" t="inlineStr"/>
+      <c r="C107" s="11" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D107" s="1" t="inlineStr">
+      <c r="D107" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E107" s="7" t="inlineStr">
+      <c r="E107" s="12" t="inlineStr">
         <is>
           <t>AP-Wintel Limited</t>
         </is>
       </c>
-      <c r="F107" s="1" t="inlineStr"/>
-      <c r="G107" s="1" t="inlineStr"/>
-      <c r="H107" s="9" t="inlineStr">
+      <c r="F107" s="9" t="inlineStr"/>
+      <c r="G107" s="9" t="inlineStr"/>
+      <c r="H107" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I107" s="1" t="inlineStr">
+      <c r="I107" s="9" t="inlineStr">
         <is>
           <t>884</t>
         </is>
       </c>
-      <c r="J107" s="1" t="inlineStr"/>
-      <c r="K107" s="8" t="inlineStr">
+      <c r="J107" s="9" t="inlineStr"/>
+      <c r="K107" s="14" t="inlineStr">
         <is>
           <t>1234</t>
         </is>
       </c>
-      <c r="L107" s="1" t="inlineStr"/>
+      <c r="L107" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="inlineStr"/>
-      <c r="B108" s="2" t="inlineStr"/>
-      <c r="C108" s="1" t="inlineStr"/>
-      <c r="D108" s="1" t="inlineStr"/>
-      <c r="E108" s="10" t="inlineStr">
+      <c r="A108" s="9" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
+      <c r="B108" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 1234.00
+Borrower Amount: 1234.00</t>
+        </is>
+      </c>
+      <c r="C108" s="9" t="inlineStr"/>
+      <c r="D108" s="9" t="inlineStr"/>
+      <c r="E108" s="15" t="inlineStr">
         <is>
           <t>Amount paid against Monthly Mobile bill for the month of May-2025. (MBD-7th Floor).</t>
         </is>
       </c>
-      <c r="F108" s="1" t="inlineStr"/>
-      <c r="G108" s="1" t="inlineStr"/>
-      <c r="H108" s="1" t="inlineStr"/>
-      <c r="I108" s="1" t="inlineStr"/>
-      <c r="J108" s="1" t="inlineStr"/>
-      <c r="K108" s="1" t="inlineStr"/>
-      <c r="L108" s="1" t="inlineStr"/>
+      <c r="F108" s="9" t="inlineStr"/>
+      <c r="G108" s="9" t="inlineStr"/>
+      <c r="H108" s="9" t="inlineStr"/>
+      <c r="I108" s="9" t="inlineStr"/>
+      <c r="J108" s="9" t="inlineStr"/>
+      <c r="K108" s="9" t="inlineStr"/>
+      <c r="L108" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="inlineStr"/>
-      <c r="B109" s="2" t="inlineStr"/>
-      <c r="C109" s="1" t="inlineStr"/>
-      <c r="D109" s="1" t="inlineStr">
+      <c r="A109" s="9" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
+      <c r="B109" s="10" t="inlineStr"/>
+      <c r="C109" s="9" t="inlineStr"/>
+      <c r="D109" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E109" s="11" t="inlineStr">
+      <c r="E109" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F109" s="1" t="inlineStr"/>
-      <c r="G109" s="1" t="inlineStr"/>
-      <c r="H109" s="1" t="inlineStr"/>
-      <c r="I109" s="1" t="inlineStr"/>
-      <c r="J109" s="1" t="inlineStr"/>
-      <c r="K109" s="1" t="inlineStr"/>
-      <c r="L109" s="1" t="inlineStr"/>
+      <c r="F109" s="9" t="inlineStr"/>
+      <c r="G109" s="9" t="inlineStr"/>
+      <c r="H109" s="9" t="inlineStr"/>
+      <c r="I109" s="9" t="inlineStr"/>
+      <c r="J109" s="9" t="inlineStr"/>
+      <c r="K109" s="9" t="inlineStr"/>
+      <c r="L109" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="inlineStr"/>
-      <c r="B110" s="2" t="inlineStr"/>
-      <c r="C110" s="6" t="inlineStr">
+      <c r="A110" s="17" t="inlineStr">
+        <is>
+          <t>M052</t>
+        </is>
+      </c>
+      <c r="B110" s="18" t="inlineStr"/>
+      <c r="C110" s="19" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D110" s="1" t="inlineStr">
+      <c r="D110" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E110" s="7" t="inlineStr">
+      <c r="E110" s="20" t="inlineStr">
         <is>
           <t>AP-A.B.M Anas Engineering</t>
         </is>
       </c>
-      <c r="F110" s="1" t="inlineStr"/>
-      <c r="G110" s="1" t="inlineStr"/>
-      <c r="H110" s="9" t="inlineStr">
+      <c r="F110" s="17" t="inlineStr"/>
+      <c r="G110" s="17" t="inlineStr"/>
+      <c r="H110" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I110" s="1" t="inlineStr">
+      <c r="I110" s="17" t="inlineStr">
         <is>
           <t>885</t>
         </is>
       </c>
-      <c r="J110" s="1" t="inlineStr"/>
-      <c r="K110" s="8" t="inlineStr">
+      <c r="J110" s="17" t="inlineStr"/>
+      <c r="K110" s="22" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="L110" s="1" t="inlineStr"/>
+      <c r="L110" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="inlineStr"/>
-      <c r="B111" s="2" t="inlineStr"/>
-      <c r="C111" s="1" t="inlineStr"/>
-      <c r="D111" s="1" t="inlineStr"/>
-      <c r="E111" s="10" t="inlineStr">
+      <c r="A111" s="17" t="inlineStr">
+        <is>
+          <t>M052</t>
+        </is>
+      </c>
+      <c r="B111" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 200000.00
+Borrower Amount: 200000.00</t>
+        </is>
+      </c>
+      <c r="C111" s="17" t="inlineStr"/>
+      <c r="D111" s="17" t="inlineStr"/>
+      <c r="E111" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to ABM Anas Engineering. Supply of , Invoice Number:  25-03, Challan Number: 100,026, Work Order Number: MCE/PO/2025/2/32359, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-02-19, Goods Received Date: 2025-03-12, Work Order Value: 5404000.0, Total Bill Amount: 200000.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F111" s="1" t="inlineStr"/>
-      <c r="G111" s="1" t="inlineStr"/>
-      <c r="H111" s="1" t="inlineStr"/>
-      <c r="I111" s="1" t="inlineStr"/>
-      <c r="J111" s="1" t="inlineStr"/>
-      <c r="K111" s="1" t="inlineStr"/>
-      <c r="L111" s="1" t="inlineStr"/>
+      <c r="F111" s="17" t="inlineStr"/>
+      <c r="G111" s="17" t="inlineStr"/>
+      <c r="H111" s="17" t="inlineStr"/>
+      <c r="I111" s="17" t="inlineStr"/>
+      <c r="J111" s="17" t="inlineStr"/>
+      <c r="K111" s="17" t="inlineStr"/>
+      <c r="L111" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="inlineStr"/>
-      <c r="B112" s="2" t="inlineStr"/>
-      <c r="C112" s="1" t="inlineStr"/>
-      <c r="D112" s="1" t="inlineStr">
+      <c r="A112" s="17" t="inlineStr">
+        <is>
+          <t>M052</t>
+        </is>
+      </c>
+      <c r="B112" s="18" t="inlineStr"/>
+      <c r="C112" s="17" t="inlineStr"/>
+      <c r="D112" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E112" s="11" t="inlineStr">
+      <c r="E112" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F112" s="1" t="inlineStr"/>
-      <c r="G112" s="1" t="inlineStr"/>
-      <c r="H112" s="1" t="inlineStr"/>
-      <c r="I112" s="1" t="inlineStr"/>
-      <c r="J112" s="1" t="inlineStr"/>
-      <c r="K112" s="1" t="inlineStr"/>
-      <c r="L112" s="1" t="inlineStr"/>
+      <c r="F112" s="17" t="inlineStr"/>
+      <c r="G112" s="17" t="inlineStr"/>
+      <c r="H112" s="17" t="inlineStr"/>
+      <c r="I112" s="17" t="inlineStr"/>
+      <c r="J112" s="17" t="inlineStr"/>
+      <c r="K112" s="17" t="inlineStr"/>
+      <c r="L112" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="inlineStr"/>
-      <c r="B113" s="2" t="inlineStr"/>
-      <c r="C113" s="6" t="inlineStr">
+      <c r="A113" s="9" t="inlineStr">
+        <is>
+          <t>M064</t>
+        </is>
+      </c>
+      <c r="B113" s="10" t="inlineStr"/>
+      <c r="C113" s="11" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D113" s="1" t="inlineStr">
+      <c r="D113" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E113" s="7" t="inlineStr">
+      <c r="E113" s="12" t="inlineStr">
         <is>
           <t>AP-A.B.M Anas Engineering</t>
         </is>
       </c>
-      <c r="F113" s="1" t="inlineStr"/>
-      <c r="G113" s="1" t="inlineStr"/>
-      <c r="H113" s="9" t="inlineStr">
+      <c r="F113" s="9" t="inlineStr"/>
+      <c r="G113" s="9" t="inlineStr"/>
+      <c r="H113" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I113" s="1" t="inlineStr">
+      <c r="I113" s="9" t="inlineStr">
         <is>
           <t>886</t>
         </is>
       </c>
-      <c r="J113" s="1" t="inlineStr"/>
-      <c r="K113" s="8" t="inlineStr">
+      <c r="J113" s="9" t="inlineStr"/>
+      <c r="K113" s="14" t="inlineStr">
         <is>
           <t>36900</t>
         </is>
       </c>
-      <c r="L113" s="1" t="inlineStr"/>
+      <c r="L113" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="inlineStr"/>
-      <c r="B114" s="2" t="inlineStr"/>
-      <c r="C114" s="1" t="inlineStr"/>
-      <c r="D114" s="1" t="inlineStr"/>
-      <c r="E114" s="10" t="inlineStr">
+      <c r="A114" s="9" t="inlineStr">
+        <is>
+          <t>M064</t>
+        </is>
+      </c>
+      <c r="B114" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 36900.00
+Borrower Amount: 36900.00</t>
+        </is>
+      </c>
+      <c r="C114" s="9" t="inlineStr"/>
+      <c r="D114" s="9" t="inlineStr"/>
+      <c r="E114" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to ABM Anas Engineering. Supply of , Invoice Number:  25-04, Challan Number: 027, Work Order Number: 271/PO/2025/3/32677, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-03-11, Goods Received Date: 2025-04-06, Work Order Value: 36900.0, Total Bill Amount: 36900.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F114" s="1" t="inlineStr"/>
-      <c r="G114" s="1" t="inlineStr"/>
-      <c r="H114" s="1" t="inlineStr"/>
-      <c r="I114" s="1" t="inlineStr"/>
-      <c r="J114" s="1" t="inlineStr"/>
-      <c r="K114" s="1" t="inlineStr"/>
-      <c r="L114" s="1" t="inlineStr"/>
+      <c r="F114" s="9" t="inlineStr"/>
+      <c r="G114" s="9" t="inlineStr"/>
+      <c r="H114" s="9" t="inlineStr"/>
+      <c r="I114" s="9" t="inlineStr"/>
+      <c r="J114" s="9" t="inlineStr"/>
+      <c r="K114" s="9" t="inlineStr"/>
+      <c r="L114" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="inlineStr"/>
-      <c r="B115" s="2" t="inlineStr"/>
-      <c r="C115" s="1" t="inlineStr"/>
-      <c r="D115" s="1" t="inlineStr">
+      <c r="A115" s="9" t="inlineStr">
+        <is>
+          <t>M064</t>
+        </is>
+      </c>
+      <c r="B115" s="10" t="inlineStr"/>
+      <c r="C115" s="9" t="inlineStr"/>
+      <c r="D115" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E115" s="11" t="inlineStr">
+      <c r="E115" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F115" s="1" t="inlineStr"/>
-      <c r="G115" s="1" t="inlineStr"/>
-      <c r="H115" s="1" t="inlineStr"/>
-      <c r="I115" s="1" t="inlineStr"/>
-      <c r="J115" s="1" t="inlineStr"/>
-      <c r="K115" s="1" t="inlineStr"/>
-      <c r="L115" s="1" t="inlineStr"/>
+      <c r="F115" s="9" t="inlineStr"/>
+      <c r="G115" s="9" t="inlineStr"/>
+      <c r="H115" s="9" t="inlineStr"/>
+      <c r="I115" s="9" t="inlineStr"/>
+      <c r="J115" s="9" t="inlineStr"/>
+      <c r="K115" s="9" t="inlineStr"/>
+      <c r="L115" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="12" t="inlineStr">
-        <is>
-          <t>M016</t>
-        </is>
-      </c>
-      <c r="B116" s="13" t="inlineStr"/>
-      <c r="C116" s="14" t="inlineStr">
+      <c r="A116" s="17" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
+      <c r="B116" s="18" t="inlineStr"/>
+      <c r="C116" s="19" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D116" s="12" t="inlineStr">
+      <c r="D116" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E116" s="15" t="inlineStr">
+      <c r="E116" s="20" t="inlineStr">
         <is>
           <t>Midland Bank Ltd-CE-0011-1060000313</t>
         </is>
       </c>
-      <c r="F116" s="12" t="inlineStr"/>
-      <c r="G116" s="12" t="inlineStr"/>
-      <c r="H116" s="16" t="inlineStr">
+      <c r="F116" s="17" t="inlineStr"/>
+      <c r="G116" s="17" t="inlineStr"/>
+      <c r="H116" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I116" s="12" t="inlineStr">
+      <c r="I116" s="17" t="inlineStr">
         <is>
           <t>18149</t>
         </is>
       </c>
-      <c r="J116" s="17" t="inlineStr">
+      <c r="J116" s="22" t="inlineStr">
         <is>
           <t>12000000</t>
         </is>
       </c>
-      <c r="K116" s="12" t="inlineStr"/>
-      <c r="L116" s="12" t="inlineStr">
+      <c r="K116" s="17" t="inlineStr"/>
+      <c r="L116" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="12" t="inlineStr">
-        <is>
-          <t>M016</t>
-        </is>
-      </c>
-      <c r="B117" s="13" t="inlineStr">
-        <is>
-          <t>Interunit Loan Match: MDB#0313 &lt;-&gt; DBL#1833
+      <c r="A117" s="17" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
+      <c r="B117" s="18" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: MDB#0313
 Lender Amount: 12000000.00
 Borrower Amount: 12000000.00</t>
         </is>
       </c>
-      <c r="C117" s="12" t="inlineStr"/>
-      <c r="D117" s="12" t="inlineStr"/>
-      <c r="E117" s="18" t="inlineStr">
+      <c r="C117" s="17" t="inlineStr"/>
+      <c r="D117" s="17" t="inlineStr"/>
+      <c r="E117" s="23" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Interunit Loan A/C-Steel Unit, DBL#1833</t>
         </is>
       </c>
-      <c r="F117" s="12" t="inlineStr"/>
-      <c r="G117" s="12" t="inlineStr"/>
-      <c r="H117" s="12" t="inlineStr"/>
-      <c r="I117" s="12" t="inlineStr"/>
-      <c r="J117" s="12" t="inlineStr"/>
-      <c r="K117" s="12" t="inlineStr"/>
-      <c r="L117" s="12" t="inlineStr">
+      <c r="F117" s="17" t="inlineStr"/>
+      <c r="G117" s="17" t="inlineStr"/>
+      <c r="H117" s="17" t="inlineStr"/>
+      <c r="I117" s="17" t="inlineStr"/>
+      <c r="J117" s="17" t="inlineStr"/>
+      <c r="K117" s="17" t="inlineStr"/>
+      <c r="L117" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="12" t="inlineStr">
-        <is>
-          <t>M016</t>
-        </is>
-      </c>
-      <c r="B118" s="13" t="inlineStr"/>
-      <c r="C118" s="12" t="inlineStr"/>
-      <c r="D118" s="12" t="inlineStr">
+      <c r="A118" s="17" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
+      <c r="B118" s="18" t="inlineStr"/>
+      <c r="C118" s="17" t="inlineStr"/>
+      <c r="D118" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E118" s="19" t="inlineStr">
+      <c r="E118" s="24" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F118" s="12" t="inlineStr"/>
-      <c r="G118" s="12" t="inlineStr"/>
-      <c r="H118" s="12" t="inlineStr"/>
-      <c r="I118" s="12" t="inlineStr"/>
-      <c r="J118" s="12" t="inlineStr"/>
-      <c r="K118" s="12" t="inlineStr"/>
-      <c r="L118" s="12" t="inlineStr">
+      <c r="F118" s="17" t="inlineStr"/>
+      <c r="G118" s="17" t="inlineStr"/>
+      <c r="H118" s="17" t="inlineStr"/>
+      <c r="I118" s="17" t="inlineStr"/>
+      <c r="J118" s="17" t="inlineStr"/>
+      <c r="K118" s="17" t="inlineStr"/>
+      <c r="L118" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="20" t="inlineStr">
-        <is>
-          <t>M017</t>
-        </is>
-      </c>
-      <c r="B119" s="21" t="inlineStr"/>
-      <c r="C119" s="22" t="inlineStr">
+      <c r="A119" s="9" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="B119" s="10" t="inlineStr"/>
+      <c r="C119" s="11" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D119" s="20" t="inlineStr">
+      <c r="D119" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E119" s="23" t="inlineStr">
+      <c r="E119" s="12" t="inlineStr">
         <is>
           <t>Midland Bank Ltd-CE-0011-1060000313</t>
         </is>
       </c>
-      <c r="F119" s="20" t="inlineStr"/>
-      <c r="G119" s="20" t="inlineStr"/>
-      <c r="H119" s="24" t="inlineStr">
+      <c r="F119" s="9" t="inlineStr"/>
+      <c r="G119" s="9" t="inlineStr"/>
+      <c r="H119" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I119" s="20" t="inlineStr">
+      <c r="I119" s="9" t="inlineStr">
         <is>
           <t>18150</t>
         </is>
       </c>
-      <c r="J119" s="25" t="inlineStr">
+      <c r="J119" s="14" t="inlineStr">
         <is>
           <t>22000000</t>
         </is>
       </c>
-      <c r="K119" s="20" t="inlineStr"/>
-      <c r="L119" s="20" t="inlineStr">
+      <c r="K119" s="9" t="inlineStr"/>
+      <c r="L119" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="20" t="inlineStr">
-        <is>
-          <t>M017</t>
-        </is>
-      </c>
-      <c r="B120" s="21" t="inlineStr">
-        <is>
-          <t>Interunit Loan Match: MDB#0313 &lt;-&gt; MDB#0331
+      <c r="A120" s="9" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="B120" s="10" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: MDB#0313
 Lender Amount: 22000000.00
 Borrower Amount: 22000000.00</t>
         </is>
       </c>
-      <c r="C120" s="20" t="inlineStr"/>
-      <c r="D120" s="20" t="inlineStr"/>
-      <c r="E120" s="26" t="inlineStr">
+      <c r="C120" s="9" t="inlineStr"/>
+      <c r="D120" s="9" t="inlineStr"/>
+      <c r="E120" s="15" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Interunit Loan A/C-Steel Unit, MDB#0331</t>
         </is>
       </c>
-      <c r="F120" s="20" t="inlineStr"/>
-      <c r="G120" s="20" t="inlineStr"/>
-      <c r="H120" s="20" t="inlineStr"/>
-      <c r="I120" s="20" t="inlineStr"/>
-      <c r="J120" s="20" t="inlineStr"/>
-      <c r="K120" s="20" t="inlineStr"/>
-      <c r="L120" s="20" t="inlineStr">
+      <c r="F120" s="9" t="inlineStr"/>
+      <c r="G120" s="9" t="inlineStr"/>
+      <c r="H120" s="9" t="inlineStr"/>
+      <c r="I120" s="9" t="inlineStr"/>
+      <c r="J120" s="9" t="inlineStr"/>
+      <c r="K120" s="9" t="inlineStr"/>
+      <c r="L120" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="20" t="inlineStr">
-        <is>
-          <t>M017</t>
-        </is>
-      </c>
-      <c r="B121" s="21" t="inlineStr"/>
-      <c r="C121" s="20" t="inlineStr"/>
-      <c r="D121" s="20" t="inlineStr">
+      <c r="A121" s="9" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="B121" s="10" t="inlineStr"/>
+      <c r="C121" s="9" t="inlineStr"/>
+      <c r="D121" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E121" s="27" t="inlineStr">
+      <c r="E121" s="16" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F121" s="20" t="inlineStr"/>
-      <c r="G121" s="20" t="inlineStr"/>
-      <c r="H121" s="20" t="inlineStr"/>
-      <c r="I121" s="20" t="inlineStr"/>
-      <c r="J121" s="20" t="inlineStr"/>
-      <c r="K121" s="20" t="inlineStr"/>
-      <c r="L121" s="20" t="inlineStr">
+      <c r="F121" s="9" t="inlineStr"/>
+      <c r="G121" s="9" t="inlineStr"/>
+      <c r="H121" s="9" t="inlineStr"/>
+      <c r="I121" s="9" t="inlineStr"/>
+      <c r="J121" s="9" t="inlineStr"/>
+      <c r="K121" s="9" t="inlineStr"/>
+      <c r="L121" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="inlineStr"/>
-      <c r="B122" s="2" t="inlineStr"/>
-      <c r="C122" s="6" t="inlineStr">
+      <c r="A122" s="17" t="inlineStr">
+        <is>
+          <t>M056</t>
+        </is>
+      </c>
+      <c r="B122" s="18" t="inlineStr"/>
+      <c r="C122" s="19" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D122" s="1" t="inlineStr">
+      <c r="D122" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E122" s="7" t="inlineStr">
+      <c r="E122" s="20" t="inlineStr">
         <is>
           <t>AP-Pragati Life Insurance Limited</t>
         </is>
       </c>
-      <c r="F122" s="1" t="inlineStr"/>
-      <c r="G122" s="1" t="inlineStr"/>
-      <c r="H122" s="9" t="inlineStr">
+      <c r="F122" s="17" t="inlineStr"/>
+      <c r="G122" s="17" t="inlineStr"/>
+      <c r="H122" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I122" s="1" t="inlineStr">
+      <c r="I122" s="17" t="inlineStr">
         <is>
           <t>889</t>
         </is>
       </c>
-      <c r="J122" s="1" t="inlineStr"/>
-      <c r="K122" s="8" t="inlineStr">
+      <c r="J122" s="17" t="inlineStr"/>
+      <c r="K122" s="22" t="inlineStr">
         <is>
           <t>58108</t>
         </is>
       </c>
-      <c r="L122" s="1" t="inlineStr"/>
+      <c r="L122" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="inlineStr"/>
-      <c r="B123" s="2" t="inlineStr"/>
-      <c r="C123" s="1" t="inlineStr"/>
-      <c r="D123" s="1" t="inlineStr"/>
-      <c r="E123" s="10" t="inlineStr">
+      <c r="A123" s="17" t="inlineStr">
+        <is>
+          <t>M056</t>
+        </is>
+      </c>
+      <c r="B123" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 58108.00
+Borrower Amount: 58108.00</t>
+        </is>
+      </c>
+      <c r="C123" s="17" t="inlineStr"/>
+      <c r="D123" s="17" t="inlineStr"/>
+      <c r="E123" s="23" t="inlineStr">
         <is>
           <t>Amount paid to Pragati Life Insurance Limited against group insurance .Bill-00636 &amp; 00636-C Bill period: 01/03/25 to 28/02/26, Bill dt.27.03.25, Contract no.1748-02/2022</t>
         </is>
       </c>
-      <c r="F123" s="1" t="inlineStr"/>
-      <c r="G123" s="1" t="inlineStr"/>
-      <c r="H123" s="1" t="inlineStr"/>
-      <c r="I123" s="1" t="inlineStr"/>
-      <c r="J123" s="1" t="inlineStr"/>
-      <c r="K123" s="1" t="inlineStr"/>
-      <c r="L123" s="1" t="inlineStr"/>
+      <c r="F123" s="17" t="inlineStr"/>
+      <c r="G123" s="17" t="inlineStr"/>
+      <c r="H123" s="17" t="inlineStr"/>
+      <c r="I123" s="17" t="inlineStr"/>
+      <c r="J123" s="17" t="inlineStr"/>
+      <c r="K123" s="17" t="inlineStr"/>
+      <c r="L123" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="inlineStr"/>
-      <c r="B124" s="2" t="inlineStr"/>
-      <c r="C124" s="1" t="inlineStr"/>
-      <c r="D124" s="1" t="inlineStr">
+      <c r="A124" s="17" t="inlineStr">
+        <is>
+          <t>M056</t>
+        </is>
+      </c>
+      <c r="B124" s="18" t="inlineStr"/>
+      <c r="C124" s="17" t="inlineStr"/>
+      <c r="D124" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E124" s="11" t="inlineStr">
+      <c r="E124" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F124" s="1" t="inlineStr"/>
-      <c r="G124" s="1" t="inlineStr"/>
-      <c r="H124" s="1" t="inlineStr"/>
-      <c r="I124" s="1" t="inlineStr"/>
-      <c r="J124" s="1" t="inlineStr"/>
-      <c r="K124" s="1" t="inlineStr"/>
-      <c r="L124" s="1" t="inlineStr"/>
+      <c r="F124" s="17" t="inlineStr"/>
+      <c r="G124" s="17" t="inlineStr"/>
+      <c r="H124" s="17" t="inlineStr"/>
+      <c r="I124" s="17" t="inlineStr"/>
+      <c r="J124" s="17" t="inlineStr"/>
+      <c r="K124" s="17" t="inlineStr"/>
+      <c r="L124" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="inlineStr"/>
-      <c r="B125" s="2" t="inlineStr"/>
-      <c r="C125" s="6" t="inlineStr">
+      <c r="A125" s="9" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B125" s="10" t="inlineStr"/>
+      <c r="C125" s="11" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D125" s="1" t="inlineStr">
+      <c r="D125" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E125" s="7" t="inlineStr">
+      <c r="E125" s="12" t="inlineStr">
         <is>
           <t>AP-A.R.K Fire Fighting Manufacture Co.</t>
         </is>
       </c>
-      <c r="F125" s="1" t="inlineStr"/>
-      <c r="G125" s="1" t="inlineStr"/>
-      <c r="H125" s="9" t="inlineStr">
+      <c r="F125" s="9" t="inlineStr"/>
+      <c r="G125" s="9" t="inlineStr"/>
+      <c r="H125" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I125" s="1" t="inlineStr">
+      <c r="I125" s="9" t="inlineStr">
         <is>
           <t>890</t>
         </is>
       </c>
-      <c r="J125" s="1" t="inlineStr"/>
-      <c r="K125" s="8" t="inlineStr">
+      <c r="J125" s="9" t="inlineStr"/>
+      <c r="K125" s="14" t="inlineStr">
         <is>
           <t>11535</t>
         </is>
       </c>
-      <c r="L125" s="1" t="inlineStr"/>
+      <c r="L125" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="inlineStr"/>
-      <c r="B126" s="2" t="inlineStr"/>
-      <c r="C126" s="1" t="inlineStr"/>
-      <c r="D126" s="1" t="inlineStr"/>
-      <c r="E126" s="10" t="inlineStr">
+      <c r="A126" s="9" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B126" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 11535.00
+Borrower Amount: 11535.00</t>
+        </is>
+      </c>
+      <c r="C126" s="9" t="inlineStr"/>
+      <c r="D126" s="9" t="inlineStr"/>
+      <c r="E126" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to A.R.K Fire Fighting Manufacture Co.. Supply of , Invoice Number:  111, Challan Number: 111, Work Order Number: MCE/PO/2025/3/32798, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-03-19, Goods Received Date: 2025-03-25, Work Order Value: 11535.0, Total Bill Amount: 11535.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F126" s="1" t="inlineStr"/>
-      <c r="G126" s="1" t="inlineStr"/>
-      <c r="H126" s="1" t="inlineStr"/>
-      <c r="I126" s="1" t="inlineStr"/>
-      <c r="J126" s="1" t="inlineStr"/>
-      <c r="K126" s="1" t="inlineStr"/>
-      <c r="L126" s="1" t="inlineStr"/>
+      <c r="F126" s="9" t="inlineStr"/>
+      <c r="G126" s="9" t="inlineStr"/>
+      <c r="H126" s="9" t="inlineStr"/>
+      <c r="I126" s="9" t="inlineStr"/>
+      <c r="J126" s="9" t="inlineStr"/>
+      <c r="K126" s="9" t="inlineStr"/>
+      <c r="L126" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="inlineStr"/>
-      <c r="B127" s="2" t="inlineStr"/>
-      <c r="C127" s="1" t="inlineStr"/>
-      <c r="D127" s="1" t="inlineStr">
+      <c r="A127" s="9" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B127" s="10" t="inlineStr"/>
+      <c r="C127" s="9" t="inlineStr"/>
+      <c r="D127" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E127" s="11" t="inlineStr">
+      <c r="E127" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F127" s="1" t="inlineStr"/>
-      <c r="G127" s="1" t="inlineStr"/>
-      <c r="H127" s="1" t="inlineStr"/>
-      <c r="I127" s="1" t="inlineStr"/>
-      <c r="J127" s="1" t="inlineStr"/>
-      <c r="K127" s="1" t="inlineStr"/>
-      <c r="L127" s="1" t="inlineStr"/>
+      <c r="F127" s="9" t="inlineStr"/>
+      <c r="G127" s="9" t="inlineStr"/>
+      <c r="H127" s="9" t="inlineStr"/>
+      <c r="I127" s="9" t="inlineStr"/>
+      <c r="J127" s="9" t="inlineStr"/>
+      <c r="K127" s="9" t="inlineStr"/>
+      <c r="L127" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="inlineStr"/>
-      <c r="B128" s="2" t="inlineStr"/>
-      <c r="C128" s="6" t="inlineStr">
+      <c r="A128" s="17" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
+      <c r="B128" s="18" t="inlineStr"/>
+      <c r="C128" s="19" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D128" s="1" t="inlineStr">
+      <c r="D128" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E128" s="7" t="inlineStr">
+      <c r="E128" s="20" t="inlineStr">
         <is>
           <t>Adv-Rangpur Metal Industries Limited</t>
         </is>
       </c>
-      <c r="F128" s="1" t="inlineStr"/>
-      <c r="G128" s="1" t="inlineStr"/>
-      <c r="H128" s="9" t="inlineStr">
+      <c r="F128" s="17" t="inlineStr"/>
+      <c r="G128" s="17" t="inlineStr"/>
+      <c r="H128" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I128" s="1" t="inlineStr">
+      <c r="I128" s="17" t="inlineStr">
         <is>
           <t>891</t>
         </is>
       </c>
-      <c r="J128" s="1" t="inlineStr"/>
-      <c r="K128" s="8" t="inlineStr">
+      <c r="J128" s="17" t="inlineStr"/>
+      <c r="K128" s="22" t="inlineStr">
         <is>
           <t>1344000</t>
         </is>
       </c>
-      <c r="L128" s="1" t="inlineStr"/>
+      <c r="L128" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="inlineStr"/>
-      <c r="B129" s="2" t="inlineStr"/>
-      <c r="C129" s="1" t="inlineStr"/>
-      <c r="D129" s="1" t="inlineStr"/>
-      <c r="E129" s="10" t="inlineStr">
+      <c r="A129" s="17" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
+      <c r="B129" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 1344000.00
+Borrower Amount: 1344000.00</t>
+        </is>
+      </c>
+      <c r="C129" s="17" t="inlineStr"/>
+      <c r="D129" s="17" t="inlineStr"/>
+      <c r="E129" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to Rangpur Metal Industries Limited. Supply of , Invoice Number:  Advanced/CIT/06, Challan Number: , Work Order Number: DES/PO/2025/2/31942, BA Team (A), Company Unit: Transformer, Project Name : DESCO 3-Phase Distribution Transformer (GD-5), Work Order date: 2025-02-05, Goods Received Date: , Work Order Value: 1.38E7, Total Bill Amount: 1380000.0, TDS Deduction Amount: 36000.00, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F129" s="1" t="inlineStr"/>
-      <c r="G129" s="1" t="inlineStr"/>
-      <c r="H129" s="1" t="inlineStr"/>
-      <c r="I129" s="1" t="inlineStr"/>
-      <c r="J129" s="1" t="inlineStr"/>
-      <c r="K129" s="1" t="inlineStr"/>
-      <c r="L129" s="1" t="inlineStr"/>
+      <c r="F129" s="17" t="inlineStr"/>
+      <c r="G129" s="17" t="inlineStr"/>
+      <c r="H129" s="17" t="inlineStr"/>
+      <c r="I129" s="17" t="inlineStr"/>
+      <c r="J129" s="17" t="inlineStr"/>
+      <c r="K129" s="17" t="inlineStr"/>
+      <c r="L129" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="inlineStr"/>
-      <c r="B130" s="2" t="inlineStr"/>
-      <c r="C130" s="1" t="inlineStr"/>
-      <c r="D130" s="1" t="inlineStr">
+      <c r="A130" s="17" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
+      <c r="B130" s="18" t="inlineStr"/>
+      <c r="C130" s="17" t="inlineStr"/>
+      <c r="D130" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E130" s="11" t="inlineStr">
+      <c r="E130" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F130" s="1" t="inlineStr"/>
-      <c r="G130" s="1" t="inlineStr"/>
-      <c r="H130" s="1" t="inlineStr"/>
-      <c r="I130" s="1" t="inlineStr"/>
-      <c r="J130" s="1" t="inlineStr"/>
-      <c r="K130" s="1" t="inlineStr"/>
-      <c r="L130" s="1" t="inlineStr"/>
+      <c r="F130" s="17" t="inlineStr"/>
+      <c r="G130" s="17" t="inlineStr"/>
+      <c r="H130" s="17" t="inlineStr"/>
+      <c r="I130" s="17" t="inlineStr"/>
+      <c r="J130" s="17" t="inlineStr"/>
+      <c r="K130" s="17" t="inlineStr"/>
+      <c r="L130" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="inlineStr"/>
-      <c r="B131" s="2" t="inlineStr"/>
-      <c r="C131" s="6" t="inlineStr">
+      <c r="A131" s="9" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B131" s="10" t="inlineStr"/>
+      <c r="C131" s="11" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D131" s="1" t="inlineStr">
+      <c r="D131" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E131" s="7" t="inlineStr">
+      <c r="E131" s="12" t="inlineStr">
         <is>
           <t>Adv-Rangpur Metal Industries Limited</t>
         </is>
       </c>
-      <c r="F131" s="1" t="inlineStr"/>
-      <c r="G131" s="1" t="inlineStr"/>
-      <c r="H131" s="9" t="inlineStr">
+      <c r="F131" s="9" t="inlineStr"/>
+      <c r="G131" s="9" t="inlineStr"/>
+      <c r="H131" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I131" s="1" t="inlineStr">
+      <c r="I131" s="9" t="inlineStr">
         <is>
           <t>892</t>
         </is>
       </c>
-      <c r="J131" s="1" t="inlineStr"/>
-      <c r="K131" s="8" t="inlineStr">
+      <c r="J131" s="9" t="inlineStr"/>
+      <c r="K131" s="14" t="inlineStr">
         <is>
           <t>3457391</t>
         </is>
       </c>
-      <c r="L131" s="1" t="inlineStr"/>
+      <c r="L131" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="inlineStr"/>
-      <c r="B132" s="2" t="inlineStr"/>
-      <c r="C132" s="1" t="inlineStr"/>
-      <c r="D132" s="1" t="inlineStr"/>
-      <c r="E132" s="10" t="inlineStr">
+      <c r="A132" s="9" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B132" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 3457391.00
+Borrower Amount: 3457391.00</t>
+        </is>
+      </c>
+      <c r="C132" s="9" t="inlineStr"/>
+      <c r="D132" s="9" t="inlineStr"/>
+      <c r="E132" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to Rangpur Metal Industries Limited. Supply of , Invoice Number:  Advanced CIT 08, Challan Number: , Work Order Number: MCE/PO/2025/3/32583, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-03-02, Goods Received Date: , Work Order Value: 5.183E7, Total Bill Amount: 3550000.0, TDS Deduction Amount: 92609.00, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F132" s="1" t="inlineStr"/>
-      <c r="G132" s="1" t="inlineStr"/>
-      <c r="H132" s="1" t="inlineStr"/>
-      <c r="I132" s="1" t="inlineStr"/>
-      <c r="J132" s="1" t="inlineStr"/>
-      <c r="K132" s="1" t="inlineStr"/>
-      <c r="L132" s="1" t="inlineStr"/>
+      <c r="F132" s="9" t="inlineStr"/>
+      <c r="G132" s="9" t="inlineStr"/>
+      <c r="H132" s="9" t="inlineStr"/>
+      <c r="I132" s="9" t="inlineStr"/>
+      <c r="J132" s="9" t="inlineStr"/>
+      <c r="K132" s="9" t="inlineStr"/>
+      <c r="L132" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="inlineStr"/>
-      <c r="B133" s="2" t="inlineStr"/>
-      <c r="C133" s="1" t="inlineStr"/>
-      <c r="D133" s="1" t="inlineStr">
+      <c r="A133" s="9" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B133" s="10" t="inlineStr"/>
+      <c r="C133" s="9" t="inlineStr"/>
+      <c r="D133" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E133" s="11" t="inlineStr">
+      <c r="E133" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F133" s="1" t="inlineStr"/>
-      <c r="G133" s="1" t="inlineStr"/>
-      <c r="H133" s="1" t="inlineStr"/>
-      <c r="I133" s="1" t="inlineStr"/>
-      <c r="J133" s="1" t="inlineStr"/>
-      <c r="K133" s="1" t="inlineStr"/>
-      <c r="L133" s="1" t="inlineStr"/>
+      <c r="F133" s="9" t="inlineStr"/>
+      <c r="G133" s="9" t="inlineStr"/>
+      <c r="H133" s="9" t="inlineStr"/>
+      <c r="I133" s="9" t="inlineStr"/>
+      <c r="J133" s="9" t="inlineStr"/>
+      <c r="K133" s="9" t="inlineStr"/>
+      <c r="L133" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="inlineStr"/>
-      <c r="B134" s="2" t="inlineStr"/>
-      <c r="C134" s="6" t="inlineStr">
+      <c r="A134" s="17" t="inlineStr">
+        <is>
+          <t>M065</t>
+        </is>
+      </c>
+      <c r="B134" s="18" t="inlineStr"/>
+      <c r="C134" s="19" t="inlineStr">
         <is>
           <t>18/Jun/2025</t>
         </is>
       </c>
-      <c r="D134" s="1" t="inlineStr">
+      <c r="D134" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E134" s="7" t="inlineStr">
+      <c r="E134" s="20" t="inlineStr">
         <is>
           <t>AP-Sadharan Bima Corporation</t>
         </is>
       </c>
-      <c r="F134" s="1" t="inlineStr"/>
-      <c r="G134" s="1" t="inlineStr"/>
-      <c r="H134" s="9" t="inlineStr">
+      <c r="F134" s="17" t="inlineStr"/>
+      <c r="G134" s="17" t="inlineStr"/>
+      <c r="H134" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I134" s="1" t="inlineStr">
+      <c r="I134" s="17" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="J134" s="1" t="inlineStr"/>
-      <c r="K134" s="8" t="inlineStr">
+      <c r="J134" s="17" t="inlineStr"/>
+      <c r="K134" s="22" t="inlineStr">
         <is>
           <t>1531483</t>
         </is>
       </c>
-      <c r="L134" s="1" t="inlineStr"/>
+      <c r="L134" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="inlineStr"/>
-      <c r="B135" s="2" t="inlineStr"/>
-      <c r="C135" s="1" t="inlineStr"/>
-      <c r="D135" s="1" t="inlineStr"/>
-      <c r="E135" s="10" t="inlineStr">
+      <c r="A135" s="17" t="inlineStr">
+        <is>
+          <t>M065</t>
+        </is>
+      </c>
+      <c r="B135" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 1531483.00
+Borrower Amount: 1531483.00</t>
+        </is>
+      </c>
+      <c r="C135" s="17" t="inlineStr"/>
+      <c r="D135" s="17" t="inlineStr"/>
+      <c r="E135" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to SADHARAN BIMA CORPORATION. Supply of , Invoice Number:  10March2025_Pur-110, Challan Number: , Work Order Number: 271/PO/2025/4/33396, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-04-29, Goods Received Date: , Work Order Value: 1531483.0, Total Bill Amount: 1531483.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F135" s="1" t="inlineStr"/>
-      <c r="G135" s="1" t="inlineStr"/>
-      <c r="H135" s="1" t="inlineStr"/>
-      <c r="I135" s="1" t="inlineStr"/>
-      <c r="J135" s="1" t="inlineStr"/>
-      <c r="K135" s="1" t="inlineStr"/>
-      <c r="L135" s="1" t="inlineStr"/>
+      <c r="F135" s="17" t="inlineStr"/>
+      <c r="G135" s="17" t="inlineStr"/>
+      <c r="H135" s="17" t="inlineStr"/>
+      <c r="I135" s="17" t="inlineStr"/>
+      <c r="J135" s="17" t="inlineStr"/>
+      <c r="K135" s="17" t="inlineStr"/>
+      <c r="L135" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="inlineStr"/>
-      <c r="B136" s="2" t="inlineStr"/>
-      <c r="C136" s="1" t="inlineStr"/>
-      <c r="D136" s="1" t="inlineStr">
+      <c r="A136" s="17" t="inlineStr">
+        <is>
+          <t>M065</t>
+        </is>
+      </c>
+      <c r="B136" s="18" t="inlineStr"/>
+      <c r="C136" s="17" t="inlineStr"/>
+      <c r="D136" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E136" s="11" t="inlineStr">
+      <c r="E136" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F136" s="1" t="inlineStr"/>
-      <c r="G136" s="1" t="inlineStr"/>
-      <c r="H136" s="1" t="inlineStr"/>
-      <c r="I136" s="1" t="inlineStr"/>
-      <c r="J136" s="1" t="inlineStr"/>
-      <c r="K136" s="1" t="inlineStr"/>
-      <c r="L136" s="1" t="inlineStr"/>
+      <c r="F136" s="17" t="inlineStr"/>
+      <c r="G136" s="17" t="inlineStr"/>
+      <c r="H136" s="17" t="inlineStr"/>
+      <c r="I136" s="17" t="inlineStr"/>
+      <c r="J136" s="17" t="inlineStr"/>
+      <c r="K136" s="17" t="inlineStr"/>
+      <c r="L136" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="inlineStr"/>
-      <c r="B137" s="2" t="inlineStr"/>
-      <c r="C137" s="6" t="inlineStr">
+      <c r="A137" s="9" t="inlineStr">
+        <is>
+          <t>M066</t>
+        </is>
+      </c>
+      <c r="B137" s="10" t="inlineStr"/>
+      <c r="C137" s="11" t="inlineStr">
         <is>
           <t>18/Jun/2025</t>
         </is>
       </c>
-      <c r="D137" s="1" t="inlineStr">
+      <c r="D137" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E137" s="7" t="inlineStr">
+      <c r="E137" s="12" t="inlineStr">
         <is>
           <t>AP-Narayanganj Palli Biddyut Samity-1</t>
         </is>
       </c>
-      <c r="F137" s="1" t="inlineStr"/>
-      <c r="G137" s="1" t="inlineStr"/>
-      <c r="H137" s="9" t="inlineStr">
+      <c r="F137" s="9" t="inlineStr"/>
+      <c r="G137" s="9" t="inlineStr"/>
+      <c r="H137" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I137" s="1" t="inlineStr">
+      <c r="I137" s="9" t="inlineStr">
         <is>
           <t>897</t>
         </is>
       </c>
-      <c r="J137" s="1" t="inlineStr"/>
-      <c r="K137" s="8" t="inlineStr">
+      <c r="J137" s="9" t="inlineStr"/>
+      <c r="K137" s="14" t="inlineStr">
         <is>
           <t>589625</t>
         </is>
       </c>
-      <c r="L137" s="1" t="inlineStr"/>
+      <c r="L137" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="inlineStr"/>
-      <c r="B138" s="2" t="inlineStr"/>
-      <c r="C138" s="1" t="inlineStr"/>
-      <c r="D138" s="1" t="inlineStr"/>
-      <c r="E138" s="10" t="inlineStr">
+      <c r="A138" s="9" t="inlineStr">
+        <is>
+          <t>M066</t>
+        </is>
+      </c>
+      <c r="B138" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 589625.00
+Borrower Amount: 589625.00</t>
+        </is>
+      </c>
+      <c r="C138" s="9" t="inlineStr"/>
+      <c r="D138" s="9" t="inlineStr"/>
+      <c r="E138" s="15" t="inlineStr">
         <is>
           <t>Amount Paid to Narayanganj Palli Bidduyat Samity-1 for Electricty bill for the month of May-2025. Bill no.107001161221000525 Metar no-09000316</t>
         </is>
       </c>
-      <c r="F138" s="1" t="inlineStr"/>
-      <c r="G138" s="1" t="inlineStr"/>
-      <c r="H138" s="1" t="inlineStr"/>
-      <c r="I138" s="1" t="inlineStr"/>
-      <c r="J138" s="1" t="inlineStr"/>
-      <c r="K138" s="1" t="inlineStr"/>
-      <c r="L138" s="1" t="inlineStr"/>
+      <c r="F138" s="9" t="inlineStr"/>
+      <c r="G138" s="9" t="inlineStr"/>
+      <c r="H138" s="9" t="inlineStr"/>
+      <c r="I138" s="9" t="inlineStr"/>
+      <c r="J138" s="9" t="inlineStr"/>
+      <c r="K138" s="9" t="inlineStr"/>
+      <c r="L138" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="inlineStr"/>
-      <c r="B139" s="2" t="inlineStr"/>
-      <c r="C139" s="1" t="inlineStr"/>
-      <c r="D139" s="1" t="inlineStr">
+      <c r="A139" s="9" t="inlineStr">
+        <is>
+          <t>M066</t>
+        </is>
+      </c>
+      <c r="B139" s="10" t="inlineStr"/>
+      <c r="C139" s="9" t="inlineStr"/>
+      <c r="D139" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E139" s="11" t="inlineStr">
+      <c r="E139" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F139" s="1" t="inlineStr"/>
-      <c r="G139" s="1" t="inlineStr"/>
-      <c r="H139" s="1" t="inlineStr"/>
-      <c r="I139" s="1" t="inlineStr"/>
-      <c r="J139" s="1" t="inlineStr"/>
-      <c r="K139" s="1" t="inlineStr"/>
-      <c r="L139" s="1" t="inlineStr"/>
+      <c r="F139" s="9" t="inlineStr"/>
+      <c r="G139" s="9" t="inlineStr"/>
+      <c r="H139" s="9" t="inlineStr"/>
+      <c r="I139" s="9" t="inlineStr"/>
+      <c r="J139" s="9" t="inlineStr"/>
+      <c r="K139" s="9" t="inlineStr"/>
+      <c r="L139" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="140">
-      <c r="A140" s="12" t="inlineStr">
+      <c r="A140" s="17" t="inlineStr">
         <is>
           <t>M005</t>
         </is>
       </c>
-      <c r="B140" s="13" t="inlineStr"/>
-      <c r="C140" s="14" t="inlineStr">
+      <c r="B140" s="18" t="inlineStr"/>
+      <c r="C140" s="19" t="inlineStr">
         <is>
           <t>21/Jun/2025</t>
         </is>
       </c>
-      <c r="D140" s="12" t="inlineStr">
+      <c r="D140" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E140" s="15" t="inlineStr">
+      <c r="E140" s="20" t="inlineStr">
         <is>
           <t>AP-Odoo Bangladesh</t>
         </is>
       </c>
-      <c r="F140" s="12" t="inlineStr"/>
-      <c r="G140" s="12" t="inlineStr"/>
-      <c r="H140" s="16" t="inlineStr">
+      <c r="F140" s="17" t="inlineStr"/>
+      <c r="G140" s="17" t="inlineStr"/>
+      <c r="H140" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I140" s="12" t="inlineStr">
+      <c r="I140" s="17" t="inlineStr">
         <is>
           <t>898</t>
         </is>
       </c>
-      <c r="J140" s="12" t="inlineStr"/>
-      <c r="K140" s="17" t="inlineStr">
+      <c r="J140" s="17" t="inlineStr"/>
+      <c r="K140" s="22" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="L140" s="12" t="inlineStr">
+      <c r="L140" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="12" t="inlineStr">
+      <c r="A141" s="17" t="inlineStr">
         <is>
           <t>M005</t>
         </is>
       </c>
-      <c r="B141" s="13" t="inlineStr">
+      <c r="B141" s="18" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 200000.00
 Borrower Amount: 200000.00</t>
         </is>
       </c>
-      <c r="C141" s="12" t="inlineStr"/>
-      <c r="D141" s="12" t="inlineStr"/>
-      <c r="E141" s="18" t="inlineStr">
+      <c r="C141" s="17" t="inlineStr"/>
+      <c r="D141" s="17" t="inlineStr"/>
+      <c r="E141" s="23" t="inlineStr">
         <is>
           <t>Advance Chq no-8163057.  paid to Odoo Bangladesh agt ERP Emplemention. Ref no-IT/2014/11/008. from CIL Steel unit but 50% bill Tk.2,00,000 recorded in CIL-Trancformer and CIL-Pole Tk.2,00,000 So, Now made voucher as interunit loan.</t>
         </is>
       </c>
-      <c r="F141" s="12" t="inlineStr"/>
-      <c r="G141" s="12" t="inlineStr"/>
-      <c r="H141" s="12" t="inlineStr"/>
-      <c r="I141" s="12" t="inlineStr"/>
-      <c r="J141" s="12" t="inlineStr"/>
-      <c r="K141" s="12" t="inlineStr"/>
-      <c r="L141" s="12" t="inlineStr">
+      <c r="F141" s="17" t="inlineStr"/>
+      <c r="G141" s="17" t="inlineStr"/>
+      <c r="H141" s="17" t="inlineStr"/>
+      <c r="I141" s="17" t="inlineStr"/>
+      <c r="J141" s="17" t="inlineStr"/>
+      <c r="K141" s="17" t="inlineStr"/>
+      <c r="L141" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="12" t="inlineStr">
+      <c r="A142" s="17" t="inlineStr">
         <is>
           <t>M005</t>
         </is>
       </c>
-      <c r="B142" s="13" t="inlineStr"/>
-      <c r="C142" s="12" t="inlineStr"/>
-      <c r="D142" s="12" t="inlineStr">
+      <c r="B142" s="18" t="inlineStr"/>
+      <c r="C142" s="17" t="inlineStr"/>
+      <c r="D142" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E142" s="19" t="inlineStr">
+      <c r="E142" s="24" t="inlineStr">
         <is>
           <t>ziaul</t>
         </is>
       </c>
-      <c r="F142" s="12" t="inlineStr"/>
-      <c r="G142" s="12" t="inlineStr"/>
-      <c r="H142" s="12" t="inlineStr"/>
-      <c r="I142" s="12" t="inlineStr"/>
-      <c r="J142" s="12" t="inlineStr"/>
-      <c r="K142" s="12" t="inlineStr"/>
-      <c r="L142" s="12" t="inlineStr">
+      <c r="F142" s="17" t="inlineStr"/>
+      <c r="G142" s="17" t="inlineStr"/>
+      <c r="H142" s="17" t="inlineStr"/>
+      <c r="I142" s="17" t="inlineStr"/>
+      <c r="J142" s="17" t="inlineStr"/>
+      <c r="K142" s="17" t="inlineStr"/>
+      <c r="L142" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="20" t="inlineStr">
+      <c r="A143" s="9" t="inlineStr">
         <is>
           <t>M007</t>
         </is>
       </c>
-      <c r="B143" s="21" t="inlineStr"/>
-      <c r="C143" s="22" t="inlineStr">
+      <c r="B143" s="10" t="inlineStr"/>
+      <c r="C143" s="11" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D143" s="20" t="inlineStr">
+      <c r="D143" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E143" s="23" t="inlineStr">
+      <c r="E143" s="12" t="inlineStr">
         <is>
           <t>GULC#308524012043/24-Tap Changer &amp; AVR</t>
         </is>
       </c>
-      <c r="F143" s="20" t="inlineStr"/>
-      <c r="G143" s="20" t="inlineStr"/>
-      <c r="H143" s="24" t="inlineStr">
+      <c r="F143" s="9" t="inlineStr"/>
+      <c r="G143" s="9" t="inlineStr"/>
+      <c r="H143" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I143" s="20" t="inlineStr">
+      <c r="I143" s="9" t="inlineStr">
         <is>
           <t>901</t>
         </is>
       </c>
-      <c r="J143" s="20" t="inlineStr"/>
-      <c r="K143" s="25" t="inlineStr">
+      <c r="J143" s="9" t="inlineStr"/>
+      <c r="K143" s="14" t="inlineStr">
         <is>
           <t>85000</t>
         </is>
       </c>
-      <c r="L143" s="20" t="inlineStr">
+      <c r="L143" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="20" t="inlineStr">
+      <c r="A144" s="9" t="inlineStr">
         <is>
           <t>M007</t>
         </is>
       </c>
-      <c r="B144" s="21" t="inlineStr">
+      <c r="B144" s="10" t="inlineStr">
         <is>
           <t>LC Match: LC-308524012043/24
 Lender Amount: 85000.00
 Borrower Amount: 85000.00</t>
         </is>
       </c>
-      <c r="C144" s="20" t="inlineStr"/>
-      <c r="D144" s="20" t="inlineStr"/>
-      <c r="E144" s="26" t="inlineStr">
+      <c r="C144" s="9" t="inlineStr"/>
+      <c r="D144" s="9" t="inlineStr"/>
+      <c r="E144" s="15" t="inlineStr">
         <is>
           <t>Amount being paid as Port,Shipping &amp; Carrying Charges agt LC-308524012043/24-Transformer Unit-[Item-OLTC-Project-PBSH-G-89-Team-A][C-1164524]</t>
         </is>
       </c>
-      <c r="F144" s="20" t="inlineStr"/>
-      <c r="G144" s="20" t="inlineStr"/>
-      <c r="H144" s="20" t="inlineStr"/>
-      <c r="I144" s="20" t="inlineStr"/>
-      <c r="J144" s="20" t="inlineStr"/>
-      <c r="K144" s="20" t="inlineStr"/>
-      <c r="L144" s="20" t="inlineStr">
+      <c r="F144" s="9" t="inlineStr"/>
+      <c r="G144" s="9" t="inlineStr"/>
+      <c r="H144" s="9" t="inlineStr"/>
+      <c r="I144" s="9" t="inlineStr"/>
+      <c r="J144" s="9" t="inlineStr"/>
+      <c r="K144" s="9" t="inlineStr"/>
+      <c r="L144" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="20" t="inlineStr">
+      <c r="A145" s="9" t="inlineStr">
         <is>
           <t>M007</t>
         </is>
       </c>
-      <c r="B145" s="21" t="inlineStr"/>
-      <c r="C145" s="20" t="inlineStr"/>
-      <c r="D145" s="20" t="inlineStr">
+      <c r="B145" s="10" t="inlineStr"/>
+      <c r="C145" s="9" t="inlineStr"/>
+      <c r="D145" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E145" s="27" t="inlineStr">
+      <c r="E145" s="16" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F145" s="20" t="inlineStr"/>
-      <c r="G145" s="20" t="inlineStr"/>
-      <c r="H145" s="20" t="inlineStr"/>
-      <c r="I145" s="20" t="inlineStr"/>
-      <c r="J145" s="20" t="inlineStr"/>
-      <c r="K145" s="20" t="inlineStr"/>
-      <c r="L145" s="20" t="inlineStr">
+      <c r="F145" s="9" t="inlineStr"/>
+      <c r="G145" s="9" t="inlineStr"/>
+      <c r="H145" s="9" t="inlineStr"/>
+      <c r="I145" s="9" t="inlineStr"/>
+      <c r="J145" s="9" t="inlineStr"/>
+      <c r="K145" s="9" t="inlineStr"/>
+      <c r="L145" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="12" t="inlineStr">
+      <c r="A146" s="17" t="inlineStr">
         <is>
           <t>M013</t>
         </is>
       </c>
-      <c r="B146" s="13" t="inlineStr"/>
-      <c r="C146" s="14" t="inlineStr">
+      <c r="B146" s="18" t="inlineStr"/>
+      <c r="C146" s="19" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D146" s="12" t="inlineStr">
+      <c r="D146" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E146" s="15" t="inlineStr">
+      <c r="E146" s="20" t="inlineStr">
         <is>
           <t>PBL-Time Loan-LD2432680080</t>
         </is>
       </c>
-      <c r="F146" s="12" t="inlineStr"/>
-      <c r="G146" s="12" t="inlineStr"/>
-      <c r="H146" s="16" t="inlineStr">
+      <c r="F146" s="17" t="inlineStr"/>
+      <c r="G146" s="17" t="inlineStr"/>
+      <c r="H146" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I146" s="12" t="inlineStr">
+      <c r="I146" s="17" t="inlineStr">
         <is>
           <t>903</t>
         </is>
       </c>
-      <c r="J146" s="12" t="inlineStr"/>
-      <c r="K146" s="17" t="inlineStr">
+      <c r="J146" s="17" t="inlineStr"/>
+      <c r="K146" s="22" t="inlineStr">
         <is>
           <t>174172.7</t>
         </is>
       </c>
-      <c r="L146" s="12" t="inlineStr">
+      <c r="L146" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="12" t="inlineStr">
+      <c r="A147" s="17" t="inlineStr">
         <is>
           <t>M013</t>
         </is>
       </c>
-      <c r="B147" s="13" t="inlineStr">
+      <c r="B147" s="18" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 174172.70
 Borrower Amount: 174172.70</t>
         </is>
       </c>
-      <c r="C147" s="12" t="inlineStr"/>
-      <c r="D147" s="12" t="inlineStr"/>
-      <c r="E147" s="18" t="inlineStr">
+      <c r="C147" s="17" t="inlineStr"/>
+      <c r="D147" s="17" t="inlineStr"/>
+      <c r="E147" s="23" t="inlineStr">
         <is>
           <t>Amount being paid as Principal &amp; Interest repayment of Time Loan-CIL Transformer-LD-2432680080</t>
         </is>
       </c>
-      <c r="F147" s="12" t="inlineStr"/>
-      <c r="G147" s="12" t="inlineStr"/>
-      <c r="H147" s="12" t="inlineStr"/>
-      <c r="I147" s="12" t="inlineStr"/>
-      <c r="J147" s="12" t="inlineStr"/>
-      <c r="K147" s="12" t="inlineStr"/>
-      <c r="L147" s="12" t="inlineStr">
+      <c r="F147" s="17" t="inlineStr"/>
+      <c r="G147" s="17" t="inlineStr"/>
+      <c r="H147" s="17" t="inlineStr"/>
+      <c r="I147" s="17" t="inlineStr"/>
+      <c r="J147" s="17" t="inlineStr"/>
+      <c r="K147" s="17" t="inlineStr"/>
+      <c r="L147" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="12" t="inlineStr">
+      <c r="A148" s="17" t="inlineStr">
         <is>
           <t>M013</t>
         </is>
       </c>
-      <c r="B148" s="13" t="inlineStr"/>
-      <c r="C148" s="12" t="inlineStr"/>
-      <c r="D148" s="12" t="inlineStr">
+      <c r="B148" s="18" t="inlineStr"/>
+      <c r="C148" s="17" t="inlineStr"/>
+      <c r="D148" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E148" s="19" t="inlineStr">
+      <c r="E148" s="24" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F148" s="12" t="inlineStr"/>
-      <c r="G148" s="12" t="inlineStr"/>
-      <c r="H148" s="12" t="inlineStr"/>
-      <c r="I148" s="12" t="inlineStr"/>
-      <c r="J148" s="12" t="inlineStr"/>
-      <c r="K148" s="12" t="inlineStr"/>
-      <c r="L148" s="12" t="inlineStr">
+      <c r="F148" s="17" t="inlineStr"/>
+      <c r="G148" s="17" t="inlineStr"/>
+      <c r="H148" s="17" t="inlineStr"/>
+      <c r="I148" s="17" t="inlineStr"/>
+      <c r="J148" s="17" t="inlineStr"/>
+      <c r="K148" s="17" t="inlineStr"/>
+      <c r="L148" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="20" t="inlineStr">
+      <c r="A149" s="9" t="inlineStr">
         <is>
           <t>M009</t>
         </is>
       </c>
-      <c r="B149" s="21" t="inlineStr"/>
-      <c r="C149" s="22" t="inlineStr">
+      <c r="B149" s="10" t="inlineStr"/>
+      <c r="C149" s="11" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D149" s="20" t="inlineStr">
+      <c r="D149" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E149" s="23" t="inlineStr">
+      <c r="E149" s="12" t="inlineStr">
         <is>
           <t>PBL-Time Loan-LD2435445106</t>
         </is>
       </c>
-      <c r="F149" s="20" t="inlineStr"/>
-      <c r="G149" s="20" t="inlineStr"/>
-      <c r="H149" s="24" t="inlineStr">
+      <c r="F149" s="9" t="inlineStr"/>
+      <c r="G149" s="9" t="inlineStr"/>
+      <c r="H149" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I149" s="20" t="inlineStr">
+      <c r="I149" s="9" t="inlineStr">
         <is>
           <t>904</t>
         </is>
       </c>
-      <c r="J149" s="20" t="inlineStr"/>
-      <c r="K149" s="25" t="inlineStr">
+      <c r="J149" s="9" t="inlineStr"/>
+      <c r="K149" s="14" t="inlineStr">
         <is>
           <t>272808.31</t>
         </is>
       </c>
-      <c r="L149" s="20" t="inlineStr">
+      <c r="L149" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="20" t="inlineStr">
+      <c r="A150" s="9" t="inlineStr">
         <is>
           <t>M009</t>
         </is>
       </c>
-      <c r="B150" s="21" t="inlineStr">
+      <c r="B150" s="10" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 272808.31
 Borrower Amount: 272808.31</t>
         </is>
       </c>
-      <c r="C150" s="20" t="inlineStr"/>
-      <c r="D150" s="20" t="inlineStr"/>
-      <c r="E150" s="26" t="inlineStr">
+      <c r="C150" s="9" t="inlineStr"/>
+      <c r="D150" s="9" t="inlineStr"/>
+      <c r="E150" s="15" t="inlineStr">
         <is>
           <t>Amount being paid as Principal &amp; Interest Repayment of Time Loan of Transformer-LD-2435445106</t>
         </is>
       </c>
-      <c r="F150" s="20" t="inlineStr"/>
-      <c r="G150" s="20" t="inlineStr"/>
-      <c r="H150" s="20" t="inlineStr"/>
-      <c r="I150" s="20" t="inlineStr"/>
-      <c r="J150" s="20" t="inlineStr"/>
-      <c r="K150" s="20" t="inlineStr"/>
-      <c r="L150" s="20" t="inlineStr">
+      <c r="F150" s="9" t="inlineStr"/>
+      <c r="G150" s="9" t="inlineStr"/>
+      <c r="H150" s="9" t="inlineStr"/>
+      <c r="I150" s="9" t="inlineStr"/>
+      <c r="J150" s="9" t="inlineStr"/>
+      <c r="K150" s="9" t="inlineStr"/>
+      <c r="L150" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="20" t="inlineStr">
+      <c r="A151" s="9" t="inlineStr">
         <is>
           <t>M009</t>
         </is>
       </c>
-      <c r="B151" s="21" t="inlineStr"/>
-      <c r="C151" s="20" t="inlineStr"/>
-      <c r="D151" s="20" t="inlineStr">
+      <c r="B151" s="10" t="inlineStr"/>
+      <c r="C151" s="9" t="inlineStr"/>
+      <c r="D151" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E151" s="27" t="inlineStr">
+      <c r="E151" s="16" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F151" s="20" t="inlineStr"/>
-      <c r="G151" s="20" t="inlineStr"/>
-      <c r="H151" s="20" t="inlineStr"/>
-      <c r="I151" s="20" t="inlineStr"/>
-      <c r="J151" s="20" t="inlineStr"/>
-      <c r="K151" s="20" t="inlineStr"/>
-      <c r="L151" s="20" t="inlineStr">
+      <c r="F151" s="9" t="inlineStr"/>
+      <c r="G151" s="9" t="inlineStr"/>
+      <c r="H151" s="9" t="inlineStr"/>
+      <c r="I151" s="9" t="inlineStr"/>
+      <c r="J151" s="9" t="inlineStr"/>
+      <c r="K151" s="9" t="inlineStr"/>
+      <c r="L151" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="12" t="inlineStr">
+      <c r="A152" s="17" t="inlineStr">
         <is>
           <t>M011</t>
         </is>
       </c>
-      <c r="B152" s="13" t="inlineStr"/>
-      <c r="C152" s="14" t="inlineStr">
+      <c r="B152" s="18" t="inlineStr"/>
+      <c r="C152" s="19" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D152" s="12" t="inlineStr">
+      <c r="D152" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E152" s="15" t="inlineStr">
+      <c r="E152" s="20" t="inlineStr">
         <is>
           <t>PBL-Time Loan-LD2503002237</t>
         </is>
       </c>
-      <c r="F152" s="12" t="inlineStr"/>
-      <c r="G152" s="12" t="inlineStr"/>
-      <c r="H152" s="16" t="inlineStr">
+      <c r="F152" s="17" t="inlineStr"/>
+      <c r="G152" s="17" t="inlineStr"/>
+      <c r="H152" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I152" s="12" t="inlineStr">
+      <c r="I152" s="17" t="inlineStr">
         <is>
           <t>905</t>
         </is>
       </c>
-      <c r="J152" s="12" t="inlineStr"/>
-      <c r="K152" s="17" t="inlineStr">
+      <c r="J152" s="17" t="inlineStr"/>
+      <c r="K152" s="22" t="inlineStr">
         <is>
           <t>133619.23</t>
         </is>
       </c>
-      <c r="L152" s="12" t="inlineStr">
+      <c r="L152" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="12" t="inlineStr">
+      <c r="A153" s="17" t="inlineStr">
         <is>
           <t>M011</t>
         </is>
       </c>
-      <c r="B153" s="13" t="inlineStr">
+      <c r="B153" s="18" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 133619.23
 Borrower Amount: 133619.23</t>
         </is>
       </c>
-      <c r="C153" s="12" t="inlineStr"/>
-      <c r="D153" s="12" t="inlineStr"/>
-      <c r="E153" s="18" t="inlineStr">
+      <c r="C153" s="17" t="inlineStr"/>
+      <c r="D153" s="17" t="inlineStr"/>
+      <c r="E153" s="23" t="inlineStr">
         <is>
           <t>Amount being paid as Principal &amp; Interest Repayment of Time Loan of Transformer-LD-2503002237</t>
         </is>
       </c>
-      <c r="F153" s="12" t="inlineStr"/>
-      <c r="G153" s="12" t="inlineStr"/>
-      <c r="H153" s="12" t="inlineStr"/>
-      <c r="I153" s="12" t="inlineStr"/>
-      <c r="J153" s="12" t="inlineStr"/>
-      <c r="K153" s="12" t="inlineStr"/>
-      <c r="L153" s="12" t="inlineStr">
+      <c r="F153" s="17" t="inlineStr"/>
+      <c r="G153" s="17" t="inlineStr"/>
+      <c r="H153" s="17" t="inlineStr"/>
+      <c r="I153" s="17" t="inlineStr"/>
+      <c r="J153" s="17" t="inlineStr"/>
+      <c r="K153" s="17" t="inlineStr"/>
+      <c r="L153" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="12" t="inlineStr">
+      <c r="A154" s="17" t="inlineStr">
         <is>
           <t>M011</t>
         </is>
       </c>
-      <c r="B154" s="13" t="inlineStr"/>
-      <c r="C154" s="12" t="inlineStr"/>
-      <c r="D154" s="12" t="inlineStr">
+      <c r="B154" s="18" t="inlineStr"/>
+      <c r="C154" s="17" t="inlineStr"/>
+      <c r="D154" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E154" s="19" t="inlineStr">
+      <c r="E154" s="24" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F154" s="12" t="inlineStr"/>
-      <c r="G154" s="12" t="inlineStr"/>
-      <c r="H154" s="12" t="inlineStr"/>
-      <c r="I154" s="12" t="inlineStr"/>
-      <c r="J154" s="12" t="inlineStr"/>
-      <c r="K154" s="12" t="inlineStr"/>
-      <c r="L154" s="12" t="inlineStr">
+      <c r="F154" s="17" t="inlineStr"/>
+      <c r="G154" s="17" t="inlineStr"/>
+      <c r="H154" s="17" t="inlineStr"/>
+      <c r="I154" s="17" t="inlineStr"/>
+      <c r="J154" s="17" t="inlineStr"/>
+      <c r="K154" s="17" t="inlineStr"/>
+      <c r="L154" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="inlineStr"/>
-      <c r="B155" s="2" t="inlineStr"/>
-      <c r="C155" s="6" t="inlineStr">
+      <c r="A155" s="9" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
+      <c r="B155" s="10" t="inlineStr"/>
+      <c r="C155" s="11" t="inlineStr">
         <is>
           <t>24/Jun/2025</t>
         </is>
       </c>
-      <c r="D155" s="1" t="inlineStr">
+      <c r="D155" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E155" s="7" t="inlineStr">
+      <c r="E155" s="12" t="inlineStr">
         <is>
           <t>PBL-SND- 2126312011060</t>
         </is>
       </c>
-      <c r="F155" s="1" t="inlineStr"/>
-      <c r="G155" s="1" t="inlineStr"/>
-      <c r="H155" s="9" t="inlineStr">
+      <c r="F155" s="9" t="inlineStr"/>
+      <c r="G155" s="9" t="inlineStr"/>
+      <c r="H155" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I155" s="1" t="inlineStr">
+      <c r="I155" s="9" t="inlineStr">
         <is>
           <t>18164</t>
         </is>
       </c>
-      <c r="J155" s="8" t="inlineStr">
+      <c r="J155" s="14" t="inlineStr">
         <is>
           <t>50000</t>
         </is>
       </c>
-      <c r="K155" s="1" t="inlineStr"/>
-      <c r="L155" s="1" t="inlineStr"/>
+      <c r="K155" s="9" t="inlineStr"/>
+      <c r="L155" s="9" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="inlineStr"/>
-      <c r="B156" s="2" t="inlineStr"/>
-      <c r="C156" s="1" t="inlineStr"/>
-      <c r="D156" s="1" t="inlineStr"/>
-      <c r="E156" s="10" t="inlineStr">
+      <c r="A156" s="9" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
+      <c r="B156" s="10" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: PBL#1060
+Lender Amount: 50000.00
+Borrower Amount: 50000.00</t>
+        </is>
+      </c>
+      <c r="C156" s="9" t="inlineStr"/>
+      <c r="D156" s="9" t="inlineStr"/>
+      <c r="E156" s="15" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Interunit Loan A/C-Steel Unit,PBL#10855</t>
         </is>
       </c>
-      <c r="F156" s="1" t="inlineStr"/>
-      <c r="G156" s="1" t="inlineStr"/>
-      <c r="H156" s="1" t="inlineStr"/>
-      <c r="I156" s="1" t="inlineStr"/>
-      <c r="J156" s="1" t="inlineStr"/>
-      <c r="K156" s="1" t="inlineStr"/>
-      <c r="L156" s="1" t="inlineStr"/>
+      <c r="F156" s="9" t="inlineStr"/>
+      <c r="G156" s="9" t="inlineStr"/>
+      <c r="H156" s="9" t="inlineStr"/>
+      <c r="I156" s="9" t="inlineStr"/>
+      <c r="J156" s="9" t="inlineStr"/>
+      <c r="K156" s="9" t="inlineStr"/>
+      <c r="L156" s="9" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="inlineStr"/>
-      <c r="B157" s="2" t="inlineStr"/>
-      <c r="C157" s="1" t="inlineStr"/>
-      <c r="D157" s="1" t="inlineStr">
+      <c r="A157" s="9" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
+      <c r="B157" s="10" t="inlineStr"/>
+      <c r="C157" s="9" t="inlineStr"/>
+      <c r="D157" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E157" s="11" t="inlineStr">
+      <c r="E157" s="16" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F157" s="1" t="inlineStr"/>
-      <c r="G157" s="1" t="inlineStr"/>
-      <c r="H157" s="1" t="inlineStr"/>
-      <c r="I157" s="1" t="inlineStr"/>
-      <c r="J157" s="1" t="inlineStr"/>
-      <c r="K157" s="1" t="inlineStr"/>
-      <c r="L157" s="1" t="inlineStr"/>
+      <c r="F157" s="9" t="inlineStr"/>
+      <c r="G157" s="9" t="inlineStr"/>
+      <c r="H157" s="9" t="inlineStr"/>
+      <c r="I157" s="9" t="inlineStr"/>
+      <c r="J157" s="9" t="inlineStr"/>
+      <c r="K157" s="9" t="inlineStr"/>
+      <c r="L157" s="9" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="inlineStr"/>
-      <c r="B158" s="2" t="inlineStr"/>
-      <c r="C158" s="6" t="inlineStr">
+      <c r="A158" s="17" t="inlineStr">
+        <is>
+          <t>M021</t>
+        </is>
+      </c>
+      <c r="B158" s="18" t="inlineStr"/>
+      <c r="C158" s="19" t="inlineStr">
         <is>
           <t>25/Jun/2025</t>
         </is>
       </c>
-      <c r="D158" s="1" t="inlineStr">
+      <c r="D158" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E158" s="7" t="inlineStr">
+      <c r="E158" s="20" t="inlineStr">
         <is>
           <t>Eastern Bank ,STD-1011220144067</t>
         </is>
       </c>
-      <c r="F158" s="1" t="inlineStr"/>
-      <c r="G158" s="1" t="inlineStr"/>
-      <c r="H158" s="9" t="inlineStr">
+      <c r="F158" s="17" t="inlineStr"/>
+      <c r="G158" s="17" t="inlineStr"/>
+      <c r="H158" s="21" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I158" s="1" t="inlineStr">
+      <c r="I158" s="17" t="inlineStr">
         <is>
           <t>181</t>
         </is>
       </c>
-      <c r="J158" s="1" t="inlineStr"/>
-      <c r="K158" s="8" t="inlineStr">
+      <c r="J158" s="17" t="inlineStr"/>
+      <c r="K158" s="22" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="L158" s="1" t="inlineStr"/>
+      <c r="L158" s="17" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="inlineStr"/>
-      <c r="B159" s="2" t="inlineStr"/>
-      <c r="C159" s="1" t="inlineStr"/>
-      <c r="D159" s="1" t="inlineStr"/>
-      <c r="E159" s="10" t="inlineStr">
+      <c r="A159" s="17" t="inlineStr">
+        <is>
+          <t>M021</t>
+        </is>
+      </c>
+      <c r="B159" s="18" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: EBL#4056
+Lender Amount: 200000.00
+Borrower Amount: 200000.00</t>
+        </is>
+      </c>
+      <c r="C159" s="17" t="inlineStr"/>
+      <c r="D159" s="17" t="inlineStr"/>
+      <c r="E159" s="23" t="inlineStr">
         <is>
           <t>Amount received as Interunit Loan A/C-Steel Unit, EBL#44056</t>
         </is>
       </c>
-      <c r="F159" s="1" t="inlineStr"/>
-      <c r="G159" s="1" t="inlineStr"/>
-      <c r="H159" s="1" t="inlineStr"/>
-      <c r="I159" s="1" t="inlineStr"/>
-      <c r="J159" s="1" t="inlineStr"/>
-      <c r="K159" s="1" t="inlineStr"/>
-      <c r="L159" s="1" t="inlineStr"/>
+      <c r="F159" s="17" t="inlineStr"/>
+      <c r="G159" s="17" t="inlineStr"/>
+      <c r="H159" s="17" t="inlineStr"/>
+      <c r="I159" s="17" t="inlineStr"/>
+      <c r="J159" s="17" t="inlineStr"/>
+      <c r="K159" s="17" t="inlineStr"/>
+      <c r="L159" s="17" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="inlineStr"/>
-      <c r="B160" s="2" t="inlineStr"/>
-      <c r="C160" s="1" t="inlineStr"/>
-      <c r="D160" s="1" t="inlineStr">
+      <c r="A160" s="17" t="inlineStr">
+        <is>
+          <t>M021</t>
+        </is>
+      </c>
+      <c r="B160" s="18" t="inlineStr"/>
+      <c r="C160" s="17" t="inlineStr"/>
+      <c r="D160" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E160" s="11" t="inlineStr">
+      <c r="E160" s="24" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F160" s="1" t="inlineStr"/>
-      <c r="G160" s="1" t="inlineStr"/>
-      <c r="H160" s="1" t="inlineStr"/>
-      <c r="I160" s="1" t="inlineStr"/>
-      <c r="J160" s="1" t="inlineStr"/>
-      <c r="K160" s="1" t="inlineStr"/>
-      <c r="L160" s="1" t="inlineStr"/>
+      <c r="F160" s="17" t="inlineStr"/>
+      <c r="G160" s="17" t="inlineStr"/>
+      <c r="H160" s="17" t="inlineStr"/>
+      <c r="I160" s="17" t="inlineStr"/>
+      <c r="J160" s="17" t="inlineStr"/>
+      <c r="K160" s="17" t="inlineStr"/>
+      <c r="L160" s="17" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="161">
-      <c r="A161" s="20" t="inlineStr">
-        <is>
-          <t>M018</t>
-        </is>
-      </c>
-      <c r="B161" s="21" t="inlineStr"/>
-      <c r="C161" s="22" t="inlineStr">
+      <c r="A161" s="9" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B161" s="10" t="inlineStr"/>
+      <c r="C161" s="11" t="inlineStr">
         <is>
           <t>25/Jun/2025</t>
         </is>
       </c>
-      <c r="D161" s="20" t="inlineStr">
+      <c r="D161" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E161" s="23" t="inlineStr">
+      <c r="E161" s="12" t="inlineStr">
         <is>
           <t>Midland Bank Ltd-CE-0011-1060000313</t>
         </is>
       </c>
-      <c r="F161" s="20" t="inlineStr"/>
-      <c r="G161" s="20" t="inlineStr"/>
-      <c r="H161" s="24" t="inlineStr">
+      <c r="F161" s="9" t="inlineStr"/>
+      <c r="G161" s="9" t="inlineStr"/>
+      <c r="H161" s="13" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I161" s="20" t="inlineStr">
+      <c r="I161" s="9" t="inlineStr">
         <is>
           <t>183</t>
         </is>
       </c>
-      <c r="J161" s="20" t="inlineStr"/>
-      <c r="K161" s="25" t="inlineStr">
+      <c r="J161" s="9" t="inlineStr"/>
+      <c r="K161" s="14" t="inlineStr">
         <is>
           <t>4000000</t>
         </is>
       </c>
-      <c r="L161" s="20" t="inlineStr">
+      <c r="L161" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="20" t="inlineStr">
-        <is>
-          <t>M018</t>
-        </is>
-      </c>
-      <c r="B162" s="21" t="inlineStr">
-        <is>
-          <t>Interunit Loan Match: MDB#0313 &lt;-&gt; MDB#0331
+      <c r="A162" s="9" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B162" s="10" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: MDB#0331
 Lender Amount: 4000000.00
 Borrower Amount: 4000000.00</t>
         </is>
       </c>
-      <c r="C162" s="20" t="inlineStr"/>
-      <c r="D162" s="20" t="inlineStr"/>
-      <c r="E162" s="26" t="inlineStr">
+      <c r="C162" s="9" t="inlineStr"/>
+      <c r="D162" s="9" t="inlineStr"/>
+      <c r="E162" s="15" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Interunit Loan A/C-Steel Unit, MDB#0331</t>
         </is>
       </c>
-      <c r="F162" s="20" t="inlineStr"/>
-      <c r="G162" s="20" t="inlineStr"/>
-      <c r="H162" s="20" t="inlineStr"/>
-      <c r="I162" s="20" t="inlineStr"/>
-      <c r="J162" s="20" t="inlineStr"/>
-      <c r="K162" s="20" t="inlineStr"/>
-      <c r="L162" s="20" t="inlineStr">
+      <c r="F162" s="9" t="inlineStr"/>
+      <c r="G162" s="9" t="inlineStr"/>
+      <c r="H162" s="9" t="inlineStr"/>
+      <c r="I162" s="9" t="inlineStr"/>
+      <c r="J162" s="9" t="inlineStr"/>
+      <c r="K162" s="9" t="inlineStr"/>
+      <c r="L162" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="20" t="inlineStr">
-        <is>
-          <t>M018</t>
-        </is>
-      </c>
-      <c r="B163" s="21" t="inlineStr"/>
-      <c r="C163" s="20" t="inlineStr"/>
-      <c r="D163" s="20" t="inlineStr">
+      <c r="A163" s="9" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B163" s="10" t="inlineStr"/>
+      <c r="C163" s="9" t="inlineStr"/>
+      <c r="D163" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E163" s="27" t="inlineStr">
+      <c r="E163" s="16" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F163" s="20" t="inlineStr"/>
-      <c r="G163" s="20" t="inlineStr"/>
-      <c r="H163" s="20" t="inlineStr"/>
-      <c r="I163" s="20" t="inlineStr"/>
-      <c r="J163" s="20" t="inlineStr"/>
-      <c r="K163" s="20" t="inlineStr"/>
-      <c r="L163" s="20" t="inlineStr">
+      <c r="F163" s="9" t="inlineStr"/>
+      <c r="G163" s="9" t="inlineStr"/>
+      <c r="H163" s="9" t="inlineStr"/>
+      <c r="I163" s="9" t="inlineStr"/>
+      <c r="J163" s="9" t="inlineStr"/>
+      <c r="K163" s="9" t="inlineStr"/>
+      <c r="L163" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="inlineStr"/>
-      <c r="B164" s="2" t="inlineStr"/>
-      <c r="C164" s="6" t="inlineStr">
+      <c r="A164" s="17" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B164" s="18" t="inlineStr"/>
+      <c r="C164" s="19" t="inlineStr">
         <is>
           <t>26/Jun/2025</t>
         </is>
       </c>
-      <c r="D164" s="1" t="inlineStr">
+      <c r="D164" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E164" s="7" t="inlineStr">
+      <c r="E164" s="20" t="inlineStr">
         <is>
           <t>Adv-RR-Imperial Electricals Limited</t>
         </is>
       </c>
-      <c r="F164" s="1" t="inlineStr"/>
-      <c r="G164" s="1" t="inlineStr"/>
-      <c r="H164" s="9" t="inlineStr">
+      <c r="F164" s="17" t="inlineStr"/>
+      <c r="G164" s="17" t="inlineStr"/>
+      <c r="H164" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I164" s="1" t="inlineStr">
+      <c r="I164" s="17" t="inlineStr">
         <is>
           <t>926</t>
         </is>
       </c>
-      <c r="J164" s="1" t="inlineStr"/>
-      <c r="K164" s="8" t="inlineStr">
+      <c r="J164" s="17" t="inlineStr"/>
+      <c r="K164" s="22" t="inlineStr">
         <is>
           <t>5137392</t>
         </is>
       </c>
-      <c r="L164" s="1" t="inlineStr"/>
+      <c r="L164" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="inlineStr"/>
-      <c r="B165" s="2" t="inlineStr"/>
-      <c r="C165" s="1" t="inlineStr"/>
-      <c r="D165" s="1" t="inlineStr"/>
-      <c r="E165" s="10" t="inlineStr">
+      <c r="A165" s="17" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B165" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 5137392.00
+Borrower Amount: 5137392.00</t>
+        </is>
+      </c>
+      <c r="C165" s="17" t="inlineStr"/>
+      <c r="D165" s="17" t="inlineStr"/>
+      <c r="E165" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to RR-Imperial Electricals Limited . Supply of , Invoice Number:  1270, Challan Number: , Work Order Number: BRE/PO/2025/6/34287, BA Team (A), Company Unit: Transformer, Project Name : BREB/DP/PBSF-G-89-Lot-1/1/086/2023-2024 (REB) 3-Phase Power Transformer , Work Order date: 2025-06-24, Goods Received Date: , Work Order Value: 5275000.0, Total Bill Amount: 5137392.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F165" s="1" t="inlineStr"/>
-      <c r="G165" s="1" t="inlineStr"/>
-      <c r="H165" s="1" t="inlineStr"/>
-      <c r="I165" s="1" t="inlineStr"/>
-      <c r="J165" s="1" t="inlineStr"/>
-      <c r="K165" s="1" t="inlineStr"/>
-      <c r="L165" s="1" t="inlineStr"/>
+      <c r="F165" s="17" t="inlineStr"/>
+      <c r="G165" s="17" t="inlineStr"/>
+      <c r="H165" s="17" t="inlineStr"/>
+      <c r="I165" s="17" t="inlineStr"/>
+      <c r="J165" s="17" t="inlineStr"/>
+      <c r="K165" s="17" t="inlineStr"/>
+      <c r="L165" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="inlineStr"/>
-      <c r="B166" s="2" t="inlineStr"/>
-      <c r="C166" s="1" t="inlineStr"/>
-      <c r="D166" s="1" t="inlineStr">
+      <c r="A166" s="17" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B166" s="18" t="inlineStr"/>
+      <c r="C166" s="17" t="inlineStr"/>
+      <c r="D166" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E166" s="11" t="inlineStr">
+      <c r="E166" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F166" s="1" t="inlineStr"/>
-      <c r="G166" s="1" t="inlineStr"/>
-      <c r="H166" s="1" t="inlineStr"/>
-      <c r="I166" s="1" t="inlineStr"/>
-      <c r="J166" s="1" t="inlineStr"/>
-      <c r="K166" s="1" t="inlineStr"/>
-      <c r="L166" s="1" t="inlineStr"/>
+      <c r="F166" s="17" t="inlineStr"/>
+      <c r="G166" s="17" t="inlineStr"/>
+      <c r="H166" s="17" t="inlineStr"/>
+      <c r="I166" s="17" t="inlineStr"/>
+      <c r="J166" s="17" t="inlineStr"/>
+      <c r="K166" s="17" t="inlineStr"/>
+      <c r="L166" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="inlineStr"/>
-      <c r="B167" s="2" t="inlineStr"/>
-      <c r="C167" s="6" t="inlineStr">
+      <c r="A167" s="9" t="inlineStr">
+        <is>
+          <t>M068</t>
+        </is>
+      </c>
+      <c r="B167" s="10" t="inlineStr"/>
+      <c r="C167" s="11" t="inlineStr">
         <is>
           <t>29/Jun/2025</t>
         </is>
       </c>
-      <c r="D167" s="1" t="inlineStr">
+      <c r="D167" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E167" s="7" t="inlineStr">
+      <c r="E167" s="12" t="inlineStr">
         <is>
           <t>Adv-Rangpur Metal Industries Limited</t>
         </is>
       </c>
-      <c r="F167" s="1" t="inlineStr"/>
-      <c r="G167" s="1" t="inlineStr"/>
-      <c r="H167" s="9" t="inlineStr">
+      <c r="F167" s="9" t="inlineStr"/>
+      <c r="G167" s="9" t="inlineStr"/>
+      <c r="H167" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I167" s="1" t="inlineStr">
+      <c r="I167" s="9" t="inlineStr">
         <is>
           <t>934</t>
         </is>
       </c>
-      <c r="J167" s="1" t="inlineStr"/>
-      <c r="K167" s="8" t="inlineStr">
+      <c r="J167" s="9" t="inlineStr"/>
+      <c r="K167" s="14" t="inlineStr">
         <is>
           <t>11780452</t>
         </is>
       </c>
-      <c r="L167" s="1" t="inlineStr"/>
+      <c r="L167" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="inlineStr"/>
-      <c r="B168" s="2" t="inlineStr"/>
-      <c r="C168" s="1" t="inlineStr"/>
-      <c r="D168" s="1" t="inlineStr"/>
-      <c r="E168" s="10" t="inlineStr">
+      <c r="A168" s="9" t="inlineStr">
+        <is>
+          <t>M068</t>
+        </is>
+      </c>
+      <c r="B168" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 11780452.00
+Borrower Amount: 11780452.00</t>
+        </is>
+      </c>
+      <c r="C168" s="9" t="inlineStr"/>
+      <c r="D168" s="9" t="inlineStr"/>
+      <c r="E168" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to Rangpur Metal Industries Limited. Supply of , Invoice Number:  advanced/CIT/10, Challan Number: , Work Order Number: DHK/PO/2025/6/34312, BA Team (A), Company Unit: Transformer, Project Name : DHK-1 PBS (1-Phase Distribution Transformer), Work Order date: 2025-06-25, Goods Received Date: , Work Order Value: 3.389904E7, Total Bill Amount: 1.2096E7, TDS Deduction Amount: 315548.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F168" s="1" t="inlineStr"/>
-      <c r="G168" s="1" t="inlineStr"/>
-      <c r="H168" s="1" t="inlineStr"/>
-      <c r="I168" s="1" t="inlineStr"/>
-      <c r="J168" s="1" t="inlineStr"/>
-      <c r="K168" s="1" t="inlineStr"/>
-      <c r="L168" s="1" t="inlineStr"/>
+      <c r="F168" s="9" t="inlineStr"/>
+      <c r="G168" s="9" t="inlineStr"/>
+      <c r="H168" s="9" t="inlineStr"/>
+      <c r="I168" s="9" t="inlineStr"/>
+      <c r="J168" s="9" t="inlineStr"/>
+      <c r="K168" s="9" t="inlineStr"/>
+      <c r="L168" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="inlineStr"/>
-      <c r="B169" s="2" t="inlineStr"/>
-      <c r="C169" s="1" t="inlineStr"/>
-      <c r="D169" s="1" t="inlineStr">
+      <c r="A169" s="9" t="inlineStr">
+        <is>
+          <t>M068</t>
+        </is>
+      </c>
+      <c r="B169" s="10" t="inlineStr"/>
+      <c r="C169" s="9" t="inlineStr"/>
+      <c r="D169" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E169" s="11" t="inlineStr">
+      <c r="E169" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F169" s="1" t="inlineStr"/>
-      <c r="G169" s="1" t="inlineStr"/>
-      <c r="H169" s="1" t="inlineStr"/>
-      <c r="I169" s="1" t="inlineStr"/>
-      <c r="J169" s="1" t="inlineStr"/>
-      <c r="K169" s="1" t="inlineStr"/>
-      <c r="L169" s="1" t="inlineStr"/>
+      <c r="F169" s="9" t="inlineStr"/>
+      <c r="G169" s="9" t="inlineStr"/>
+      <c r="H169" s="9" t="inlineStr"/>
+      <c r="I169" s="9" t="inlineStr"/>
+      <c r="J169" s="9" t="inlineStr"/>
+      <c r="K169" s="9" t="inlineStr"/>
+      <c r="L169" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="inlineStr"/>
-      <c r="B170" s="2" t="inlineStr"/>
-      <c r="C170" s="6" t="inlineStr">
+      <c r="A170" s="17" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B170" s="18" t="inlineStr"/>
+      <c r="C170" s="19" t="inlineStr">
         <is>
           <t>29/Jun/2025</t>
         </is>
       </c>
-      <c r="D170" s="1" t="inlineStr">
+      <c r="D170" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E170" s="7" t="inlineStr">
+      <c r="E170" s="20" t="inlineStr">
         <is>
           <t>Midland Bank Ltd-CE-0011-1060000313</t>
         </is>
       </c>
-      <c r="F170" s="1" t="inlineStr"/>
-      <c r="G170" s="1" t="inlineStr"/>
-      <c r="H170" s="9" t="inlineStr">
+      <c r="F170" s="17" t="inlineStr"/>
+      <c r="G170" s="17" t="inlineStr"/>
+      <c r="H170" s="21" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I170" s="1" t="inlineStr">
+      <c r="I170" s="17" t="inlineStr">
         <is>
           <t>186</t>
         </is>
       </c>
-      <c r="J170" s="1" t="inlineStr"/>
-      <c r="K170" s="8" t="inlineStr">
+      <c r="J170" s="17" t="inlineStr"/>
+      <c r="K170" s="22" t="inlineStr">
         <is>
           <t>400000</t>
         </is>
       </c>
-      <c r="L170" s="1" t="inlineStr"/>
+      <c r="L170" s="17" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="inlineStr"/>
-      <c r="B171" s="2" t="inlineStr"/>
-      <c r="C171" s="1" t="inlineStr"/>
-      <c r="D171" s="1" t="inlineStr"/>
-      <c r="E171" s="10" t="inlineStr">
+      <c r="A171" s="17" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B171" s="18" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: MDB#0331
+Lender Amount: 400000.00
+Borrower Amount: 400000.00</t>
+        </is>
+      </c>
+      <c r="C171" s="17" t="inlineStr"/>
+      <c r="D171" s="17" t="inlineStr"/>
+      <c r="E171" s="23" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Interunit Loan A/C-Steel Unit, MDB#0331</t>
         </is>
       </c>
-      <c r="F171" s="1" t="inlineStr"/>
-      <c r="G171" s="1" t="inlineStr"/>
-      <c r="H171" s="1" t="inlineStr"/>
-      <c r="I171" s="1" t="inlineStr"/>
-      <c r="J171" s="1" t="inlineStr"/>
-      <c r="K171" s="1" t="inlineStr"/>
-      <c r="L171" s="1" t="inlineStr"/>
+      <c r="F171" s="17" t="inlineStr"/>
+      <c r="G171" s="17" t="inlineStr"/>
+      <c r="H171" s="17" t="inlineStr"/>
+      <c r="I171" s="17" t="inlineStr"/>
+      <c r="J171" s="17" t="inlineStr"/>
+      <c r="K171" s="17" t="inlineStr"/>
+      <c r="L171" s="17" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="inlineStr"/>
-      <c r="B172" s="2" t="inlineStr"/>
-      <c r="C172" s="1" t="inlineStr"/>
-      <c r="D172" s="1" t="inlineStr">
+      <c r="A172" s="17" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B172" s="18" t="inlineStr"/>
+      <c r="C172" s="17" t="inlineStr"/>
+      <c r="D172" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E172" s="11" t="inlineStr">
+      <c r="E172" s="24" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F172" s="1" t="inlineStr"/>
-      <c r="G172" s="1" t="inlineStr"/>
-      <c r="H172" s="1" t="inlineStr"/>
-      <c r="I172" s="1" t="inlineStr"/>
-      <c r="J172" s="1" t="inlineStr"/>
-      <c r="K172" s="1" t="inlineStr"/>
-      <c r="L172" s="1" t="inlineStr"/>
+      <c r="F172" s="17" t="inlineStr"/>
+      <c r="G172" s="17" t="inlineStr"/>
+      <c r="H172" s="17" t="inlineStr"/>
+      <c r="I172" s="17" t="inlineStr"/>
+      <c r="J172" s="17" t="inlineStr"/>
+      <c r="K172" s="17" t="inlineStr"/>
+      <c r="L172" s="17" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="inlineStr"/>
-      <c r="B173" s="2" t="inlineStr"/>
-      <c r="C173" s="6" t="inlineStr">
+      <c r="A173" s="9" t="inlineStr">
+        <is>
+          <t>M020</t>
+        </is>
+      </c>
+      <c r="B173" s="10" t="inlineStr"/>
+      <c r="C173" s="11" t="inlineStr">
         <is>
           <t>30/Jun/2025</t>
         </is>
       </c>
-      <c r="D173" s="1" t="inlineStr">
+      <c r="D173" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E173" s="7" t="inlineStr">
+      <c r="E173" s="12" t="inlineStr">
         <is>
           <t>PBL-Time Loan-LD2502802705</t>
         </is>
       </c>
-      <c r="F173" s="1" t="inlineStr"/>
-      <c r="G173" s="1" t="inlineStr"/>
-      <c r="H173" s="9" t="inlineStr">
+      <c r="F173" s="9" t="inlineStr"/>
+      <c r="G173" s="9" t="inlineStr"/>
+      <c r="H173" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I173" s="1" t="inlineStr">
+      <c r="I173" s="9" t="inlineStr">
         <is>
           <t>971</t>
         </is>
       </c>
-      <c r="J173" s="1" t="inlineStr"/>
-      <c r="K173" s="8" t="inlineStr">
+      <c r="J173" s="9" t="inlineStr"/>
+      <c r="K173" s="14" t="inlineStr">
         <is>
           <t>83197.81</t>
         </is>
       </c>
-      <c r="L173" s="1" t="inlineStr"/>
+      <c r="L173" s="9" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="inlineStr"/>
-      <c r="B174" s="2" t="inlineStr"/>
-      <c r="C174" s="1" t="inlineStr"/>
-      <c r="D174" s="1" t="inlineStr"/>
-      <c r="E174" s="10" t="inlineStr">
+      <c r="A174" s="9" t="inlineStr">
+        <is>
+          <t>M020</t>
+        </is>
+      </c>
+      <c r="B174" s="10" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: PBL#10855
+Lender Amount: 83197.81
+Borrower Amount: 83197.81</t>
+        </is>
+      </c>
+      <c r="C174" s="9" t="inlineStr"/>
+      <c r="D174" s="9" t="inlineStr"/>
+      <c r="E174" s="15" t="inlineStr">
         <is>
           <t>Time Loan repayment from CIL steel Unit PBL-10855</t>
         </is>
       </c>
-      <c r="F174" s="1" t="inlineStr"/>
-      <c r="G174" s="1" t="inlineStr"/>
-      <c r="H174" s="1" t="inlineStr"/>
-      <c r="I174" s="1" t="inlineStr"/>
-      <c r="J174" s="1" t="inlineStr"/>
-      <c r="K174" s="1" t="inlineStr"/>
-      <c r="L174" s="1" t="inlineStr"/>
+      <c r="F174" s="9" t="inlineStr"/>
+      <c r="G174" s="9" t="inlineStr"/>
+      <c r="H174" s="9" t="inlineStr"/>
+      <c r="I174" s="9" t="inlineStr"/>
+      <c r="J174" s="9" t="inlineStr"/>
+      <c r="K174" s="9" t="inlineStr"/>
+      <c r="L174" s="9" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="inlineStr"/>
-      <c r="B175" s="2" t="inlineStr"/>
-      <c r="C175" s="1" t="inlineStr"/>
-      <c r="D175" s="1" t="inlineStr">
+      <c r="A175" s="9" t="inlineStr">
+        <is>
+          <t>M020</t>
+        </is>
+      </c>
+      <c r="B175" s="10" t="inlineStr"/>
+      <c r="C175" s="9" t="inlineStr"/>
+      <c r="D175" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E175" s="11" t="inlineStr">
+      <c r="E175" s="16" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F175" s="1" t="inlineStr"/>
-      <c r="G175" s="1" t="inlineStr"/>
-      <c r="H175" s="1" t="inlineStr"/>
-      <c r="I175" s="1" t="inlineStr"/>
-      <c r="J175" s="1" t="inlineStr"/>
-      <c r="K175" s="1" t="inlineStr"/>
-      <c r="L175" s="1" t="inlineStr"/>
+      <c r="F175" s="9" t="inlineStr"/>
+      <c r="G175" s="9" t="inlineStr"/>
+      <c r="H175" s="9" t="inlineStr"/>
+      <c r="I175" s="9" t="inlineStr"/>
+      <c r="J175" s="9" t="inlineStr"/>
+      <c r="K175" s="9" t="inlineStr"/>
+      <c r="L175" s="9" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr"/>
@@ -5362,7 +6681,7 @@
       <c r="H176" s="1" t="inlineStr"/>
       <c r="I176" s="1" t="inlineStr"/>
       <c r="J176" s="1" t="inlineStr"/>
-      <c r="K176" s="28" t="inlineStr">
+      <c r="K176" s="25" t="inlineStr">
         <is>
           <t>40644588.55</t>
         </is>
@@ -5388,7 +6707,7 @@
       <c r="H177" s="1" t="inlineStr"/>
       <c r="I177" s="1" t="inlineStr"/>
       <c r="J177" s="1" t="inlineStr"/>
-      <c r="K177" s="28" t="inlineStr">
+      <c r="K177" s="25" t="inlineStr">
         <is>
           <t>54945561.71</t>
         </is>
@@ -5410,7 +6729,7 @@
       <c r="H178" s="1" t="inlineStr"/>
       <c r="I178" s="1" t="inlineStr"/>
       <c r="J178" s="1" t="inlineStr"/>
-      <c r="K178" s="28" t="inlineStr">
+      <c r="K178" s="25" t="inlineStr">
         <is>
           <t>95590150.26</t>
         </is>

--- a/Resources/Steel-Trans/Trans book Steel_MATCHED.xlsx
+++ b/Resources/Steel-Trans/Trans book Steel_MATCHED.xlsx
@@ -765,7 +765,7 @@
     <row r="11">
       <c r="A11" s="9" t="inlineStr">
         <is>
-          <t>M025</t>
+          <t>M030</t>
         </is>
       </c>
       <c r="B11" s="10" t="inlineStr"/>
@@ -811,7 +811,7 @@
     <row r="12">
       <c r="A12" s="9" t="inlineStr">
         <is>
-          <t>M025</t>
+          <t>M030</t>
         </is>
       </c>
       <c r="B12" s="10" t="inlineStr"/>
@@ -841,7 +841,7 @@
     <row r="13">
       <c r="A13" s="9" t="inlineStr">
         <is>
-          <t>M025</t>
+          <t>M030</t>
         </is>
       </c>
       <c r="B13" s="10" t="inlineStr"/>
@@ -871,7 +871,7 @@
     <row r="14">
       <c r="A14" s="9" t="inlineStr">
         <is>
-          <t>M025</t>
+          <t>M030</t>
         </is>
       </c>
       <c r="B14" s="10" t="inlineStr"/>
@@ -901,7 +901,7 @@
     <row r="15">
       <c r="A15" s="9" t="inlineStr">
         <is>
-          <t>M025</t>
+          <t>M030</t>
         </is>
       </c>
       <c r="B15" s="10" t="inlineStr"/>
@@ -931,7 +931,7 @@
     <row r="16">
       <c r="A16" s="9" t="inlineStr">
         <is>
-          <t>M025</t>
+          <t>M030</t>
         </is>
       </c>
       <c r="B16" s="10" t="inlineStr">
@@ -963,7 +963,7 @@
     <row r="17">
       <c r="A17" s="9" t="inlineStr">
         <is>
-          <t>M025</t>
+          <t>M030</t>
         </is>
       </c>
       <c r="B17" s="10" t="inlineStr"/>
@@ -993,7 +993,7 @@
     <row r="18">
       <c r="A18" s="17" t="inlineStr">
         <is>
-          <t>M026</t>
+          <t>M025</t>
         </is>
       </c>
       <c r="B18" s="18" t="inlineStr"/>
@@ -1032,19 +1032,19 @@
       </c>
       <c r="L18" s="17" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="17" t="inlineStr">
         <is>
-          <t>M026</t>
+          <t>M025</t>
         </is>
       </c>
       <c r="B19" s="18" t="inlineStr">
         <is>
-          <t>Manual Match
+          <t>Settlement Match (ID: 11370) - 'Final Settlement' keyword found
 Lender Amount: 99317.00
 Borrower Amount: 99317.00</t>
         </is>
@@ -1064,14 +1064,14 @@
       <c r="K19" s="17" t="inlineStr"/>
       <c r="L19" s="17" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="17" t="inlineStr">
         <is>
-          <t>M026</t>
+          <t>M025</t>
         </is>
       </c>
       <c r="B20" s="18" t="inlineStr"/>
@@ -1094,14 +1094,14 @@
       <c r="K20" s="17" t="inlineStr"/>
       <c r="L20" s="17" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="9" t="inlineStr">
         <is>
-          <t>M027</t>
+          <t>M026</t>
         </is>
       </c>
       <c r="B21" s="10" t="inlineStr"/>
@@ -1140,19 +1140,19 @@
       </c>
       <c r="L21" s="9" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="inlineStr">
         <is>
-          <t>M027</t>
+          <t>M026</t>
         </is>
       </c>
       <c r="B22" s="10" t="inlineStr">
         <is>
-          <t>Manual Match
+          <t>Settlement Match (ID: 10199) - 'Final Settlement' keyword found
 Lender Amount: 20130.00
 Borrower Amount: 20130.00</t>
         </is>
@@ -1172,14 +1172,14 @@
       <c r="K22" s="9" t="inlineStr"/>
       <c r="L22" s="9" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="9" t="inlineStr">
         <is>
-          <t>M027</t>
+          <t>M026</t>
         </is>
       </c>
       <c r="B23" s="10" t="inlineStr"/>
@@ -1202,14 +1202,14 @@
       <c r="K23" s="9" t="inlineStr"/>
       <c r="L23" s="9" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="17" t="inlineStr">
         <is>
-          <t>M028</t>
+          <t>M027</t>
         </is>
       </c>
       <c r="B24" s="18" t="inlineStr"/>
@@ -1248,19 +1248,19 @@
       </c>
       <c r="L24" s="17" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="17" t="inlineStr">
         <is>
-          <t>M028</t>
+          <t>M027</t>
         </is>
       </c>
       <c r="B25" s="18" t="inlineStr">
         <is>
-          <t>Manual Match
+          <t>Settlement Match (ID: 11711) - 'Final Settlement' keyword found
 Lender Amount: 94109.00
 Borrower Amount: 94109.00</t>
         </is>
@@ -1280,14 +1280,14 @@
       <c r="K25" s="17" t="inlineStr"/>
       <c r="L25" s="17" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="17" t="inlineStr">
         <is>
-          <t>M028</t>
+          <t>M027</t>
         </is>
       </c>
       <c r="B26" s="18" t="inlineStr"/>
@@ -1310,14 +1310,14 @@
       <c r="K26" s="17" t="inlineStr"/>
       <c r="L26" s="17" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="9" t="inlineStr">
         <is>
-          <t>M030</t>
+          <t>M029</t>
         </is>
       </c>
       <c r="B27" s="10" t="inlineStr"/>
@@ -1356,19 +1356,19 @@
       </c>
       <c r="L27" s="9" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="inlineStr">
         <is>
-          <t>M030</t>
+          <t>M029</t>
         </is>
       </c>
       <c r="B28" s="10" t="inlineStr">
         <is>
-          <t>Manual Match
+          <t>Settlement Match (ID: 12107) - 'Final Settlement' keyword found
 Lender Amount: 93314.00
 Borrower Amount: 93314.00</t>
         </is>
@@ -1388,14 +1388,14 @@
       <c r="K28" s="9" t="inlineStr"/>
       <c r="L28" s="9" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="9" t="inlineStr">
         <is>
-          <t>M030</t>
+          <t>M029</t>
         </is>
       </c>
       <c r="B29" s="10" t="inlineStr"/>
@@ -1418,14 +1418,14 @@
       <c r="K29" s="9" t="inlineStr"/>
       <c r="L29" s="9" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="17" t="inlineStr">
         <is>
-          <t>M029</t>
+          <t>M028</t>
         </is>
       </c>
       <c r="B30" s="18" t="inlineStr"/>
@@ -1464,19 +1464,19 @@
       </c>
       <c r="L30" s="17" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="17" t="inlineStr">
         <is>
-          <t>M029</t>
+          <t>M028</t>
         </is>
       </c>
       <c r="B31" s="18" t="inlineStr">
         <is>
-          <t>Manual Match
+          <t>Settlement Match (ID: 11134) - 'Final Settlement' keyword found
 Lender Amount: 13909.00
 Borrower Amount: 13909.00</t>
         </is>
@@ -1496,14 +1496,14 @@
       <c r="K31" s="17" t="inlineStr"/>
       <c r="L31" s="17" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="17" t="inlineStr">
         <is>
-          <t>M029</t>
+          <t>M028</t>
         </is>
       </c>
       <c r="B32" s="18" t="inlineStr"/>
@@ -1526,7 +1526,7 @@
       <c r="K32" s="17" t="inlineStr"/>
       <c r="L32" s="17" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>

--- a/Resources/Steel-Trans/Trans book Steel_MATCHED.xlsx
+++ b/Resources/Steel-Trans/Trans book Steel_MATCHED.xlsx
@@ -76,7 +76,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -148,6 +148,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -4183,2484 +4192,2364 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="9" t="inlineStr">
-        <is>
-          <t>M060</t>
-        </is>
-      </c>
-      <c r="B107" s="10" t="inlineStr"/>
-      <c r="C107" s="11" t="inlineStr">
+      <c r="A107" s="1" t="inlineStr"/>
+      <c r="B107" s="2" t="inlineStr"/>
+      <c r="C107" s="6" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D107" s="9" t="inlineStr">
+      <c r="D107" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E107" s="12" t="inlineStr">
+      <c r="E107" s="7" t="inlineStr">
         <is>
           <t>AP-Wintel Limited</t>
         </is>
       </c>
-      <c r="F107" s="9" t="inlineStr"/>
-      <c r="G107" s="9" t="inlineStr"/>
-      <c r="H107" s="13" t="inlineStr">
+      <c r="F107" s="1" t="inlineStr"/>
+      <c r="G107" s="1" t="inlineStr"/>
+      <c r="H107" s="25" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I107" s="9" t="inlineStr">
+      <c r="I107" s="1" t="inlineStr">
         <is>
           <t>884</t>
         </is>
       </c>
-      <c r="J107" s="9" t="inlineStr"/>
-      <c r="K107" s="14" t="inlineStr">
+      <c r="J107" s="1" t="inlineStr"/>
+      <c r="K107" s="8" t="inlineStr">
         <is>
           <t>1234</t>
         </is>
       </c>
-      <c r="L107" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L107" s="1" t="inlineStr"/>
     </row>
     <row r="108">
-      <c r="A108" s="9" t="inlineStr">
-        <is>
-          <t>M060</t>
-        </is>
-      </c>
-      <c r="B108" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 1234.00
-Borrower Amount: 1234.00</t>
-        </is>
-      </c>
-      <c r="C108" s="9" t="inlineStr"/>
-      <c r="D108" s="9" t="inlineStr"/>
-      <c r="E108" s="15" t="inlineStr">
+      <c r="A108" s="1" t="inlineStr"/>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block</t>
+        </is>
+      </c>
+      <c r="C108" s="1" t="inlineStr"/>
+      <c r="D108" s="1" t="inlineStr"/>
+      <c r="E108" s="26" t="inlineStr">
         <is>
           <t>Amount paid against Monthly Mobile bill for the month of May-2025. (MBD-7th Floor).</t>
         </is>
       </c>
-      <c r="F108" s="9" t="inlineStr"/>
-      <c r="G108" s="9" t="inlineStr"/>
-      <c r="H108" s="9" t="inlineStr"/>
-      <c r="I108" s="9" t="inlineStr"/>
-      <c r="J108" s="9" t="inlineStr"/>
-      <c r="K108" s="9" t="inlineStr"/>
-      <c r="L108" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F108" s="1" t="inlineStr"/>
+      <c r="G108" s="1" t="inlineStr"/>
+      <c r="H108" s="1" t="inlineStr"/>
+      <c r="I108" s="1" t="inlineStr"/>
+      <c r="J108" s="1" t="inlineStr"/>
+      <c r="K108" s="1" t="inlineStr"/>
+      <c r="L108" s="1" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" s="9" t="inlineStr">
-        <is>
-          <t>M060</t>
-        </is>
-      </c>
-      <c r="B109" s="10" t="inlineStr"/>
-      <c r="C109" s="9" t="inlineStr"/>
-      <c r="D109" s="9" t="inlineStr">
+      <c r="A109" s="1" t="inlineStr"/>
+      <c r="B109" s="2" t="inlineStr"/>
+      <c r="C109" s="1" t="inlineStr"/>
+      <c r="D109" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E109" s="16" t="inlineStr">
+      <c r="E109" s="27" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F109" s="9" t="inlineStr"/>
-      <c r="G109" s="9" t="inlineStr"/>
-      <c r="H109" s="9" t="inlineStr"/>
-      <c r="I109" s="9" t="inlineStr"/>
-      <c r="J109" s="9" t="inlineStr"/>
-      <c r="K109" s="9" t="inlineStr"/>
-      <c r="L109" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F109" s="1" t="inlineStr"/>
+      <c r="G109" s="1" t="inlineStr"/>
+      <c r="H109" s="1" t="inlineStr"/>
+      <c r="I109" s="1" t="inlineStr"/>
+      <c r="J109" s="1" t="inlineStr"/>
+      <c r="K109" s="1" t="inlineStr"/>
+      <c r="L109" s="1" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" s="17" t="inlineStr">
+      <c r="A110" s="9" t="inlineStr">
         <is>
           <t>M052</t>
         </is>
       </c>
-      <c r="B110" s="18" t="inlineStr"/>
-      <c r="C110" s="19" t="inlineStr">
+      <c r="B110" s="10" t="inlineStr"/>
+      <c r="C110" s="11" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D110" s="17" t="inlineStr">
+      <c r="D110" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E110" s="20" t="inlineStr">
+      <c r="E110" s="12" t="inlineStr">
         <is>
           <t>AP-A.B.M Anas Engineering</t>
         </is>
       </c>
-      <c r="F110" s="17" t="inlineStr"/>
-      <c r="G110" s="17" t="inlineStr"/>
-      <c r="H110" s="21" t="inlineStr">
+      <c r="F110" s="9" t="inlineStr"/>
+      <c r="G110" s="9" t="inlineStr"/>
+      <c r="H110" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I110" s="17" t="inlineStr">
+      <c r="I110" s="9" t="inlineStr">
         <is>
           <t>885</t>
         </is>
       </c>
-      <c r="J110" s="17" t="inlineStr"/>
-      <c r="K110" s="22" t="inlineStr">
+      <c r="J110" s="9" t="inlineStr"/>
+      <c r="K110" s="14" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="L110" s="17" t="inlineStr">
+      <c r="L110" s="9" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="17" t="inlineStr">
+      <c r="A111" s="9" t="inlineStr">
         <is>
           <t>M052</t>
         </is>
       </c>
-      <c r="B111" s="18" t="inlineStr">
+      <c r="B111" s="10" t="inlineStr">
         <is>
           <t>Manual Match
 Lender Amount: 200000.00
 Borrower Amount: 200000.00</t>
         </is>
       </c>
-      <c r="C111" s="17" t="inlineStr"/>
-      <c r="D111" s="17" t="inlineStr"/>
-      <c r="E111" s="23" t="inlineStr">
+      <c r="C111" s="9" t="inlineStr"/>
+      <c r="D111" s="9" t="inlineStr"/>
+      <c r="E111" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to ABM Anas Engineering. Supply of , Invoice Number:  25-03, Challan Number: 100,026, Work Order Number: MCE/PO/2025/2/32359, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-02-19, Goods Received Date: 2025-03-12, Work Order Value: 5404000.0, Total Bill Amount: 200000.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F111" s="17" t="inlineStr"/>
-      <c r="G111" s="17" t="inlineStr"/>
-      <c r="H111" s="17" t="inlineStr"/>
-      <c r="I111" s="17" t="inlineStr"/>
-      <c r="J111" s="17" t="inlineStr"/>
-      <c r="K111" s="17" t="inlineStr"/>
-      <c r="L111" s="17" t="inlineStr">
+      <c r="F111" s="9" t="inlineStr"/>
+      <c r="G111" s="9" t="inlineStr"/>
+      <c r="H111" s="9" t="inlineStr"/>
+      <c r="I111" s="9" t="inlineStr"/>
+      <c r="J111" s="9" t="inlineStr"/>
+      <c r="K111" s="9" t="inlineStr"/>
+      <c r="L111" s="9" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="17" t="inlineStr">
+      <c r="A112" s="9" t="inlineStr">
         <is>
           <t>M052</t>
         </is>
       </c>
-      <c r="B112" s="18" t="inlineStr"/>
-      <c r="C112" s="17" t="inlineStr"/>
-      <c r="D112" s="17" t="inlineStr">
+      <c r="B112" s="10" t="inlineStr"/>
+      <c r="C112" s="9" t="inlineStr"/>
+      <c r="D112" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E112" s="24" t="inlineStr">
+      <c r="E112" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F112" s="17" t="inlineStr"/>
-      <c r="G112" s="17" t="inlineStr"/>
-      <c r="H112" s="17" t="inlineStr"/>
-      <c r="I112" s="17" t="inlineStr"/>
-      <c r="J112" s="17" t="inlineStr"/>
-      <c r="K112" s="17" t="inlineStr"/>
-      <c r="L112" s="17" t="inlineStr">
+      <c r="F112" s="9" t="inlineStr"/>
+      <c r="G112" s="9" t="inlineStr"/>
+      <c r="H112" s="9" t="inlineStr"/>
+      <c r="I112" s="9" t="inlineStr"/>
+      <c r="J112" s="9" t="inlineStr"/>
+      <c r="K112" s="9" t="inlineStr"/>
+      <c r="L112" s="9" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="9" t="inlineStr">
-        <is>
-          <t>M064</t>
-        </is>
-      </c>
-      <c r="B113" s="10" t="inlineStr"/>
-      <c r="C113" s="11" t="inlineStr">
+      <c r="A113" s="17" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
+      <c r="B113" s="18" t="inlineStr"/>
+      <c r="C113" s="19" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D113" s="9" t="inlineStr">
+      <c r="D113" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E113" s="12" t="inlineStr">
+      <c r="E113" s="20" t="inlineStr">
         <is>
           <t>AP-A.B.M Anas Engineering</t>
         </is>
       </c>
-      <c r="F113" s="9" t="inlineStr"/>
-      <c r="G113" s="9" t="inlineStr"/>
-      <c r="H113" s="13" t="inlineStr">
+      <c r="F113" s="17" t="inlineStr"/>
+      <c r="G113" s="17" t="inlineStr"/>
+      <c r="H113" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I113" s="9" t="inlineStr">
+      <c r="I113" s="17" t="inlineStr">
         <is>
           <t>886</t>
         </is>
       </c>
-      <c r="J113" s="9" t="inlineStr"/>
-      <c r="K113" s="14" t="inlineStr">
+      <c r="J113" s="17" t="inlineStr"/>
+      <c r="K113" s="22" t="inlineStr">
         <is>
           <t>36900</t>
         </is>
       </c>
-      <c r="L113" s="9" t="inlineStr">
+      <c r="L113" s="17" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="9" t="inlineStr">
-        <is>
-          <t>M064</t>
-        </is>
-      </c>
-      <c r="B114" s="10" t="inlineStr">
+      <c r="A114" s="17" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
+      <c r="B114" s="18" t="inlineStr">
         <is>
           <t>Manual Match
 Lender Amount: 36900.00
 Borrower Amount: 36900.00</t>
         </is>
       </c>
-      <c r="C114" s="9" t="inlineStr"/>
-      <c r="D114" s="9" t="inlineStr"/>
-      <c r="E114" s="15" t="inlineStr">
+      <c r="C114" s="17" t="inlineStr"/>
+      <c r="D114" s="17" t="inlineStr"/>
+      <c r="E114" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to ABM Anas Engineering. Supply of , Invoice Number:  25-04, Challan Number: 027, Work Order Number: 271/PO/2025/3/32677, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-03-11, Goods Received Date: 2025-04-06, Work Order Value: 36900.0, Total Bill Amount: 36900.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F114" s="9" t="inlineStr"/>
-      <c r="G114" s="9" t="inlineStr"/>
-      <c r="H114" s="9" t="inlineStr"/>
-      <c r="I114" s="9" t="inlineStr"/>
-      <c r="J114" s="9" t="inlineStr"/>
-      <c r="K114" s="9" t="inlineStr"/>
-      <c r="L114" s="9" t="inlineStr">
+      <c r="F114" s="17" t="inlineStr"/>
+      <c r="G114" s="17" t="inlineStr"/>
+      <c r="H114" s="17" t="inlineStr"/>
+      <c r="I114" s="17" t="inlineStr"/>
+      <c r="J114" s="17" t="inlineStr"/>
+      <c r="K114" s="17" t="inlineStr"/>
+      <c r="L114" s="17" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="9" t="inlineStr">
-        <is>
-          <t>M064</t>
-        </is>
-      </c>
-      <c r="B115" s="10" t="inlineStr"/>
-      <c r="C115" s="9" t="inlineStr"/>
-      <c r="D115" s="9" t="inlineStr">
+      <c r="A115" s="17" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
+      <c r="B115" s="18" t="inlineStr"/>
+      <c r="C115" s="17" t="inlineStr"/>
+      <c r="D115" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E115" s="16" t="inlineStr">
+      <c r="E115" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F115" s="9" t="inlineStr"/>
-      <c r="G115" s="9" t="inlineStr"/>
-      <c r="H115" s="9" t="inlineStr"/>
-      <c r="I115" s="9" t="inlineStr"/>
-      <c r="J115" s="9" t="inlineStr"/>
-      <c r="K115" s="9" t="inlineStr"/>
-      <c r="L115" s="9" t="inlineStr">
+      <c r="F115" s="17" t="inlineStr"/>
+      <c r="G115" s="17" t="inlineStr"/>
+      <c r="H115" s="17" t="inlineStr"/>
+      <c r="I115" s="17" t="inlineStr"/>
+      <c r="J115" s="17" t="inlineStr"/>
+      <c r="K115" s="17" t="inlineStr"/>
+      <c r="L115" s="17" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="17" t="inlineStr">
+      <c r="A116" s="9" t="inlineStr">
         <is>
           <t>M018</t>
         </is>
       </c>
-      <c r="B116" s="18" t="inlineStr"/>
-      <c r="C116" s="19" t="inlineStr">
+      <c r="B116" s="10" t="inlineStr"/>
+      <c r="C116" s="11" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D116" s="17" t="inlineStr">
+      <c r="D116" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E116" s="20" t="inlineStr">
+      <c r="E116" s="12" t="inlineStr">
         <is>
           <t>Midland Bank Ltd-CE-0011-1060000313</t>
         </is>
       </c>
-      <c r="F116" s="17" t="inlineStr"/>
-      <c r="G116" s="17" t="inlineStr"/>
-      <c r="H116" s="21" t="inlineStr">
+      <c r="F116" s="9" t="inlineStr"/>
+      <c r="G116" s="9" t="inlineStr"/>
+      <c r="H116" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I116" s="17" t="inlineStr">
+      <c r="I116" s="9" t="inlineStr">
         <is>
           <t>18149</t>
         </is>
       </c>
-      <c r="J116" s="22" t="inlineStr">
+      <c r="J116" s="14" t="inlineStr">
         <is>
           <t>12000000</t>
         </is>
       </c>
-      <c r="K116" s="17" t="inlineStr"/>
-      <c r="L116" s="17" t="inlineStr">
+      <c r="K116" s="9" t="inlineStr"/>
+      <c r="L116" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="17" t="inlineStr">
+      <c r="A117" s="9" t="inlineStr">
         <is>
           <t>M018</t>
         </is>
       </c>
-      <c r="B117" s="18" t="inlineStr">
+      <c r="B117" s="10" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0313
 Lender Amount: 12000000.00
 Borrower Amount: 12000000.00</t>
         </is>
       </c>
-      <c r="C117" s="17" t="inlineStr"/>
-      <c r="D117" s="17" t="inlineStr"/>
-      <c r="E117" s="23" t="inlineStr">
+      <c r="C117" s="9" t="inlineStr"/>
+      <c r="D117" s="9" t="inlineStr"/>
+      <c r="E117" s="15" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Interunit Loan A/C-Steel Unit, DBL#1833</t>
         </is>
       </c>
-      <c r="F117" s="17" t="inlineStr"/>
-      <c r="G117" s="17" t="inlineStr"/>
-      <c r="H117" s="17" t="inlineStr"/>
-      <c r="I117" s="17" t="inlineStr"/>
-      <c r="J117" s="17" t="inlineStr"/>
-      <c r="K117" s="17" t="inlineStr"/>
-      <c r="L117" s="17" t="inlineStr">
+      <c r="F117" s="9" t="inlineStr"/>
+      <c r="G117" s="9" t="inlineStr"/>
+      <c r="H117" s="9" t="inlineStr"/>
+      <c r="I117" s="9" t="inlineStr"/>
+      <c r="J117" s="9" t="inlineStr"/>
+      <c r="K117" s="9" t="inlineStr"/>
+      <c r="L117" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="17" t="inlineStr">
+      <c r="A118" s="9" t="inlineStr">
         <is>
           <t>M018</t>
         </is>
       </c>
-      <c r="B118" s="18" t="inlineStr"/>
-      <c r="C118" s="17" t="inlineStr"/>
-      <c r="D118" s="17" t="inlineStr">
+      <c r="B118" s="10" t="inlineStr"/>
+      <c r="C118" s="9" t="inlineStr"/>
+      <c r="D118" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E118" s="24" t="inlineStr">
+      <c r="E118" s="16" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F118" s="17" t="inlineStr"/>
-      <c r="G118" s="17" t="inlineStr"/>
-      <c r="H118" s="17" t="inlineStr"/>
-      <c r="I118" s="17" t="inlineStr"/>
-      <c r="J118" s="17" t="inlineStr"/>
-      <c r="K118" s="17" t="inlineStr"/>
-      <c r="L118" s="17" t="inlineStr">
+      <c r="F118" s="9" t="inlineStr"/>
+      <c r="G118" s="9" t="inlineStr"/>
+      <c r="H118" s="9" t="inlineStr"/>
+      <c r="I118" s="9" t="inlineStr"/>
+      <c r="J118" s="9" t="inlineStr"/>
+      <c r="K118" s="9" t="inlineStr"/>
+      <c r="L118" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="9" t="inlineStr">
+      <c r="A119" s="17" t="inlineStr">
         <is>
           <t>M019</t>
         </is>
       </c>
-      <c r="B119" s="10" t="inlineStr"/>
-      <c r="C119" s="11" t="inlineStr">
+      <c r="B119" s="18" t="inlineStr"/>
+      <c r="C119" s="19" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D119" s="9" t="inlineStr">
+      <c r="D119" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E119" s="12" t="inlineStr">
+      <c r="E119" s="20" t="inlineStr">
         <is>
           <t>Midland Bank Ltd-CE-0011-1060000313</t>
         </is>
       </c>
-      <c r="F119" s="9" t="inlineStr"/>
-      <c r="G119" s="9" t="inlineStr"/>
-      <c r="H119" s="13" t="inlineStr">
+      <c r="F119" s="17" t="inlineStr"/>
+      <c r="G119" s="17" t="inlineStr"/>
+      <c r="H119" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I119" s="9" t="inlineStr">
+      <c r="I119" s="17" t="inlineStr">
         <is>
           <t>18150</t>
         </is>
       </c>
-      <c r="J119" s="14" t="inlineStr">
+      <c r="J119" s="22" t="inlineStr">
         <is>
           <t>22000000</t>
         </is>
       </c>
-      <c r="K119" s="9" t="inlineStr"/>
-      <c r="L119" s="9" t="inlineStr">
+      <c r="K119" s="17" t="inlineStr"/>
+      <c r="L119" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="9" t="inlineStr">
+      <c r="A120" s="17" t="inlineStr">
         <is>
           <t>M019</t>
         </is>
       </c>
-      <c r="B120" s="10" t="inlineStr">
+      <c r="B120" s="18" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0313
 Lender Amount: 22000000.00
 Borrower Amount: 22000000.00</t>
         </is>
       </c>
-      <c r="C120" s="9" t="inlineStr"/>
-      <c r="D120" s="9" t="inlineStr"/>
-      <c r="E120" s="15" t="inlineStr">
+      <c r="C120" s="17" t="inlineStr"/>
+      <c r="D120" s="17" t="inlineStr"/>
+      <c r="E120" s="23" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Interunit Loan A/C-Steel Unit, MDB#0331</t>
         </is>
       </c>
-      <c r="F120" s="9" t="inlineStr"/>
-      <c r="G120" s="9" t="inlineStr"/>
-      <c r="H120" s="9" t="inlineStr"/>
-      <c r="I120" s="9" t="inlineStr"/>
-      <c r="J120" s="9" t="inlineStr"/>
-      <c r="K120" s="9" t="inlineStr"/>
-      <c r="L120" s="9" t="inlineStr">
+      <c r="F120" s="17" t="inlineStr"/>
+      <c r="G120" s="17" t="inlineStr"/>
+      <c r="H120" s="17" t="inlineStr"/>
+      <c r="I120" s="17" t="inlineStr"/>
+      <c r="J120" s="17" t="inlineStr"/>
+      <c r="K120" s="17" t="inlineStr"/>
+      <c r="L120" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="9" t="inlineStr">
+      <c r="A121" s="17" t="inlineStr">
         <is>
           <t>M019</t>
         </is>
       </c>
-      <c r="B121" s="10" t="inlineStr"/>
-      <c r="C121" s="9" t="inlineStr"/>
-      <c r="D121" s="9" t="inlineStr">
+      <c r="B121" s="18" t="inlineStr"/>
+      <c r="C121" s="17" t="inlineStr"/>
+      <c r="D121" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E121" s="16" t="inlineStr">
+      <c r="E121" s="24" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F121" s="9" t="inlineStr"/>
-      <c r="G121" s="9" t="inlineStr"/>
-      <c r="H121" s="9" t="inlineStr"/>
-      <c r="I121" s="9" t="inlineStr"/>
-      <c r="J121" s="9" t="inlineStr"/>
-      <c r="K121" s="9" t="inlineStr"/>
-      <c r="L121" s="9" t="inlineStr">
+      <c r="F121" s="17" t="inlineStr"/>
+      <c r="G121" s="17" t="inlineStr"/>
+      <c r="H121" s="17" t="inlineStr"/>
+      <c r="I121" s="17" t="inlineStr"/>
+      <c r="J121" s="17" t="inlineStr"/>
+      <c r="K121" s="17" t="inlineStr"/>
+      <c r="L121" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="17" t="inlineStr">
-        <is>
-          <t>M056</t>
-        </is>
-      </c>
-      <c r="B122" s="18" t="inlineStr"/>
-      <c r="C122" s="19" t="inlineStr">
+      <c r="A122" s="1" t="inlineStr"/>
+      <c r="B122" s="2" t="inlineStr"/>
+      <c r="C122" s="6" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D122" s="17" t="inlineStr">
+      <c r="D122" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E122" s="20" t="inlineStr">
+      <c r="E122" s="7" t="inlineStr">
         <is>
           <t>AP-Pragati Life Insurance Limited</t>
         </is>
       </c>
-      <c r="F122" s="17" t="inlineStr"/>
-      <c r="G122" s="17" t="inlineStr"/>
-      <c r="H122" s="21" t="inlineStr">
+      <c r="F122" s="1" t="inlineStr"/>
+      <c r="G122" s="1" t="inlineStr"/>
+      <c r="H122" s="25" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I122" s="17" t="inlineStr">
+      <c r="I122" s="1" t="inlineStr">
         <is>
           <t>889</t>
         </is>
       </c>
-      <c r="J122" s="17" t="inlineStr"/>
-      <c r="K122" s="22" t="inlineStr">
+      <c r="J122" s="1" t="inlineStr"/>
+      <c r="K122" s="8" t="inlineStr">
         <is>
           <t>58108</t>
         </is>
       </c>
-      <c r="L122" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L122" s="1" t="inlineStr"/>
     </row>
     <row r="123">
-      <c r="A123" s="17" t="inlineStr">
-        <is>
-          <t>M056</t>
-        </is>
-      </c>
-      <c r="B123" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 58108.00
-Borrower Amount: 58108.00</t>
-        </is>
-      </c>
-      <c r="C123" s="17" t="inlineStr"/>
-      <c r="D123" s="17" t="inlineStr"/>
-      <c r="E123" s="23" t="inlineStr">
+      <c r="A123" s="1" t="inlineStr"/>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block</t>
+        </is>
+      </c>
+      <c r="C123" s="1" t="inlineStr"/>
+      <c r="D123" s="1" t="inlineStr"/>
+      <c r="E123" s="26" t="inlineStr">
         <is>
           <t>Amount paid to Pragati Life Insurance Limited against group insurance .Bill-00636 &amp; 00636-C Bill period: 01/03/25 to 28/02/26, Bill dt.27.03.25, Contract no.1748-02/2022</t>
         </is>
       </c>
-      <c r="F123" s="17" t="inlineStr"/>
-      <c r="G123" s="17" t="inlineStr"/>
-      <c r="H123" s="17" t="inlineStr"/>
-      <c r="I123" s="17" t="inlineStr"/>
-      <c r="J123" s="17" t="inlineStr"/>
-      <c r="K123" s="17" t="inlineStr"/>
-      <c r="L123" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F123" s="1" t="inlineStr"/>
+      <c r="G123" s="1" t="inlineStr"/>
+      <c r="H123" s="1" t="inlineStr"/>
+      <c r="I123" s="1" t="inlineStr"/>
+      <c r="J123" s="1" t="inlineStr"/>
+      <c r="K123" s="1" t="inlineStr"/>
+      <c r="L123" s="1" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" s="17" t="inlineStr">
-        <is>
-          <t>M056</t>
-        </is>
-      </c>
-      <c r="B124" s="18" t="inlineStr"/>
-      <c r="C124" s="17" t="inlineStr"/>
-      <c r="D124" s="17" t="inlineStr">
+      <c r="A124" s="1" t="inlineStr"/>
+      <c r="B124" s="2" t="inlineStr"/>
+      <c r="C124" s="1" t="inlineStr"/>
+      <c r="D124" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E124" s="24" t="inlineStr">
+      <c r="E124" s="27" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F124" s="17" t="inlineStr"/>
-      <c r="G124" s="17" t="inlineStr"/>
-      <c r="H124" s="17" t="inlineStr"/>
-      <c r="I124" s="17" t="inlineStr"/>
-      <c r="J124" s="17" t="inlineStr"/>
-      <c r="K124" s="17" t="inlineStr"/>
-      <c r="L124" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F124" s="1" t="inlineStr"/>
+      <c r="G124" s="1" t="inlineStr"/>
+      <c r="H124" s="1" t="inlineStr"/>
+      <c r="I124" s="1" t="inlineStr"/>
+      <c r="J124" s="1" t="inlineStr"/>
+      <c r="K124" s="1" t="inlineStr"/>
+      <c r="L124" s="1" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" s="9" t="inlineStr">
-        <is>
-          <t>M057</t>
-        </is>
-      </c>
-      <c r="B125" s="10" t="inlineStr"/>
-      <c r="C125" s="11" t="inlineStr">
+      <c r="A125" s="1" t="inlineStr"/>
+      <c r="B125" s="2" t="inlineStr"/>
+      <c r="C125" s="6" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D125" s="9" t="inlineStr">
+      <c r="D125" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E125" s="12" t="inlineStr">
+      <c r="E125" s="7" t="inlineStr">
         <is>
           <t>AP-A.R.K Fire Fighting Manufacture Co.</t>
         </is>
       </c>
-      <c r="F125" s="9" t="inlineStr"/>
-      <c r="G125" s="9" t="inlineStr"/>
-      <c r="H125" s="13" t="inlineStr">
+      <c r="F125" s="1" t="inlineStr"/>
+      <c r="G125" s="1" t="inlineStr"/>
+      <c r="H125" s="25" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I125" s="9" t="inlineStr">
+      <c r="I125" s="1" t="inlineStr">
         <is>
           <t>890</t>
         </is>
       </c>
-      <c r="J125" s="9" t="inlineStr"/>
-      <c r="K125" s="14" t="inlineStr">
+      <c r="J125" s="1" t="inlineStr"/>
+      <c r="K125" s="8" t="inlineStr">
         <is>
           <t>11535</t>
         </is>
       </c>
-      <c r="L125" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L125" s="1" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="A126" s="9" t="inlineStr">
-        <is>
-          <t>M057</t>
-        </is>
-      </c>
-      <c r="B126" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 11535.00
-Borrower Amount: 11535.00</t>
-        </is>
-      </c>
-      <c r="C126" s="9" t="inlineStr"/>
-      <c r="D126" s="9" t="inlineStr"/>
-      <c r="E126" s="15" t="inlineStr">
+      <c r="A126" s="1" t="inlineStr"/>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block</t>
+        </is>
+      </c>
+      <c r="C126" s="1" t="inlineStr"/>
+      <c r="D126" s="1" t="inlineStr"/>
+      <c r="E126" s="26" t="inlineStr">
         <is>
           <t>Being the amount paid to A.R.K Fire Fighting Manufacture Co.. Supply of , Invoice Number:  111, Challan Number: 111, Work Order Number: MCE/PO/2025/3/32798, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-03-19, Goods Received Date: 2025-03-25, Work Order Value: 11535.0, Total Bill Amount: 11535.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F126" s="9" t="inlineStr"/>
-      <c r="G126" s="9" t="inlineStr"/>
-      <c r="H126" s="9" t="inlineStr"/>
-      <c r="I126" s="9" t="inlineStr"/>
-      <c r="J126" s="9" t="inlineStr"/>
-      <c r="K126" s="9" t="inlineStr"/>
-      <c r="L126" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F126" s="1" t="inlineStr"/>
+      <c r="G126" s="1" t="inlineStr"/>
+      <c r="H126" s="1" t="inlineStr"/>
+      <c r="I126" s="1" t="inlineStr"/>
+      <c r="J126" s="1" t="inlineStr"/>
+      <c r="K126" s="1" t="inlineStr"/>
+      <c r="L126" s="1" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" s="9" t="inlineStr">
-        <is>
-          <t>M057</t>
-        </is>
-      </c>
-      <c r="B127" s="10" t="inlineStr"/>
-      <c r="C127" s="9" t="inlineStr"/>
-      <c r="D127" s="9" t="inlineStr">
+      <c r="A127" s="1" t="inlineStr"/>
+      <c r="B127" s="2" t="inlineStr"/>
+      <c r="C127" s="1" t="inlineStr"/>
+      <c r="D127" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E127" s="16" t="inlineStr">
+      <c r="E127" s="27" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F127" s="9" t="inlineStr"/>
-      <c r="G127" s="9" t="inlineStr"/>
-      <c r="H127" s="9" t="inlineStr"/>
-      <c r="I127" s="9" t="inlineStr"/>
-      <c r="J127" s="9" t="inlineStr"/>
-      <c r="K127" s="9" t="inlineStr"/>
-      <c r="L127" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F127" s="1" t="inlineStr"/>
+      <c r="G127" s="1" t="inlineStr"/>
+      <c r="H127" s="1" t="inlineStr"/>
+      <c r="I127" s="1" t="inlineStr"/>
+      <c r="J127" s="1" t="inlineStr"/>
+      <c r="K127" s="1" t="inlineStr"/>
+      <c r="L127" s="1" t="inlineStr"/>
     </row>
     <row r="128">
-      <c r="A128" s="17" t="inlineStr">
-        <is>
-          <t>M058</t>
-        </is>
-      </c>
-      <c r="B128" s="18" t="inlineStr"/>
-      <c r="C128" s="19" t="inlineStr">
+      <c r="A128" s="1" t="inlineStr"/>
+      <c r="B128" s="2" t="inlineStr"/>
+      <c r="C128" s="6" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D128" s="17" t="inlineStr">
+      <c r="D128" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E128" s="20" t="inlineStr">
+      <c r="E128" s="7" t="inlineStr">
         <is>
           <t>Adv-Rangpur Metal Industries Limited</t>
         </is>
       </c>
-      <c r="F128" s="17" t="inlineStr"/>
-      <c r="G128" s="17" t="inlineStr"/>
-      <c r="H128" s="21" t="inlineStr">
+      <c r="F128" s="1" t="inlineStr"/>
+      <c r="G128" s="1" t="inlineStr"/>
+      <c r="H128" s="25" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I128" s="17" t="inlineStr">
+      <c r="I128" s="1" t="inlineStr">
         <is>
           <t>891</t>
         </is>
       </c>
-      <c r="J128" s="17" t="inlineStr"/>
-      <c r="K128" s="22" t="inlineStr">
+      <c r="J128" s="1" t="inlineStr"/>
+      <c r="K128" s="8" t="inlineStr">
         <is>
           <t>1344000</t>
         </is>
       </c>
-      <c r="L128" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L128" s="1" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" s="17" t="inlineStr">
-        <is>
-          <t>M058</t>
-        </is>
-      </c>
-      <c r="B129" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 1344000.00
-Borrower Amount: 1344000.00</t>
-        </is>
-      </c>
-      <c r="C129" s="17" t="inlineStr"/>
-      <c r="D129" s="17" t="inlineStr"/>
-      <c r="E129" s="23" t="inlineStr">
+      <c r="A129" s="1" t="inlineStr"/>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block</t>
+        </is>
+      </c>
+      <c r="C129" s="1" t="inlineStr"/>
+      <c r="D129" s="1" t="inlineStr"/>
+      <c r="E129" s="26" t="inlineStr">
         <is>
           <t>Being the amount paid to Rangpur Metal Industries Limited. Supply of , Invoice Number:  Advanced/CIT/06, Challan Number: , Work Order Number: DES/PO/2025/2/31942, BA Team (A), Company Unit: Transformer, Project Name : DESCO 3-Phase Distribution Transformer (GD-5), Work Order date: 2025-02-05, Goods Received Date: , Work Order Value: 1.38E7, Total Bill Amount: 1380000.0, TDS Deduction Amount: 36000.00, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F129" s="17" t="inlineStr"/>
-      <c r="G129" s="17" t="inlineStr"/>
-      <c r="H129" s="17" t="inlineStr"/>
-      <c r="I129" s="17" t="inlineStr"/>
-      <c r="J129" s="17" t="inlineStr"/>
-      <c r="K129" s="17" t="inlineStr"/>
-      <c r="L129" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F129" s="1" t="inlineStr"/>
+      <c r="G129" s="1" t="inlineStr"/>
+      <c r="H129" s="1" t="inlineStr"/>
+      <c r="I129" s="1" t="inlineStr"/>
+      <c r="J129" s="1" t="inlineStr"/>
+      <c r="K129" s="1" t="inlineStr"/>
+      <c r="L129" s="1" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" s="17" t="inlineStr">
-        <is>
-          <t>M058</t>
-        </is>
-      </c>
-      <c r="B130" s="18" t="inlineStr"/>
-      <c r="C130" s="17" t="inlineStr"/>
-      <c r="D130" s="17" t="inlineStr">
+      <c r="A130" s="1" t="inlineStr"/>
+      <c r="B130" s="2" t="inlineStr"/>
+      <c r="C130" s="1" t="inlineStr"/>
+      <c r="D130" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E130" s="24" t="inlineStr">
+      <c r="E130" s="27" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F130" s="17" t="inlineStr"/>
-      <c r="G130" s="17" t="inlineStr"/>
-      <c r="H130" s="17" t="inlineStr"/>
-      <c r="I130" s="17" t="inlineStr"/>
-      <c r="J130" s="17" t="inlineStr"/>
-      <c r="K130" s="17" t="inlineStr"/>
-      <c r="L130" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F130" s="1" t="inlineStr"/>
+      <c r="G130" s="1" t="inlineStr"/>
+      <c r="H130" s="1" t="inlineStr"/>
+      <c r="I130" s="1" t="inlineStr"/>
+      <c r="J130" s="1" t="inlineStr"/>
+      <c r="K130" s="1" t="inlineStr"/>
+      <c r="L130" s="1" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" s="9" t="inlineStr">
-        <is>
-          <t>M059</t>
-        </is>
-      </c>
-      <c r="B131" s="10" t="inlineStr"/>
-      <c r="C131" s="11" t="inlineStr">
+      <c r="A131" s="1" t="inlineStr"/>
+      <c r="B131" s="2" t="inlineStr"/>
+      <c r="C131" s="6" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D131" s="9" t="inlineStr">
+      <c r="D131" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E131" s="12" t="inlineStr">
+      <c r="E131" s="7" t="inlineStr">
         <is>
           <t>Adv-Rangpur Metal Industries Limited</t>
         </is>
       </c>
-      <c r="F131" s="9" t="inlineStr"/>
-      <c r="G131" s="9" t="inlineStr"/>
-      <c r="H131" s="13" t="inlineStr">
+      <c r="F131" s="1" t="inlineStr"/>
+      <c r="G131" s="1" t="inlineStr"/>
+      <c r="H131" s="25" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I131" s="9" t="inlineStr">
+      <c r="I131" s="1" t="inlineStr">
         <is>
           <t>892</t>
         </is>
       </c>
-      <c r="J131" s="9" t="inlineStr"/>
-      <c r="K131" s="14" t="inlineStr">
+      <c r="J131" s="1" t="inlineStr"/>
+      <c r="K131" s="8" t="inlineStr">
         <is>
           <t>3457391</t>
         </is>
       </c>
-      <c r="L131" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L131" s="1" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" s="9" t="inlineStr">
-        <is>
-          <t>M059</t>
-        </is>
-      </c>
-      <c r="B132" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 3457391.00
-Borrower Amount: 3457391.00</t>
-        </is>
-      </c>
-      <c r="C132" s="9" t="inlineStr"/>
-      <c r="D132" s="9" t="inlineStr"/>
-      <c r="E132" s="15" t="inlineStr">
+      <c r="A132" s="1" t="inlineStr"/>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block</t>
+        </is>
+      </c>
+      <c r="C132" s="1" t="inlineStr"/>
+      <c r="D132" s="1" t="inlineStr"/>
+      <c r="E132" s="26" t="inlineStr">
         <is>
           <t>Being the amount paid to Rangpur Metal Industries Limited. Supply of , Invoice Number:  Advanced CIT 08, Challan Number: , Work Order Number: MCE/PO/2025/3/32583, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-03-02, Goods Received Date: , Work Order Value: 5.183E7, Total Bill Amount: 3550000.0, TDS Deduction Amount: 92609.00, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F132" s="9" t="inlineStr"/>
-      <c r="G132" s="9" t="inlineStr"/>
-      <c r="H132" s="9" t="inlineStr"/>
-      <c r="I132" s="9" t="inlineStr"/>
-      <c r="J132" s="9" t="inlineStr"/>
-      <c r="K132" s="9" t="inlineStr"/>
-      <c r="L132" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F132" s="1" t="inlineStr"/>
+      <c r="G132" s="1" t="inlineStr"/>
+      <c r="H132" s="1" t="inlineStr"/>
+      <c r="I132" s="1" t="inlineStr"/>
+      <c r="J132" s="1" t="inlineStr"/>
+      <c r="K132" s="1" t="inlineStr"/>
+      <c r="L132" s="1" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" s="9" t="inlineStr">
-        <is>
-          <t>M059</t>
-        </is>
-      </c>
-      <c r="B133" s="10" t="inlineStr"/>
-      <c r="C133" s="9" t="inlineStr"/>
-      <c r="D133" s="9" t="inlineStr">
+      <c r="A133" s="1" t="inlineStr"/>
+      <c r="B133" s="2" t="inlineStr"/>
+      <c r="C133" s="1" t="inlineStr"/>
+      <c r="D133" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E133" s="16" t="inlineStr">
+      <c r="E133" s="27" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F133" s="9" t="inlineStr"/>
-      <c r="G133" s="9" t="inlineStr"/>
-      <c r="H133" s="9" t="inlineStr"/>
-      <c r="I133" s="9" t="inlineStr"/>
-      <c r="J133" s="9" t="inlineStr"/>
-      <c r="K133" s="9" t="inlineStr"/>
-      <c r="L133" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F133" s="1" t="inlineStr"/>
+      <c r="G133" s="1" t="inlineStr"/>
+      <c r="H133" s="1" t="inlineStr"/>
+      <c r="I133" s="1" t="inlineStr"/>
+      <c r="J133" s="1" t="inlineStr"/>
+      <c r="K133" s="1" t="inlineStr"/>
+      <c r="L133" s="1" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" s="17" t="inlineStr">
-        <is>
-          <t>M065</t>
-        </is>
-      </c>
-      <c r="B134" s="18" t="inlineStr"/>
-      <c r="C134" s="19" t="inlineStr">
+      <c r="A134" s="9" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
+      <c r="B134" s="10" t="inlineStr"/>
+      <c r="C134" s="11" t="inlineStr">
         <is>
           <t>18/Jun/2025</t>
         </is>
       </c>
-      <c r="D134" s="17" t="inlineStr">
+      <c r="D134" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E134" s="20" t="inlineStr">
+      <c r="E134" s="12" t="inlineStr">
         <is>
           <t>AP-Sadharan Bima Corporation</t>
         </is>
       </c>
-      <c r="F134" s="17" t="inlineStr"/>
-      <c r="G134" s="17" t="inlineStr"/>
-      <c r="H134" s="21" t="inlineStr">
+      <c r="F134" s="9" t="inlineStr"/>
+      <c r="G134" s="9" t="inlineStr"/>
+      <c r="H134" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I134" s="17" t="inlineStr">
+      <c r="I134" s="9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="J134" s="17" t="inlineStr"/>
-      <c r="K134" s="22" t="inlineStr">
+      <c r="J134" s="9" t="inlineStr"/>
+      <c r="K134" s="14" t="inlineStr">
         <is>
           <t>1531483</t>
         </is>
       </c>
-      <c r="L134" s="17" t="inlineStr">
+      <c r="L134" s="9" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="17" t="inlineStr">
-        <is>
-          <t>M065</t>
-        </is>
-      </c>
-      <c r="B135" s="18" t="inlineStr">
+      <c r="A135" s="9" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
+      <c r="B135" s="10" t="inlineStr">
         <is>
           <t>Manual Match
 Lender Amount: 1531483.00
 Borrower Amount: 1531483.00</t>
         </is>
       </c>
-      <c r="C135" s="17" t="inlineStr"/>
-      <c r="D135" s="17" t="inlineStr"/>
-      <c r="E135" s="23" t="inlineStr">
+      <c r="C135" s="9" t="inlineStr"/>
+      <c r="D135" s="9" t="inlineStr"/>
+      <c r="E135" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to SADHARAN BIMA CORPORATION. Supply of , Invoice Number:  10March2025_Pur-110, Challan Number: , Work Order Number: 271/PO/2025/4/33396, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-04-29, Goods Received Date: , Work Order Value: 1531483.0, Total Bill Amount: 1531483.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F135" s="17" t="inlineStr"/>
-      <c r="G135" s="17" t="inlineStr"/>
-      <c r="H135" s="17" t="inlineStr"/>
-      <c r="I135" s="17" t="inlineStr"/>
-      <c r="J135" s="17" t="inlineStr"/>
-      <c r="K135" s="17" t="inlineStr"/>
-      <c r="L135" s="17" t="inlineStr">
+      <c r="F135" s="9" t="inlineStr"/>
+      <c r="G135" s="9" t="inlineStr"/>
+      <c r="H135" s="9" t="inlineStr"/>
+      <c r="I135" s="9" t="inlineStr"/>
+      <c r="J135" s="9" t="inlineStr"/>
+      <c r="K135" s="9" t="inlineStr"/>
+      <c r="L135" s="9" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="17" t="inlineStr">
-        <is>
-          <t>M065</t>
-        </is>
-      </c>
-      <c r="B136" s="18" t="inlineStr"/>
-      <c r="C136" s="17" t="inlineStr"/>
-      <c r="D136" s="17" t="inlineStr">
+      <c r="A136" s="9" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
+      <c r="B136" s="10" t="inlineStr"/>
+      <c r="C136" s="9" t="inlineStr"/>
+      <c r="D136" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E136" s="24" t="inlineStr">
+      <c r="E136" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F136" s="17" t="inlineStr"/>
-      <c r="G136" s="17" t="inlineStr"/>
-      <c r="H136" s="17" t="inlineStr"/>
-      <c r="I136" s="17" t="inlineStr"/>
-      <c r="J136" s="17" t="inlineStr"/>
-      <c r="K136" s="17" t="inlineStr"/>
-      <c r="L136" s="17" t="inlineStr">
+      <c r="F136" s="9" t="inlineStr"/>
+      <c r="G136" s="9" t="inlineStr"/>
+      <c r="H136" s="9" t="inlineStr"/>
+      <c r="I136" s="9" t="inlineStr"/>
+      <c r="J136" s="9" t="inlineStr"/>
+      <c r="K136" s="9" t="inlineStr"/>
+      <c r="L136" s="9" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="9" t="inlineStr">
-        <is>
-          <t>M066</t>
-        </is>
-      </c>
-      <c r="B137" s="10" t="inlineStr"/>
-      <c r="C137" s="11" t="inlineStr">
+      <c r="A137" s="17" t="inlineStr">
+        <is>
+          <t>M055</t>
+        </is>
+      </c>
+      <c r="B137" s="18" t="inlineStr"/>
+      <c r="C137" s="19" t="inlineStr">
         <is>
           <t>18/Jun/2025</t>
         </is>
       </c>
-      <c r="D137" s="9" t="inlineStr">
+      <c r="D137" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E137" s="12" t="inlineStr">
+      <c r="E137" s="20" t="inlineStr">
         <is>
           <t>AP-Narayanganj Palli Biddyut Samity-1</t>
         </is>
       </c>
-      <c r="F137" s="9" t="inlineStr"/>
-      <c r="G137" s="9" t="inlineStr"/>
-      <c r="H137" s="13" t="inlineStr">
+      <c r="F137" s="17" t="inlineStr"/>
+      <c r="G137" s="17" t="inlineStr"/>
+      <c r="H137" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I137" s="9" t="inlineStr">
+      <c r="I137" s="17" t="inlineStr">
         <is>
           <t>897</t>
         </is>
       </c>
-      <c r="J137" s="9" t="inlineStr"/>
-      <c r="K137" s="14" t="inlineStr">
+      <c r="J137" s="17" t="inlineStr"/>
+      <c r="K137" s="22" t="inlineStr">
         <is>
           <t>589625</t>
         </is>
       </c>
-      <c r="L137" s="9" t="inlineStr">
+      <c r="L137" s="17" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="9" t="inlineStr">
-        <is>
-          <t>M066</t>
-        </is>
-      </c>
-      <c r="B138" s="10" t="inlineStr">
+      <c r="A138" s="17" t="inlineStr">
+        <is>
+          <t>M055</t>
+        </is>
+      </c>
+      <c r="B138" s="18" t="inlineStr">
         <is>
           <t>Manual Match
 Lender Amount: 589625.00
 Borrower Amount: 589625.00</t>
         </is>
       </c>
-      <c r="C138" s="9" t="inlineStr"/>
-      <c r="D138" s="9" t="inlineStr"/>
-      <c r="E138" s="15" t="inlineStr">
+      <c r="C138" s="17" t="inlineStr"/>
+      <c r="D138" s="17" t="inlineStr"/>
+      <c r="E138" s="23" t="inlineStr">
         <is>
           <t>Amount Paid to Narayanganj Palli Bidduyat Samity-1 for Electricty bill for the month of May-2025. Bill no.107001161221000525 Metar no-09000316</t>
         </is>
       </c>
-      <c r="F138" s="9" t="inlineStr"/>
-      <c r="G138" s="9" t="inlineStr"/>
-      <c r="H138" s="9" t="inlineStr"/>
-      <c r="I138" s="9" t="inlineStr"/>
-      <c r="J138" s="9" t="inlineStr"/>
-      <c r="K138" s="9" t="inlineStr"/>
-      <c r="L138" s="9" t="inlineStr">
+      <c r="F138" s="17" t="inlineStr"/>
+      <c r="G138" s="17" t="inlineStr"/>
+      <c r="H138" s="17" t="inlineStr"/>
+      <c r="I138" s="17" t="inlineStr"/>
+      <c r="J138" s="17" t="inlineStr"/>
+      <c r="K138" s="17" t="inlineStr"/>
+      <c r="L138" s="17" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="9" t="inlineStr">
-        <is>
-          <t>M066</t>
-        </is>
-      </c>
-      <c r="B139" s="10" t="inlineStr"/>
-      <c r="C139" s="9" t="inlineStr"/>
-      <c r="D139" s="9" t="inlineStr">
+      <c r="A139" s="17" t="inlineStr">
+        <is>
+          <t>M055</t>
+        </is>
+      </c>
+      <c r="B139" s="18" t="inlineStr"/>
+      <c r="C139" s="17" t="inlineStr"/>
+      <c r="D139" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E139" s="16" t="inlineStr">
+      <c r="E139" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F139" s="9" t="inlineStr"/>
-      <c r="G139" s="9" t="inlineStr"/>
-      <c r="H139" s="9" t="inlineStr"/>
-      <c r="I139" s="9" t="inlineStr"/>
-      <c r="J139" s="9" t="inlineStr"/>
-      <c r="K139" s="9" t="inlineStr"/>
-      <c r="L139" s="9" t="inlineStr">
+      <c r="F139" s="17" t="inlineStr"/>
+      <c r="G139" s="17" t="inlineStr"/>
+      <c r="H139" s="17" t="inlineStr"/>
+      <c r="I139" s="17" t="inlineStr"/>
+      <c r="J139" s="17" t="inlineStr"/>
+      <c r="K139" s="17" t="inlineStr"/>
+      <c r="L139" s="17" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="17" t="inlineStr">
+      <c r="A140" s="9" t="inlineStr">
         <is>
           <t>M005</t>
         </is>
       </c>
-      <c r="B140" s="18" t="inlineStr"/>
-      <c r="C140" s="19" t="inlineStr">
+      <c r="B140" s="10" t="inlineStr"/>
+      <c r="C140" s="11" t="inlineStr">
         <is>
           <t>21/Jun/2025</t>
         </is>
       </c>
-      <c r="D140" s="17" t="inlineStr">
+      <c r="D140" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E140" s="20" t="inlineStr">
+      <c r="E140" s="12" t="inlineStr">
         <is>
           <t>AP-Odoo Bangladesh</t>
         </is>
       </c>
-      <c r="F140" s="17" t="inlineStr"/>
-      <c r="G140" s="17" t="inlineStr"/>
-      <c r="H140" s="21" t="inlineStr">
+      <c r="F140" s="9" t="inlineStr"/>
+      <c r="G140" s="9" t="inlineStr"/>
+      <c r="H140" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I140" s="17" t="inlineStr">
+      <c r="I140" s="9" t="inlineStr">
         <is>
           <t>898</t>
         </is>
       </c>
-      <c r="J140" s="17" t="inlineStr"/>
-      <c r="K140" s="22" t="inlineStr">
+      <c r="J140" s="9" t="inlineStr"/>
+      <c r="K140" s="14" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="L140" s="17" t="inlineStr">
+      <c r="L140" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="17" t="inlineStr">
+      <c r="A141" s="9" t="inlineStr">
         <is>
           <t>M005</t>
         </is>
       </c>
-      <c r="B141" s="18" t="inlineStr">
+      <c r="B141" s="10" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 200000.00
 Borrower Amount: 200000.00</t>
         </is>
       </c>
-      <c r="C141" s="17" t="inlineStr"/>
-      <c r="D141" s="17" t="inlineStr"/>
-      <c r="E141" s="23" t="inlineStr">
+      <c r="C141" s="9" t="inlineStr"/>
+      <c r="D141" s="9" t="inlineStr"/>
+      <c r="E141" s="15" t="inlineStr">
         <is>
           <t>Advance Chq no-8163057.  paid to Odoo Bangladesh agt ERP Emplemention. Ref no-IT/2014/11/008. from CIL Steel unit but 50% bill Tk.2,00,000 recorded in CIL-Trancformer and CIL-Pole Tk.2,00,000 So, Now made voucher as interunit loan.</t>
         </is>
       </c>
-      <c r="F141" s="17" t="inlineStr"/>
-      <c r="G141" s="17" t="inlineStr"/>
-      <c r="H141" s="17" t="inlineStr"/>
-      <c r="I141" s="17" t="inlineStr"/>
-      <c r="J141" s="17" t="inlineStr"/>
-      <c r="K141" s="17" t="inlineStr"/>
-      <c r="L141" s="17" t="inlineStr">
+      <c r="F141" s="9" t="inlineStr"/>
+      <c r="G141" s="9" t="inlineStr"/>
+      <c r="H141" s="9" t="inlineStr"/>
+      <c r="I141" s="9" t="inlineStr"/>
+      <c r="J141" s="9" t="inlineStr"/>
+      <c r="K141" s="9" t="inlineStr"/>
+      <c r="L141" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="17" t="inlineStr">
+      <c r="A142" s="9" t="inlineStr">
         <is>
           <t>M005</t>
         </is>
       </c>
-      <c r="B142" s="18" t="inlineStr"/>
-      <c r="C142" s="17" t="inlineStr"/>
-      <c r="D142" s="17" t="inlineStr">
+      <c r="B142" s="10" t="inlineStr"/>
+      <c r="C142" s="9" t="inlineStr"/>
+      <c r="D142" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E142" s="24" t="inlineStr">
+      <c r="E142" s="16" t="inlineStr">
         <is>
           <t>ziaul</t>
         </is>
       </c>
-      <c r="F142" s="17" t="inlineStr"/>
-      <c r="G142" s="17" t="inlineStr"/>
-      <c r="H142" s="17" t="inlineStr"/>
-      <c r="I142" s="17" t="inlineStr"/>
-      <c r="J142" s="17" t="inlineStr"/>
-      <c r="K142" s="17" t="inlineStr"/>
-      <c r="L142" s="17" t="inlineStr">
+      <c r="F142" s="9" t="inlineStr"/>
+      <c r="G142" s="9" t="inlineStr"/>
+      <c r="H142" s="9" t="inlineStr"/>
+      <c r="I142" s="9" t="inlineStr"/>
+      <c r="J142" s="9" t="inlineStr"/>
+      <c r="K142" s="9" t="inlineStr"/>
+      <c r="L142" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="9" t="inlineStr">
+      <c r="A143" s="17" t="inlineStr">
         <is>
           <t>M007</t>
         </is>
       </c>
-      <c r="B143" s="10" t="inlineStr"/>
-      <c r="C143" s="11" t="inlineStr">
+      <c r="B143" s="18" t="inlineStr"/>
+      <c r="C143" s="19" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D143" s="9" t="inlineStr">
+      <c r="D143" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E143" s="12" t="inlineStr">
+      <c r="E143" s="20" t="inlineStr">
         <is>
           <t>GULC#308524012043/24-Tap Changer &amp; AVR</t>
         </is>
       </c>
-      <c r="F143" s="9" t="inlineStr"/>
-      <c r="G143" s="9" t="inlineStr"/>
-      <c r="H143" s="13" t="inlineStr">
+      <c r="F143" s="17" t="inlineStr"/>
+      <c r="G143" s="17" t="inlineStr"/>
+      <c r="H143" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I143" s="9" t="inlineStr">
+      <c r="I143" s="17" t="inlineStr">
         <is>
           <t>901</t>
         </is>
       </c>
-      <c r="J143" s="9" t="inlineStr"/>
-      <c r="K143" s="14" t="inlineStr">
+      <c r="J143" s="17" t="inlineStr"/>
+      <c r="K143" s="22" t="inlineStr">
         <is>
           <t>85000</t>
         </is>
       </c>
-      <c r="L143" s="9" t="inlineStr">
+      <c r="L143" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="9" t="inlineStr">
+      <c r="A144" s="17" t="inlineStr">
         <is>
           <t>M007</t>
         </is>
       </c>
-      <c r="B144" s="10" t="inlineStr">
+      <c r="B144" s="18" t="inlineStr">
         <is>
           <t>LC Match: LC-308524012043/24
 Lender Amount: 85000.00
 Borrower Amount: 85000.00</t>
         </is>
       </c>
-      <c r="C144" s="9" t="inlineStr"/>
-      <c r="D144" s="9" t="inlineStr"/>
-      <c r="E144" s="15" t="inlineStr">
+      <c r="C144" s="17" t="inlineStr"/>
+      <c r="D144" s="17" t="inlineStr"/>
+      <c r="E144" s="23" t="inlineStr">
         <is>
           <t>Amount being paid as Port,Shipping &amp; Carrying Charges agt LC-308524012043/24-Transformer Unit-[Item-OLTC-Project-PBSH-G-89-Team-A][C-1164524]</t>
         </is>
       </c>
-      <c r="F144" s="9" t="inlineStr"/>
-      <c r="G144" s="9" t="inlineStr"/>
-      <c r="H144" s="9" t="inlineStr"/>
-      <c r="I144" s="9" t="inlineStr"/>
-      <c r="J144" s="9" t="inlineStr"/>
-      <c r="K144" s="9" t="inlineStr"/>
-      <c r="L144" s="9" t="inlineStr">
+      <c r="F144" s="17" t="inlineStr"/>
+      <c r="G144" s="17" t="inlineStr"/>
+      <c r="H144" s="17" t="inlineStr"/>
+      <c r="I144" s="17" t="inlineStr"/>
+      <c r="J144" s="17" t="inlineStr"/>
+      <c r="K144" s="17" t="inlineStr"/>
+      <c r="L144" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="9" t="inlineStr">
+      <c r="A145" s="17" t="inlineStr">
         <is>
           <t>M007</t>
         </is>
       </c>
-      <c r="B145" s="10" t="inlineStr"/>
-      <c r="C145" s="9" t="inlineStr"/>
-      <c r="D145" s="9" t="inlineStr">
+      <c r="B145" s="18" t="inlineStr"/>
+      <c r="C145" s="17" t="inlineStr"/>
+      <c r="D145" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E145" s="16" t="inlineStr">
+      <c r="E145" s="24" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F145" s="9" t="inlineStr"/>
-      <c r="G145" s="9" t="inlineStr"/>
-      <c r="H145" s="9" t="inlineStr"/>
-      <c r="I145" s="9" t="inlineStr"/>
-      <c r="J145" s="9" t="inlineStr"/>
-      <c r="K145" s="9" t="inlineStr"/>
-      <c r="L145" s="9" t="inlineStr">
+      <c r="F145" s="17" t="inlineStr"/>
+      <c r="G145" s="17" t="inlineStr"/>
+      <c r="H145" s="17" t="inlineStr"/>
+      <c r="I145" s="17" t="inlineStr"/>
+      <c r="J145" s="17" t="inlineStr"/>
+      <c r="K145" s="17" t="inlineStr"/>
+      <c r="L145" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="17" t="inlineStr">
+      <c r="A146" s="9" t="inlineStr">
         <is>
           <t>M013</t>
         </is>
       </c>
-      <c r="B146" s="18" t="inlineStr"/>
-      <c r="C146" s="19" t="inlineStr">
+      <c r="B146" s="10" t="inlineStr"/>
+      <c r="C146" s="11" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D146" s="17" t="inlineStr">
+      <c r="D146" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E146" s="20" t="inlineStr">
+      <c r="E146" s="12" t="inlineStr">
         <is>
           <t>PBL-Time Loan-LD2432680080</t>
         </is>
       </c>
-      <c r="F146" s="17" t="inlineStr"/>
-      <c r="G146" s="17" t="inlineStr"/>
-      <c r="H146" s="21" t="inlineStr">
+      <c r="F146" s="9" t="inlineStr"/>
+      <c r="G146" s="9" t="inlineStr"/>
+      <c r="H146" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I146" s="17" t="inlineStr">
+      <c r="I146" s="9" t="inlineStr">
         <is>
           <t>903</t>
         </is>
       </c>
-      <c r="J146" s="17" t="inlineStr"/>
-      <c r="K146" s="22" t="inlineStr">
+      <c r="J146" s="9" t="inlineStr"/>
+      <c r="K146" s="14" t="inlineStr">
         <is>
           <t>174172.7</t>
         </is>
       </c>
-      <c r="L146" s="17" t="inlineStr">
+      <c r="L146" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="17" t="inlineStr">
+      <c r="A147" s="9" t="inlineStr">
         <is>
           <t>M013</t>
         </is>
       </c>
-      <c r="B147" s="18" t="inlineStr">
+      <c r="B147" s="10" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 174172.70
 Borrower Amount: 174172.70</t>
         </is>
       </c>
-      <c r="C147" s="17" t="inlineStr"/>
-      <c r="D147" s="17" t="inlineStr"/>
-      <c r="E147" s="23" t="inlineStr">
+      <c r="C147" s="9" t="inlineStr"/>
+      <c r="D147" s="9" t="inlineStr"/>
+      <c r="E147" s="15" t="inlineStr">
         <is>
           <t>Amount being paid as Principal &amp; Interest repayment of Time Loan-CIL Transformer-LD-2432680080</t>
         </is>
       </c>
-      <c r="F147" s="17" t="inlineStr"/>
-      <c r="G147" s="17" t="inlineStr"/>
-      <c r="H147" s="17" t="inlineStr"/>
-      <c r="I147" s="17" t="inlineStr"/>
-      <c r="J147" s="17" t="inlineStr"/>
-      <c r="K147" s="17" t="inlineStr"/>
-      <c r="L147" s="17" t="inlineStr">
+      <c r="F147" s="9" t="inlineStr"/>
+      <c r="G147" s="9" t="inlineStr"/>
+      <c r="H147" s="9" t="inlineStr"/>
+      <c r="I147" s="9" t="inlineStr"/>
+      <c r="J147" s="9" t="inlineStr"/>
+      <c r="K147" s="9" t="inlineStr"/>
+      <c r="L147" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="17" t="inlineStr">
+      <c r="A148" s="9" t="inlineStr">
         <is>
           <t>M013</t>
         </is>
       </c>
-      <c r="B148" s="18" t="inlineStr"/>
-      <c r="C148" s="17" t="inlineStr"/>
-      <c r="D148" s="17" t="inlineStr">
+      <c r="B148" s="10" t="inlineStr"/>
+      <c r="C148" s="9" t="inlineStr"/>
+      <c r="D148" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E148" s="24" t="inlineStr">
+      <c r="E148" s="16" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F148" s="17" t="inlineStr"/>
-      <c r="G148" s="17" t="inlineStr"/>
-      <c r="H148" s="17" t="inlineStr"/>
-      <c r="I148" s="17" t="inlineStr"/>
-      <c r="J148" s="17" t="inlineStr"/>
-      <c r="K148" s="17" t="inlineStr"/>
-      <c r="L148" s="17" t="inlineStr">
+      <c r="F148" s="9" t="inlineStr"/>
+      <c r="G148" s="9" t="inlineStr"/>
+      <c r="H148" s="9" t="inlineStr"/>
+      <c r="I148" s="9" t="inlineStr"/>
+      <c r="J148" s="9" t="inlineStr"/>
+      <c r="K148" s="9" t="inlineStr"/>
+      <c r="L148" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="9" t="inlineStr">
+      <c r="A149" s="17" t="inlineStr">
         <is>
           <t>M009</t>
         </is>
       </c>
-      <c r="B149" s="10" t="inlineStr"/>
-      <c r="C149" s="11" t="inlineStr">
+      <c r="B149" s="18" t="inlineStr"/>
+      <c r="C149" s="19" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D149" s="9" t="inlineStr">
+      <c r="D149" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E149" s="12" t="inlineStr">
+      <c r="E149" s="20" t="inlineStr">
         <is>
           <t>PBL-Time Loan-LD2435445106</t>
         </is>
       </c>
-      <c r="F149" s="9" t="inlineStr"/>
-      <c r="G149" s="9" t="inlineStr"/>
-      <c r="H149" s="13" t="inlineStr">
+      <c r="F149" s="17" t="inlineStr"/>
+      <c r="G149" s="17" t="inlineStr"/>
+      <c r="H149" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I149" s="9" t="inlineStr">
+      <c r="I149" s="17" t="inlineStr">
         <is>
           <t>904</t>
         </is>
       </c>
-      <c r="J149" s="9" t="inlineStr"/>
-      <c r="K149" s="14" t="inlineStr">
+      <c r="J149" s="17" t="inlineStr"/>
+      <c r="K149" s="22" t="inlineStr">
         <is>
           <t>272808.31</t>
         </is>
       </c>
-      <c r="L149" s="9" t="inlineStr">
+      <c r="L149" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="9" t="inlineStr">
+      <c r="A150" s="17" t="inlineStr">
         <is>
           <t>M009</t>
         </is>
       </c>
-      <c r="B150" s="10" t="inlineStr">
+      <c r="B150" s="18" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 272808.31
 Borrower Amount: 272808.31</t>
         </is>
       </c>
-      <c r="C150" s="9" t="inlineStr"/>
-      <c r="D150" s="9" t="inlineStr"/>
-      <c r="E150" s="15" t="inlineStr">
+      <c r="C150" s="17" t="inlineStr"/>
+      <c r="D150" s="17" t="inlineStr"/>
+      <c r="E150" s="23" t="inlineStr">
         <is>
           <t>Amount being paid as Principal &amp; Interest Repayment of Time Loan of Transformer-LD-2435445106</t>
         </is>
       </c>
-      <c r="F150" s="9" t="inlineStr"/>
-      <c r="G150" s="9" t="inlineStr"/>
-      <c r="H150" s="9" t="inlineStr"/>
-      <c r="I150" s="9" t="inlineStr"/>
-      <c r="J150" s="9" t="inlineStr"/>
-      <c r="K150" s="9" t="inlineStr"/>
-      <c r="L150" s="9" t="inlineStr">
+      <c r="F150" s="17" t="inlineStr"/>
+      <c r="G150" s="17" t="inlineStr"/>
+      <c r="H150" s="17" t="inlineStr"/>
+      <c r="I150" s="17" t="inlineStr"/>
+      <c r="J150" s="17" t="inlineStr"/>
+      <c r="K150" s="17" t="inlineStr"/>
+      <c r="L150" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="9" t="inlineStr">
+      <c r="A151" s="17" t="inlineStr">
         <is>
           <t>M009</t>
         </is>
       </c>
-      <c r="B151" s="10" t="inlineStr"/>
-      <c r="C151" s="9" t="inlineStr"/>
-      <c r="D151" s="9" t="inlineStr">
+      <c r="B151" s="18" t="inlineStr"/>
+      <c r="C151" s="17" t="inlineStr"/>
+      <c r="D151" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E151" s="16" t="inlineStr">
+      <c r="E151" s="24" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F151" s="9" t="inlineStr"/>
-      <c r="G151" s="9" t="inlineStr"/>
-      <c r="H151" s="9" t="inlineStr"/>
-      <c r="I151" s="9" t="inlineStr"/>
-      <c r="J151" s="9" t="inlineStr"/>
-      <c r="K151" s="9" t="inlineStr"/>
-      <c r="L151" s="9" t="inlineStr">
+      <c r="F151" s="17" t="inlineStr"/>
+      <c r="G151" s="17" t="inlineStr"/>
+      <c r="H151" s="17" t="inlineStr"/>
+      <c r="I151" s="17" t="inlineStr"/>
+      <c r="J151" s="17" t="inlineStr"/>
+      <c r="K151" s="17" t="inlineStr"/>
+      <c r="L151" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="17" t="inlineStr">
+      <c r="A152" s="9" t="inlineStr">
         <is>
           <t>M011</t>
         </is>
       </c>
-      <c r="B152" s="18" t="inlineStr"/>
-      <c r="C152" s="19" t="inlineStr">
+      <c r="B152" s="10" t="inlineStr"/>
+      <c r="C152" s="11" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D152" s="17" t="inlineStr">
+      <c r="D152" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E152" s="20" t="inlineStr">
+      <c r="E152" s="12" t="inlineStr">
         <is>
           <t>PBL-Time Loan-LD2503002237</t>
         </is>
       </c>
-      <c r="F152" s="17" t="inlineStr"/>
-      <c r="G152" s="17" t="inlineStr"/>
-      <c r="H152" s="21" t="inlineStr">
+      <c r="F152" s="9" t="inlineStr"/>
+      <c r="G152" s="9" t="inlineStr"/>
+      <c r="H152" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I152" s="17" t="inlineStr">
+      <c r="I152" s="9" t="inlineStr">
         <is>
           <t>905</t>
         </is>
       </c>
-      <c r="J152" s="17" t="inlineStr"/>
-      <c r="K152" s="22" t="inlineStr">
+      <c r="J152" s="9" t="inlineStr"/>
+      <c r="K152" s="14" t="inlineStr">
         <is>
           <t>133619.23</t>
         </is>
       </c>
-      <c r="L152" s="17" t="inlineStr">
+      <c r="L152" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="17" t="inlineStr">
+      <c r="A153" s="9" t="inlineStr">
         <is>
           <t>M011</t>
         </is>
       </c>
-      <c r="B153" s="18" t="inlineStr">
+      <c r="B153" s="10" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 133619.23
 Borrower Amount: 133619.23</t>
         </is>
       </c>
-      <c r="C153" s="17" t="inlineStr"/>
-      <c r="D153" s="17" t="inlineStr"/>
-      <c r="E153" s="23" t="inlineStr">
+      <c r="C153" s="9" t="inlineStr"/>
+      <c r="D153" s="9" t="inlineStr"/>
+      <c r="E153" s="15" t="inlineStr">
         <is>
           <t>Amount being paid as Principal &amp; Interest Repayment of Time Loan of Transformer-LD-2503002237</t>
         </is>
       </c>
-      <c r="F153" s="17" t="inlineStr"/>
-      <c r="G153" s="17" t="inlineStr"/>
-      <c r="H153" s="17" t="inlineStr"/>
-      <c r="I153" s="17" t="inlineStr"/>
-      <c r="J153" s="17" t="inlineStr"/>
-      <c r="K153" s="17" t="inlineStr"/>
-      <c r="L153" s="17" t="inlineStr">
+      <c r="F153" s="9" t="inlineStr"/>
+      <c r="G153" s="9" t="inlineStr"/>
+      <c r="H153" s="9" t="inlineStr"/>
+      <c r="I153" s="9" t="inlineStr"/>
+      <c r="J153" s="9" t="inlineStr"/>
+      <c r="K153" s="9" t="inlineStr"/>
+      <c r="L153" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="17" t="inlineStr">
+      <c r="A154" s="9" t="inlineStr">
         <is>
           <t>M011</t>
         </is>
       </c>
-      <c r="B154" s="18" t="inlineStr"/>
-      <c r="C154" s="17" t="inlineStr"/>
-      <c r="D154" s="17" t="inlineStr">
+      <c r="B154" s="10" t="inlineStr"/>
+      <c r="C154" s="9" t="inlineStr"/>
+      <c r="D154" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E154" s="24" t="inlineStr">
+      <c r="E154" s="16" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F154" s="17" t="inlineStr"/>
-      <c r="G154" s="17" t="inlineStr"/>
-      <c r="H154" s="17" t="inlineStr"/>
-      <c r="I154" s="17" t="inlineStr"/>
-      <c r="J154" s="17" t="inlineStr"/>
-      <c r="K154" s="17" t="inlineStr"/>
-      <c r="L154" s="17" t="inlineStr">
+      <c r="F154" s="9" t="inlineStr"/>
+      <c r="G154" s="9" t="inlineStr"/>
+      <c r="H154" s="9" t="inlineStr"/>
+      <c r="I154" s="9" t="inlineStr"/>
+      <c r="J154" s="9" t="inlineStr"/>
+      <c r="K154" s="9" t="inlineStr"/>
+      <c r="L154" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="9" t="inlineStr">
+      <c r="A155" s="17" t="inlineStr">
         <is>
           <t>M022</t>
         </is>
       </c>
-      <c r="B155" s="10" t="inlineStr"/>
-      <c r="C155" s="11" t="inlineStr">
+      <c r="B155" s="18" t="inlineStr"/>
+      <c r="C155" s="19" t="inlineStr">
         <is>
           <t>24/Jun/2025</t>
         </is>
       </c>
-      <c r="D155" s="9" t="inlineStr">
+      <c r="D155" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E155" s="12" t="inlineStr">
+      <c r="E155" s="20" t="inlineStr">
         <is>
           <t>PBL-SND- 2126312011060</t>
         </is>
       </c>
-      <c r="F155" s="9" t="inlineStr"/>
-      <c r="G155" s="9" t="inlineStr"/>
-      <c r="H155" s="13" t="inlineStr">
+      <c r="F155" s="17" t="inlineStr"/>
+      <c r="G155" s="17" t="inlineStr"/>
+      <c r="H155" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I155" s="9" t="inlineStr">
+      <c r="I155" s="17" t="inlineStr">
         <is>
           <t>18164</t>
         </is>
       </c>
-      <c r="J155" s="14" t="inlineStr">
+      <c r="J155" s="22" t="inlineStr">
         <is>
           <t>50000</t>
         </is>
       </c>
-      <c r="K155" s="9" t="inlineStr"/>
-      <c r="L155" s="9" t="inlineStr">
+      <c r="K155" s="17" t="inlineStr"/>
+      <c r="L155" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="9" t="inlineStr">
+      <c r="A156" s="17" t="inlineStr">
         <is>
           <t>M022</t>
         </is>
       </c>
-      <c r="B156" s="10" t="inlineStr">
+      <c r="B156" s="18" t="inlineStr">
         <is>
           <t>Interunit Loan Match: PBL#1060
 Lender Amount: 50000.00
 Borrower Amount: 50000.00</t>
         </is>
       </c>
-      <c r="C156" s="9" t="inlineStr"/>
-      <c r="D156" s="9" t="inlineStr"/>
-      <c r="E156" s="15" t="inlineStr">
+      <c r="C156" s="17" t="inlineStr"/>
+      <c r="D156" s="17" t="inlineStr"/>
+      <c r="E156" s="23" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Interunit Loan A/C-Steel Unit,PBL#10855</t>
         </is>
       </c>
-      <c r="F156" s="9" t="inlineStr"/>
-      <c r="G156" s="9" t="inlineStr"/>
-      <c r="H156" s="9" t="inlineStr"/>
-      <c r="I156" s="9" t="inlineStr"/>
-      <c r="J156" s="9" t="inlineStr"/>
-      <c r="K156" s="9" t="inlineStr"/>
-      <c r="L156" s="9" t="inlineStr">
+      <c r="F156" s="17" t="inlineStr"/>
+      <c r="G156" s="17" t="inlineStr"/>
+      <c r="H156" s="17" t="inlineStr"/>
+      <c r="I156" s="17" t="inlineStr"/>
+      <c r="J156" s="17" t="inlineStr"/>
+      <c r="K156" s="17" t="inlineStr"/>
+      <c r="L156" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="9" t="inlineStr">
+      <c r="A157" s="17" t="inlineStr">
         <is>
           <t>M022</t>
         </is>
       </c>
-      <c r="B157" s="10" t="inlineStr"/>
-      <c r="C157" s="9" t="inlineStr"/>
-      <c r="D157" s="9" t="inlineStr">
+      <c r="B157" s="18" t="inlineStr"/>
+      <c r="C157" s="17" t="inlineStr"/>
+      <c r="D157" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E157" s="16" t="inlineStr">
+      <c r="E157" s="24" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F157" s="9" t="inlineStr"/>
-      <c r="G157" s="9" t="inlineStr"/>
-      <c r="H157" s="9" t="inlineStr"/>
-      <c r="I157" s="9" t="inlineStr"/>
-      <c r="J157" s="9" t="inlineStr"/>
-      <c r="K157" s="9" t="inlineStr"/>
-      <c r="L157" s="9" t="inlineStr">
+      <c r="F157" s="17" t="inlineStr"/>
+      <c r="G157" s="17" t="inlineStr"/>
+      <c r="H157" s="17" t="inlineStr"/>
+      <c r="I157" s="17" t="inlineStr"/>
+      <c r="J157" s="17" t="inlineStr"/>
+      <c r="K157" s="17" t="inlineStr"/>
+      <c r="L157" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="17" t="inlineStr">
+      <c r="A158" s="9" t="inlineStr">
         <is>
           <t>M021</t>
         </is>
       </c>
-      <c r="B158" s="18" t="inlineStr"/>
-      <c r="C158" s="19" t="inlineStr">
+      <c r="B158" s="10" t="inlineStr"/>
+      <c r="C158" s="11" t="inlineStr">
         <is>
           <t>25/Jun/2025</t>
         </is>
       </c>
-      <c r="D158" s="17" t="inlineStr">
+      <c r="D158" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E158" s="20" t="inlineStr">
+      <c r="E158" s="12" t="inlineStr">
         <is>
           <t>Eastern Bank ,STD-1011220144067</t>
         </is>
       </c>
-      <c r="F158" s="17" t="inlineStr"/>
-      <c r="G158" s="17" t="inlineStr"/>
-      <c r="H158" s="21" t="inlineStr">
+      <c r="F158" s="9" t="inlineStr"/>
+      <c r="G158" s="9" t="inlineStr"/>
+      <c r="H158" s="13" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I158" s="17" t="inlineStr">
+      <c r="I158" s="9" t="inlineStr">
         <is>
           <t>181</t>
         </is>
       </c>
-      <c r="J158" s="17" t="inlineStr"/>
-      <c r="K158" s="22" t="inlineStr">
+      <c r="J158" s="9" t="inlineStr"/>
+      <c r="K158" s="14" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="L158" s="17" t="inlineStr">
+      <c r="L158" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="17" t="inlineStr">
+      <c r="A159" s="9" t="inlineStr">
         <is>
           <t>M021</t>
         </is>
       </c>
-      <c r="B159" s="18" t="inlineStr">
+      <c r="B159" s="10" t="inlineStr">
         <is>
           <t>Interunit Loan Match: EBL#4056
 Lender Amount: 200000.00
 Borrower Amount: 200000.00</t>
         </is>
       </c>
-      <c r="C159" s="17" t="inlineStr"/>
-      <c r="D159" s="17" t="inlineStr"/>
-      <c r="E159" s="23" t="inlineStr">
+      <c r="C159" s="9" t="inlineStr"/>
+      <c r="D159" s="9" t="inlineStr"/>
+      <c r="E159" s="15" t="inlineStr">
         <is>
           <t>Amount received as Interunit Loan A/C-Steel Unit, EBL#44056</t>
         </is>
       </c>
-      <c r="F159" s="17" t="inlineStr"/>
-      <c r="G159" s="17" t="inlineStr"/>
-      <c r="H159" s="17" t="inlineStr"/>
-      <c r="I159" s="17" t="inlineStr"/>
-      <c r="J159" s="17" t="inlineStr"/>
-      <c r="K159" s="17" t="inlineStr"/>
-      <c r="L159" s="17" t="inlineStr">
+      <c r="F159" s="9" t="inlineStr"/>
+      <c r="G159" s="9" t="inlineStr"/>
+      <c r="H159" s="9" t="inlineStr"/>
+      <c r="I159" s="9" t="inlineStr"/>
+      <c r="J159" s="9" t="inlineStr"/>
+      <c r="K159" s="9" t="inlineStr"/>
+      <c r="L159" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="17" t="inlineStr">
+      <c r="A160" s="9" t="inlineStr">
         <is>
           <t>M021</t>
         </is>
       </c>
-      <c r="B160" s="18" t="inlineStr"/>
-      <c r="C160" s="17" t="inlineStr"/>
-      <c r="D160" s="17" t="inlineStr">
+      <c r="B160" s="10" t="inlineStr"/>
+      <c r="C160" s="9" t="inlineStr"/>
+      <c r="D160" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E160" s="24" t="inlineStr">
+      <c r="E160" s="16" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F160" s="17" t="inlineStr"/>
-      <c r="G160" s="17" t="inlineStr"/>
-      <c r="H160" s="17" t="inlineStr"/>
-      <c r="I160" s="17" t="inlineStr"/>
-      <c r="J160" s="17" t="inlineStr"/>
-      <c r="K160" s="17" t="inlineStr"/>
-      <c r="L160" s="17" t="inlineStr">
+      <c r="F160" s="9" t="inlineStr"/>
+      <c r="G160" s="9" t="inlineStr"/>
+      <c r="H160" s="9" t="inlineStr"/>
+      <c r="I160" s="9" t="inlineStr"/>
+      <c r="J160" s="9" t="inlineStr"/>
+      <c r="K160" s="9" t="inlineStr"/>
+      <c r="L160" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="9" t="inlineStr">
+      <c r="A161" s="17" t="inlineStr">
         <is>
           <t>M023</t>
         </is>
       </c>
-      <c r="B161" s="10" t="inlineStr"/>
-      <c r="C161" s="11" t="inlineStr">
+      <c r="B161" s="18" t="inlineStr"/>
+      <c r="C161" s="19" t="inlineStr">
         <is>
           <t>25/Jun/2025</t>
         </is>
       </c>
-      <c r="D161" s="9" t="inlineStr">
+      <c r="D161" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E161" s="12" t="inlineStr">
+      <c r="E161" s="20" t="inlineStr">
         <is>
           <t>Midland Bank Ltd-CE-0011-1060000313</t>
         </is>
       </c>
-      <c r="F161" s="9" t="inlineStr"/>
-      <c r="G161" s="9" t="inlineStr"/>
-      <c r="H161" s="13" t="inlineStr">
+      <c r="F161" s="17" t="inlineStr"/>
+      <c r="G161" s="17" t="inlineStr"/>
+      <c r="H161" s="21" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I161" s="9" t="inlineStr">
+      <c r="I161" s="17" t="inlineStr">
         <is>
           <t>183</t>
         </is>
       </c>
-      <c r="J161" s="9" t="inlineStr"/>
-      <c r="K161" s="14" t="inlineStr">
+      <c r="J161" s="17" t="inlineStr"/>
+      <c r="K161" s="22" t="inlineStr">
         <is>
           <t>4000000</t>
         </is>
       </c>
-      <c r="L161" s="9" t="inlineStr">
+      <c r="L161" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="9" t="inlineStr">
+      <c r="A162" s="17" t="inlineStr">
         <is>
           <t>M023</t>
         </is>
       </c>
-      <c r="B162" s="10" t="inlineStr">
+      <c r="B162" s="18" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0331
 Lender Amount: 4000000.00
 Borrower Amount: 4000000.00</t>
         </is>
       </c>
-      <c r="C162" s="9" t="inlineStr"/>
-      <c r="D162" s="9" t="inlineStr"/>
-      <c r="E162" s="15" t="inlineStr">
+      <c r="C162" s="17" t="inlineStr"/>
+      <c r="D162" s="17" t="inlineStr"/>
+      <c r="E162" s="23" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Interunit Loan A/C-Steel Unit, MDB#0331</t>
         </is>
       </c>
-      <c r="F162" s="9" t="inlineStr"/>
-      <c r="G162" s="9" t="inlineStr"/>
-      <c r="H162" s="9" t="inlineStr"/>
-      <c r="I162" s="9" t="inlineStr"/>
-      <c r="J162" s="9" t="inlineStr"/>
-      <c r="K162" s="9" t="inlineStr"/>
-      <c r="L162" s="9" t="inlineStr">
+      <c r="F162" s="17" t="inlineStr"/>
+      <c r="G162" s="17" t="inlineStr"/>
+      <c r="H162" s="17" t="inlineStr"/>
+      <c r="I162" s="17" t="inlineStr"/>
+      <c r="J162" s="17" t="inlineStr"/>
+      <c r="K162" s="17" t="inlineStr"/>
+      <c r="L162" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="9" t="inlineStr">
+      <c r="A163" s="17" t="inlineStr">
         <is>
           <t>M023</t>
         </is>
       </c>
-      <c r="B163" s="10" t="inlineStr"/>
-      <c r="C163" s="9" t="inlineStr"/>
-      <c r="D163" s="9" t="inlineStr">
+      <c r="B163" s="18" t="inlineStr"/>
+      <c r="C163" s="17" t="inlineStr"/>
+      <c r="D163" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E163" s="16" t="inlineStr">
+      <c r="E163" s="24" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F163" s="9" t="inlineStr"/>
-      <c r="G163" s="9" t="inlineStr"/>
-      <c r="H163" s="9" t="inlineStr"/>
-      <c r="I163" s="9" t="inlineStr"/>
-      <c r="J163" s="9" t="inlineStr"/>
-      <c r="K163" s="9" t="inlineStr"/>
-      <c r="L163" s="9" t="inlineStr">
+      <c r="F163" s="17" t="inlineStr"/>
+      <c r="G163" s="17" t="inlineStr"/>
+      <c r="H163" s="17" t="inlineStr"/>
+      <c r="I163" s="17" t="inlineStr"/>
+      <c r="J163" s="17" t="inlineStr"/>
+      <c r="K163" s="17" t="inlineStr"/>
+      <c r="L163" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="17" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
-      <c r="B164" s="18" t="inlineStr"/>
-      <c r="C164" s="19" t="inlineStr">
+      <c r="A164" s="9" t="inlineStr">
+        <is>
+          <t>M056</t>
+        </is>
+      </c>
+      <c r="B164" s="10" t="inlineStr"/>
+      <c r="C164" s="11" t="inlineStr">
         <is>
           <t>26/Jun/2025</t>
         </is>
       </c>
-      <c r="D164" s="17" t="inlineStr">
+      <c r="D164" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E164" s="20" t="inlineStr">
+      <c r="E164" s="12" t="inlineStr">
         <is>
           <t>Adv-RR-Imperial Electricals Limited</t>
         </is>
       </c>
-      <c r="F164" s="17" t="inlineStr"/>
-      <c r="G164" s="17" t="inlineStr"/>
-      <c r="H164" s="21" t="inlineStr">
+      <c r="F164" s="9" t="inlineStr"/>
+      <c r="G164" s="9" t="inlineStr"/>
+      <c r="H164" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I164" s="17" t="inlineStr">
+      <c r="I164" s="9" t="inlineStr">
         <is>
           <t>926</t>
         </is>
       </c>
-      <c r="J164" s="17" t="inlineStr"/>
-      <c r="K164" s="22" t="inlineStr">
+      <c r="J164" s="9" t="inlineStr"/>
+      <c r="K164" s="14" t="inlineStr">
         <is>
           <t>5137392</t>
         </is>
       </c>
-      <c r="L164" s="17" t="inlineStr">
+      <c r="L164" s="9" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="17" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
-      <c r="B165" s="18" t="inlineStr">
+      <c r="A165" s="9" t="inlineStr">
+        <is>
+          <t>M056</t>
+        </is>
+      </c>
+      <c r="B165" s="10" t="inlineStr">
         <is>
           <t>Manual Match
 Lender Amount: 5137392.00
 Borrower Amount: 5137392.00</t>
         </is>
       </c>
-      <c r="C165" s="17" t="inlineStr"/>
-      <c r="D165" s="17" t="inlineStr"/>
-      <c r="E165" s="23" t="inlineStr">
+      <c r="C165" s="9" t="inlineStr"/>
+      <c r="D165" s="9" t="inlineStr"/>
+      <c r="E165" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to RR-Imperial Electricals Limited . Supply of , Invoice Number:  1270, Challan Number: , Work Order Number: BRE/PO/2025/6/34287, BA Team (A), Company Unit: Transformer, Project Name : BREB/DP/PBSF-G-89-Lot-1/1/086/2023-2024 (REB) 3-Phase Power Transformer , Work Order date: 2025-06-24, Goods Received Date: , Work Order Value: 5275000.0, Total Bill Amount: 5137392.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F165" s="17" t="inlineStr"/>
-      <c r="G165" s="17" t="inlineStr"/>
-      <c r="H165" s="17" t="inlineStr"/>
-      <c r="I165" s="17" t="inlineStr"/>
-      <c r="J165" s="17" t="inlineStr"/>
-      <c r="K165" s="17" t="inlineStr"/>
-      <c r="L165" s="17" t="inlineStr">
+      <c r="F165" s="9" t="inlineStr"/>
+      <c r="G165" s="9" t="inlineStr"/>
+      <c r="H165" s="9" t="inlineStr"/>
+      <c r="I165" s="9" t="inlineStr"/>
+      <c r="J165" s="9" t="inlineStr"/>
+      <c r="K165" s="9" t="inlineStr"/>
+      <c r="L165" s="9" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="17" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
-      <c r="B166" s="18" t="inlineStr"/>
-      <c r="C166" s="17" t="inlineStr"/>
-      <c r="D166" s="17" t="inlineStr">
+      <c r="A166" s="9" t="inlineStr">
+        <is>
+          <t>M056</t>
+        </is>
+      </c>
+      <c r="B166" s="10" t="inlineStr"/>
+      <c r="C166" s="9" t="inlineStr"/>
+      <c r="D166" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E166" s="24" t="inlineStr">
+      <c r="E166" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F166" s="17" t="inlineStr"/>
-      <c r="G166" s="17" t="inlineStr"/>
-      <c r="H166" s="17" t="inlineStr"/>
-      <c r="I166" s="17" t="inlineStr"/>
-      <c r="J166" s="17" t="inlineStr"/>
-      <c r="K166" s="17" t="inlineStr"/>
-      <c r="L166" s="17" t="inlineStr">
+      <c r="F166" s="9" t="inlineStr"/>
+      <c r="G166" s="9" t="inlineStr"/>
+      <c r="H166" s="9" t="inlineStr"/>
+      <c r="I166" s="9" t="inlineStr"/>
+      <c r="J166" s="9" t="inlineStr"/>
+      <c r="K166" s="9" t="inlineStr"/>
+      <c r="L166" s="9" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="9" t="inlineStr">
-        <is>
-          <t>M068</t>
-        </is>
-      </c>
-      <c r="B167" s="10" t="inlineStr"/>
-      <c r="C167" s="11" t="inlineStr">
+      <c r="A167" s="17" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B167" s="18" t="inlineStr"/>
+      <c r="C167" s="19" t="inlineStr">
         <is>
           <t>29/Jun/2025</t>
         </is>
       </c>
-      <c r="D167" s="9" t="inlineStr">
+      <c r="D167" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E167" s="12" t="inlineStr">
+      <c r="E167" s="20" t="inlineStr">
         <is>
           <t>Adv-Rangpur Metal Industries Limited</t>
         </is>
       </c>
-      <c r="F167" s="9" t="inlineStr"/>
-      <c r="G167" s="9" t="inlineStr"/>
-      <c r="H167" s="13" t="inlineStr">
+      <c r="F167" s="17" t="inlineStr"/>
+      <c r="G167" s="17" t="inlineStr"/>
+      <c r="H167" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I167" s="9" t="inlineStr">
+      <c r="I167" s="17" t="inlineStr">
         <is>
           <t>934</t>
         </is>
       </c>
-      <c r="J167" s="9" t="inlineStr"/>
-      <c r="K167" s="14" t="inlineStr">
+      <c r="J167" s="17" t="inlineStr"/>
+      <c r="K167" s="22" t="inlineStr">
         <is>
           <t>11780452</t>
         </is>
       </c>
-      <c r="L167" s="9" t="inlineStr">
+      <c r="L167" s="17" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="9" t="inlineStr">
-        <is>
-          <t>M068</t>
-        </is>
-      </c>
-      <c r="B168" s="10" t="inlineStr">
+      <c r="A168" s="17" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B168" s="18" t="inlineStr">
         <is>
           <t>Manual Match
 Lender Amount: 11780452.00
 Borrower Amount: 11780452.00</t>
         </is>
       </c>
-      <c r="C168" s="9" t="inlineStr"/>
-      <c r="D168" s="9" t="inlineStr"/>
-      <c r="E168" s="15" t="inlineStr">
+      <c r="C168" s="17" t="inlineStr"/>
+      <c r="D168" s="17" t="inlineStr"/>
+      <c r="E168" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to Rangpur Metal Industries Limited. Supply of , Invoice Number:  advanced/CIT/10, Challan Number: , Work Order Number: DHK/PO/2025/6/34312, BA Team (A), Company Unit: Transformer, Project Name : DHK-1 PBS (1-Phase Distribution Transformer), Work Order date: 2025-06-25, Goods Received Date: , Work Order Value: 3.389904E7, Total Bill Amount: 1.2096E7, TDS Deduction Amount: 315548.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F168" s="9" t="inlineStr"/>
-      <c r="G168" s="9" t="inlineStr"/>
-      <c r="H168" s="9" t="inlineStr"/>
-      <c r="I168" s="9" t="inlineStr"/>
-      <c r="J168" s="9" t="inlineStr"/>
-      <c r="K168" s="9" t="inlineStr"/>
-      <c r="L168" s="9" t="inlineStr">
+      <c r="F168" s="17" t="inlineStr"/>
+      <c r="G168" s="17" t="inlineStr"/>
+      <c r="H168" s="17" t="inlineStr"/>
+      <c r="I168" s="17" t="inlineStr"/>
+      <c r="J168" s="17" t="inlineStr"/>
+      <c r="K168" s="17" t="inlineStr"/>
+      <c r="L168" s="17" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="9" t="inlineStr">
-        <is>
-          <t>M068</t>
-        </is>
-      </c>
-      <c r="B169" s="10" t="inlineStr"/>
-      <c r="C169" s="9" t="inlineStr"/>
-      <c r="D169" s="9" t="inlineStr">
+      <c r="A169" s="17" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B169" s="18" t="inlineStr"/>
+      <c r="C169" s="17" t="inlineStr"/>
+      <c r="D169" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E169" s="16" t="inlineStr">
+      <c r="E169" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F169" s="9" t="inlineStr"/>
-      <c r="G169" s="9" t="inlineStr"/>
-      <c r="H169" s="9" t="inlineStr"/>
-      <c r="I169" s="9" t="inlineStr"/>
-      <c r="J169" s="9" t="inlineStr"/>
-      <c r="K169" s="9" t="inlineStr"/>
-      <c r="L169" s="9" t="inlineStr">
+      <c r="F169" s="17" t="inlineStr"/>
+      <c r="G169" s="17" t="inlineStr"/>
+      <c r="H169" s="17" t="inlineStr"/>
+      <c r="I169" s="17" t="inlineStr"/>
+      <c r="J169" s="17" t="inlineStr"/>
+      <c r="K169" s="17" t="inlineStr"/>
+      <c r="L169" s="17" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="17" t="inlineStr">
+      <c r="A170" s="9" t="inlineStr">
         <is>
           <t>M024</t>
         </is>
       </c>
-      <c r="B170" s="18" t="inlineStr"/>
-      <c r="C170" s="19" t="inlineStr">
+      <c r="B170" s="10" t="inlineStr"/>
+      <c r="C170" s="11" t="inlineStr">
         <is>
           <t>29/Jun/2025</t>
         </is>
       </c>
-      <c r="D170" s="17" t="inlineStr">
+      <c r="D170" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E170" s="20" t="inlineStr">
+      <c r="E170" s="12" t="inlineStr">
         <is>
           <t>Midland Bank Ltd-CE-0011-1060000313</t>
         </is>
       </c>
-      <c r="F170" s="17" t="inlineStr"/>
-      <c r="G170" s="17" t="inlineStr"/>
-      <c r="H170" s="21" t="inlineStr">
+      <c r="F170" s="9" t="inlineStr"/>
+      <c r="G170" s="9" t="inlineStr"/>
+      <c r="H170" s="13" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I170" s="17" t="inlineStr">
+      <c r="I170" s="9" t="inlineStr">
         <is>
           <t>186</t>
         </is>
       </c>
-      <c r="J170" s="17" t="inlineStr"/>
-      <c r="K170" s="22" t="inlineStr">
+      <c r="J170" s="9" t="inlineStr"/>
+      <c r="K170" s="14" t="inlineStr">
         <is>
           <t>400000</t>
         </is>
       </c>
-      <c r="L170" s="17" t="inlineStr">
+      <c r="L170" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="17" t="inlineStr">
+      <c r="A171" s="9" t="inlineStr">
         <is>
           <t>M024</t>
         </is>
       </c>
-      <c r="B171" s="18" t="inlineStr">
+      <c r="B171" s="10" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0331
 Lender Amount: 400000.00
 Borrower Amount: 400000.00</t>
         </is>
       </c>
-      <c r="C171" s="17" t="inlineStr"/>
-      <c r="D171" s="17" t="inlineStr"/>
-      <c r="E171" s="23" t="inlineStr">
+      <c r="C171" s="9" t="inlineStr"/>
+      <c r="D171" s="9" t="inlineStr"/>
+      <c r="E171" s="15" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Interunit Loan A/C-Steel Unit, MDB#0331</t>
         </is>
       </c>
-      <c r="F171" s="17" t="inlineStr"/>
-      <c r="G171" s="17" t="inlineStr"/>
-      <c r="H171" s="17" t="inlineStr"/>
-      <c r="I171" s="17" t="inlineStr"/>
-      <c r="J171" s="17" t="inlineStr"/>
-      <c r="K171" s="17" t="inlineStr"/>
-      <c r="L171" s="17" t="inlineStr">
+      <c r="F171" s="9" t="inlineStr"/>
+      <c r="G171" s="9" t="inlineStr"/>
+      <c r="H171" s="9" t="inlineStr"/>
+      <c r="I171" s="9" t="inlineStr"/>
+      <c r="J171" s="9" t="inlineStr"/>
+      <c r="K171" s="9" t="inlineStr"/>
+      <c r="L171" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="17" t="inlineStr">
+      <c r="A172" s="9" t="inlineStr">
         <is>
           <t>M024</t>
         </is>
       </c>
-      <c r="B172" s="18" t="inlineStr"/>
-      <c r="C172" s="17" t="inlineStr"/>
-      <c r="D172" s="17" t="inlineStr">
+      <c r="B172" s="10" t="inlineStr"/>
+      <c r="C172" s="9" t="inlineStr"/>
+      <c r="D172" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E172" s="24" t="inlineStr">
+      <c r="E172" s="16" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F172" s="17" t="inlineStr"/>
-      <c r="G172" s="17" t="inlineStr"/>
-      <c r="H172" s="17" t="inlineStr"/>
-      <c r="I172" s="17" t="inlineStr"/>
-      <c r="J172" s="17" t="inlineStr"/>
-      <c r="K172" s="17" t="inlineStr"/>
-      <c r="L172" s="17" t="inlineStr">
+      <c r="F172" s="9" t="inlineStr"/>
+      <c r="G172" s="9" t="inlineStr"/>
+      <c r="H172" s="9" t="inlineStr"/>
+      <c r="I172" s="9" t="inlineStr"/>
+      <c r="J172" s="9" t="inlineStr"/>
+      <c r="K172" s="9" t="inlineStr"/>
+      <c r="L172" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="9" t="inlineStr">
+      <c r="A173" s="17" t="inlineStr">
         <is>
           <t>M020</t>
         </is>
       </c>
-      <c r="B173" s="10" t="inlineStr"/>
-      <c r="C173" s="11" t="inlineStr">
+      <c r="B173" s="18" t="inlineStr"/>
+      <c r="C173" s="19" t="inlineStr">
         <is>
           <t>30/Jun/2025</t>
         </is>
       </c>
-      <c r="D173" s="9" t="inlineStr">
+      <c r="D173" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E173" s="12" t="inlineStr">
+      <c r="E173" s="20" t="inlineStr">
         <is>
           <t>PBL-Time Loan-LD2502802705</t>
         </is>
       </c>
-      <c r="F173" s="9" t="inlineStr"/>
-      <c r="G173" s="9" t="inlineStr"/>
-      <c r="H173" s="13" t="inlineStr">
+      <c r="F173" s="17" t="inlineStr"/>
+      <c r="G173" s="17" t="inlineStr"/>
+      <c r="H173" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I173" s="9" t="inlineStr">
+      <c r="I173" s="17" t="inlineStr">
         <is>
           <t>971</t>
         </is>
       </c>
-      <c r="J173" s="9" t="inlineStr"/>
-      <c r="K173" s="14" t="inlineStr">
+      <c r="J173" s="17" t="inlineStr"/>
+      <c r="K173" s="22" t="inlineStr">
         <is>
           <t>83197.81</t>
         </is>
       </c>
-      <c r="L173" s="9" t="inlineStr">
+      <c r="L173" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="9" t="inlineStr">
+      <c r="A174" s="17" t="inlineStr">
         <is>
           <t>M020</t>
         </is>
       </c>
-      <c r="B174" s="10" t="inlineStr">
+      <c r="B174" s="18" t="inlineStr">
         <is>
           <t>Interunit Loan Match: PBL#10855
 Lender Amount: 83197.81
 Borrower Amount: 83197.81</t>
         </is>
       </c>
-      <c r="C174" s="9" t="inlineStr"/>
-      <c r="D174" s="9" t="inlineStr"/>
-      <c r="E174" s="15" t="inlineStr">
+      <c r="C174" s="17" t="inlineStr"/>
+      <c r="D174" s="17" t="inlineStr"/>
+      <c r="E174" s="23" t="inlineStr">
         <is>
           <t>Time Loan repayment from CIL steel Unit PBL-10855</t>
         </is>
       </c>
-      <c r="F174" s="9" t="inlineStr"/>
-      <c r="G174" s="9" t="inlineStr"/>
-      <c r="H174" s="9" t="inlineStr"/>
-      <c r="I174" s="9" t="inlineStr"/>
-      <c r="J174" s="9" t="inlineStr"/>
-      <c r="K174" s="9" t="inlineStr"/>
-      <c r="L174" s="9" t="inlineStr">
+      <c r="F174" s="17" t="inlineStr"/>
+      <c r="G174" s="17" t="inlineStr"/>
+      <c r="H174" s="17" t="inlineStr"/>
+      <c r="I174" s="17" t="inlineStr"/>
+      <c r="J174" s="17" t="inlineStr"/>
+      <c r="K174" s="17" t="inlineStr"/>
+      <c r="L174" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="9" t="inlineStr">
+      <c r="A175" s="17" t="inlineStr">
         <is>
           <t>M020</t>
         </is>
       </c>
-      <c r="B175" s="10" t="inlineStr"/>
-      <c r="C175" s="9" t="inlineStr"/>
-      <c r="D175" s="9" t="inlineStr">
+      <c r="B175" s="18" t="inlineStr"/>
+      <c r="C175" s="17" t="inlineStr"/>
+      <c r="D175" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E175" s="16" t="inlineStr">
+      <c r="E175" s="24" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F175" s="9" t="inlineStr"/>
-      <c r="G175" s="9" t="inlineStr"/>
-      <c r="H175" s="9" t="inlineStr"/>
-      <c r="I175" s="9" t="inlineStr"/>
-      <c r="J175" s="9" t="inlineStr"/>
-      <c r="K175" s="9" t="inlineStr"/>
-      <c r="L175" s="9" t="inlineStr">
+      <c r="F175" s="17" t="inlineStr"/>
+      <c r="G175" s="17" t="inlineStr"/>
+      <c r="H175" s="17" t="inlineStr"/>
+      <c r="I175" s="17" t="inlineStr"/>
+      <c r="J175" s="17" t="inlineStr"/>
+      <c r="K175" s="17" t="inlineStr"/>
+      <c r="L175" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
@@ -6681,7 +6570,7 @@
       <c r="H176" s="1" t="inlineStr"/>
       <c r="I176" s="1" t="inlineStr"/>
       <c r="J176" s="1" t="inlineStr"/>
-      <c r="K176" s="25" t="inlineStr">
+      <c r="K176" s="28" t="inlineStr">
         <is>
           <t>40644588.55</t>
         </is>
@@ -6707,7 +6596,7 @@
       <c r="H177" s="1" t="inlineStr"/>
       <c r="I177" s="1" t="inlineStr"/>
       <c r="J177" s="1" t="inlineStr"/>
-      <c r="K177" s="25" t="inlineStr">
+      <c r="K177" s="28" t="inlineStr">
         <is>
           <t>54945561.71</t>
         </is>
@@ -6729,7 +6618,7 @@
       <c r="H178" s="1" t="inlineStr"/>
       <c r="I178" s="1" t="inlineStr"/>
       <c r="J178" s="1" t="inlineStr"/>
-      <c r="K178" s="25" t="inlineStr">
+      <c r="K178" s="28" t="inlineStr">
         <is>
           <t>95590150.26</t>
         </is>

--- a/Resources/Steel-Trans/Trans book Steel_MATCHED.xlsx
+++ b/Resources/Steel-Trans/Trans book Steel_MATCHED.xlsx
@@ -102,6 +102,15 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -148,15 +157,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -737,13 +737,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr"/>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. Amounts don't match: 57747209.26 vs 57747208.25</t>
-        </is>
-      </c>
+      <c r="B10" s="2" t="inlineStr"/>
       <c r="C10" s="6" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
@@ -772,3424 +766,2882 @@
       <c r="L10" s="1" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="inlineStr">
-        <is>
-          <t>M030</t>
-        </is>
-      </c>
-      <c r="B11" s="10" t="inlineStr"/>
-      <c r="C11" s="11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr"/>
+      <c r="B11" s="2" t="inlineStr"/>
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D11" s="9" t="inlineStr">
+      <c r="D11" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E11" s="12" t="inlineStr">
+      <c r="E11" s="7" t="inlineStr">
         <is>
           <t>(as per details)</t>
         </is>
       </c>
-      <c r="F11" s="9" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr"/>
-      <c r="H11" s="13" t="inlineStr">
+      <c r="F11" s="1" t="inlineStr"/>
+      <c r="G11" s="1" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I11" s="9" t="inlineStr">
+      <c r="I11" s="1" t="inlineStr">
         <is>
           <t>847</t>
         </is>
       </c>
-      <c r="J11" s="9" t="inlineStr"/>
-      <c r="K11" s="14" t="inlineStr">
+      <c r="J11" s="1" t="inlineStr"/>
+      <c r="K11" s="8" t="inlineStr">
         <is>
           <t>36010</t>
         </is>
       </c>
-      <c r="L11" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L11" s="1" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="inlineStr">
-        <is>
-          <t>M030</t>
-        </is>
-      </c>
-      <c r="B12" s="10" t="inlineStr"/>
-      <c r="C12" s="9" t="inlineStr"/>
-      <c r="D12" s="9" t="inlineStr"/>
-      <c r="E12" s="12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr"/>
+      <c r="B12" s="2" t="inlineStr"/>
+      <c r="C12" s="1" t="inlineStr"/>
+      <c r="D12" s="1" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr">
         <is>
           <t>AP-Stardust Telecom Ltd.</t>
         </is>
       </c>
-      <c r="F12" s="9" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr"/>
-      <c r="I12" s="9" t="inlineStr"/>
-      <c r="J12" s="14" t="inlineStr">
+      <c r="F12" s="1" t="inlineStr"/>
+      <c r="G12" s="1" t="inlineStr"/>
+      <c r="H12" s="1" t="inlineStr"/>
+      <c r="I12" s="1" t="inlineStr"/>
+      <c r="J12" s="8" t="inlineStr">
         <is>
           <t>1528</t>
         </is>
       </c>
-      <c r="K12" s="9" t="inlineStr"/>
-      <c r="L12" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K12" s="1" t="inlineStr"/>
+      <c r="L12" s="1" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="inlineStr">
-        <is>
-          <t>M030</t>
-        </is>
-      </c>
-      <c r="B13" s="10" t="inlineStr"/>
-      <c r="C13" s="9" t="inlineStr"/>
-      <c r="D13" s="9" t="inlineStr"/>
-      <c r="E13" s="12" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr"/>
+      <c r="B13" s="2" t="inlineStr"/>
+      <c r="C13" s="1" t="inlineStr"/>
+      <c r="D13" s="1" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr">
         <is>
           <t>AP-Stardust Telecom Ltd.</t>
         </is>
       </c>
-      <c r="F13" s="9" t="inlineStr"/>
-      <c r="G13" s="9" t="inlineStr"/>
-      <c r="H13" s="9" t="inlineStr"/>
-      <c r="I13" s="9" t="inlineStr"/>
-      <c r="J13" s="14" t="inlineStr">
+      <c r="F13" s="1" t="inlineStr"/>
+      <c r="G13" s="1" t="inlineStr"/>
+      <c r="H13" s="1" t="inlineStr"/>
+      <c r="I13" s="1" t="inlineStr"/>
+      <c r="J13" s="8" t="inlineStr">
         <is>
           <t>25950</t>
         </is>
       </c>
-      <c r="K13" s="9" t="inlineStr"/>
-      <c r="L13" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K13" s="1" t="inlineStr"/>
+      <c r="L13" s="1" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="inlineStr">
-        <is>
-          <t>M030</t>
-        </is>
-      </c>
-      <c r="B14" s="10" t="inlineStr"/>
-      <c r="C14" s="9" t="inlineStr"/>
-      <c r="D14" s="9" t="inlineStr"/>
-      <c r="E14" s="12" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr"/>
+      <c r="B14" s="2" t="inlineStr"/>
+      <c r="C14" s="1" t="inlineStr"/>
+      <c r="D14" s="1" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr">
         <is>
           <t>AP-Stardust Telecom Ltd.</t>
         </is>
       </c>
-      <c r="F14" s="9" t="inlineStr"/>
-      <c r="G14" s="9" t="inlineStr"/>
-      <c r="H14" s="9" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr"/>
-      <c r="J14" s="14" t="inlineStr">
+      <c r="F14" s="1" t="inlineStr"/>
+      <c r="G14" s="1" t="inlineStr"/>
+      <c r="H14" s="1" t="inlineStr"/>
+      <c r="I14" s="1" t="inlineStr"/>
+      <c r="J14" s="8" t="inlineStr">
         <is>
           <t>5575</t>
         </is>
       </c>
-      <c r="K14" s="9" t="inlineStr"/>
-      <c r="L14" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K14" s="1" t="inlineStr"/>
+      <c r="L14" s="1" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="inlineStr">
-        <is>
-          <t>M030</t>
-        </is>
-      </c>
-      <c r="B15" s="10" t="inlineStr"/>
-      <c r="C15" s="9" t="inlineStr"/>
-      <c r="D15" s="9" t="inlineStr"/>
-      <c r="E15" s="12" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr"/>
+      <c r="B15" s="2" t="inlineStr"/>
+      <c r="C15" s="1" t="inlineStr"/>
+      <c r="D15" s="1" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr">
         <is>
           <t>AP-Stardust Telecom Ltd.</t>
         </is>
       </c>
-      <c r="F15" s="9" t="inlineStr"/>
-      <c r="G15" s="9" t="inlineStr"/>
-      <c r="H15" s="9" t="inlineStr"/>
-      <c r="I15" s="9" t="inlineStr"/>
-      <c r="J15" s="14" t="inlineStr">
+      <c r="F15" s="1" t="inlineStr"/>
+      <c r="G15" s="1" t="inlineStr"/>
+      <c r="H15" s="1" t="inlineStr"/>
+      <c r="I15" s="1" t="inlineStr"/>
+      <c r="J15" s="8" t="inlineStr">
         <is>
           <t>2957</t>
         </is>
       </c>
-      <c r="K15" s="9" t="inlineStr"/>
-      <c r="L15" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K15" s="1" t="inlineStr"/>
+      <c r="L15" s="1" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="inlineStr">
-        <is>
-          <t>M030</t>
-        </is>
-      </c>
-      <c r="B16" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 36010.00
-Borrower Amount: 36010.00</t>
-        </is>
-      </c>
-      <c r="C16" s="9" t="inlineStr"/>
-      <c r="D16" s="9" t="inlineStr"/>
-      <c r="E16" s="15" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr"/>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr"/>
+      <c r="D16" s="1" t="inlineStr"/>
+      <c r="E16" s="10" t="inlineStr">
         <is>
           <t>Amount paid to Stardust Telecom Ltd agt ISP Expenses for the month of December-2024. Bill no. MIME/2425/00012870, INV/DEC/202403167  MIME/2425/00012871, MIME/2425/00012872</t>
         </is>
       </c>
-      <c r="F16" s="9" t="inlineStr"/>
-      <c r="G16" s="9" t="inlineStr"/>
-      <c r="H16" s="9" t="inlineStr"/>
-      <c r="I16" s="9" t="inlineStr"/>
-      <c r="J16" s="9" t="inlineStr"/>
-      <c r="K16" s="9" t="inlineStr"/>
-      <c r="L16" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F16" s="1" t="inlineStr"/>
+      <c r="G16" s="1" t="inlineStr"/>
+      <c r="H16" s="1" t="inlineStr"/>
+      <c r="I16" s="1" t="inlineStr"/>
+      <c r="J16" s="1" t="inlineStr"/>
+      <c r="K16" s="1" t="inlineStr"/>
+      <c r="L16" s="1" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="inlineStr">
-        <is>
-          <t>M030</t>
-        </is>
-      </c>
-      <c r="B17" s="10" t="inlineStr"/>
-      <c r="C17" s="9" t="inlineStr"/>
-      <c r="D17" s="9" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr"/>
+      <c r="B17" s="2" t="inlineStr"/>
+      <c r="C17" s="1" t="inlineStr"/>
+      <c r="D17" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E17" s="16" t="inlineStr">
+      <c r="E17" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F17" s="9" t="inlineStr"/>
-      <c r="G17" s="9" t="inlineStr"/>
-      <c r="H17" s="9" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr"/>
-      <c r="J17" s="9" t="inlineStr"/>
-      <c r="K17" s="9" t="inlineStr"/>
-      <c r="L17" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F17" s="1" t="inlineStr"/>
+      <c r="G17" s="1" t="inlineStr"/>
+      <c r="H17" s="1" t="inlineStr"/>
+      <c r="I17" s="1" t="inlineStr"/>
+      <c r="J17" s="1" t="inlineStr"/>
+      <c r="K17" s="1" t="inlineStr"/>
+      <c r="L17" s="1" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="17" t="inlineStr">
-        <is>
-          <t>M025</t>
-        </is>
-      </c>
-      <c r="B18" s="18" t="inlineStr"/>
-      <c r="C18" s="19" t="inlineStr">
+      <c r="A18" s="12" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
+      <c r="B18" s="13" t="inlineStr"/>
+      <c r="C18" s="14" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D18" s="17" t="inlineStr">
+      <c r="D18" s="12" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E18" s="20" t="inlineStr">
+      <c r="E18" s="15" t="inlineStr">
         <is>
           <t>Payable to Suhel Mia-ID:11370</t>
         </is>
       </c>
-      <c r="F18" s="17" t="inlineStr"/>
-      <c r="G18" s="17" t="inlineStr"/>
-      <c r="H18" s="21" t="inlineStr">
+      <c r="F18" s="12" t="inlineStr"/>
+      <c r="G18" s="12" t="inlineStr"/>
+      <c r="H18" s="16" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I18" s="17" t="inlineStr">
+      <c r="I18" s="12" t="inlineStr">
         <is>
           <t>848</t>
         </is>
       </c>
-      <c r="J18" s="17" t="inlineStr"/>
-      <c r="K18" s="22" t="inlineStr">
+      <c r="J18" s="12" t="inlineStr"/>
+      <c r="K18" s="17" t="inlineStr">
         <is>
           <t>99317</t>
         </is>
       </c>
-      <c r="L18" s="17" t="inlineStr">
+      <c r="L18" s="12" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="17" t="inlineStr">
-        <is>
-          <t>M025</t>
-        </is>
-      </c>
-      <c r="B19" s="18" t="inlineStr">
+      <c r="A19" s="12" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
+      <c r="B19" s="13" t="inlineStr">
         <is>
           <t>Settlement Match (ID: 11370) - 'Final Settlement' keyword found
 Lender Amount: 99317.00
 Borrower Amount: 99317.00</t>
         </is>
       </c>
-      <c r="C19" s="17" t="inlineStr"/>
-      <c r="D19" s="17" t="inlineStr"/>
-      <c r="E19" s="23" t="inlineStr">
+      <c r="C19" s="12" t="inlineStr"/>
+      <c r="D19" s="12" t="inlineStr"/>
+      <c r="E19" s="18" t="inlineStr">
         <is>
           <t>Amount paid to Suhel Mia, Technician for final settlement. Employee ID: 11370</t>
         </is>
       </c>
-      <c r="F19" s="17" t="inlineStr"/>
-      <c r="G19" s="17" t="inlineStr"/>
-      <c r="H19" s="17" t="inlineStr"/>
-      <c r="I19" s="17" t="inlineStr"/>
-      <c r="J19" s="17" t="inlineStr"/>
-      <c r="K19" s="17" t="inlineStr"/>
-      <c r="L19" s="17" t="inlineStr">
+      <c r="F19" s="12" t="inlineStr"/>
+      <c r="G19" s="12" t="inlineStr"/>
+      <c r="H19" s="12" t="inlineStr"/>
+      <c r="I19" s="12" t="inlineStr"/>
+      <c r="J19" s="12" t="inlineStr"/>
+      <c r="K19" s="12" t="inlineStr"/>
+      <c r="L19" s="12" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="17" t="inlineStr">
-        <is>
-          <t>M025</t>
-        </is>
-      </c>
-      <c r="B20" s="18" t="inlineStr"/>
-      <c r="C20" s="17" t="inlineStr"/>
-      <c r="D20" s="17" t="inlineStr">
+      <c r="A20" s="12" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
+      <c r="B20" s="13" t="inlineStr"/>
+      <c r="C20" s="12" t="inlineStr"/>
+      <c r="D20" s="12" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E20" s="24" t="inlineStr">
+      <c r="E20" s="19" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F20" s="17" t="inlineStr"/>
-      <c r="G20" s="17" t="inlineStr"/>
-      <c r="H20" s="17" t="inlineStr"/>
-      <c r="I20" s="17" t="inlineStr"/>
-      <c r="J20" s="17" t="inlineStr"/>
-      <c r="K20" s="17" t="inlineStr"/>
-      <c r="L20" s="17" t="inlineStr">
+      <c r="F20" s="12" t="inlineStr"/>
+      <c r="G20" s="12" t="inlineStr"/>
+      <c r="H20" s="12" t="inlineStr"/>
+      <c r="I20" s="12" t="inlineStr"/>
+      <c r="J20" s="12" t="inlineStr"/>
+      <c r="K20" s="12" t="inlineStr"/>
+      <c r="L20" s="12" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="inlineStr">
-        <is>
-          <t>M026</t>
-        </is>
-      </c>
-      <c r="B21" s="10" t="inlineStr"/>
-      <c r="C21" s="11" t="inlineStr">
+      <c r="A21" s="20" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="B21" s="21" t="inlineStr"/>
+      <c r="C21" s="22" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D21" s="9" t="inlineStr">
+      <c r="D21" s="20" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E21" s="12" t="inlineStr">
+      <c r="E21" s="23" t="inlineStr">
         <is>
           <t>Payable to Poritosh Chandra Das-ID:10199</t>
         </is>
       </c>
-      <c r="F21" s="9" t="inlineStr"/>
-      <c r="G21" s="9" t="inlineStr"/>
-      <c r="H21" s="13" t="inlineStr">
+      <c r="F21" s="20" t="inlineStr"/>
+      <c r="G21" s="20" t="inlineStr"/>
+      <c r="H21" s="24" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I21" s="9" t="inlineStr">
+      <c r="I21" s="20" t="inlineStr">
         <is>
           <t>849</t>
         </is>
       </c>
-      <c r="J21" s="9" t="inlineStr"/>
-      <c r="K21" s="14" t="inlineStr">
+      <c r="J21" s="20" t="inlineStr"/>
+      <c r="K21" s="25" t="inlineStr">
         <is>
           <t>20130</t>
         </is>
       </c>
-      <c r="L21" s="9" t="inlineStr">
+      <c r="L21" s="20" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="inlineStr">
-        <is>
-          <t>M026</t>
-        </is>
-      </c>
-      <c r="B22" s="10" t="inlineStr">
+      <c r="A22" s="20" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="B22" s="21" t="inlineStr">
         <is>
           <t>Settlement Match (ID: 10199) - 'Final Settlement' keyword found
 Lender Amount: 20130.00
 Borrower Amount: 20130.00</t>
         </is>
       </c>
-      <c r="C22" s="9" t="inlineStr"/>
-      <c r="D22" s="9" t="inlineStr"/>
-      <c r="E22" s="15" t="inlineStr">
+      <c r="C22" s="20" t="inlineStr"/>
+      <c r="D22" s="20" t="inlineStr"/>
+      <c r="E22" s="26" t="inlineStr">
         <is>
           <t>Amount paid to Poritosh Chandra Das, Security Supervisor-Human Resources &amp; Administration for final settlement. Employee ID: 10199</t>
         </is>
       </c>
-      <c r="F22" s="9" t="inlineStr"/>
-      <c r="G22" s="9" t="inlineStr"/>
-      <c r="H22" s="9" t="inlineStr"/>
-      <c r="I22" s="9" t="inlineStr"/>
-      <c r="J22" s="9" t="inlineStr"/>
-      <c r="K22" s="9" t="inlineStr"/>
-      <c r="L22" s="9" t="inlineStr">
+      <c r="F22" s="20" t="inlineStr"/>
+      <c r="G22" s="20" t="inlineStr"/>
+      <c r="H22" s="20" t="inlineStr"/>
+      <c r="I22" s="20" t="inlineStr"/>
+      <c r="J22" s="20" t="inlineStr"/>
+      <c r="K22" s="20" t="inlineStr"/>
+      <c r="L22" s="20" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="inlineStr">
-        <is>
-          <t>M026</t>
-        </is>
-      </c>
-      <c r="B23" s="10" t="inlineStr"/>
-      <c r="C23" s="9" t="inlineStr"/>
-      <c r="D23" s="9" t="inlineStr">
+      <c r="A23" s="20" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="B23" s="21" t="inlineStr"/>
+      <c r="C23" s="20" t="inlineStr"/>
+      <c r="D23" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E23" s="16" t="inlineStr">
+      <c r="E23" s="27" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F23" s="9" t="inlineStr"/>
-      <c r="G23" s="9" t="inlineStr"/>
-      <c r="H23" s="9" t="inlineStr"/>
-      <c r="I23" s="9" t="inlineStr"/>
-      <c r="J23" s="9" t="inlineStr"/>
-      <c r="K23" s="9" t="inlineStr"/>
-      <c r="L23" s="9" t="inlineStr">
+      <c r="F23" s="20" t="inlineStr"/>
+      <c r="G23" s="20" t="inlineStr"/>
+      <c r="H23" s="20" t="inlineStr"/>
+      <c r="I23" s="20" t="inlineStr"/>
+      <c r="J23" s="20" t="inlineStr"/>
+      <c r="K23" s="20" t="inlineStr"/>
+      <c r="L23" s="20" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="17" t="inlineStr">
-        <is>
-          <t>M027</t>
-        </is>
-      </c>
-      <c r="B24" s="18" t="inlineStr"/>
-      <c r="C24" s="19" t="inlineStr">
+      <c r="A24" s="12" t="inlineStr">
+        <is>
+          <t>M020</t>
+        </is>
+      </c>
+      <c r="B24" s="13" t="inlineStr"/>
+      <c r="C24" s="14" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D24" s="17" t="inlineStr">
+      <c r="D24" s="12" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E24" s="20" t="inlineStr">
+      <c r="E24" s="15" t="inlineStr">
         <is>
           <t>Payable to Md. Nor Mohammad-ID:11711</t>
         </is>
       </c>
-      <c r="F24" s="17" t="inlineStr"/>
-      <c r="G24" s="17" t="inlineStr"/>
-      <c r="H24" s="21" t="inlineStr">
+      <c r="F24" s="12" t="inlineStr"/>
+      <c r="G24" s="12" t="inlineStr"/>
+      <c r="H24" s="16" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I24" s="17" t="inlineStr">
+      <c r="I24" s="12" t="inlineStr">
         <is>
           <t>850</t>
         </is>
       </c>
-      <c r="J24" s="17" t="inlineStr"/>
-      <c r="K24" s="22" t="inlineStr">
+      <c r="J24" s="12" t="inlineStr"/>
+      <c r="K24" s="17" t="inlineStr">
         <is>
           <t>94109</t>
         </is>
       </c>
-      <c r="L24" s="17" t="inlineStr">
+      <c r="L24" s="12" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="17" t="inlineStr">
-        <is>
-          <t>M027</t>
-        </is>
-      </c>
-      <c r="B25" s="18" t="inlineStr">
+      <c r="A25" s="12" t="inlineStr">
+        <is>
+          <t>M020</t>
+        </is>
+      </c>
+      <c r="B25" s="13" t="inlineStr">
         <is>
           <t>Settlement Match (ID: 11711) - 'Final Settlement' keyword found
 Lender Amount: 94109.00
 Borrower Amount: 94109.00</t>
         </is>
       </c>
-      <c r="C25" s="17" t="inlineStr"/>
-      <c r="D25" s="17" t="inlineStr"/>
-      <c r="E25" s="23" t="inlineStr">
+      <c r="C25" s="12" t="inlineStr"/>
+      <c r="D25" s="12" t="inlineStr"/>
+      <c r="E25" s="18" t="inlineStr">
         <is>
           <t>Amount paid to Md. Nor Mahammad, Technician for final settlement. Employee ID: 11711</t>
         </is>
       </c>
-      <c r="F25" s="17" t="inlineStr"/>
-      <c r="G25" s="17" t="inlineStr"/>
-      <c r="H25" s="17" t="inlineStr"/>
-      <c r="I25" s="17" t="inlineStr"/>
-      <c r="J25" s="17" t="inlineStr"/>
-      <c r="K25" s="17" t="inlineStr"/>
-      <c r="L25" s="17" t="inlineStr">
+      <c r="F25" s="12" t="inlineStr"/>
+      <c r="G25" s="12" t="inlineStr"/>
+      <c r="H25" s="12" t="inlineStr"/>
+      <c r="I25" s="12" t="inlineStr"/>
+      <c r="J25" s="12" t="inlineStr"/>
+      <c r="K25" s="12" t="inlineStr"/>
+      <c r="L25" s="12" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="17" t="inlineStr">
-        <is>
-          <t>M027</t>
-        </is>
-      </c>
-      <c r="B26" s="18" t="inlineStr"/>
-      <c r="C26" s="17" t="inlineStr"/>
-      <c r="D26" s="17" t="inlineStr">
+      <c r="A26" s="12" t="inlineStr">
+        <is>
+          <t>M020</t>
+        </is>
+      </c>
+      <c r="B26" s="13" t="inlineStr"/>
+      <c r="C26" s="12" t="inlineStr"/>
+      <c r="D26" s="12" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E26" s="24" t="inlineStr">
+      <c r="E26" s="19" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F26" s="17" t="inlineStr"/>
-      <c r="G26" s="17" t="inlineStr"/>
-      <c r="H26" s="17" t="inlineStr"/>
-      <c r="I26" s="17" t="inlineStr"/>
-      <c r="J26" s="17" t="inlineStr"/>
-      <c r="K26" s="17" t="inlineStr"/>
-      <c r="L26" s="17" t="inlineStr">
+      <c r="F26" s="12" t="inlineStr"/>
+      <c r="G26" s="12" t="inlineStr"/>
+      <c r="H26" s="12" t="inlineStr"/>
+      <c r="I26" s="12" t="inlineStr"/>
+      <c r="J26" s="12" t="inlineStr"/>
+      <c r="K26" s="12" t="inlineStr"/>
+      <c r="L26" s="12" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
-      <c r="B27" s="10" t="inlineStr"/>
-      <c r="C27" s="11" t="inlineStr">
+      <c r="A27" s="20" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
+      <c r="B27" s="21" t="inlineStr"/>
+      <c r="C27" s="22" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D27" s="9" t="inlineStr">
+      <c r="D27" s="20" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E27" s="12" t="inlineStr">
+      <c r="E27" s="23" t="inlineStr">
         <is>
           <t>Payable to Md. Ahsan Habib-ID:12107</t>
         </is>
       </c>
-      <c r="F27" s="9" t="inlineStr"/>
-      <c r="G27" s="9" t="inlineStr"/>
-      <c r="H27" s="13" t="inlineStr">
+      <c r="F27" s="20" t="inlineStr"/>
+      <c r="G27" s="20" t="inlineStr"/>
+      <c r="H27" s="24" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I27" s="9" t="inlineStr">
+      <c r="I27" s="20" t="inlineStr">
         <is>
           <t>851</t>
         </is>
       </c>
-      <c r="J27" s="9" t="inlineStr"/>
-      <c r="K27" s="14" t="inlineStr">
+      <c r="J27" s="20" t="inlineStr"/>
+      <c r="K27" s="25" t="inlineStr">
         <is>
           <t>93314</t>
         </is>
       </c>
-      <c r="L27" s="9" t="inlineStr">
+      <c r="L27" s="20" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="9" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
-      <c r="B28" s="10" t="inlineStr">
+      <c r="A28" s="20" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
+      <c r="B28" s="21" t="inlineStr">
         <is>
           <t>Settlement Match (ID: 12107) - 'Final Settlement' keyword found
 Lender Amount: 93314.00
 Borrower Amount: 93314.00</t>
         </is>
       </c>
-      <c r="C28" s="9" t="inlineStr"/>
-      <c r="D28" s="9" t="inlineStr"/>
-      <c r="E28" s="15" t="inlineStr">
+      <c r="C28" s="20" t="inlineStr"/>
+      <c r="D28" s="20" t="inlineStr"/>
+      <c r="E28" s="26" t="inlineStr">
         <is>
           <t>Amount paid to Md. Ahsan Habib, Executive-Internal Audit &amp; Compliance for final settlement. Employee ID: 12107</t>
         </is>
       </c>
-      <c r="F28" s="9" t="inlineStr"/>
-      <c r="G28" s="9" t="inlineStr"/>
-      <c r="H28" s="9" t="inlineStr"/>
-      <c r="I28" s="9" t="inlineStr"/>
-      <c r="J28" s="9" t="inlineStr"/>
-      <c r="K28" s="9" t="inlineStr"/>
-      <c r="L28" s="9" t="inlineStr">
+      <c r="F28" s="20" t="inlineStr"/>
+      <c r="G28" s="20" t="inlineStr"/>
+      <c r="H28" s="20" t="inlineStr"/>
+      <c r="I28" s="20" t="inlineStr"/>
+      <c r="J28" s="20" t="inlineStr"/>
+      <c r="K28" s="20" t="inlineStr"/>
+      <c r="L28" s="20" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="9" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
-      <c r="B29" s="10" t="inlineStr"/>
-      <c r="C29" s="9" t="inlineStr"/>
-      <c r="D29" s="9" t="inlineStr">
+      <c r="A29" s="20" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
+      <c r="B29" s="21" t="inlineStr"/>
+      <c r="C29" s="20" t="inlineStr"/>
+      <c r="D29" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E29" s="16" t="inlineStr">
+      <c r="E29" s="27" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F29" s="9" t="inlineStr"/>
-      <c r="G29" s="9" t="inlineStr"/>
-      <c r="H29" s="9" t="inlineStr"/>
-      <c r="I29" s="9" t="inlineStr"/>
-      <c r="J29" s="9" t="inlineStr"/>
-      <c r="K29" s="9" t="inlineStr"/>
-      <c r="L29" s="9" t="inlineStr">
+      <c r="F29" s="20" t="inlineStr"/>
+      <c r="G29" s="20" t="inlineStr"/>
+      <c r="H29" s="20" t="inlineStr"/>
+      <c r="I29" s="20" t="inlineStr"/>
+      <c r="J29" s="20" t="inlineStr"/>
+      <c r="K29" s="20" t="inlineStr"/>
+      <c r="L29" s="20" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="17" t="inlineStr">
-        <is>
-          <t>M028</t>
-        </is>
-      </c>
-      <c r="B30" s="18" t="inlineStr"/>
-      <c r="C30" s="19" t="inlineStr">
+      <c r="A30" s="12" t="inlineStr">
+        <is>
+          <t>M021</t>
+        </is>
+      </c>
+      <c r="B30" s="13" t="inlineStr"/>
+      <c r="C30" s="14" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D30" s="17" t="inlineStr">
+      <c r="D30" s="12" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E30" s="20" t="inlineStr">
+      <c r="E30" s="15" t="inlineStr">
         <is>
           <t>Payable to Md. Salah Uddin-ID:11134</t>
         </is>
       </c>
-      <c r="F30" s="17" t="inlineStr"/>
-      <c r="G30" s="17" t="inlineStr"/>
-      <c r="H30" s="21" t="inlineStr">
+      <c r="F30" s="12" t="inlineStr"/>
+      <c r="G30" s="12" t="inlineStr"/>
+      <c r="H30" s="16" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I30" s="17" t="inlineStr">
+      <c r="I30" s="12" t="inlineStr">
         <is>
           <t>852</t>
         </is>
       </c>
-      <c r="J30" s="17" t="inlineStr"/>
-      <c r="K30" s="22" t="inlineStr">
+      <c r="J30" s="12" t="inlineStr"/>
+      <c r="K30" s="17" t="inlineStr">
         <is>
           <t>13909</t>
         </is>
       </c>
-      <c r="L30" s="17" t="inlineStr">
+      <c r="L30" s="12" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="17" t="inlineStr">
-        <is>
-          <t>M028</t>
-        </is>
-      </c>
-      <c r="B31" s="18" t="inlineStr">
+      <c r="A31" s="12" t="inlineStr">
+        <is>
+          <t>M021</t>
+        </is>
+      </c>
+      <c r="B31" s="13" t="inlineStr">
         <is>
           <t>Settlement Match (ID: 11134) - 'Final Settlement' keyword found
 Lender Amount: 13909.00
 Borrower Amount: 13909.00</t>
         </is>
       </c>
-      <c r="C31" s="17" t="inlineStr"/>
-      <c r="D31" s="17" t="inlineStr"/>
-      <c r="E31" s="23" t="inlineStr">
+      <c r="C31" s="12" t="inlineStr"/>
+      <c r="D31" s="12" t="inlineStr"/>
+      <c r="E31" s="18" t="inlineStr">
         <is>
           <t>Amount paid to Md. Salah Uddin, Office Assistant-Human Resources &amp; Administration for final settlement. Employee ID: 11134</t>
         </is>
       </c>
-      <c r="F31" s="17" t="inlineStr"/>
-      <c r="G31" s="17" t="inlineStr"/>
-      <c r="H31" s="17" t="inlineStr"/>
-      <c r="I31" s="17" t="inlineStr"/>
-      <c r="J31" s="17" t="inlineStr"/>
-      <c r="K31" s="17" t="inlineStr"/>
-      <c r="L31" s="17" t="inlineStr">
+      <c r="F31" s="12" t="inlineStr"/>
+      <c r="G31" s="12" t="inlineStr"/>
+      <c r="H31" s="12" t="inlineStr"/>
+      <c r="I31" s="12" t="inlineStr"/>
+      <c r="J31" s="12" t="inlineStr"/>
+      <c r="K31" s="12" t="inlineStr"/>
+      <c r="L31" s="12" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="17" t="inlineStr">
-        <is>
-          <t>M028</t>
-        </is>
-      </c>
-      <c r="B32" s="18" t="inlineStr"/>
-      <c r="C32" s="17" t="inlineStr"/>
-      <c r="D32" s="17" t="inlineStr">
+      <c r="A32" s="12" t="inlineStr">
+        <is>
+          <t>M021</t>
+        </is>
+      </c>
+      <c r="B32" s="13" t="inlineStr"/>
+      <c r="C32" s="12" t="inlineStr"/>
+      <c r="D32" s="12" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E32" s="24" t="inlineStr">
+      <c r="E32" s="19" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F32" s="17" t="inlineStr"/>
-      <c r="G32" s="17" t="inlineStr"/>
-      <c r="H32" s="17" t="inlineStr"/>
-      <c r="I32" s="17" t="inlineStr"/>
-      <c r="J32" s="17" t="inlineStr"/>
-      <c r="K32" s="17" t="inlineStr"/>
-      <c r="L32" s="17" t="inlineStr">
+      <c r="F32" s="12" t="inlineStr"/>
+      <c r="G32" s="12" t="inlineStr"/>
+      <c r="H32" s="12" t="inlineStr"/>
+      <c r="I32" s="12" t="inlineStr"/>
+      <c r="J32" s="12" t="inlineStr"/>
+      <c r="K32" s="12" t="inlineStr"/>
+      <c r="L32" s="12" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="9" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
-      <c r="B33" s="10" t="inlineStr"/>
-      <c r="C33" s="11" t="inlineStr">
+      <c r="A33" s="20" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B33" s="21" t="inlineStr"/>
+      <c r="C33" s="22" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D33" s="9" t="inlineStr">
+      <c r="D33" s="20" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E33" s="12" t="inlineStr">
+      <c r="E33" s="23" t="inlineStr">
         <is>
           <t>(as per details)</t>
         </is>
       </c>
-      <c r="F33" s="9" t="inlineStr"/>
-      <c r="G33" s="9" t="inlineStr"/>
-      <c r="H33" s="13" t="inlineStr">
+      <c r="F33" s="20" t="inlineStr"/>
+      <c r="G33" s="20" t="inlineStr"/>
+      <c r="H33" s="24" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I33" s="9" t="inlineStr">
+      <c r="I33" s="20" t="inlineStr">
         <is>
           <t>855</t>
         </is>
       </c>
-      <c r="J33" s="14" t="inlineStr">
+      <c r="J33" s="25" t="inlineStr">
         <is>
           <t>83402</t>
         </is>
       </c>
-      <c r="K33" s="9" t="inlineStr"/>
-      <c r="L33" s="9" t="inlineStr">
+      <c r="K33" s="20" t="inlineStr"/>
+      <c r="L33" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="9" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
-      <c r="B34" s="10" t="inlineStr"/>
-      <c r="C34" s="9" t="inlineStr"/>
-      <c r="D34" s="9" t="inlineStr"/>
-      <c r="E34" s="12" t="inlineStr">
+      <c r="A34" s="20" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B34" s="21" t="inlineStr"/>
+      <c r="C34" s="20" t="inlineStr"/>
+      <c r="D34" s="20" t="inlineStr"/>
+      <c r="E34" s="23" t="inlineStr">
         <is>
           <t>Sundry Receivable-Pioneer Insurance Co. Ltd.</t>
         </is>
       </c>
-      <c r="F34" s="9" t="inlineStr"/>
-      <c r="G34" s="9" t="inlineStr"/>
-      <c r="H34" s="9" t="inlineStr"/>
-      <c r="I34" s="9" t="inlineStr"/>
-      <c r="J34" s="14" t="inlineStr">
+      <c r="F34" s="20" t="inlineStr"/>
+      <c r="G34" s="20" t="inlineStr"/>
+      <c r="H34" s="20" t="inlineStr"/>
+      <c r="I34" s="20" t="inlineStr"/>
+      <c r="J34" s="25" t="inlineStr">
         <is>
           <t>35023</t>
         </is>
       </c>
-      <c r="K34" s="9" t="inlineStr"/>
-      <c r="L34" s="9" t="inlineStr">
+      <c r="K34" s="20" t="inlineStr"/>
+      <c r="L34" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="9" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
-      <c r="B35" s="10" t="inlineStr"/>
-      <c r="C35" s="9" t="inlineStr"/>
-      <c r="D35" s="9" t="inlineStr"/>
-      <c r="E35" s="12" t="inlineStr">
+      <c r="A35" s="20" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B35" s="21" t="inlineStr"/>
+      <c r="C35" s="20" t="inlineStr"/>
+      <c r="D35" s="20" t="inlineStr"/>
+      <c r="E35" s="23" t="inlineStr">
         <is>
           <t>AP-Pioneer Insurance Company Limited</t>
         </is>
       </c>
-      <c r="F35" s="9" t="inlineStr"/>
-      <c r="G35" s="9" t="inlineStr"/>
-      <c r="H35" s="9" t="inlineStr"/>
-      <c r="I35" s="9" t="inlineStr"/>
-      <c r="J35" s="9" t="inlineStr"/>
-      <c r="K35" s="14" t="inlineStr">
+      <c r="F35" s="20" t="inlineStr"/>
+      <c r="G35" s="20" t="inlineStr"/>
+      <c r="H35" s="20" t="inlineStr"/>
+      <c r="I35" s="20" t="inlineStr"/>
+      <c r="J35" s="20" t="inlineStr"/>
+      <c r="K35" s="25" t="inlineStr">
         <is>
           <t>118425</t>
         </is>
       </c>
-      <c r="L35" s="9" t="inlineStr">
+      <c r="L35" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="9" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
-      <c r="B36" s="10" t="inlineStr">
+      <c r="A36" s="20" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B36" s="21" t="inlineStr">
         <is>
           <t>Narration Match
-Lender Amount: 83402.00
-Borrower Amount: 83402.00</t>
-        </is>
-      </c>
-      <c r="C36" s="9" t="inlineStr"/>
-      <c r="D36" s="9" t="inlineStr"/>
-      <c r="E36" s="15" t="inlineStr">
+Lender Amount: 0.00
+Borrower Amount: 0.00</t>
+        </is>
+      </c>
+      <c r="C36" s="20" t="inlineStr"/>
+      <c r="D36" s="20" t="inlineStr"/>
+      <c r="E36" s="26" t="inlineStr">
         <is>
           <t>Being the amount payable &amp; receivable 35% On Net premium To Pioneer Insurance Co Ltd agt Insurance Premium cost. LC no.12043</t>
         </is>
       </c>
-      <c r="F36" s="9" t="inlineStr"/>
-      <c r="G36" s="9" t="inlineStr"/>
-      <c r="H36" s="9" t="inlineStr"/>
-      <c r="I36" s="9" t="inlineStr"/>
-      <c r="J36" s="9" t="inlineStr"/>
-      <c r="K36" s="9" t="inlineStr"/>
-      <c r="L36" s="9" t="inlineStr">
+      <c r="F36" s="20" t="inlineStr"/>
+      <c r="G36" s="20" t="inlineStr"/>
+      <c r="H36" s="20" t="inlineStr"/>
+      <c r="I36" s="20" t="inlineStr"/>
+      <c r="J36" s="20" t="inlineStr"/>
+      <c r="K36" s="20" t="inlineStr"/>
+      <c r="L36" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="9" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
-      <c r="B37" s="10" t="inlineStr"/>
-      <c r="C37" s="9" t="inlineStr"/>
-      <c r="D37" s="9" t="inlineStr">
+      <c r="A37" s="20" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B37" s="21" t="inlineStr"/>
+      <c r="C37" s="20" t="inlineStr"/>
+      <c r="D37" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E37" s="16" t="inlineStr">
+      <c r="E37" s="27" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F37" s="9" t="inlineStr"/>
-      <c r="G37" s="9" t="inlineStr"/>
-      <c r="H37" s="9" t="inlineStr"/>
-      <c r="I37" s="9" t="inlineStr"/>
-      <c r="J37" s="9" t="inlineStr"/>
-      <c r="K37" s="9" t="inlineStr"/>
-      <c r="L37" s="9" t="inlineStr">
+      <c r="F37" s="20" t="inlineStr"/>
+      <c r="G37" s="20" t="inlineStr"/>
+      <c r="H37" s="20" t="inlineStr"/>
+      <c r="I37" s="20" t="inlineStr"/>
+      <c r="J37" s="20" t="inlineStr"/>
+      <c r="K37" s="20" t="inlineStr"/>
+      <c r="L37" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="17" t="inlineStr">
-        <is>
-          <t>M031</t>
-        </is>
-      </c>
-      <c r="B38" s="18" t="inlineStr"/>
-      <c r="C38" s="19" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr"/>
+      <c r="B38" s="2" t="inlineStr"/>
+      <c r="C38" s="6" t="inlineStr">
         <is>
           <t>02/Jun/2025</t>
         </is>
       </c>
-      <c r="D38" s="17" t="inlineStr">
+      <c r="D38" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E38" s="20" t="inlineStr">
+      <c r="E38" s="7" t="inlineStr">
         <is>
           <t>Sundry Parties-Jiangsu Dechun Power Electric Co Ltd</t>
         </is>
       </c>
-      <c r="F38" s="17" t="inlineStr"/>
-      <c r="G38" s="17" t="inlineStr"/>
-      <c r="H38" s="21" t="inlineStr">
+      <c r="F38" s="1" t="inlineStr"/>
+      <c r="G38" s="1" t="inlineStr"/>
+      <c r="H38" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I38" s="17" t="inlineStr">
+      <c r="I38" s="1" t="inlineStr">
         <is>
           <t>860</t>
         </is>
       </c>
-      <c r="J38" s="17" t="inlineStr"/>
-      <c r="K38" s="22" t="inlineStr">
+      <c r="J38" s="1" t="inlineStr"/>
+      <c r="K38" s="8" t="inlineStr">
         <is>
           <t>9075000</t>
         </is>
       </c>
-      <c r="L38" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L38" s="1" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="17" t="inlineStr">
-        <is>
-          <t>M031</t>
-        </is>
-      </c>
-      <c r="B39" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 9075000.00
-Borrower Amount: 9075000.00</t>
-        </is>
-      </c>
-      <c r="C39" s="17" t="inlineStr"/>
-      <c r="D39" s="17" t="inlineStr"/>
-      <c r="E39" s="23" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr"/>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr"/>
+      <c r="D39" s="1" t="inlineStr"/>
+      <c r="E39" s="10" t="inlineStr">
         <is>
           <t>Amounts being payment Jiangsu Dechun Power Electric Co Ltd $75000@121, Previous total received(Received Voucher: Amounts received as Advance agt PO number : 27.24.0000.014.14.001.18.125. GD-5, Total $3,68,299 @117/-, CIL-218299 &amp; Jiangsu-150,000)</t>
         </is>
       </c>
-      <c r="F39" s="17" t="inlineStr"/>
-      <c r="G39" s="17" t="inlineStr"/>
-      <c r="H39" s="17" t="inlineStr"/>
-      <c r="I39" s="17" t="inlineStr"/>
-      <c r="J39" s="17" t="inlineStr"/>
-      <c r="K39" s="17" t="inlineStr"/>
-      <c r="L39" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F39" s="1" t="inlineStr"/>
+      <c r="G39" s="1" t="inlineStr"/>
+      <c r="H39" s="1" t="inlineStr"/>
+      <c r="I39" s="1" t="inlineStr"/>
+      <c r="J39" s="1" t="inlineStr"/>
+      <c r="K39" s="1" t="inlineStr"/>
+      <c r="L39" s="1" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="17" t="inlineStr">
-        <is>
-          <t>M031</t>
-        </is>
-      </c>
-      <c r="B40" s="18" t="inlineStr"/>
-      <c r="C40" s="17" t="inlineStr"/>
-      <c r="D40" s="17" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr"/>
+      <c r="B40" s="2" t="inlineStr"/>
+      <c r="C40" s="1" t="inlineStr"/>
+      <c r="D40" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E40" s="24" t="inlineStr">
+      <c r="E40" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F40" s="17" t="inlineStr"/>
-      <c r="G40" s="17" t="inlineStr"/>
-      <c r="H40" s="17" t="inlineStr"/>
-      <c r="I40" s="17" t="inlineStr"/>
-      <c r="J40" s="17" t="inlineStr"/>
-      <c r="K40" s="17" t="inlineStr"/>
-      <c r="L40" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F40" s="1" t="inlineStr"/>
+      <c r="G40" s="1" t="inlineStr"/>
+      <c r="H40" s="1" t="inlineStr"/>
+      <c r="I40" s="1" t="inlineStr"/>
+      <c r="J40" s="1" t="inlineStr"/>
+      <c r="K40" s="1" t="inlineStr"/>
+      <c r="L40" s="1" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="9" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
-      <c r="B41" s="10" t="inlineStr"/>
-      <c r="C41" s="11" t="inlineStr">
+      <c r="A41" s="12" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
+      <c r="B41" s="13" t="inlineStr"/>
+      <c r="C41" s="14" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D41" s="9" t="inlineStr">
+      <c r="D41" s="12" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E41" s="12" t="inlineStr">
+      <c r="E41" s="15" t="inlineStr">
         <is>
           <t>PBL-SND- 2126312011060</t>
         </is>
       </c>
-      <c r="F41" s="9" t="inlineStr"/>
-      <c r="G41" s="9" t="inlineStr"/>
-      <c r="H41" s="13" t="inlineStr">
+      <c r="F41" s="12" t="inlineStr"/>
+      <c r="G41" s="12" t="inlineStr"/>
+      <c r="H41" s="16" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I41" s="9" t="inlineStr">
+      <c r="I41" s="12" t="inlineStr">
         <is>
           <t>18143</t>
         </is>
       </c>
-      <c r="J41" s="14" t="inlineStr">
+      <c r="J41" s="17" t="inlineStr">
         <is>
           <t>9539</t>
         </is>
       </c>
-      <c r="K41" s="9" t="inlineStr"/>
-      <c r="L41" s="9" t="inlineStr">
+      <c r="K41" s="12" t="inlineStr"/>
+      <c r="L41" s="12" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="9" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
-      <c r="B42" s="10" t="inlineStr">
+      <c r="A42" s="12" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
+      <c r="B42" s="13" t="inlineStr">
         <is>
           <t>Interunit Loan Match: PBL#11060
 Lender Amount: 9539.00
 Borrower Amount: 9539.00</t>
         </is>
       </c>
-      <c r="C42" s="9" t="inlineStr"/>
-      <c r="D42" s="9" t="inlineStr"/>
-      <c r="E42" s="15" t="inlineStr">
+      <c r="C42" s="12" t="inlineStr"/>
+      <c r="D42" s="12" t="inlineStr"/>
+      <c r="E42" s="18" t="inlineStr">
         <is>
           <t>Being the amount paid to IDLC Finance Ltd. agt. Interest for the Loan 1026109496388134  Over Due interest for April-2025, Supporting as Email, date on 03 June-2025 also Bank Dr. same date from CIL-PBL-2126312011060</t>
         </is>
       </c>
-      <c r="F42" s="9" t="inlineStr"/>
-      <c r="G42" s="9" t="inlineStr"/>
-      <c r="H42" s="9" t="inlineStr"/>
-      <c r="I42" s="9" t="inlineStr"/>
-      <c r="J42" s="9" t="inlineStr"/>
-      <c r="K42" s="9" t="inlineStr"/>
-      <c r="L42" s="9" t="inlineStr">
+      <c r="F42" s="12" t="inlineStr"/>
+      <c r="G42" s="12" t="inlineStr"/>
+      <c r="H42" s="12" t="inlineStr"/>
+      <c r="I42" s="12" t="inlineStr"/>
+      <c r="J42" s="12" t="inlineStr"/>
+      <c r="K42" s="12" t="inlineStr"/>
+      <c r="L42" s="12" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="9" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
-      <c r="B43" s="10" t="inlineStr"/>
-      <c r="C43" s="9" t="inlineStr"/>
-      <c r="D43" s="9" t="inlineStr">
+      <c r="A43" s="12" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
+      <c r="B43" s="13" t="inlineStr"/>
+      <c r="C43" s="12" t="inlineStr"/>
+      <c r="D43" s="12" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E43" s="16" t="inlineStr">
+      <c r="E43" s="19" t="inlineStr">
         <is>
           <t>ziaul</t>
         </is>
       </c>
-      <c r="F43" s="9" t="inlineStr"/>
-      <c r="G43" s="9" t="inlineStr"/>
-      <c r="H43" s="9" t="inlineStr"/>
-      <c r="I43" s="9" t="inlineStr"/>
-      <c r="J43" s="9" t="inlineStr"/>
-      <c r="K43" s="9" t="inlineStr"/>
-      <c r="L43" s="9" t="inlineStr">
+      <c r="F43" s="12" t="inlineStr"/>
+      <c r="G43" s="12" t="inlineStr"/>
+      <c r="H43" s="12" t="inlineStr"/>
+      <c r="I43" s="12" t="inlineStr"/>
+      <c r="J43" s="12" t="inlineStr"/>
+      <c r="K43" s="12" t="inlineStr"/>
+      <c r="L43" s="12" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="17" t="inlineStr">
-        <is>
-          <t>M017</t>
-        </is>
-      </c>
-      <c r="B44" s="18" t="inlineStr"/>
-      <c r="C44" s="19" t="inlineStr">
+      <c r="A44" s="20" t="inlineStr">
+        <is>
+          <t>M010</t>
+        </is>
+      </c>
+      <c r="B44" s="21" t="inlineStr"/>
+      <c r="C44" s="22" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D44" s="17" t="inlineStr">
+      <c r="D44" s="20" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E44" s="20" t="inlineStr">
+      <c r="E44" s="23" t="inlineStr">
         <is>
           <t>Midland Bank Ltd-CE-0011-1060000313</t>
         </is>
       </c>
-      <c r="F44" s="17" t="inlineStr"/>
-      <c r="G44" s="17" t="inlineStr"/>
-      <c r="H44" s="21" t="inlineStr">
+      <c r="F44" s="20" t="inlineStr"/>
+      <c r="G44" s="20" t="inlineStr"/>
+      <c r="H44" s="24" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I44" s="17" t="inlineStr">
+      <c r="I44" s="20" t="inlineStr">
         <is>
           <t>18148</t>
         </is>
       </c>
-      <c r="J44" s="22" t="inlineStr">
+      <c r="J44" s="25" t="inlineStr">
         <is>
           <t>3700000</t>
         </is>
       </c>
-      <c r="K44" s="17" t="inlineStr"/>
-      <c r="L44" s="17" t="inlineStr">
+      <c r="K44" s="20" t="inlineStr"/>
+      <c r="L44" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="17" t="inlineStr">
-        <is>
-          <t>M017</t>
-        </is>
-      </c>
-      <c r="B45" s="18" t="inlineStr">
+      <c r="A45" s="20" t="inlineStr">
+        <is>
+          <t>M010</t>
+        </is>
+      </c>
+      <c r="B45" s="21" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0313
 Lender Amount: 3700000.00
 Borrower Amount: 3700000.00</t>
         </is>
       </c>
-      <c r="C45" s="17" t="inlineStr"/>
-      <c r="D45" s="17" t="inlineStr"/>
-      <c r="E45" s="23" t="inlineStr">
+      <c r="C45" s="20" t="inlineStr"/>
+      <c r="D45" s="20" t="inlineStr"/>
+      <c r="E45" s="26" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Interunit Loan A/C-Steel Unit, DBBL#3834</t>
         </is>
       </c>
-      <c r="F45" s="17" t="inlineStr"/>
-      <c r="G45" s="17" t="inlineStr"/>
-      <c r="H45" s="17" t="inlineStr"/>
-      <c r="I45" s="17" t="inlineStr"/>
-      <c r="J45" s="17" t="inlineStr"/>
-      <c r="K45" s="17" t="inlineStr"/>
-      <c r="L45" s="17" t="inlineStr">
+      <c r="F45" s="20" t="inlineStr"/>
+      <c r="G45" s="20" t="inlineStr"/>
+      <c r="H45" s="20" t="inlineStr"/>
+      <c r="I45" s="20" t="inlineStr"/>
+      <c r="J45" s="20" t="inlineStr"/>
+      <c r="K45" s="20" t="inlineStr"/>
+      <c r="L45" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="17" t="inlineStr">
-        <is>
-          <t>M017</t>
-        </is>
-      </c>
-      <c r="B46" s="18" t="inlineStr"/>
-      <c r="C46" s="17" t="inlineStr"/>
-      <c r="D46" s="17" t="inlineStr">
+      <c r="A46" s="20" t="inlineStr">
+        <is>
+          <t>M010</t>
+        </is>
+      </c>
+      <c r="B46" s="21" t="inlineStr"/>
+      <c r="C46" s="20" t="inlineStr"/>
+      <c r="D46" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E46" s="24" t="inlineStr">
+      <c r="E46" s="27" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F46" s="17" t="inlineStr"/>
-      <c r="G46" s="17" t="inlineStr"/>
-      <c r="H46" s="17" t="inlineStr"/>
-      <c r="I46" s="17" t="inlineStr"/>
-      <c r="J46" s="17" t="inlineStr"/>
-      <c r="K46" s="17" t="inlineStr"/>
-      <c r="L46" s="17" t="inlineStr">
+      <c r="F46" s="20" t="inlineStr"/>
+      <c r="G46" s="20" t="inlineStr"/>
+      <c r="H46" s="20" t="inlineStr"/>
+      <c r="I46" s="20" t="inlineStr"/>
+      <c r="J46" s="20" t="inlineStr"/>
+      <c r="K46" s="20" t="inlineStr"/>
+      <c r="L46" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="9" t="inlineStr">
-        <is>
-          <t>M032</t>
-        </is>
-      </c>
-      <c r="B47" s="10" t="inlineStr"/>
-      <c r="C47" s="11" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr"/>
+      <c r="B47" s="2" t="inlineStr"/>
+      <c r="C47" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D47" s="9" t="inlineStr">
+      <c r="D47" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E47" s="12" t="inlineStr">
+      <c r="E47" s="7" t="inlineStr">
         <is>
           <t>AP-Kansai Nerolac Paints Bangladesh Ltd.</t>
         </is>
       </c>
-      <c r="F47" s="9" t="inlineStr"/>
-      <c r="G47" s="9" t="inlineStr"/>
-      <c r="H47" s="13" t="inlineStr">
+      <c r="F47" s="1" t="inlineStr"/>
+      <c r="G47" s="1" t="inlineStr"/>
+      <c r="H47" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I47" s="9" t="inlineStr">
+      <c r="I47" s="1" t="inlineStr">
         <is>
           <t>863</t>
         </is>
       </c>
-      <c r="J47" s="9" t="inlineStr"/>
-      <c r="K47" s="14" t="inlineStr">
+      <c r="J47" s="1" t="inlineStr"/>
+      <c r="K47" s="8" t="inlineStr">
         <is>
           <t>297501</t>
         </is>
       </c>
-      <c r="L47" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L47" s="1" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="9" t="inlineStr">
-        <is>
-          <t>M032</t>
-        </is>
-      </c>
-      <c r="B48" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 297501.00
-Borrower Amount: 297501.00</t>
-        </is>
-      </c>
-      <c r="C48" s="9" t="inlineStr"/>
-      <c r="D48" s="9" t="inlineStr"/>
-      <c r="E48" s="15" t="inlineStr">
+      <c r="A48" s="1" t="inlineStr"/>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block
+2. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr"/>
+      <c r="D48" s="1" t="inlineStr"/>
+      <c r="E48" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to Kansai Nerolac Paints (Bangladesh) Limited. Supply of , Invoice Number:  KMBL-JAN'25-001, Challan Number: D303-86125355, Work Order Number: 271/PO/2024/12/30965, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2024-12-10, Goods Received Date: 2025-01-28, Work Order Value: 305640.0, Total Bill Amount: 305470.2, TDS Deduction Amount: 7969.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F48" s="9" t="inlineStr"/>
-      <c r="G48" s="9" t="inlineStr"/>
-      <c r="H48" s="9" t="inlineStr"/>
-      <c r="I48" s="9" t="inlineStr"/>
-      <c r="J48" s="9" t="inlineStr"/>
-      <c r="K48" s="9" t="inlineStr"/>
-      <c r="L48" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F48" s="1" t="inlineStr"/>
+      <c r="G48" s="1" t="inlineStr"/>
+      <c r="H48" s="1" t="inlineStr"/>
+      <c r="I48" s="1" t="inlineStr"/>
+      <c r="J48" s="1" t="inlineStr"/>
+      <c r="K48" s="1" t="inlineStr"/>
+      <c r="L48" s="1" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="9" t="inlineStr">
-        <is>
-          <t>M032</t>
-        </is>
-      </c>
-      <c r="B49" s="10" t="inlineStr"/>
-      <c r="C49" s="9" t="inlineStr"/>
-      <c r="D49" s="9" t="inlineStr">
+      <c r="A49" s="1" t="inlineStr"/>
+      <c r="B49" s="2" t="inlineStr"/>
+      <c r="C49" s="1" t="inlineStr"/>
+      <c r="D49" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E49" s="16" t="inlineStr">
+      <c r="E49" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F49" s="9" t="inlineStr"/>
-      <c r="G49" s="9" t="inlineStr"/>
-      <c r="H49" s="9" t="inlineStr"/>
-      <c r="I49" s="9" t="inlineStr"/>
-      <c r="J49" s="9" t="inlineStr"/>
-      <c r="K49" s="9" t="inlineStr"/>
-      <c r="L49" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F49" s="1" t="inlineStr"/>
+      <c r="G49" s="1" t="inlineStr"/>
+      <c r="H49" s="1" t="inlineStr"/>
+      <c r="I49" s="1" t="inlineStr"/>
+      <c r="J49" s="1" t="inlineStr"/>
+      <c r="K49" s="1" t="inlineStr"/>
+      <c r="L49" s="1" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="17" t="inlineStr">
-        <is>
-          <t>M033</t>
-        </is>
-      </c>
-      <c r="B50" s="18" t="inlineStr"/>
-      <c r="C50" s="19" t="inlineStr">
+      <c r="A50" s="1" t="inlineStr"/>
+      <c r="B50" s="2" t="inlineStr"/>
+      <c r="C50" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D50" s="17" t="inlineStr">
+      <c r="D50" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E50" s="20" t="inlineStr">
+      <c r="E50" s="7" t="inlineStr">
         <is>
           <t>AP-Kansai Nerolac Paints Bangladesh Ltd.</t>
         </is>
       </c>
-      <c r="F50" s="17" t="inlineStr"/>
-      <c r="G50" s="17" t="inlineStr"/>
-      <c r="H50" s="21" t="inlineStr">
+      <c r="F50" s="1" t="inlineStr"/>
+      <c r="G50" s="1" t="inlineStr"/>
+      <c r="H50" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I50" s="17" t="inlineStr">
+      <c r="I50" s="1" t="inlineStr">
         <is>
           <t>864</t>
         </is>
       </c>
-      <c r="J50" s="17" t="inlineStr"/>
-      <c r="K50" s="22" t="inlineStr">
+      <c r="J50" s="1" t="inlineStr"/>
+      <c r="K50" s="8" t="inlineStr">
         <is>
           <t>95000</t>
         </is>
       </c>
-      <c r="L50" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L50" s="1" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="17" t="inlineStr">
-        <is>
-          <t>M033</t>
-        </is>
-      </c>
-      <c r="B51" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 95000.00
-Borrower Amount: 95000.00</t>
-        </is>
-      </c>
-      <c r="C51" s="17" t="inlineStr"/>
-      <c r="D51" s="17" t="inlineStr"/>
-      <c r="E51" s="23" t="inlineStr">
+      <c r="A51" s="1" t="inlineStr"/>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. Borrower's narration does not contain lender's short code</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr"/>
+      <c r="D51" s="1" t="inlineStr"/>
+      <c r="E51" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to Kansai Nerolac Paints (Bangladesh) Limited. Supply of , Invoice Number:  KMBL-JAN'25-002, Challan Number: D303-86127504 &amp; D303-86126949,D303-86125356,D303-86126523, Work Order Number: DES/PO/2024/12/30966, BA Team (A), Company Unit: Transformer, Project Name : DESCO 3-Phase Distribution Transformer (GD-5), Work Order date: 2024-12-10, Goods Received Date: 2025-01-28, Work Order Value: 2176430.69, Total Bill Amount: 853945.9212000002, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F51" s="17" t="inlineStr"/>
-      <c r="G51" s="17" t="inlineStr"/>
-      <c r="H51" s="17" t="inlineStr"/>
-      <c r="I51" s="17" t="inlineStr"/>
-      <c r="J51" s="17" t="inlineStr"/>
-      <c r="K51" s="17" t="inlineStr"/>
-      <c r="L51" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F51" s="1" t="inlineStr"/>
+      <c r="G51" s="1" t="inlineStr"/>
+      <c r="H51" s="1" t="inlineStr"/>
+      <c r="I51" s="1" t="inlineStr"/>
+      <c r="J51" s="1" t="inlineStr"/>
+      <c r="K51" s="1" t="inlineStr"/>
+      <c r="L51" s="1" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="17" t="inlineStr">
-        <is>
-          <t>M033</t>
-        </is>
-      </c>
-      <c r="B52" s="18" t="inlineStr"/>
-      <c r="C52" s="17" t="inlineStr"/>
-      <c r="D52" s="17" t="inlineStr">
+      <c r="A52" s="1" t="inlineStr"/>
+      <c r="B52" s="2" t="inlineStr"/>
+      <c r="C52" s="1" t="inlineStr"/>
+      <c r="D52" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E52" s="24" t="inlineStr">
+      <c r="E52" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F52" s="17" t="inlineStr"/>
-      <c r="G52" s="17" t="inlineStr"/>
-      <c r="H52" s="17" t="inlineStr"/>
-      <c r="I52" s="17" t="inlineStr"/>
-      <c r="J52" s="17" t="inlineStr"/>
-      <c r="K52" s="17" t="inlineStr"/>
-      <c r="L52" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F52" s="1" t="inlineStr"/>
+      <c r="G52" s="1" t="inlineStr"/>
+      <c r="H52" s="1" t="inlineStr"/>
+      <c r="I52" s="1" t="inlineStr"/>
+      <c r="J52" s="1" t="inlineStr"/>
+      <c r="K52" s="1" t="inlineStr"/>
+      <c r="L52" s="1" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="9" t="inlineStr">
-        <is>
-          <t>M034</t>
-        </is>
-      </c>
-      <c r="B53" s="10" t="inlineStr"/>
-      <c r="C53" s="11" t="inlineStr">
+      <c r="A53" s="1" t="inlineStr"/>
+      <c r="B53" s="2" t="inlineStr"/>
+      <c r="C53" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D53" s="9" t="inlineStr">
+      <c r="D53" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E53" s="12" t="inlineStr">
+      <c r="E53" s="7" t="inlineStr">
         <is>
           <t>AP-Computer Archives IT Service &amp; Solution</t>
         </is>
       </c>
-      <c r="F53" s="9" t="inlineStr"/>
-      <c r="G53" s="9" t="inlineStr"/>
-      <c r="H53" s="13" t="inlineStr">
+      <c r="F53" s="1" t="inlineStr"/>
+      <c r="G53" s="1" t="inlineStr"/>
+      <c r="H53" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I53" s="9" t="inlineStr">
+      <c r="I53" s="1" t="inlineStr">
         <is>
           <t>865</t>
         </is>
       </c>
-      <c r="J53" s="9" t="inlineStr"/>
-      <c r="K53" s="14" t="inlineStr">
+      <c r="J53" s="1" t="inlineStr"/>
+      <c r="K53" s="8" t="inlineStr">
         <is>
           <t>3300</t>
         </is>
       </c>
-      <c r="L53" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L53" s="1" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="9" t="inlineStr">
-        <is>
-          <t>M034</t>
-        </is>
-      </c>
-      <c r="B54" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 3300.00
-Borrower Amount: 3300.00</t>
-        </is>
-      </c>
-      <c r="C54" s="9" t="inlineStr"/>
-      <c r="D54" s="9" t="inlineStr"/>
-      <c r="E54" s="15" t="inlineStr">
+      <c r="A54" s="1" t="inlineStr"/>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr"/>
+      <c r="D54" s="1" t="inlineStr"/>
+      <c r="E54" s="10" t="inlineStr">
         <is>
           <t>Amount paid to Computer Archives IT Service &amp; Solution agt SSD 256GB M.2 SATA Kingspec S/N-031617. Bill no.2025/04-0417</t>
         </is>
       </c>
-      <c r="F54" s="9" t="inlineStr"/>
-      <c r="G54" s="9" t="inlineStr"/>
-      <c r="H54" s="9" t="inlineStr"/>
-      <c r="I54" s="9" t="inlineStr"/>
-      <c r="J54" s="9" t="inlineStr"/>
-      <c r="K54" s="9" t="inlineStr"/>
-      <c r="L54" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F54" s="1" t="inlineStr"/>
+      <c r="G54" s="1" t="inlineStr"/>
+      <c r="H54" s="1" t="inlineStr"/>
+      <c r="I54" s="1" t="inlineStr"/>
+      <c r="J54" s="1" t="inlineStr"/>
+      <c r="K54" s="1" t="inlineStr"/>
+      <c r="L54" s="1" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="9" t="inlineStr">
-        <is>
-          <t>M034</t>
-        </is>
-      </c>
-      <c r="B55" s="10" t="inlineStr"/>
-      <c r="C55" s="9" t="inlineStr"/>
-      <c r="D55" s="9" t="inlineStr">
+      <c r="A55" s="1" t="inlineStr"/>
+      <c r="B55" s="2" t="inlineStr"/>
+      <c r="C55" s="1" t="inlineStr"/>
+      <c r="D55" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E55" s="16" t="inlineStr">
+      <c r="E55" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F55" s="9" t="inlineStr"/>
-      <c r="G55" s="9" t="inlineStr"/>
-      <c r="H55" s="9" t="inlineStr"/>
-      <c r="I55" s="9" t="inlineStr"/>
-      <c r="J55" s="9" t="inlineStr"/>
-      <c r="K55" s="9" t="inlineStr"/>
-      <c r="L55" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F55" s="1" t="inlineStr"/>
+      <c r="G55" s="1" t="inlineStr"/>
+      <c r="H55" s="1" t="inlineStr"/>
+      <c r="I55" s="1" t="inlineStr"/>
+      <c r="J55" s="1" t="inlineStr"/>
+      <c r="K55" s="1" t="inlineStr"/>
+      <c r="L55" s="1" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="17" t="inlineStr">
-        <is>
-          <t>M035</t>
-        </is>
-      </c>
-      <c r="B56" s="18" t="inlineStr"/>
-      <c r="C56" s="19" t="inlineStr">
+      <c r="A56" s="1" t="inlineStr"/>
+      <c r="B56" s="2" t="inlineStr"/>
+      <c r="C56" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D56" s="17" t="inlineStr">
+      <c r="D56" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E56" s="20" t="inlineStr">
+      <c r="E56" s="7" t="inlineStr">
         <is>
           <t>AP-B, Art &amp; Block</t>
         </is>
       </c>
-      <c r="F56" s="17" t="inlineStr"/>
-      <c r="G56" s="17" t="inlineStr"/>
-      <c r="H56" s="21" t="inlineStr">
+      <c r="F56" s="1" t="inlineStr"/>
+      <c r="G56" s="1" t="inlineStr"/>
+      <c r="H56" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I56" s="17" t="inlineStr">
+      <c r="I56" s="1" t="inlineStr">
         <is>
           <t>866</t>
         </is>
       </c>
-      <c r="J56" s="17" t="inlineStr"/>
-      <c r="K56" s="22" t="inlineStr">
+      <c r="J56" s="1" t="inlineStr"/>
+      <c r="K56" s="8" t="inlineStr">
         <is>
           <t>11250</t>
         </is>
       </c>
-      <c r="L56" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L56" s="1" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="17" t="inlineStr">
-        <is>
-          <t>M035</t>
-        </is>
-      </c>
-      <c r="B57" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 11250.00
-Borrower Amount: 11250.00</t>
-        </is>
-      </c>
-      <c r="C57" s="17" t="inlineStr"/>
-      <c r="D57" s="17" t="inlineStr"/>
-      <c r="E57" s="23" t="inlineStr">
+      <c r="A57" s="1" t="inlineStr"/>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block</t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="inlineStr"/>
+      <c r="D57" s="1" t="inlineStr"/>
+      <c r="E57" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to B. Art &amp; Block. Supply of , Invoice Number:  005, Challan Number: 1266, Work Order Number: MCE/PO/2025/2/32389, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-02-22, Goods Received Date: 2025-03-01, Work Order Value: 169200.0, Total Bill Amount: 11250.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F57" s="17" t="inlineStr"/>
-      <c r="G57" s="17" t="inlineStr"/>
-      <c r="H57" s="17" t="inlineStr"/>
-      <c r="I57" s="17" t="inlineStr"/>
-      <c r="J57" s="17" t="inlineStr"/>
-      <c r="K57" s="17" t="inlineStr"/>
-      <c r="L57" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F57" s="1" t="inlineStr"/>
+      <c r="G57" s="1" t="inlineStr"/>
+      <c r="H57" s="1" t="inlineStr"/>
+      <c r="I57" s="1" t="inlineStr"/>
+      <c r="J57" s="1" t="inlineStr"/>
+      <c r="K57" s="1" t="inlineStr"/>
+      <c r="L57" s="1" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="17" t="inlineStr">
-        <is>
-          <t>M035</t>
-        </is>
-      </c>
-      <c r="B58" s="18" t="inlineStr"/>
-      <c r="C58" s="17" t="inlineStr"/>
-      <c r="D58" s="17" t="inlineStr">
+      <c r="A58" s="1" t="inlineStr"/>
+      <c r="B58" s="2" t="inlineStr"/>
+      <c r="C58" s="1" t="inlineStr"/>
+      <c r="D58" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E58" s="24" t="inlineStr">
+      <c r="E58" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F58" s="17" t="inlineStr"/>
-      <c r="G58" s="17" t="inlineStr"/>
-      <c r="H58" s="17" t="inlineStr"/>
-      <c r="I58" s="17" t="inlineStr"/>
-      <c r="J58" s="17" t="inlineStr"/>
-      <c r="K58" s="17" t="inlineStr"/>
-      <c r="L58" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F58" s="1" t="inlineStr"/>
+      <c r="G58" s="1" t="inlineStr"/>
+      <c r="H58" s="1" t="inlineStr"/>
+      <c r="I58" s="1" t="inlineStr"/>
+      <c r="J58" s="1" t="inlineStr"/>
+      <c r="K58" s="1" t="inlineStr"/>
+      <c r="L58" s="1" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="9" t="inlineStr">
-        <is>
-          <t>M036</t>
-        </is>
-      </c>
-      <c r="B59" s="10" t="inlineStr"/>
-      <c r="C59" s="11" t="inlineStr">
+      <c r="A59" s="1" t="inlineStr"/>
+      <c r="B59" s="2" t="inlineStr"/>
+      <c r="C59" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D59" s="9" t="inlineStr">
+      <c r="D59" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E59" s="12" t="inlineStr">
+      <c r="E59" s="7" t="inlineStr">
         <is>
           <t>AP-Berger Paints Bangladesh Ltd</t>
         </is>
       </c>
-      <c r="F59" s="9" t="inlineStr"/>
-      <c r="G59" s="9" t="inlineStr"/>
-      <c r="H59" s="13" t="inlineStr">
+      <c r="F59" s="1" t="inlineStr"/>
+      <c r="G59" s="1" t="inlineStr"/>
+      <c r="H59" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I59" s="9" t="inlineStr">
+      <c r="I59" s="1" t="inlineStr">
         <is>
           <t>867</t>
         </is>
       </c>
-      <c r="J59" s="9" t="inlineStr"/>
-      <c r="K59" s="14" t="inlineStr">
+      <c r="J59" s="1" t="inlineStr"/>
+      <c r="K59" s="8" t="inlineStr">
         <is>
           <t>240723</t>
         </is>
       </c>
-      <c r="L59" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L59" s="1" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="9" t="inlineStr">
-        <is>
-          <t>M036</t>
-        </is>
-      </c>
-      <c r="B60" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 240723.00
-Borrower Amount: 240723.00</t>
-        </is>
-      </c>
-      <c r="C60" s="9" t="inlineStr"/>
-      <c r="D60" s="9" t="inlineStr"/>
-      <c r="E60" s="15" t="inlineStr">
+      <c r="A60" s="1" t="inlineStr"/>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block
+2. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr"/>
+      <c r="D60" s="1" t="inlineStr"/>
+      <c r="E60" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to Berger Paints Bangladesh Ltd.. Supply of , Invoice Number:  185859258, Challan Number: 185859258, Work Order Number: 271/PO/2025/2/31943, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-02-05, Goods Received Date: 2025-03-10, Work Order Value: 577664.4, Total Bill Amount: 240723.4, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F60" s="9" t="inlineStr"/>
-      <c r="G60" s="9" t="inlineStr"/>
-      <c r="H60" s="9" t="inlineStr"/>
-      <c r="I60" s="9" t="inlineStr"/>
-      <c r="J60" s="9" t="inlineStr"/>
-      <c r="K60" s="9" t="inlineStr"/>
-      <c r="L60" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F60" s="1" t="inlineStr"/>
+      <c r="G60" s="1" t="inlineStr"/>
+      <c r="H60" s="1" t="inlineStr"/>
+      <c r="I60" s="1" t="inlineStr"/>
+      <c r="J60" s="1" t="inlineStr"/>
+      <c r="K60" s="1" t="inlineStr"/>
+      <c r="L60" s="1" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="9" t="inlineStr">
-        <is>
-          <t>M036</t>
-        </is>
-      </c>
-      <c r="B61" s="10" t="inlineStr"/>
-      <c r="C61" s="9" t="inlineStr"/>
-      <c r="D61" s="9" t="inlineStr">
+      <c r="A61" s="1" t="inlineStr"/>
+      <c r="B61" s="2" t="inlineStr"/>
+      <c r="C61" s="1" t="inlineStr"/>
+      <c r="D61" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E61" s="16" t="inlineStr">
+      <c r="E61" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F61" s="9" t="inlineStr"/>
-      <c r="G61" s="9" t="inlineStr"/>
-      <c r="H61" s="9" t="inlineStr"/>
-      <c r="I61" s="9" t="inlineStr"/>
-      <c r="J61" s="9" t="inlineStr"/>
-      <c r="K61" s="9" t="inlineStr"/>
-      <c r="L61" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F61" s="1" t="inlineStr"/>
+      <c r="G61" s="1" t="inlineStr"/>
+      <c r="H61" s="1" t="inlineStr"/>
+      <c r="I61" s="1" t="inlineStr"/>
+      <c r="J61" s="1" t="inlineStr"/>
+      <c r="K61" s="1" t="inlineStr"/>
+      <c r="L61" s="1" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="17" t="inlineStr">
-        <is>
-          <t>M037</t>
-        </is>
-      </c>
-      <c r="B62" s="18" t="inlineStr"/>
-      <c r="C62" s="19" t="inlineStr">
+      <c r="A62" s="1" t="inlineStr"/>
+      <c r="B62" s="2" t="inlineStr"/>
+      <c r="C62" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D62" s="17" t="inlineStr">
+      <c r="D62" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E62" s="20" t="inlineStr">
+      <c r="E62" s="7" t="inlineStr">
         <is>
           <t>AP-Delwar Paint &amp; Hardware</t>
         </is>
       </c>
-      <c r="F62" s="17" t="inlineStr"/>
-      <c r="G62" s="17" t="inlineStr"/>
-      <c r="H62" s="21" t="inlineStr">
+      <c r="F62" s="1" t="inlineStr"/>
+      <c r="G62" s="1" t="inlineStr"/>
+      <c r="H62" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I62" s="17" t="inlineStr">
+      <c r="I62" s="1" t="inlineStr">
         <is>
           <t>868</t>
         </is>
       </c>
-      <c r="J62" s="17" t="inlineStr"/>
-      <c r="K62" s="22" t="inlineStr">
+      <c r="J62" s="1" t="inlineStr"/>
+      <c r="K62" s="8" t="inlineStr">
         <is>
           <t>59000</t>
         </is>
       </c>
-      <c r="L62" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L62" s="1" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="17" t="inlineStr">
-        <is>
-          <t>M037</t>
-        </is>
-      </c>
-      <c r="B63" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 59000.00
-Borrower Amount: 59000.00</t>
-        </is>
-      </c>
-      <c r="C63" s="17" t="inlineStr"/>
-      <c r="D63" s="17" t="inlineStr"/>
-      <c r="E63" s="23" t="inlineStr">
+      <c r="A63" s="1" t="inlineStr"/>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block</t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="inlineStr"/>
+      <c r="D63" s="1" t="inlineStr"/>
+      <c r="E63" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to Delwar Paint &amp; Hardware . Supply of , Invoice Number:  32644, Challan Number: 342, Work Order Number: MCE/PO/2025/3/32644, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-03-06, Goods Received Date: 2025-03-11, Work Order Value: 59000.0, Total Bill Amount: 59000.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F63" s="17" t="inlineStr"/>
-      <c r="G63" s="17" t="inlineStr"/>
-      <c r="H63" s="17" t="inlineStr"/>
-      <c r="I63" s="17" t="inlineStr"/>
-      <c r="J63" s="17" t="inlineStr"/>
-      <c r="K63" s="17" t="inlineStr"/>
-      <c r="L63" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F63" s="1" t="inlineStr"/>
+      <c r="G63" s="1" t="inlineStr"/>
+      <c r="H63" s="1" t="inlineStr"/>
+      <c r="I63" s="1" t="inlineStr"/>
+      <c r="J63" s="1" t="inlineStr"/>
+      <c r="K63" s="1" t="inlineStr"/>
+      <c r="L63" s="1" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" s="17" t="inlineStr">
-        <is>
-          <t>M037</t>
-        </is>
-      </c>
-      <c r="B64" s="18" t="inlineStr"/>
-      <c r="C64" s="17" t="inlineStr"/>
-      <c r="D64" s="17" t="inlineStr">
+      <c r="A64" s="1" t="inlineStr"/>
+      <c r="B64" s="2" t="inlineStr"/>
+      <c r="C64" s="1" t="inlineStr"/>
+      <c r="D64" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E64" s="24" t="inlineStr">
+      <c r="E64" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F64" s="17" t="inlineStr"/>
-      <c r="G64" s="17" t="inlineStr"/>
-      <c r="H64" s="17" t="inlineStr"/>
-      <c r="I64" s="17" t="inlineStr"/>
-      <c r="J64" s="17" t="inlineStr"/>
-      <c r="K64" s="17" t="inlineStr"/>
-      <c r="L64" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F64" s="1" t="inlineStr"/>
+      <c r="G64" s="1" t="inlineStr"/>
+      <c r="H64" s="1" t="inlineStr"/>
+      <c r="I64" s="1" t="inlineStr"/>
+      <c r="J64" s="1" t="inlineStr"/>
+      <c r="K64" s="1" t="inlineStr"/>
+      <c r="L64" s="1" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" s="9" t="inlineStr">
-        <is>
-          <t>M038</t>
-        </is>
-      </c>
-      <c r="B65" s="10" t="inlineStr"/>
-      <c r="C65" s="11" t="inlineStr">
+      <c r="A65" s="1" t="inlineStr"/>
+      <c r="B65" s="2" t="inlineStr"/>
+      <c r="C65" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D65" s="9" t="inlineStr">
+      <c r="D65" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E65" s="12" t="inlineStr">
+      <c r="E65" s="7" t="inlineStr">
         <is>
           <t>AP-MS. Fardin Enterprise</t>
         </is>
       </c>
-      <c r="F65" s="9" t="inlineStr"/>
-      <c r="G65" s="9" t="inlineStr"/>
-      <c r="H65" s="13" t="inlineStr">
+      <c r="F65" s="1" t="inlineStr"/>
+      <c r="G65" s="1" t="inlineStr"/>
+      <c r="H65" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I65" s="9" t="inlineStr">
+      <c r="I65" s="1" t="inlineStr">
         <is>
           <t>869</t>
         </is>
       </c>
-      <c r="J65" s="9" t="inlineStr"/>
-      <c r="K65" s="14" t="inlineStr">
+      <c r="J65" s="1" t="inlineStr"/>
+      <c r="K65" s="8" t="inlineStr">
         <is>
           <t>3400</t>
         </is>
       </c>
-      <c r="L65" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L65" s="1" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" s="9" t="inlineStr">
-        <is>
-          <t>M038</t>
-        </is>
-      </c>
-      <c r="B66" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 3400.00
-Borrower Amount: 3400.00</t>
-        </is>
-      </c>
-      <c r="C66" s="9" t="inlineStr"/>
-      <c r="D66" s="9" t="inlineStr"/>
-      <c r="E66" s="15" t="inlineStr">
+      <c r="A66" s="1" t="inlineStr"/>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr"/>
+      <c r="D66" s="1" t="inlineStr"/>
+      <c r="E66" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to Fardin Enterprise. Supply of , Invoice Number:  642, Challan Number: 642, Work Order Number: MCE/PO/2025/2/32143, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-02-16, Goods Received Date: 2025-02-26, Work Order Value: 277630.0, Total Bill Amount: 3400.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F66" s="9" t="inlineStr"/>
-      <c r="G66" s="9" t="inlineStr"/>
-      <c r="H66" s="9" t="inlineStr"/>
-      <c r="I66" s="9" t="inlineStr"/>
-      <c r="J66" s="9" t="inlineStr"/>
-      <c r="K66" s="9" t="inlineStr"/>
-      <c r="L66" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F66" s="1" t="inlineStr"/>
+      <c r="G66" s="1" t="inlineStr"/>
+      <c r="H66" s="1" t="inlineStr"/>
+      <c r="I66" s="1" t="inlineStr"/>
+      <c r="J66" s="1" t="inlineStr"/>
+      <c r="K66" s="1" t="inlineStr"/>
+      <c r="L66" s="1" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" s="9" t="inlineStr">
-        <is>
-          <t>M038</t>
-        </is>
-      </c>
-      <c r="B67" s="10" t="inlineStr"/>
-      <c r="C67" s="9" t="inlineStr"/>
-      <c r="D67" s="9" t="inlineStr">
+      <c r="A67" s="1" t="inlineStr"/>
+      <c r="B67" s="2" t="inlineStr"/>
+      <c r="C67" s="1" t="inlineStr"/>
+      <c r="D67" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E67" s="16" t="inlineStr">
+      <c r="E67" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F67" s="9" t="inlineStr"/>
-      <c r="G67" s="9" t="inlineStr"/>
-      <c r="H67" s="9" t="inlineStr"/>
-      <c r="I67" s="9" t="inlineStr"/>
-      <c r="J67" s="9" t="inlineStr"/>
-      <c r="K67" s="9" t="inlineStr"/>
-      <c r="L67" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F67" s="1" t="inlineStr"/>
+      <c r="G67" s="1" t="inlineStr"/>
+      <c r="H67" s="1" t="inlineStr"/>
+      <c r="I67" s="1" t="inlineStr"/>
+      <c r="J67" s="1" t="inlineStr"/>
+      <c r="K67" s="1" t="inlineStr"/>
+      <c r="L67" s="1" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" s="17" t="inlineStr">
-        <is>
-          <t>M039</t>
-        </is>
-      </c>
-      <c r="B68" s="18" t="inlineStr"/>
-      <c r="C68" s="19" t="inlineStr">
+      <c r="A68" s="1" t="inlineStr"/>
+      <c r="B68" s="2" t="inlineStr"/>
+      <c r="C68" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D68" s="17" t="inlineStr">
+      <c r="D68" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E68" s="20" t="inlineStr">
+      <c r="E68" s="7" t="inlineStr">
         <is>
           <t>AP-MS. Fardin Enterprise</t>
         </is>
       </c>
-      <c r="F68" s="17" t="inlineStr"/>
-      <c r="G68" s="17" t="inlineStr"/>
-      <c r="H68" s="21" t="inlineStr">
+      <c r="F68" s="1" t="inlineStr"/>
+      <c r="G68" s="1" t="inlineStr"/>
+      <c r="H68" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I68" s="17" t="inlineStr">
+      <c r="I68" s="1" t="inlineStr">
         <is>
           <t>870</t>
         </is>
       </c>
-      <c r="J68" s="17" t="inlineStr"/>
-      <c r="K68" s="22" t="inlineStr">
+      <c r="J68" s="1" t="inlineStr"/>
+      <c r="K68" s="8" t="inlineStr">
         <is>
           <t>2250</t>
         </is>
       </c>
-      <c r="L68" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L68" s="1" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" s="17" t="inlineStr">
-        <is>
-          <t>M039</t>
-        </is>
-      </c>
-      <c r="B69" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 2250.00
-Borrower Amount: 2250.00</t>
-        </is>
-      </c>
-      <c r="C69" s="17" t="inlineStr"/>
-      <c r="D69" s="17" t="inlineStr"/>
-      <c r="E69" s="23" t="inlineStr">
+      <c r="A69" s="1" t="inlineStr"/>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block
+2. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="inlineStr"/>
+      <c r="D69" s="1" t="inlineStr"/>
+      <c r="E69" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to Fardin Enterprise. Supply of , Invoice Number:  768, Challan Number: 768, Work Order Number: 271/PO/2025/3/32672, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-03-11, Goods Received Date: 2025-03-15, Work Order Value: 2250.0, Total Bill Amount: 2250.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F69" s="17" t="inlineStr"/>
-      <c r="G69" s="17" t="inlineStr"/>
-      <c r="H69" s="17" t="inlineStr"/>
-      <c r="I69" s="17" t="inlineStr"/>
-      <c r="J69" s="17" t="inlineStr"/>
-      <c r="K69" s="17" t="inlineStr"/>
-      <c r="L69" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F69" s="1" t="inlineStr"/>
+      <c r="G69" s="1" t="inlineStr"/>
+      <c r="H69" s="1" t="inlineStr"/>
+      <c r="I69" s="1" t="inlineStr"/>
+      <c r="J69" s="1" t="inlineStr"/>
+      <c r="K69" s="1" t="inlineStr"/>
+      <c r="L69" s="1" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" s="17" t="inlineStr">
-        <is>
-          <t>M039</t>
-        </is>
-      </c>
-      <c r="B70" s="18" t="inlineStr"/>
-      <c r="C70" s="17" t="inlineStr"/>
-      <c r="D70" s="17" t="inlineStr">
+      <c r="A70" s="1" t="inlineStr"/>
+      <c r="B70" s="2" t="inlineStr"/>
+      <c r="C70" s="1" t="inlineStr"/>
+      <c r="D70" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E70" s="24" t="inlineStr">
+      <c r="E70" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F70" s="17" t="inlineStr"/>
-      <c r="G70" s="17" t="inlineStr"/>
-      <c r="H70" s="17" t="inlineStr"/>
-      <c r="I70" s="17" t="inlineStr"/>
-      <c r="J70" s="17" t="inlineStr"/>
-      <c r="K70" s="17" t="inlineStr"/>
-      <c r="L70" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F70" s="1" t="inlineStr"/>
+      <c r="G70" s="1" t="inlineStr"/>
+      <c r="H70" s="1" t="inlineStr"/>
+      <c r="I70" s="1" t="inlineStr"/>
+      <c r="J70" s="1" t="inlineStr"/>
+      <c r="K70" s="1" t="inlineStr"/>
+      <c r="L70" s="1" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" s="9" t="inlineStr">
-        <is>
-          <t>M040</t>
-        </is>
-      </c>
-      <c r="B71" s="10" t="inlineStr"/>
-      <c r="C71" s="11" t="inlineStr">
+      <c r="A71" s="1" t="inlineStr"/>
+      <c r="B71" s="2" t="inlineStr"/>
+      <c r="C71" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D71" s="9" t="inlineStr">
+      <c r="D71" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E71" s="12" t="inlineStr">
+      <c r="E71" s="7" t="inlineStr">
         <is>
           <t>AP-MS. Fardin Enterprise</t>
         </is>
       </c>
-      <c r="F71" s="9" t="inlineStr"/>
-      <c r="G71" s="9" t="inlineStr"/>
-      <c r="H71" s="13" t="inlineStr">
+      <c r="F71" s="1" t="inlineStr"/>
+      <c r="G71" s="1" t="inlineStr"/>
+      <c r="H71" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I71" s="9" t="inlineStr">
+      <c r="I71" s="1" t="inlineStr">
         <is>
           <t>871</t>
         </is>
       </c>
-      <c r="J71" s="9" t="inlineStr"/>
-      <c r="K71" s="14" t="inlineStr">
+      <c r="J71" s="1" t="inlineStr"/>
+      <c r="K71" s="8" t="inlineStr">
         <is>
           <t>4360</t>
         </is>
       </c>
-      <c r="L71" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L71" s="1" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" s="9" t="inlineStr">
-        <is>
-          <t>M040</t>
-        </is>
-      </c>
-      <c r="B72" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 4360.00
-Borrower Amount: 4360.00</t>
-        </is>
-      </c>
-      <c r="C72" s="9" t="inlineStr"/>
-      <c r="D72" s="9" t="inlineStr"/>
-      <c r="E72" s="15" t="inlineStr">
+      <c r="A72" s="1" t="inlineStr"/>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block</t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="inlineStr"/>
+      <c r="D72" s="1" t="inlineStr"/>
+      <c r="E72" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to Fardin Enterprise. Supply of , Invoice Number:  10, Challan Number: 766, Work Order Number: MCE/PO/2025/3/32679, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-03-11, Goods Received Date: 2025-03-25, Work Order Value: 4360.0, Total Bill Amount: 4360.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F72" s="9" t="inlineStr"/>
-      <c r="G72" s="9" t="inlineStr"/>
-      <c r="H72" s="9" t="inlineStr"/>
-      <c r="I72" s="9" t="inlineStr"/>
-      <c r="J72" s="9" t="inlineStr"/>
-      <c r="K72" s="9" t="inlineStr"/>
-      <c r="L72" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F72" s="1" t="inlineStr"/>
+      <c r="G72" s="1" t="inlineStr"/>
+      <c r="H72" s="1" t="inlineStr"/>
+      <c r="I72" s="1" t="inlineStr"/>
+      <c r="J72" s="1" t="inlineStr"/>
+      <c r="K72" s="1" t="inlineStr"/>
+      <c r="L72" s="1" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" s="9" t="inlineStr">
-        <is>
-          <t>M040</t>
-        </is>
-      </c>
-      <c r="B73" s="10" t="inlineStr"/>
-      <c r="C73" s="9" t="inlineStr"/>
-      <c r="D73" s="9" t="inlineStr">
+      <c r="A73" s="1" t="inlineStr"/>
+      <c r="B73" s="2" t="inlineStr"/>
+      <c r="C73" s="1" t="inlineStr"/>
+      <c r="D73" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E73" s="16" t="inlineStr">
+      <c r="E73" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F73" s="9" t="inlineStr"/>
-      <c r="G73" s="9" t="inlineStr"/>
-      <c r="H73" s="9" t="inlineStr"/>
-      <c r="I73" s="9" t="inlineStr"/>
-      <c r="J73" s="9" t="inlineStr"/>
-      <c r="K73" s="9" t="inlineStr"/>
-      <c r="L73" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F73" s="1" t="inlineStr"/>
+      <c r="G73" s="1" t="inlineStr"/>
+      <c r="H73" s="1" t="inlineStr"/>
+      <c r="I73" s="1" t="inlineStr"/>
+      <c r="J73" s="1" t="inlineStr"/>
+      <c r="K73" s="1" t="inlineStr"/>
+      <c r="L73" s="1" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" s="17" t="inlineStr">
-        <is>
-          <t>M041</t>
-        </is>
-      </c>
-      <c r="B74" s="18" t="inlineStr"/>
-      <c r="C74" s="19" t="inlineStr">
+      <c r="A74" s="1" t="inlineStr"/>
+      <c r="B74" s="2" t="inlineStr"/>
+      <c r="C74" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D74" s="17" t="inlineStr">
+      <c r="D74" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E74" s="20" t="inlineStr">
+      <c r="E74" s="7" t="inlineStr">
         <is>
           <t>AP-MS. Fardin Enterprise</t>
         </is>
       </c>
-      <c r="F74" s="17" t="inlineStr"/>
-      <c r="G74" s="17" t="inlineStr"/>
-      <c r="H74" s="21" t="inlineStr">
+      <c r="F74" s="1" t="inlineStr"/>
+      <c r="G74" s="1" t="inlineStr"/>
+      <c r="H74" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I74" s="17" t="inlineStr">
+      <c r="I74" s="1" t="inlineStr">
         <is>
           <t>872</t>
         </is>
       </c>
-      <c r="J74" s="17" t="inlineStr"/>
-      <c r="K74" s="22" t="inlineStr">
+      <c r="J74" s="1" t="inlineStr"/>
+      <c r="K74" s="8" t="inlineStr">
         <is>
           <t>14940</t>
         </is>
       </c>
-      <c r="L74" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L74" s="1" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" s="17" t="inlineStr">
-        <is>
-          <t>M041</t>
-        </is>
-      </c>
-      <c r="B75" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 14940.00
-Borrower Amount: 14940.00</t>
-        </is>
-      </c>
-      <c r="C75" s="17" t="inlineStr"/>
-      <c r="D75" s="17" t="inlineStr"/>
-      <c r="E75" s="23" t="inlineStr">
+      <c r="A75" s="1" t="inlineStr"/>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="inlineStr"/>
+      <c r="D75" s="1" t="inlineStr"/>
+      <c r="E75" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to Fardin Enterprise. Supply of , Invoice Number:  11, Challan Number: 767, Work Order Number: MCE/PO/2025/2/32143, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-02-16, Goods Received Date: 2025-03-23, Work Order Value: 277630.0, Total Bill Amount: 14940.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F75" s="17" t="inlineStr"/>
-      <c r="G75" s="17" t="inlineStr"/>
-      <c r="H75" s="17" t="inlineStr"/>
-      <c r="I75" s="17" t="inlineStr"/>
-      <c r="J75" s="17" t="inlineStr"/>
-      <c r="K75" s="17" t="inlineStr"/>
-      <c r="L75" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F75" s="1" t="inlineStr"/>
+      <c r="G75" s="1" t="inlineStr"/>
+      <c r="H75" s="1" t="inlineStr"/>
+      <c r="I75" s="1" t="inlineStr"/>
+      <c r="J75" s="1" t="inlineStr"/>
+      <c r="K75" s="1" t="inlineStr"/>
+      <c r="L75" s="1" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" s="17" t="inlineStr">
-        <is>
-          <t>M041</t>
-        </is>
-      </c>
-      <c r="B76" s="18" t="inlineStr"/>
-      <c r="C76" s="17" t="inlineStr"/>
-      <c r="D76" s="17" t="inlineStr">
+      <c r="A76" s="1" t="inlineStr"/>
+      <c r="B76" s="2" t="inlineStr"/>
+      <c r="C76" s="1" t="inlineStr"/>
+      <c r="D76" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E76" s="24" t="inlineStr">
+      <c r="E76" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F76" s="17" t="inlineStr"/>
-      <c r="G76" s="17" t="inlineStr"/>
-      <c r="H76" s="17" t="inlineStr"/>
-      <c r="I76" s="17" t="inlineStr"/>
-      <c r="J76" s="17" t="inlineStr"/>
-      <c r="K76" s="17" t="inlineStr"/>
-      <c r="L76" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F76" s="1" t="inlineStr"/>
+      <c r="G76" s="1" t="inlineStr"/>
+      <c r="H76" s="1" t="inlineStr"/>
+      <c r="I76" s="1" t="inlineStr"/>
+      <c r="J76" s="1" t="inlineStr"/>
+      <c r="K76" s="1" t="inlineStr"/>
+      <c r="L76" s="1" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" s="9" t="inlineStr">
-        <is>
-          <t>M042</t>
-        </is>
-      </c>
-      <c r="B77" s="10" t="inlineStr"/>
-      <c r="C77" s="11" t="inlineStr">
+      <c r="A77" s="1" t="inlineStr"/>
+      <c r="B77" s="2" t="inlineStr"/>
+      <c r="C77" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D77" s="9" t="inlineStr">
+      <c r="D77" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E77" s="12" t="inlineStr">
+      <c r="E77" s="7" t="inlineStr">
         <is>
           <t>AP-Islam Electric Co.</t>
         </is>
       </c>
-      <c r="F77" s="9" t="inlineStr"/>
-      <c r="G77" s="9" t="inlineStr"/>
-      <c r="H77" s="13" t="inlineStr">
+      <c r="F77" s="1" t="inlineStr"/>
+      <c r="G77" s="1" t="inlineStr"/>
+      <c r="H77" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I77" s="9" t="inlineStr">
+      <c r="I77" s="1" t="inlineStr">
         <is>
           <t>873</t>
         </is>
       </c>
-      <c r="J77" s="9" t="inlineStr"/>
-      <c r="K77" s="14" t="inlineStr">
+      <c r="J77" s="1" t="inlineStr"/>
+      <c r="K77" s="8" t="inlineStr">
         <is>
           <t>3027.5</t>
         </is>
       </c>
-      <c r="L77" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L77" s="1" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" s="9" t="inlineStr">
-        <is>
-          <t>M042</t>
-        </is>
-      </c>
-      <c r="B78" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 3027.50
-Borrower Amount: 3027.50</t>
-        </is>
-      </c>
-      <c r="C78" s="9" t="inlineStr"/>
-      <c r="D78" s="9" t="inlineStr"/>
-      <c r="E78" s="15" t="inlineStr">
+      <c r="A78" s="1" t="inlineStr"/>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block
+2. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="inlineStr"/>
+      <c r="D78" s="1" t="inlineStr"/>
+      <c r="E78" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to Islam Electric Co.. Supply of , Invoice Number:  6453, Challan Number: 6161, Work Order Number: 271/PO/2025/3/32791, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-03-18, Goods Received Date: 2025-03-23, Work Order Value: 3027.5, Total Bill Amount: 3027.5, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F78" s="9" t="inlineStr"/>
-      <c r="G78" s="9" t="inlineStr"/>
-      <c r="H78" s="9" t="inlineStr"/>
-      <c r="I78" s="9" t="inlineStr"/>
-      <c r="J78" s="9" t="inlineStr"/>
-      <c r="K78" s="9" t="inlineStr"/>
-      <c r="L78" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F78" s="1" t="inlineStr"/>
+      <c r="G78" s="1" t="inlineStr"/>
+      <c r="H78" s="1" t="inlineStr"/>
+      <c r="I78" s="1" t="inlineStr"/>
+      <c r="J78" s="1" t="inlineStr"/>
+      <c r="K78" s="1" t="inlineStr"/>
+      <c r="L78" s="1" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" s="9" t="inlineStr">
-        <is>
-          <t>M042</t>
-        </is>
-      </c>
-      <c r="B79" s="10" t="inlineStr"/>
-      <c r="C79" s="9" t="inlineStr"/>
-      <c r="D79" s="9" t="inlineStr">
+      <c r="A79" s="1" t="inlineStr"/>
+      <c r="B79" s="2" t="inlineStr"/>
+      <c r="C79" s="1" t="inlineStr"/>
+      <c r="D79" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E79" s="16" t="inlineStr">
+      <c r="E79" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F79" s="9" t="inlineStr"/>
-      <c r="G79" s="9" t="inlineStr"/>
-      <c r="H79" s="9" t="inlineStr"/>
-      <c r="I79" s="9" t="inlineStr"/>
-      <c r="J79" s="9" t="inlineStr"/>
-      <c r="K79" s="9" t="inlineStr"/>
-      <c r="L79" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F79" s="1" t="inlineStr"/>
+      <c r="G79" s="1" t="inlineStr"/>
+      <c r="H79" s="1" t="inlineStr"/>
+      <c r="I79" s="1" t="inlineStr"/>
+      <c r="J79" s="1" t="inlineStr"/>
+      <c r="K79" s="1" t="inlineStr"/>
+      <c r="L79" s="1" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" s="17" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
-      <c r="B80" s="18" t="inlineStr"/>
-      <c r="C80" s="19" t="inlineStr">
+      <c r="A80" s="1" t="inlineStr"/>
+      <c r="B80" s="2" t="inlineStr"/>
+      <c r="C80" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D80" s="17" t="inlineStr">
+      <c r="D80" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E80" s="20" t="inlineStr">
+      <c r="E80" s="7" t="inlineStr">
         <is>
           <t>AP-Islam Electric Co.</t>
         </is>
       </c>
-      <c r="F80" s="17" t="inlineStr"/>
-      <c r="G80" s="17" t="inlineStr"/>
-      <c r="H80" s="21" t="inlineStr">
+      <c r="F80" s="1" t="inlineStr"/>
+      <c r="G80" s="1" t="inlineStr"/>
+      <c r="H80" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I80" s="17" t="inlineStr">
+      <c r="I80" s="1" t="inlineStr">
         <is>
           <t>874</t>
         </is>
       </c>
-      <c r="J80" s="17" t="inlineStr"/>
-      <c r="K80" s="22" t="inlineStr">
+      <c r="J80" s="1" t="inlineStr"/>
+      <c r="K80" s="8" t="inlineStr">
         <is>
           <t>91900</t>
         </is>
       </c>
-      <c r="L80" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L80" s="1" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" s="17" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
-      <c r="B81" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 91900.00
-Borrower Amount: 91900.00</t>
-        </is>
-      </c>
-      <c r="C81" s="17" t="inlineStr"/>
-      <c r="D81" s="17" t="inlineStr"/>
-      <c r="E81" s="23" t="inlineStr">
+      <c r="A81" s="1" t="inlineStr"/>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block</t>
+        </is>
+      </c>
+      <c r="C81" s="1" t="inlineStr"/>
+      <c r="D81" s="1" t="inlineStr"/>
+      <c r="E81" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to Islam Electric Co.. Supply of , Invoice Number:  6457, Challan Number: 6162, Work Order Number: MCE/PO/2025/3/32675, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-03-11, Goods Received Date: 2025-03-25, Work Order Value: 309400.0, Total Bill Amount: 91900.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F81" s="17" t="inlineStr"/>
-      <c r="G81" s="17" t="inlineStr"/>
-      <c r="H81" s="17" t="inlineStr"/>
-      <c r="I81" s="17" t="inlineStr"/>
-      <c r="J81" s="17" t="inlineStr"/>
-      <c r="K81" s="17" t="inlineStr"/>
-      <c r="L81" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F81" s="1" t="inlineStr"/>
+      <c r="G81" s="1" t="inlineStr"/>
+      <c r="H81" s="1" t="inlineStr"/>
+      <c r="I81" s="1" t="inlineStr"/>
+      <c r="J81" s="1" t="inlineStr"/>
+      <c r="K81" s="1" t="inlineStr"/>
+      <c r="L81" s="1" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" s="17" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
-      <c r="B82" s="18" t="inlineStr"/>
-      <c r="C82" s="17" t="inlineStr"/>
-      <c r="D82" s="17" t="inlineStr">
+      <c r="A82" s="1" t="inlineStr"/>
+      <c r="B82" s="2" t="inlineStr"/>
+      <c r="C82" s="1" t="inlineStr"/>
+      <c r="D82" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E82" s="24" t="inlineStr">
+      <c r="E82" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F82" s="17" t="inlineStr"/>
-      <c r="G82" s="17" t="inlineStr"/>
-      <c r="H82" s="17" t="inlineStr"/>
-      <c r="I82" s="17" t="inlineStr"/>
-      <c r="J82" s="17" t="inlineStr"/>
-      <c r="K82" s="17" t="inlineStr"/>
-      <c r="L82" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F82" s="1" t="inlineStr"/>
+      <c r="G82" s="1" t="inlineStr"/>
+      <c r="H82" s="1" t="inlineStr"/>
+      <c r="I82" s="1" t="inlineStr"/>
+      <c r="J82" s="1" t="inlineStr"/>
+      <c r="K82" s="1" t="inlineStr"/>
+      <c r="L82" s="1" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" s="9" t="inlineStr">
-        <is>
-          <t>M044</t>
-        </is>
-      </c>
-      <c r="B83" s="10" t="inlineStr"/>
-      <c r="C83" s="11" t="inlineStr">
+      <c r="A83" s="1" t="inlineStr"/>
+      <c r="B83" s="2" t="inlineStr"/>
+      <c r="C83" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D83" s="9" t="inlineStr">
+      <c r="D83" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E83" s="12" t="inlineStr">
+      <c r="E83" s="7" t="inlineStr">
         <is>
           <t>AP-Jononi Enterprise</t>
         </is>
       </c>
-      <c r="F83" s="9" t="inlineStr"/>
-      <c r="G83" s="9" t="inlineStr"/>
-      <c r="H83" s="13" t="inlineStr">
+      <c r="F83" s="1" t="inlineStr"/>
+      <c r="G83" s="1" t="inlineStr"/>
+      <c r="H83" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I83" s="9" t="inlineStr">
+      <c r="I83" s="1" t="inlineStr">
         <is>
           <t>875</t>
         </is>
       </c>
-      <c r="J83" s="9" t="inlineStr"/>
-      <c r="K83" s="14" t="inlineStr">
+      <c r="J83" s="1" t="inlineStr"/>
+      <c r="K83" s="8" t="inlineStr">
         <is>
           <t>31050</t>
         </is>
       </c>
-      <c r="L83" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L83" s="1" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" s="9" t="inlineStr">
-        <is>
-          <t>M044</t>
-        </is>
-      </c>
-      <c r="B84" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 31050.00
-Borrower Amount: 31050.00</t>
-        </is>
-      </c>
-      <c r="C84" s="9" t="inlineStr"/>
-      <c r="D84" s="9" t="inlineStr"/>
-      <c r="E84" s="15" t="inlineStr">
+      <c r="A84" s="1" t="inlineStr"/>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block
+2. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
+        </is>
+      </c>
+      <c r="C84" s="1" t="inlineStr"/>
+      <c r="D84" s="1" t="inlineStr"/>
+      <c r="E84" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to Jononi Enterprise. Supply of , Invoice Number:  649, Challan Number: 649, Work Order Number: 271/PO/2025/3/32724, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-03-13, Goods Received Date: 2025-03-25, Work Order Value: 31050.0, Total Bill Amount: 31050.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F84" s="9" t="inlineStr"/>
-      <c r="G84" s="9" t="inlineStr"/>
-      <c r="H84" s="9" t="inlineStr"/>
-      <c r="I84" s="9" t="inlineStr"/>
-      <c r="J84" s="9" t="inlineStr"/>
-      <c r="K84" s="9" t="inlineStr"/>
-      <c r="L84" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F84" s="1" t="inlineStr"/>
+      <c r="G84" s="1" t="inlineStr"/>
+      <c r="H84" s="1" t="inlineStr"/>
+      <c r="I84" s="1" t="inlineStr"/>
+      <c r="J84" s="1" t="inlineStr"/>
+      <c r="K84" s="1" t="inlineStr"/>
+      <c r="L84" s="1" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" s="9" t="inlineStr">
-        <is>
-          <t>M044</t>
-        </is>
-      </c>
-      <c r="B85" s="10" t="inlineStr"/>
-      <c r="C85" s="9" t="inlineStr"/>
-      <c r="D85" s="9" t="inlineStr">
+      <c r="A85" s="1" t="inlineStr"/>
+      <c r="B85" s="2" t="inlineStr"/>
+      <c r="C85" s="1" t="inlineStr"/>
+      <c r="D85" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E85" s="16" t="inlineStr">
+      <c r="E85" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F85" s="9" t="inlineStr"/>
-      <c r="G85" s="9" t="inlineStr"/>
-      <c r="H85" s="9" t="inlineStr"/>
-      <c r="I85" s="9" t="inlineStr"/>
-      <c r="J85" s="9" t="inlineStr"/>
-      <c r="K85" s="9" t="inlineStr"/>
-      <c r="L85" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F85" s="1" t="inlineStr"/>
+      <c r="G85" s="1" t="inlineStr"/>
+      <c r="H85" s="1" t="inlineStr"/>
+      <c r="I85" s="1" t="inlineStr"/>
+      <c r="J85" s="1" t="inlineStr"/>
+      <c r="K85" s="1" t="inlineStr"/>
+      <c r="L85" s="1" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" s="17" t="inlineStr">
-        <is>
-          <t>M045</t>
-        </is>
-      </c>
-      <c r="B86" s="18" t="inlineStr"/>
-      <c r="C86" s="19" t="inlineStr">
+      <c r="A86" s="1" t="inlineStr"/>
+      <c r="B86" s="2" t="inlineStr"/>
+      <c r="C86" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D86" s="17" t="inlineStr">
+      <c r="D86" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E86" s="20" t="inlineStr">
+      <c r="E86" s="7" t="inlineStr">
         <is>
           <t>AP-JRS Corporation.</t>
         </is>
       </c>
-      <c r="F86" s="17" t="inlineStr"/>
-      <c r="G86" s="17" t="inlineStr"/>
-      <c r="H86" s="21" t="inlineStr">
+      <c r="F86" s="1" t="inlineStr"/>
+      <c r="G86" s="1" t="inlineStr"/>
+      <c r="H86" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I86" s="17" t="inlineStr">
+      <c r="I86" s="1" t="inlineStr">
         <is>
           <t>876</t>
         </is>
       </c>
-      <c r="J86" s="17" t="inlineStr"/>
-      <c r="K86" s="22" t="inlineStr">
+      <c r="J86" s="1" t="inlineStr"/>
+      <c r="K86" s="8" t="inlineStr">
         <is>
           <t>20000</t>
         </is>
       </c>
-      <c r="L86" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L86" s="1" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="A87" s="17" t="inlineStr">
-        <is>
-          <t>M045</t>
-        </is>
-      </c>
-      <c r="B87" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 20000.00
-Borrower Amount: 20000.00</t>
-        </is>
-      </c>
-      <c r="C87" s="17" t="inlineStr"/>
-      <c r="D87" s="17" t="inlineStr"/>
-      <c r="E87" s="23" t="inlineStr">
+      <c r="A87" s="1" t="inlineStr"/>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block</t>
+        </is>
+      </c>
+      <c r="C87" s="1" t="inlineStr"/>
+      <c r="D87" s="1" t="inlineStr"/>
+      <c r="E87" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to JRS Corporation. Supply of , Invoice Number:  JRS-0015, Challan Number: 220225, Work Order Number: DES/PO/2024/12/31363, BA Team (A), Company Unit: Transformer, Project Name : DESCO 3-Phase Distribution Transformer (GD-5), Work Order date: 2024-12-29, Goods Received Date: 2025-02-26, Work Order Value: 251400.0, Total Bill Amount: 20000.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F87" s="17" t="inlineStr"/>
-      <c r="G87" s="17" t="inlineStr"/>
-      <c r="H87" s="17" t="inlineStr"/>
-      <c r="I87" s="17" t="inlineStr"/>
-      <c r="J87" s="17" t="inlineStr"/>
-      <c r="K87" s="17" t="inlineStr"/>
-      <c r="L87" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F87" s="1" t="inlineStr"/>
+      <c r="G87" s="1" t="inlineStr"/>
+      <c r="H87" s="1" t="inlineStr"/>
+      <c r="I87" s="1" t="inlineStr"/>
+      <c r="J87" s="1" t="inlineStr"/>
+      <c r="K87" s="1" t="inlineStr"/>
+      <c r="L87" s="1" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" s="17" t="inlineStr">
-        <is>
-          <t>M045</t>
-        </is>
-      </c>
-      <c r="B88" s="18" t="inlineStr"/>
-      <c r="C88" s="17" t="inlineStr"/>
-      <c r="D88" s="17" t="inlineStr">
+      <c r="A88" s="1" t="inlineStr"/>
+      <c r="B88" s="2" t="inlineStr"/>
+      <c r="C88" s="1" t="inlineStr"/>
+      <c r="D88" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E88" s="24" t="inlineStr">
+      <c r="E88" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F88" s="17" t="inlineStr"/>
-      <c r="G88" s="17" t="inlineStr"/>
-      <c r="H88" s="17" t="inlineStr"/>
-      <c r="I88" s="17" t="inlineStr"/>
-      <c r="J88" s="17" t="inlineStr"/>
-      <c r="K88" s="17" t="inlineStr"/>
-      <c r="L88" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F88" s="1" t="inlineStr"/>
+      <c r="G88" s="1" t="inlineStr"/>
+      <c r="H88" s="1" t="inlineStr"/>
+      <c r="I88" s="1" t="inlineStr"/>
+      <c r="J88" s="1" t="inlineStr"/>
+      <c r="K88" s="1" t="inlineStr"/>
+      <c r="L88" s="1" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" s="9" t="inlineStr">
-        <is>
-          <t>M046</t>
-        </is>
-      </c>
-      <c r="B89" s="10" t="inlineStr"/>
-      <c r="C89" s="11" t="inlineStr">
+      <c r="A89" s="1" t="inlineStr"/>
+      <c r="B89" s="2" t="inlineStr"/>
+      <c r="C89" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D89" s="9" t="inlineStr">
+      <c r="D89" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E89" s="12" t="inlineStr">
+      <c r="E89" s="7" t="inlineStr">
         <is>
           <t>AP-JRS Corporation.</t>
         </is>
       </c>
-      <c r="F89" s="9" t="inlineStr"/>
-      <c r="G89" s="9" t="inlineStr"/>
-      <c r="H89" s="13" t="inlineStr">
+      <c r="F89" s="1" t="inlineStr"/>
+      <c r="G89" s="1" t="inlineStr"/>
+      <c r="H89" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I89" s="9" t="inlineStr">
+      <c r="I89" s="1" t="inlineStr">
         <is>
           <t>877</t>
         </is>
       </c>
-      <c r="J89" s="9" t="inlineStr"/>
-      <c r="K89" s="14" t="inlineStr">
+      <c r="J89" s="1" t="inlineStr"/>
+      <c r="K89" s="8" t="inlineStr">
         <is>
           <t>55440</t>
         </is>
       </c>
-      <c r="L89" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L89" s="1" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" s="9" t="inlineStr">
-        <is>
-          <t>M046</t>
-        </is>
-      </c>
-      <c r="B90" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 55440.00
-Borrower Amount: 55440.00</t>
-        </is>
-      </c>
-      <c r="C90" s="9" t="inlineStr"/>
-      <c r="D90" s="9" t="inlineStr"/>
-      <c r="E90" s="15" t="inlineStr">
+      <c r="A90" s="1" t="inlineStr"/>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block</t>
+        </is>
+      </c>
+      <c r="C90" s="1" t="inlineStr"/>
+      <c r="D90" s="1" t="inlineStr"/>
+      <c r="E90" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to JRS Corporation. Supply of , Invoice Number:  JRS Bill-0018, Challan Number: 803, Work Order Number: DES/PO/2024/12/31363, BA Team (A), Company Unit: Transformer, Project Name : DESCO 3-Phase Distribution Transformer (GD-5), Work Order date: 2024-12-29, Goods Received Date: 2025-04-22, Work Order Value: 251400.0, Total Bill Amount: 55440.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F90" s="9" t="inlineStr"/>
-      <c r="G90" s="9" t="inlineStr"/>
-      <c r="H90" s="9" t="inlineStr"/>
-      <c r="I90" s="9" t="inlineStr"/>
-      <c r="J90" s="9" t="inlineStr"/>
-      <c r="K90" s="9" t="inlineStr"/>
-      <c r="L90" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F90" s="1" t="inlineStr"/>
+      <c r="G90" s="1" t="inlineStr"/>
+      <c r="H90" s="1" t="inlineStr"/>
+      <c r="I90" s="1" t="inlineStr"/>
+      <c r="J90" s="1" t="inlineStr"/>
+      <c r="K90" s="1" t="inlineStr"/>
+      <c r="L90" s="1" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" s="9" t="inlineStr">
-        <is>
-          <t>M046</t>
-        </is>
-      </c>
-      <c r="B91" s="10" t="inlineStr"/>
-      <c r="C91" s="9" t="inlineStr"/>
-      <c r="D91" s="9" t="inlineStr">
+      <c r="A91" s="1" t="inlineStr"/>
+      <c r="B91" s="2" t="inlineStr"/>
+      <c r="C91" s="1" t="inlineStr"/>
+      <c r="D91" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E91" s="16" t="inlineStr">
+      <c r="E91" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F91" s="9" t="inlineStr"/>
-      <c r="G91" s="9" t="inlineStr"/>
-      <c r="H91" s="9" t="inlineStr"/>
-      <c r="I91" s="9" t="inlineStr"/>
-      <c r="J91" s="9" t="inlineStr"/>
-      <c r="K91" s="9" t="inlineStr"/>
-      <c r="L91" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F91" s="1" t="inlineStr"/>
+      <c r="G91" s="1" t="inlineStr"/>
+      <c r="H91" s="1" t="inlineStr"/>
+      <c r="I91" s="1" t="inlineStr"/>
+      <c r="J91" s="1" t="inlineStr"/>
+      <c r="K91" s="1" t="inlineStr"/>
+      <c r="L91" s="1" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" s="17" t="inlineStr">
-        <is>
-          <t>M047</t>
-        </is>
-      </c>
-      <c r="B92" s="18" t="inlineStr"/>
-      <c r="C92" s="19" t="inlineStr">
+      <c r="A92" s="1" t="inlineStr"/>
+      <c r="B92" s="2" t="inlineStr"/>
+      <c r="C92" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D92" s="17" t="inlineStr">
+      <c r="D92" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E92" s="20" t="inlineStr">
+      <c r="E92" s="7" t="inlineStr">
         <is>
           <t>AP-M/S Hafsa Enterprise</t>
         </is>
       </c>
-      <c r="F92" s="17" t="inlineStr"/>
-      <c r="G92" s="17" t="inlineStr"/>
-      <c r="H92" s="21" t="inlineStr">
+      <c r="F92" s="1" t="inlineStr"/>
+      <c r="G92" s="1" t="inlineStr"/>
+      <c r="H92" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I92" s="17" t="inlineStr">
+      <c r="I92" s="1" t="inlineStr">
         <is>
           <t>878</t>
         </is>
       </c>
-      <c r="J92" s="17" t="inlineStr"/>
-      <c r="K92" s="22" t="inlineStr">
+      <c r="J92" s="1" t="inlineStr"/>
+      <c r="K92" s="8" t="inlineStr">
         <is>
           <t>4500</t>
         </is>
       </c>
-      <c r="L92" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L92" s="1" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" s="17" t="inlineStr">
-        <is>
-          <t>M047</t>
-        </is>
-      </c>
-      <c r="B93" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 4500.00
-Borrower Amount: 4500.00</t>
-        </is>
-      </c>
-      <c r="C93" s="17" t="inlineStr"/>
-      <c r="D93" s="17" t="inlineStr"/>
-      <c r="E93" s="23" t="inlineStr">
+      <c r="A93" s="1" t="inlineStr"/>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block
+2. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
+        </is>
+      </c>
+      <c r="C93" s="1" t="inlineStr"/>
+      <c r="D93" s="1" t="inlineStr"/>
+      <c r="E93" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to M/S. Hafsa Enterprise. Supply of , Invoice Number:  2184, Challan Number: 588, Work Order Number: 271/PO/2025/3/32891, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-03-20, Goods Received Date: 2025-05-08, Work Order Value: 46250.0, Total Bill Amount: 4500.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F93" s="17" t="inlineStr"/>
-      <c r="G93" s="17" t="inlineStr"/>
-      <c r="H93" s="17" t="inlineStr"/>
-      <c r="I93" s="17" t="inlineStr"/>
-      <c r="J93" s="17" t="inlineStr"/>
-      <c r="K93" s="17" t="inlineStr"/>
-      <c r="L93" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F93" s="1" t="inlineStr"/>
+      <c r="G93" s="1" t="inlineStr"/>
+      <c r="H93" s="1" t="inlineStr"/>
+      <c r="I93" s="1" t="inlineStr"/>
+      <c r="J93" s="1" t="inlineStr"/>
+      <c r="K93" s="1" t="inlineStr"/>
+      <c r="L93" s="1" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" s="17" t="inlineStr">
-        <is>
-          <t>M047</t>
-        </is>
-      </c>
-      <c r="B94" s="18" t="inlineStr"/>
-      <c r="C94" s="17" t="inlineStr"/>
-      <c r="D94" s="17" t="inlineStr">
+      <c r="A94" s="1" t="inlineStr"/>
+      <c r="B94" s="2" t="inlineStr"/>
+      <c r="C94" s="1" t="inlineStr"/>
+      <c r="D94" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E94" s="24" t="inlineStr">
+      <c r="E94" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F94" s="17" t="inlineStr"/>
-      <c r="G94" s="17" t="inlineStr"/>
-      <c r="H94" s="17" t="inlineStr"/>
-      <c r="I94" s="17" t="inlineStr"/>
-      <c r="J94" s="17" t="inlineStr"/>
-      <c r="K94" s="17" t="inlineStr"/>
-      <c r="L94" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F94" s="1" t="inlineStr"/>
+      <c r="G94" s="1" t="inlineStr"/>
+      <c r="H94" s="1" t="inlineStr"/>
+      <c r="I94" s="1" t="inlineStr"/>
+      <c r="J94" s="1" t="inlineStr"/>
+      <c r="K94" s="1" t="inlineStr"/>
+      <c r="L94" s="1" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" s="9" t="inlineStr">
-        <is>
-          <t>M048</t>
-        </is>
-      </c>
-      <c r="B95" s="10" t="inlineStr"/>
-      <c r="C95" s="11" t="inlineStr">
+      <c r="A95" s="1" t="inlineStr"/>
+      <c r="B95" s="2" t="inlineStr"/>
+      <c r="C95" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D95" s="9" t="inlineStr">
+      <c r="D95" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E95" s="12" t="inlineStr">
+      <c r="E95" s="7" t="inlineStr">
         <is>
           <t>AP-M/S.Ishaque Electric</t>
         </is>
       </c>
-      <c r="F95" s="9" t="inlineStr"/>
-      <c r="G95" s="9" t="inlineStr"/>
-      <c r="H95" s="13" t="inlineStr">
+      <c r="F95" s="1" t="inlineStr"/>
+      <c r="G95" s="1" t="inlineStr"/>
+      <c r="H95" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I95" s="9" t="inlineStr">
+      <c r="I95" s="1" t="inlineStr">
         <is>
           <t>879</t>
         </is>
       </c>
-      <c r="J95" s="9" t="inlineStr"/>
-      <c r="K95" s="14" t="inlineStr">
+      <c r="J95" s="1" t="inlineStr"/>
+      <c r="K95" s="8" t="inlineStr">
         <is>
           <t>140000</t>
         </is>
       </c>
-      <c r="L95" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L95" s="1" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" s="9" t="inlineStr">
-        <is>
-          <t>M048</t>
-        </is>
-      </c>
-      <c r="B96" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 140000.00
-Borrower Amount: 140000.00</t>
-        </is>
-      </c>
-      <c r="C96" s="9" t="inlineStr"/>
-      <c r="D96" s="9" t="inlineStr"/>
-      <c r="E96" s="15" t="inlineStr">
+      <c r="A96" s="1" t="inlineStr"/>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block
+2. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
+        </is>
+      </c>
+      <c r="C96" s="1" t="inlineStr"/>
+      <c r="D96" s="1" t="inlineStr"/>
+      <c r="E96" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to M/S. Ishaque Electric. Supply of , Invoice Number:  329, Challan Number: 902, Work Order Number: 271/PO/2025/4/33395, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-04-28, Goods Received Date: 2025-05-04, Work Order Value: 140000.0, Total Bill Amount: 140000.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F96" s="9" t="inlineStr"/>
-      <c r="G96" s="9" t="inlineStr"/>
-      <c r="H96" s="9" t="inlineStr"/>
-      <c r="I96" s="9" t="inlineStr"/>
-      <c r="J96" s="9" t="inlineStr"/>
-      <c r="K96" s="9" t="inlineStr"/>
-      <c r="L96" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F96" s="1" t="inlineStr"/>
+      <c r="G96" s="1" t="inlineStr"/>
+      <c r="H96" s="1" t="inlineStr"/>
+      <c r="I96" s="1" t="inlineStr"/>
+      <c r="J96" s="1" t="inlineStr"/>
+      <c r="K96" s="1" t="inlineStr"/>
+      <c r="L96" s="1" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" s="9" t="inlineStr">
-        <is>
-          <t>M048</t>
-        </is>
-      </c>
-      <c r="B97" s="10" t="inlineStr"/>
-      <c r="C97" s="9" t="inlineStr"/>
-      <c r="D97" s="9" t="inlineStr">
+      <c r="A97" s="1" t="inlineStr"/>
+      <c r="B97" s="2" t="inlineStr"/>
+      <c r="C97" s="1" t="inlineStr"/>
+      <c r="D97" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E97" s="16" t="inlineStr">
+      <c r="E97" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F97" s="9" t="inlineStr"/>
-      <c r="G97" s="9" t="inlineStr"/>
-      <c r="H97" s="9" t="inlineStr"/>
-      <c r="I97" s="9" t="inlineStr"/>
-      <c r="J97" s="9" t="inlineStr"/>
-      <c r="K97" s="9" t="inlineStr"/>
-      <c r="L97" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F97" s="1" t="inlineStr"/>
+      <c r="G97" s="1" t="inlineStr"/>
+      <c r="H97" s="1" t="inlineStr"/>
+      <c r="I97" s="1" t="inlineStr"/>
+      <c r="J97" s="1" t="inlineStr"/>
+      <c r="K97" s="1" t="inlineStr"/>
+      <c r="L97" s="1" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" s="17" t="inlineStr">
-        <is>
-          <t>M049</t>
-        </is>
-      </c>
-      <c r="B98" s="18" t="inlineStr"/>
-      <c r="C98" s="19" t="inlineStr">
+      <c r="A98" s="1" t="inlineStr"/>
+      <c r="B98" s="2" t="inlineStr"/>
+      <c r="C98" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D98" s="17" t="inlineStr">
+      <c r="D98" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E98" s="20" t="inlineStr">
+      <c r="E98" s="7" t="inlineStr">
         <is>
           <t>AP-M/S.Ishaque Electric</t>
         </is>
       </c>
-      <c r="F98" s="17" t="inlineStr"/>
-      <c r="G98" s="17" t="inlineStr"/>
-      <c r="H98" s="21" t="inlineStr">
+      <c r="F98" s="1" t="inlineStr"/>
+      <c r="G98" s="1" t="inlineStr"/>
+      <c r="H98" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I98" s="17" t="inlineStr">
+      <c r="I98" s="1" t="inlineStr">
         <is>
           <t>880</t>
         </is>
       </c>
-      <c r="J98" s="17" t="inlineStr"/>
-      <c r="K98" s="22" t="inlineStr">
+      <c r="J98" s="1" t="inlineStr"/>
+      <c r="K98" s="8" t="inlineStr">
         <is>
           <t>38240</t>
         </is>
       </c>
-      <c r="L98" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L98" s="1" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="A99" s="17" t="inlineStr">
-        <is>
-          <t>M049</t>
-        </is>
-      </c>
-      <c r="B99" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 38240.00
-Borrower Amount: 38240.00</t>
-        </is>
-      </c>
-      <c r="C99" s="17" t="inlineStr"/>
-      <c r="D99" s="17" t="inlineStr"/>
-      <c r="E99" s="23" t="inlineStr">
+      <c r="A99" s="1" t="inlineStr"/>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block</t>
+        </is>
+      </c>
+      <c r="C99" s="1" t="inlineStr"/>
+      <c r="D99" s="1" t="inlineStr"/>
+      <c r="E99" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to M/S. Ishaque Electric. Supply of , Invoice Number:  330, Challan Number: 798, Work Order Number: BRE/PO/2025/4/33339, BA Team (A), Company Unit: Transformer, Project Name : BREB/DP/PBSF-G-89-Lot-1/1/086/2023-2024 (REB) 3-Phase Power Transformer , Work Order date: 2025-04-24, Goods Received Date: 2025-05-04, Work Order Value: 382400.0, Total Bill Amount: 38240.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F99" s="17" t="inlineStr"/>
-      <c r="G99" s="17" t="inlineStr"/>
-      <c r="H99" s="17" t="inlineStr"/>
-      <c r="I99" s="17" t="inlineStr"/>
-      <c r="J99" s="17" t="inlineStr"/>
-      <c r="K99" s="17" t="inlineStr"/>
-      <c r="L99" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F99" s="1" t="inlineStr"/>
+      <c r="G99" s="1" t="inlineStr"/>
+      <c r="H99" s="1" t="inlineStr"/>
+      <c r="I99" s="1" t="inlineStr"/>
+      <c r="J99" s="1" t="inlineStr"/>
+      <c r="K99" s="1" t="inlineStr"/>
+      <c r="L99" s="1" t="inlineStr"/>
     </row>
     <row r="100">
-      <c r="A100" s="17" t="inlineStr">
-        <is>
-          <t>M049</t>
-        </is>
-      </c>
-      <c r="B100" s="18" t="inlineStr"/>
-      <c r="C100" s="17" t="inlineStr"/>
-      <c r="D100" s="17" t="inlineStr">
+      <c r="A100" s="1" t="inlineStr"/>
+      <c r="B100" s="2" t="inlineStr"/>
+      <c r="C100" s="1" t="inlineStr"/>
+      <c r="D100" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E100" s="24" t="inlineStr">
+      <c r="E100" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F100" s="17" t="inlineStr"/>
-      <c r="G100" s="17" t="inlineStr"/>
-      <c r="H100" s="17" t="inlineStr"/>
-      <c r="I100" s="17" t="inlineStr"/>
-      <c r="J100" s="17" t="inlineStr"/>
-      <c r="K100" s="17" t="inlineStr"/>
-      <c r="L100" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F100" s="1" t="inlineStr"/>
+      <c r="G100" s="1" t="inlineStr"/>
+      <c r="H100" s="1" t="inlineStr"/>
+      <c r="I100" s="1" t="inlineStr"/>
+      <c r="J100" s="1" t="inlineStr"/>
+      <c r="K100" s="1" t="inlineStr"/>
+      <c r="L100" s="1" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" s="9" t="inlineStr">
-        <is>
-          <t>M050</t>
-        </is>
-      </c>
-      <c r="B101" s="10" t="inlineStr"/>
-      <c r="C101" s="11" t="inlineStr">
+      <c r="A101" s="1" t="inlineStr"/>
+      <c r="B101" s="2" t="inlineStr"/>
+      <c r="C101" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D101" s="9" t="inlineStr">
+      <c r="D101" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E101" s="12" t="inlineStr">
+      <c r="E101" s="7" t="inlineStr">
         <is>
           <t>AP-M/s.Salam &amp; Brothers</t>
         </is>
       </c>
-      <c r="F101" s="9" t="inlineStr"/>
-      <c r="G101" s="9" t="inlineStr"/>
-      <c r="H101" s="13" t="inlineStr">
+      <c r="F101" s="1" t="inlineStr"/>
+      <c r="G101" s="1" t="inlineStr"/>
+      <c r="H101" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I101" s="9" t="inlineStr">
+      <c r="I101" s="1" t="inlineStr">
         <is>
           <t>881</t>
         </is>
       </c>
-      <c r="J101" s="9" t="inlineStr"/>
-      <c r="K101" s="14" t="inlineStr">
+      <c r="J101" s="1" t="inlineStr"/>
+      <c r="K101" s="8" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="L101" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L101" s="1" t="inlineStr"/>
     </row>
     <row r="102">
-      <c r="A102" s="9" t="inlineStr">
-        <is>
-          <t>M050</t>
-        </is>
-      </c>
-      <c r="B102" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 200000.00
-Borrower Amount: 200000.00</t>
-        </is>
-      </c>
-      <c r="C102" s="9" t="inlineStr"/>
-      <c r="D102" s="9" t="inlineStr"/>
-      <c r="E102" s="15" t="inlineStr">
+      <c r="A102" s="1" t="inlineStr"/>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block
+2. No interunit account found in File 2 block
+3. No interunit account found in File 2 block
+4. No interunit account found in File 2 block
+5. No interunit account found in File 2 block
+6. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']
+7. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']
+8. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
+        </is>
+      </c>
+      <c r="C102" s="1" t="inlineStr"/>
+      <c r="D102" s="1" t="inlineStr"/>
+      <c r="E102" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to Salam &amp; Brothers. Supply of , Invoice Number:  1623/24-25, Challan Number: 060225,1450/24-25, Work Order Number: 271/PO/2025/1/31492, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-01-06, Goods Received Date: 2025-01-23,2025-02-10, Work Order Value: 822000.0, Total Bill Amount: 200000.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F102" s="9" t="inlineStr"/>
-      <c r="G102" s="9" t="inlineStr"/>
-      <c r="H102" s="9" t="inlineStr"/>
-      <c r="I102" s="9" t="inlineStr"/>
-      <c r="J102" s="9" t="inlineStr"/>
-      <c r="K102" s="9" t="inlineStr"/>
-      <c r="L102" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F102" s="1" t="inlineStr"/>
+      <c r="G102" s="1" t="inlineStr"/>
+      <c r="H102" s="1" t="inlineStr"/>
+      <c r="I102" s="1" t="inlineStr"/>
+      <c r="J102" s="1" t="inlineStr"/>
+      <c r="K102" s="1" t="inlineStr"/>
+      <c r="L102" s="1" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="A103" s="9" t="inlineStr">
-        <is>
-          <t>M050</t>
-        </is>
-      </c>
-      <c r="B103" s="10" t="inlineStr"/>
-      <c r="C103" s="9" t="inlineStr"/>
-      <c r="D103" s="9" t="inlineStr">
+      <c r="A103" s="1" t="inlineStr"/>
+      <c r="B103" s="2" t="inlineStr"/>
+      <c r="C103" s="1" t="inlineStr"/>
+      <c r="D103" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E103" s="16" t="inlineStr">
+      <c r="E103" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F103" s="9" t="inlineStr"/>
-      <c r="G103" s="9" t="inlineStr"/>
-      <c r="H103" s="9" t="inlineStr"/>
-      <c r="I103" s="9" t="inlineStr"/>
-      <c r="J103" s="9" t="inlineStr"/>
-      <c r="K103" s="9" t="inlineStr"/>
-      <c r="L103" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F103" s="1" t="inlineStr"/>
+      <c r="G103" s="1" t="inlineStr"/>
+      <c r="H103" s="1" t="inlineStr"/>
+      <c r="I103" s="1" t="inlineStr"/>
+      <c r="J103" s="1" t="inlineStr"/>
+      <c r="K103" s="1" t="inlineStr"/>
+      <c r="L103" s="1" t="inlineStr"/>
     </row>
     <row r="104">
-      <c r="A104" s="17" t="inlineStr">
-        <is>
-          <t>M051</t>
-        </is>
-      </c>
-      <c r="B104" s="18" t="inlineStr"/>
-      <c r="C104" s="19" t="inlineStr">
+      <c r="A104" s="1" t="inlineStr"/>
+      <c r="B104" s="2" t="inlineStr"/>
+      <c r="C104" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D104" s="17" t="inlineStr">
+      <c r="D104" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E104" s="20" t="inlineStr">
+      <c r="E104" s="7" t="inlineStr">
         <is>
           <t>AP-United Traders</t>
         </is>
       </c>
-      <c r="F104" s="17" t="inlineStr"/>
-      <c r="G104" s="17" t="inlineStr"/>
-      <c r="H104" s="21" t="inlineStr">
+      <c r="F104" s="1" t="inlineStr"/>
+      <c r="G104" s="1" t="inlineStr"/>
+      <c r="H104" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I104" s="17" t="inlineStr">
+      <c r="I104" s="1" t="inlineStr">
         <is>
           <t>882</t>
         </is>
       </c>
-      <c r="J104" s="17" t="inlineStr"/>
-      <c r="K104" s="22" t="inlineStr">
+      <c r="J104" s="1" t="inlineStr"/>
+      <c r="K104" s="8" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="L104" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L104" s="1" t="inlineStr"/>
     </row>
     <row r="105">
-      <c r="A105" s="17" t="inlineStr">
-        <is>
-          <t>M051</t>
-        </is>
-      </c>
-      <c r="B105" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 200000.00
-Borrower Amount: 200000.00</t>
-        </is>
-      </c>
-      <c r="C105" s="17" t="inlineStr"/>
-      <c r="D105" s="17" t="inlineStr"/>
-      <c r="E105" s="23" t="inlineStr">
+      <c r="A105" s="1" t="inlineStr"/>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block
+2. No interunit account found in File 2 block
+3. No interunit account found in File 2 block
+4. No interunit account found in File 2 block
+5. No interunit account found in File 2 block</t>
+        </is>
+      </c>
+      <c r="C105" s="1" t="inlineStr"/>
+      <c r="D105" s="1" t="inlineStr"/>
+      <c r="E105" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to United Traders. Supply of , Invoice Number:  523, Challan Number: 1137, Work Order Number: MCE/PO/2025/2/32380, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-02-20, Goods Received Date: 2025-03-04, Work Order Value: 733200.0, Total Bill Amount: 200000.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F105" s="17" t="inlineStr"/>
-      <c r="G105" s="17" t="inlineStr"/>
-      <c r="H105" s="17" t="inlineStr"/>
-      <c r="I105" s="17" t="inlineStr"/>
-      <c r="J105" s="17" t="inlineStr"/>
-      <c r="K105" s="17" t="inlineStr"/>
-      <c r="L105" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F105" s="1" t="inlineStr"/>
+      <c r="G105" s="1" t="inlineStr"/>
+      <c r="H105" s="1" t="inlineStr"/>
+      <c r="I105" s="1" t="inlineStr"/>
+      <c r="J105" s="1" t="inlineStr"/>
+      <c r="K105" s="1" t="inlineStr"/>
+      <c r="L105" s="1" t="inlineStr"/>
     </row>
     <row r="106">
-      <c r="A106" s="17" t="inlineStr">
-        <is>
-          <t>M051</t>
-        </is>
-      </c>
-      <c r="B106" s="18" t="inlineStr"/>
-      <c r="C106" s="17" t="inlineStr"/>
-      <c r="D106" s="17" t="inlineStr">
+      <c r="A106" s="1" t="inlineStr"/>
+      <c r="B106" s="2" t="inlineStr"/>
+      <c r="C106" s="1" t="inlineStr"/>
+      <c r="D106" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E106" s="24" t="inlineStr">
+      <c r="E106" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F106" s="17" t="inlineStr"/>
-      <c r="G106" s="17" t="inlineStr"/>
-      <c r="H106" s="17" t="inlineStr"/>
-      <c r="I106" s="17" t="inlineStr"/>
-      <c r="J106" s="17" t="inlineStr"/>
-      <c r="K106" s="17" t="inlineStr"/>
-      <c r="L106" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F106" s="1" t="inlineStr"/>
+      <c r="G106" s="1" t="inlineStr"/>
+      <c r="H106" s="1" t="inlineStr"/>
+      <c r="I106" s="1" t="inlineStr"/>
+      <c r="J106" s="1" t="inlineStr"/>
+      <c r="K106" s="1" t="inlineStr"/>
+      <c r="L106" s="1" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr"/>
@@ -4211,7 +3663,7 @@
       </c>
       <c r="F107" s="1" t="inlineStr"/>
       <c r="G107" s="1" t="inlineStr"/>
-      <c r="H107" s="25" t="inlineStr">
+      <c r="H107" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
@@ -4240,7 +3692,7 @@
       </c>
       <c r="C108" s="1" t="inlineStr"/>
       <c r="D108" s="1" t="inlineStr"/>
-      <c r="E108" s="26" t="inlineStr">
+      <c r="E108" s="10" t="inlineStr">
         <is>
           <t>Amount paid against Monthly Mobile bill for the month of May-2025. (MBD-7th Floor).</t>
         </is>
@@ -4262,7 +3714,7 @@
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E109" s="27" t="inlineStr">
+      <c r="E109" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
@@ -4276,432 +3728,389 @@
       <c r="L109" s="1" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" s="9" t="inlineStr">
-        <is>
-          <t>M052</t>
-        </is>
-      </c>
-      <c r="B110" s="10" t="inlineStr"/>
-      <c r="C110" s="11" t="inlineStr">
+      <c r="A110" s="1" t="inlineStr"/>
+      <c r="B110" s="2" t="inlineStr"/>
+      <c r="C110" s="6" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D110" s="9" t="inlineStr">
+      <c r="D110" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E110" s="12" t="inlineStr">
+      <c r="E110" s="7" t="inlineStr">
         <is>
           <t>AP-A.B.M Anas Engineering</t>
         </is>
       </c>
-      <c r="F110" s="9" t="inlineStr"/>
-      <c r="G110" s="9" t="inlineStr"/>
-      <c r="H110" s="13" t="inlineStr">
+      <c r="F110" s="1" t="inlineStr"/>
+      <c r="G110" s="1" t="inlineStr"/>
+      <c r="H110" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I110" s="9" t="inlineStr">
+      <c r="I110" s="1" t="inlineStr">
         <is>
           <t>885</t>
         </is>
       </c>
-      <c r="J110" s="9" t="inlineStr"/>
-      <c r="K110" s="14" t="inlineStr">
+      <c r="J110" s="1" t="inlineStr"/>
+      <c r="K110" s="8" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="L110" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L110" s="1" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" s="9" t="inlineStr">
-        <is>
-          <t>M052</t>
-        </is>
-      </c>
-      <c r="B111" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 200000.00
-Borrower Amount: 200000.00</t>
-        </is>
-      </c>
-      <c r="C111" s="9" t="inlineStr"/>
-      <c r="D111" s="9" t="inlineStr"/>
-      <c r="E111" s="15" t="inlineStr">
+      <c r="A111" s="1" t="inlineStr"/>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block
+2. No interunit account found in File 2 block
+3. No interunit account found in File 2 block
+4. No interunit account found in File 2 block
+5. No interunit account found in File 2 block</t>
+        </is>
+      </c>
+      <c r="C111" s="1" t="inlineStr"/>
+      <c r="D111" s="1" t="inlineStr"/>
+      <c r="E111" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to ABM Anas Engineering. Supply of , Invoice Number:  25-03, Challan Number: 100,026, Work Order Number: MCE/PO/2025/2/32359, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-02-19, Goods Received Date: 2025-03-12, Work Order Value: 5404000.0, Total Bill Amount: 200000.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F111" s="9" t="inlineStr"/>
-      <c r="G111" s="9" t="inlineStr"/>
-      <c r="H111" s="9" t="inlineStr"/>
-      <c r="I111" s="9" t="inlineStr"/>
-      <c r="J111" s="9" t="inlineStr"/>
-      <c r="K111" s="9" t="inlineStr"/>
-      <c r="L111" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F111" s="1" t="inlineStr"/>
+      <c r="G111" s="1" t="inlineStr"/>
+      <c r="H111" s="1" t="inlineStr"/>
+      <c r="I111" s="1" t="inlineStr"/>
+      <c r="J111" s="1" t="inlineStr"/>
+      <c r="K111" s="1" t="inlineStr"/>
+      <c r="L111" s="1" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" s="9" t="inlineStr">
-        <is>
-          <t>M052</t>
-        </is>
-      </c>
-      <c r="B112" s="10" t="inlineStr"/>
-      <c r="C112" s="9" t="inlineStr"/>
-      <c r="D112" s="9" t="inlineStr">
+      <c r="A112" s="1" t="inlineStr"/>
+      <c r="B112" s="2" t="inlineStr"/>
+      <c r="C112" s="1" t="inlineStr"/>
+      <c r="D112" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E112" s="16" t="inlineStr">
+      <c r="E112" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F112" s="9" t="inlineStr"/>
-      <c r="G112" s="9" t="inlineStr"/>
-      <c r="H112" s="9" t="inlineStr"/>
-      <c r="I112" s="9" t="inlineStr"/>
-      <c r="J112" s="9" t="inlineStr"/>
-      <c r="K112" s="9" t="inlineStr"/>
-      <c r="L112" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F112" s="1" t="inlineStr"/>
+      <c r="G112" s="1" t="inlineStr"/>
+      <c r="H112" s="1" t="inlineStr"/>
+      <c r="I112" s="1" t="inlineStr"/>
+      <c r="J112" s="1" t="inlineStr"/>
+      <c r="K112" s="1" t="inlineStr"/>
+      <c r="L112" s="1" t="inlineStr"/>
     </row>
     <row r="113">
-      <c r="A113" s="17" t="inlineStr">
-        <is>
-          <t>M053</t>
-        </is>
-      </c>
-      <c r="B113" s="18" t="inlineStr"/>
-      <c r="C113" s="19" t="inlineStr">
+      <c r="A113" s="1" t="inlineStr"/>
+      <c r="B113" s="2" t="inlineStr"/>
+      <c r="C113" s="6" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D113" s="17" t="inlineStr">
+      <c r="D113" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E113" s="20" t="inlineStr">
+      <c r="E113" s="7" t="inlineStr">
         <is>
           <t>AP-A.B.M Anas Engineering</t>
         </is>
       </c>
-      <c r="F113" s="17" t="inlineStr"/>
-      <c r="G113" s="17" t="inlineStr"/>
-      <c r="H113" s="21" t="inlineStr">
+      <c r="F113" s="1" t="inlineStr"/>
+      <c r="G113" s="1" t="inlineStr"/>
+      <c r="H113" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I113" s="17" t="inlineStr">
+      <c r="I113" s="1" t="inlineStr">
         <is>
           <t>886</t>
         </is>
       </c>
-      <c r="J113" s="17" t="inlineStr"/>
-      <c r="K113" s="22" t="inlineStr">
+      <c r="J113" s="1" t="inlineStr"/>
+      <c r="K113" s="8" t="inlineStr">
         <is>
           <t>36900</t>
         </is>
       </c>
-      <c r="L113" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L113" s="1" t="inlineStr"/>
     </row>
     <row r="114">
-      <c r="A114" s="17" t="inlineStr">
-        <is>
-          <t>M053</t>
-        </is>
-      </c>
-      <c r="B114" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 36900.00
-Borrower Amount: 36900.00</t>
-        </is>
-      </c>
-      <c r="C114" s="17" t="inlineStr"/>
-      <c r="D114" s="17" t="inlineStr"/>
-      <c r="E114" s="23" t="inlineStr">
+      <c r="A114" s="1" t="inlineStr"/>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block
+2. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
+        </is>
+      </c>
+      <c r="C114" s="1" t="inlineStr"/>
+      <c r="D114" s="1" t="inlineStr"/>
+      <c r="E114" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to ABM Anas Engineering. Supply of , Invoice Number:  25-04, Challan Number: 027, Work Order Number: 271/PO/2025/3/32677, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-03-11, Goods Received Date: 2025-04-06, Work Order Value: 36900.0, Total Bill Amount: 36900.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F114" s="17" t="inlineStr"/>
-      <c r="G114" s="17" t="inlineStr"/>
-      <c r="H114" s="17" t="inlineStr"/>
-      <c r="I114" s="17" t="inlineStr"/>
-      <c r="J114" s="17" t="inlineStr"/>
-      <c r="K114" s="17" t="inlineStr"/>
-      <c r="L114" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F114" s="1" t="inlineStr"/>
+      <c r="G114" s="1" t="inlineStr"/>
+      <c r="H114" s="1" t="inlineStr"/>
+      <c r="I114" s="1" t="inlineStr"/>
+      <c r="J114" s="1" t="inlineStr"/>
+      <c r="K114" s="1" t="inlineStr"/>
+      <c r="L114" s="1" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" s="17" t="inlineStr">
-        <is>
-          <t>M053</t>
-        </is>
-      </c>
-      <c r="B115" s="18" t="inlineStr"/>
-      <c r="C115" s="17" t="inlineStr"/>
-      <c r="D115" s="17" t="inlineStr">
+      <c r="A115" s="1" t="inlineStr"/>
+      <c r="B115" s="2" t="inlineStr"/>
+      <c r="C115" s="1" t="inlineStr"/>
+      <c r="D115" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E115" s="24" t="inlineStr">
+      <c r="E115" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F115" s="17" t="inlineStr"/>
-      <c r="G115" s="17" t="inlineStr"/>
-      <c r="H115" s="17" t="inlineStr"/>
-      <c r="I115" s="17" t="inlineStr"/>
-      <c r="J115" s="17" t="inlineStr"/>
-      <c r="K115" s="17" t="inlineStr"/>
-      <c r="L115" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F115" s="1" t="inlineStr"/>
+      <c r="G115" s="1" t="inlineStr"/>
+      <c r="H115" s="1" t="inlineStr"/>
+      <c r="I115" s="1" t="inlineStr"/>
+      <c r="J115" s="1" t="inlineStr"/>
+      <c r="K115" s="1" t="inlineStr"/>
+      <c r="L115" s="1" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" s="9" t="inlineStr">
-        <is>
-          <t>M018</t>
-        </is>
-      </c>
-      <c r="B116" s="10" t="inlineStr"/>
-      <c r="C116" s="11" t="inlineStr">
+      <c r="A116" s="12" t="inlineStr">
+        <is>
+          <t>M011</t>
+        </is>
+      </c>
+      <c r="B116" s="13" t="inlineStr"/>
+      <c r="C116" s="14" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D116" s="9" t="inlineStr">
+      <c r="D116" s="12" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E116" s="12" t="inlineStr">
+      <c r="E116" s="15" t="inlineStr">
         <is>
           <t>Midland Bank Ltd-CE-0011-1060000313</t>
         </is>
       </c>
-      <c r="F116" s="9" t="inlineStr"/>
-      <c r="G116" s="9" t="inlineStr"/>
-      <c r="H116" s="13" t="inlineStr">
+      <c r="F116" s="12" t="inlineStr"/>
+      <c r="G116" s="12" t="inlineStr"/>
+      <c r="H116" s="16" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I116" s="9" t="inlineStr">
+      <c r="I116" s="12" t="inlineStr">
         <is>
           <t>18149</t>
         </is>
       </c>
-      <c r="J116" s="14" t="inlineStr">
+      <c r="J116" s="17" t="inlineStr">
         <is>
           <t>12000000</t>
         </is>
       </c>
-      <c r="K116" s="9" t="inlineStr"/>
-      <c r="L116" s="9" t="inlineStr">
+      <c r="K116" s="12" t="inlineStr"/>
+      <c r="L116" s="12" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="9" t="inlineStr">
-        <is>
-          <t>M018</t>
-        </is>
-      </c>
-      <c r="B117" s="10" t="inlineStr">
+      <c r="A117" s="12" t="inlineStr">
+        <is>
+          <t>M011</t>
+        </is>
+      </c>
+      <c r="B117" s="13" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0313
 Lender Amount: 12000000.00
 Borrower Amount: 12000000.00</t>
         </is>
       </c>
-      <c r="C117" s="9" t="inlineStr"/>
-      <c r="D117" s="9" t="inlineStr"/>
-      <c r="E117" s="15" t="inlineStr">
+      <c r="C117" s="12" t="inlineStr"/>
+      <c r="D117" s="12" t="inlineStr"/>
+      <c r="E117" s="18" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Interunit Loan A/C-Steel Unit, DBL#1833</t>
         </is>
       </c>
-      <c r="F117" s="9" t="inlineStr"/>
-      <c r="G117" s="9" t="inlineStr"/>
-      <c r="H117" s="9" t="inlineStr"/>
-      <c r="I117" s="9" t="inlineStr"/>
-      <c r="J117" s="9" t="inlineStr"/>
-      <c r="K117" s="9" t="inlineStr"/>
-      <c r="L117" s="9" t="inlineStr">
+      <c r="F117" s="12" t="inlineStr"/>
+      <c r="G117" s="12" t="inlineStr"/>
+      <c r="H117" s="12" t="inlineStr"/>
+      <c r="I117" s="12" t="inlineStr"/>
+      <c r="J117" s="12" t="inlineStr"/>
+      <c r="K117" s="12" t="inlineStr"/>
+      <c r="L117" s="12" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="9" t="inlineStr">
-        <is>
-          <t>M018</t>
-        </is>
-      </c>
-      <c r="B118" s="10" t="inlineStr"/>
-      <c r="C118" s="9" t="inlineStr"/>
-      <c r="D118" s="9" t="inlineStr">
+      <c r="A118" s="12" t="inlineStr">
+        <is>
+          <t>M011</t>
+        </is>
+      </c>
+      <c r="B118" s="13" t="inlineStr"/>
+      <c r="C118" s="12" t="inlineStr"/>
+      <c r="D118" s="12" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E118" s="16" t="inlineStr">
+      <c r="E118" s="19" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F118" s="9" t="inlineStr"/>
-      <c r="G118" s="9" t="inlineStr"/>
-      <c r="H118" s="9" t="inlineStr"/>
-      <c r="I118" s="9" t="inlineStr"/>
-      <c r="J118" s="9" t="inlineStr"/>
-      <c r="K118" s="9" t="inlineStr"/>
-      <c r="L118" s="9" t="inlineStr">
+      <c r="F118" s="12" t="inlineStr"/>
+      <c r="G118" s="12" t="inlineStr"/>
+      <c r="H118" s="12" t="inlineStr"/>
+      <c r="I118" s="12" t="inlineStr"/>
+      <c r="J118" s="12" t="inlineStr"/>
+      <c r="K118" s="12" t="inlineStr"/>
+      <c r="L118" s="12" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="17" t="inlineStr">
-        <is>
-          <t>M019</t>
-        </is>
-      </c>
-      <c r="B119" s="18" t="inlineStr"/>
-      <c r="C119" s="19" t="inlineStr">
+      <c r="A119" s="20" t="inlineStr">
+        <is>
+          <t>M012</t>
+        </is>
+      </c>
+      <c r="B119" s="21" t="inlineStr"/>
+      <c r="C119" s="22" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D119" s="17" t="inlineStr">
+      <c r="D119" s="20" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E119" s="20" t="inlineStr">
+      <c r="E119" s="23" t="inlineStr">
         <is>
           <t>Midland Bank Ltd-CE-0011-1060000313</t>
         </is>
       </c>
-      <c r="F119" s="17" t="inlineStr"/>
-      <c r="G119" s="17" t="inlineStr"/>
-      <c r="H119" s="21" t="inlineStr">
+      <c r="F119" s="20" t="inlineStr"/>
+      <c r="G119" s="20" t="inlineStr"/>
+      <c r="H119" s="24" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I119" s="17" t="inlineStr">
+      <c r="I119" s="20" t="inlineStr">
         <is>
           <t>18150</t>
         </is>
       </c>
-      <c r="J119" s="22" t="inlineStr">
+      <c r="J119" s="25" t="inlineStr">
         <is>
           <t>22000000</t>
         </is>
       </c>
-      <c r="K119" s="17" t="inlineStr"/>
-      <c r="L119" s="17" t="inlineStr">
+      <c r="K119" s="20" t="inlineStr"/>
+      <c r="L119" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="17" t="inlineStr">
-        <is>
-          <t>M019</t>
-        </is>
-      </c>
-      <c r="B120" s="18" t="inlineStr">
+      <c r="A120" s="20" t="inlineStr">
+        <is>
+          <t>M012</t>
+        </is>
+      </c>
+      <c r="B120" s="21" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0313
 Lender Amount: 22000000.00
 Borrower Amount: 22000000.00</t>
         </is>
       </c>
-      <c r="C120" s="17" t="inlineStr"/>
-      <c r="D120" s="17" t="inlineStr"/>
-      <c r="E120" s="23" t="inlineStr">
+      <c r="C120" s="20" t="inlineStr"/>
+      <c r="D120" s="20" t="inlineStr"/>
+      <c r="E120" s="26" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Interunit Loan A/C-Steel Unit, MDB#0331</t>
         </is>
       </c>
-      <c r="F120" s="17" t="inlineStr"/>
-      <c r="G120" s="17" t="inlineStr"/>
-      <c r="H120" s="17" t="inlineStr"/>
-      <c r="I120" s="17" t="inlineStr"/>
-      <c r="J120" s="17" t="inlineStr"/>
-      <c r="K120" s="17" t="inlineStr"/>
-      <c r="L120" s="17" t="inlineStr">
+      <c r="F120" s="20" t="inlineStr"/>
+      <c r="G120" s="20" t="inlineStr"/>
+      <c r="H120" s="20" t="inlineStr"/>
+      <c r="I120" s="20" t="inlineStr"/>
+      <c r="J120" s="20" t="inlineStr"/>
+      <c r="K120" s="20" t="inlineStr"/>
+      <c r="L120" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="17" t="inlineStr">
-        <is>
-          <t>M019</t>
-        </is>
-      </c>
-      <c r="B121" s="18" t="inlineStr"/>
-      <c r="C121" s="17" t="inlineStr"/>
-      <c r="D121" s="17" t="inlineStr">
+      <c r="A121" s="20" t="inlineStr">
+        <is>
+          <t>M012</t>
+        </is>
+      </c>
+      <c r="B121" s="21" t="inlineStr"/>
+      <c r="C121" s="20" t="inlineStr"/>
+      <c r="D121" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E121" s="24" t="inlineStr">
+      <c r="E121" s="27" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F121" s="17" t="inlineStr"/>
-      <c r="G121" s="17" t="inlineStr"/>
-      <c r="H121" s="17" t="inlineStr"/>
-      <c r="I121" s="17" t="inlineStr"/>
-      <c r="J121" s="17" t="inlineStr"/>
-      <c r="K121" s="17" t="inlineStr"/>
-      <c r="L121" s="17" t="inlineStr">
+      <c r="F121" s="20" t="inlineStr"/>
+      <c r="G121" s="20" t="inlineStr"/>
+      <c r="H121" s="20" t="inlineStr"/>
+      <c r="I121" s="20" t="inlineStr"/>
+      <c r="J121" s="20" t="inlineStr"/>
+      <c r="K121" s="20" t="inlineStr"/>
+      <c r="L121" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
@@ -4727,7 +4136,7 @@
       </c>
       <c r="F122" s="1" t="inlineStr"/>
       <c r="G122" s="1" t="inlineStr"/>
-      <c r="H122" s="25" t="inlineStr">
+      <c r="H122" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
@@ -4756,7 +4165,7 @@
       </c>
       <c r="C123" s="1" t="inlineStr"/>
       <c r="D123" s="1" t="inlineStr"/>
-      <c r="E123" s="26" t="inlineStr">
+      <c r="E123" s="10" t="inlineStr">
         <is>
           <t>Amount paid to Pragati Life Insurance Limited against group insurance .Bill-00636 &amp; 00636-C Bill period: 01/03/25 to 28/02/26, Bill dt.27.03.25, Contract no.1748-02/2022</t>
         </is>
@@ -4778,7 +4187,7 @@
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E124" s="27" t="inlineStr">
+      <c r="E124" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
@@ -4811,7 +4220,7 @@
       </c>
       <c r="F125" s="1" t="inlineStr"/>
       <c r="G125" s="1" t="inlineStr"/>
-      <c r="H125" s="25" t="inlineStr">
+      <c r="H125" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
@@ -4840,7 +4249,7 @@
       </c>
       <c r="C126" s="1" t="inlineStr"/>
       <c r="D126" s="1" t="inlineStr"/>
-      <c r="E126" s="26" t="inlineStr">
+      <c r="E126" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to A.R.K Fire Fighting Manufacture Co.. Supply of , Invoice Number:  111, Challan Number: 111, Work Order Number: MCE/PO/2025/3/32798, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-03-19, Goods Received Date: 2025-03-25, Work Order Value: 11535.0, Total Bill Amount: 11535.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
@@ -4862,7 +4271,7 @@
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E127" s="27" t="inlineStr">
+      <c r="E127" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
@@ -4895,7 +4304,7 @@
       </c>
       <c r="F128" s="1" t="inlineStr"/>
       <c r="G128" s="1" t="inlineStr"/>
-      <c r="H128" s="25" t="inlineStr">
+      <c r="H128" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
@@ -4924,7 +4333,7 @@
       </c>
       <c r="C129" s="1" t="inlineStr"/>
       <c r="D129" s="1" t="inlineStr"/>
-      <c r="E129" s="26" t="inlineStr">
+      <c r="E129" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to Rangpur Metal Industries Limited. Supply of , Invoice Number:  Advanced/CIT/06, Challan Number: , Work Order Number: DES/PO/2025/2/31942, BA Team (A), Company Unit: Transformer, Project Name : DESCO 3-Phase Distribution Transformer (GD-5), Work Order date: 2025-02-05, Goods Received Date: , Work Order Value: 1.38E7, Total Bill Amount: 1380000.0, TDS Deduction Amount: 36000.00, VDS Deduction Amount: 0.0</t>
         </is>
@@ -4946,7 +4355,7 @@
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E130" s="27" t="inlineStr">
+      <c r="E130" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
@@ -4979,7 +4388,7 @@
       </c>
       <c r="F131" s="1" t="inlineStr"/>
       <c r="G131" s="1" t="inlineStr"/>
-      <c r="H131" s="25" t="inlineStr">
+      <c r="H131" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
@@ -5008,7 +4417,7 @@
       </c>
       <c r="C132" s="1" t="inlineStr"/>
       <c r="D132" s="1" t="inlineStr"/>
-      <c r="E132" s="26" t="inlineStr">
+      <c r="E132" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to Rangpur Metal Industries Limited. Supply of , Invoice Number:  Advanced CIT 08, Challan Number: , Work Order Number: MCE/PO/2025/3/32583, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-03-02, Goods Received Date: , Work Order Value: 5.183E7, Total Bill Amount: 3550000.0, TDS Deduction Amount: 92609.00, VDS Deduction Amount: 0.0</t>
         </is>
@@ -5030,7 +4439,7 @@
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E133" s="27" t="inlineStr">
+      <c r="E133" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
@@ -5044,1512 +4453,1417 @@
       <c r="L133" s="1" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" s="9" t="inlineStr">
-        <is>
-          <t>M054</t>
-        </is>
-      </c>
-      <c r="B134" s="10" t="inlineStr"/>
-      <c r="C134" s="11" t="inlineStr">
+      <c r="A134" s="1" t="inlineStr"/>
+      <c r="B134" s="2" t="inlineStr"/>
+      <c r="C134" s="6" t="inlineStr">
         <is>
           <t>18/Jun/2025</t>
         </is>
       </c>
-      <c r="D134" s="9" t="inlineStr">
+      <c r="D134" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E134" s="12" t="inlineStr">
+      <c r="E134" s="7" t="inlineStr">
         <is>
           <t>AP-Sadharan Bima Corporation</t>
         </is>
       </c>
-      <c r="F134" s="9" t="inlineStr"/>
-      <c r="G134" s="9" t="inlineStr"/>
-      <c r="H134" s="13" t="inlineStr">
+      <c r="F134" s="1" t="inlineStr"/>
+      <c r="G134" s="1" t="inlineStr"/>
+      <c r="H134" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I134" s="9" t="inlineStr">
+      <c r="I134" s="1" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="J134" s="9" t="inlineStr"/>
-      <c r="K134" s="14" t="inlineStr">
+      <c r="J134" s="1" t="inlineStr"/>
+      <c r="K134" s="8" t="inlineStr">
         <is>
           <t>1531483</t>
         </is>
       </c>
-      <c r="L134" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L134" s="1" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" s="9" t="inlineStr">
-        <is>
-          <t>M054</t>
-        </is>
-      </c>
-      <c r="B135" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 1531483.00
-Borrower Amount: 1531483.00</t>
-        </is>
-      </c>
-      <c r="C135" s="9" t="inlineStr"/>
-      <c r="D135" s="9" t="inlineStr"/>
-      <c r="E135" s="15" t="inlineStr">
+      <c r="A135" s="1" t="inlineStr"/>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block
+2. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
+        </is>
+      </c>
+      <c r="C135" s="1" t="inlineStr"/>
+      <c r="D135" s="1" t="inlineStr"/>
+      <c r="E135" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to SADHARAN BIMA CORPORATION. Supply of , Invoice Number:  10March2025_Pur-110, Challan Number: , Work Order Number: 271/PO/2025/4/33396, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-04-29, Goods Received Date: , Work Order Value: 1531483.0, Total Bill Amount: 1531483.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F135" s="9" t="inlineStr"/>
-      <c r="G135" s="9" t="inlineStr"/>
-      <c r="H135" s="9" t="inlineStr"/>
-      <c r="I135" s="9" t="inlineStr"/>
-      <c r="J135" s="9" t="inlineStr"/>
-      <c r="K135" s="9" t="inlineStr"/>
-      <c r="L135" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F135" s="1" t="inlineStr"/>
+      <c r="G135" s="1" t="inlineStr"/>
+      <c r="H135" s="1" t="inlineStr"/>
+      <c r="I135" s="1" t="inlineStr"/>
+      <c r="J135" s="1" t="inlineStr"/>
+      <c r="K135" s="1" t="inlineStr"/>
+      <c r="L135" s="1" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" s="9" t="inlineStr">
-        <is>
-          <t>M054</t>
-        </is>
-      </c>
-      <c r="B136" s="10" t="inlineStr"/>
-      <c r="C136" s="9" t="inlineStr"/>
-      <c r="D136" s="9" t="inlineStr">
+      <c r="A136" s="1" t="inlineStr"/>
+      <c r="B136" s="2" t="inlineStr"/>
+      <c r="C136" s="1" t="inlineStr"/>
+      <c r="D136" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E136" s="16" t="inlineStr">
+      <c r="E136" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F136" s="9" t="inlineStr"/>
-      <c r="G136" s="9" t="inlineStr"/>
-      <c r="H136" s="9" t="inlineStr"/>
-      <c r="I136" s="9" t="inlineStr"/>
-      <c r="J136" s="9" t="inlineStr"/>
-      <c r="K136" s="9" t="inlineStr"/>
-      <c r="L136" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F136" s="1" t="inlineStr"/>
+      <c r="G136" s="1" t="inlineStr"/>
+      <c r="H136" s="1" t="inlineStr"/>
+      <c r="I136" s="1" t="inlineStr"/>
+      <c r="J136" s="1" t="inlineStr"/>
+      <c r="K136" s="1" t="inlineStr"/>
+      <c r="L136" s="1" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" s="17" t="inlineStr">
-        <is>
-          <t>M055</t>
-        </is>
-      </c>
-      <c r="B137" s="18" t="inlineStr"/>
-      <c r="C137" s="19" t="inlineStr">
+      <c r="A137" s="1" t="inlineStr"/>
+      <c r="B137" s="2" t="inlineStr"/>
+      <c r="C137" s="6" t="inlineStr">
         <is>
           <t>18/Jun/2025</t>
         </is>
       </c>
-      <c r="D137" s="17" t="inlineStr">
+      <c r="D137" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E137" s="20" t="inlineStr">
+      <c r="E137" s="7" t="inlineStr">
         <is>
           <t>AP-Narayanganj Palli Biddyut Samity-1</t>
         </is>
       </c>
-      <c r="F137" s="17" t="inlineStr"/>
-      <c r="G137" s="17" t="inlineStr"/>
-      <c r="H137" s="21" t="inlineStr">
+      <c r="F137" s="1" t="inlineStr"/>
+      <c r="G137" s="1" t="inlineStr"/>
+      <c r="H137" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I137" s="17" t="inlineStr">
+      <c r="I137" s="1" t="inlineStr">
         <is>
           <t>897</t>
         </is>
       </c>
-      <c r="J137" s="17" t="inlineStr"/>
-      <c r="K137" s="22" t="inlineStr">
+      <c r="J137" s="1" t="inlineStr"/>
+      <c r="K137" s="8" t="inlineStr">
         <is>
           <t>589625</t>
         </is>
       </c>
-      <c r="L137" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L137" s="1" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" s="17" t="inlineStr">
-        <is>
-          <t>M055</t>
-        </is>
-      </c>
-      <c r="B138" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 589625.00
-Borrower Amount: 589625.00</t>
-        </is>
-      </c>
-      <c r="C138" s="17" t="inlineStr"/>
-      <c r="D138" s="17" t="inlineStr"/>
-      <c r="E138" s="23" t="inlineStr">
+      <c r="A138" s="1" t="inlineStr"/>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block</t>
+        </is>
+      </c>
+      <c r="C138" s="1" t="inlineStr"/>
+      <c r="D138" s="1" t="inlineStr"/>
+      <c r="E138" s="10" t="inlineStr">
         <is>
           <t>Amount Paid to Narayanganj Palli Bidduyat Samity-1 for Electricty bill for the month of May-2025. Bill no.107001161221000525 Metar no-09000316</t>
         </is>
       </c>
-      <c r="F138" s="17" t="inlineStr"/>
-      <c r="G138" s="17" t="inlineStr"/>
-      <c r="H138" s="17" t="inlineStr"/>
-      <c r="I138" s="17" t="inlineStr"/>
-      <c r="J138" s="17" t="inlineStr"/>
-      <c r="K138" s="17" t="inlineStr"/>
-      <c r="L138" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F138" s="1" t="inlineStr"/>
+      <c r="G138" s="1" t="inlineStr"/>
+      <c r="H138" s="1" t="inlineStr"/>
+      <c r="I138" s="1" t="inlineStr"/>
+      <c r="J138" s="1" t="inlineStr"/>
+      <c r="K138" s="1" t="inlineStr"/>
+      <c r="L138" s="1" t="inlineStr"/>
     </row>
     <row r="139">
-      <c r="A139" s="17" t="inlineStr">
-        <is>
-          <t>M055</t>
-        </is>
-      </c>
-      <c r="B139" s="18" t="inlineStr"/>
-      <c r="C139" s="17" t="inlineStr"/>
-      <c r="D139" s="17" t="inlineStr">
+      <c r="A139" s="1" t="inlineStr"/>
+      <c r="B139" s="2" t="inlineStr"/>
+      <c r="C139" s="1" t="inlineStr"/>
+      <c r="D139" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E139" s="24" t="inlineStr">
+      <c r="E139" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F139" s="17" t="inlineStr"/>
-      <c r="G139" s="17" t="inlineStr"/>
-      <c r="H139" s="17" t="inlineStr"/>
-      <c r="I139" s="17" t="inlineStr"/>
-      <c r="J139" s="17" t="inlineStr"/>
-      <c r="K139" s="17" t="inlineStr"/>
-      <c r="L139" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F139" s="1" t="inlineStr"/>
+      <c r="G139" s="1" t="inlineStr"/>
+      <c r="H139" s="1" t="inlineStr"/>
+      <c r="I139" s="1" t="inlineStr"/>
+      <c r="J139" s="1" t="inlineStr"/>
+      <c r="K139" s="1" t="inlineStr"/>
+      <c r="L139" s="1" t="inlineStr"/>
     </row>
     <row r="140">
-      <c r="A140" s="9" t="inlineStr">
+      <c r="A140" s="12" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B140" s="13" t="inlineStr"/>
+      <c r="C140" s="14" t="inlineStr">
+        <is>
+          <t>21/Jun/2025</t>
+        </is>
+      </c>
+      <c r="D140" s="12" t="inlineStr">
+        <is>
+          <t>Dr</t>
+        </is>
+      </c>
+      <c r="E140" s="15" t="inlineStr">
+        <is>
+          <t>AP-Odoo Bangladesh</t>
+        </is>
+      </c>
+      <c r="F140" s="12" t="inlineStr"/>
+      <c r="G140" s="12" t="inlineStr"/>
+      <c r="H140" s="16" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="I140" s="12" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="J140" s="12" t="inlineStr"/>
+      <c r="K140" s="17" t="inlineStr">
+        <is>
+          <t>200000</t>
+        </is>
+      </c>
+      <c r="L140" s="12" t="inlineStr">
+        <is>
+          <t>Narration</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="12" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B141" s="13" t="inlineStr">
+        <is>
+          <t>Narration Match
+Lender Amount: 0.00
+Borrower Amount: 0.00</t>
+        </is>
+      </c>
+      <c r="C141" s="12" t="inlineStr"/>
+      <c r="D141" s="12" t="inlineStr"/>
+      <c r="E141" s="18" t="inlineStr">
+        <is>
+          <t>Advance Chq no-8163057.  paid to Odoo Bangladesh agt ERP Emplemention. Ref no-IT/2014/11/008. from CIL Steel unit but 50% bill Tk.2,00,000 recorded in CIL-Trancformer and CIL-Pole Tk.2,00,000 So, Now made voucher as interunit loan.</t>
+        </is>
+      </c>
+      <c r="F141" s="12" t="inlineStr"/>
+      <c r="G141" s="12" t="inlineStr"/>
+      <c r="H141" s="12" t="inlineStr"/>
+      <c r="I141" s="12" t="inlineStr"/>
+      <c r="J141" s="12" t="inlineStr"/>
+      <c r="K141" s="12" t="inlineStr"/>
+      <c r="L141" s="12" t="inlineStr">
+        <is>
+          <t>Narration</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="12" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B142" s="13" t="inlineStr"/>
+      <c r="C142" s="12" t="inlineStr"/>
+      <c r="D142" s="12" t="inlineStr">
+        <is>
+          <t>Entered By :</t>
+        </is>
+      </c>
+      <c r="E142" s="19" t="inlineStr">
+        <is>
+          <t>ziaul</t>
+        </is>
+      </c>
+      <c r="F142" s="12" t="inlineStr"/>
+      <c r="G142" s="12" t="inlineStr"/>
+      <c r="H142" s="12" t="inlineStr"/>
+      <c r="I142" s="12" t="inlineStr"/>
+      <c r="J142" s="12" t="inlineStr"/>
+      <c r="K142" s="12" t="inlineStr"/>
+      <c r="L142" s="12" t="inlineStr">
+        <is>
+          <t>Narration</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="20" t="inlineStr">
         <is>
           <t>M005</t>
         </is>
       </c>
-      <c r="B140" s="10" t="inlineStr"/>
-      <c r="C140" s="11" t="inlineStr">
-        <is>
-          <t>21/Jun/2025</t>
-        </is>
-      </c>
-      <c r="D140" s="9" t="inlineStr">
+      <c r="B143" s="21" t="inlineStr"/>
+      <c r="C143" s="22" t="inlineStr">
+        <is>
+          <t>23/Jun/2025</t>
+        </is>
+      </c>
+      <c r="D143" s="20" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E140" s="12" t="inlineStr">
-        <is>
-          <t>AP-Odoo Bangladesh</t>
-        </is>
-      </c>
-      <c r="F140" s="9" t="inlineStr"/>
-      <c r="G140" s="9" t="inlineStr"/>
-      <c r="H140" s="13" t="inlineStr">
+      <c r="E143" s="23" t="inlineStr">
+        <is>
+          <t>GULC#308524012043/24-Tap Changer &amp; AVR</t>
+        </is>
+      </c>
+      <c r="F143" s="20" t="inlineStr"/>
+      <c r="G143" s="20" t="inlineStr"/>
+      <c r="H143" s="24" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I140" s="9" t="inlineStr">
-        <is>
-          <t>898</t>
-        </is>
-      </c>
-      <c r="J140" s="9" t="inlineStr"/>
-      <c r="K140" s="14" t="inlineStr">
-        <is>
-          <t>200000</t>
-        </is>
-      </c>
-      <c r="L140" s="9" t="inlineStr">
+      <c r="I143" s="20" t="inlineStr">
+        <is>
+          <t>901</t>
+        </is>
+      </c>
+      <c r="J143" s="20" t="inlineStr"/>
+      <c r="K143" s="25" t="inlineStr">
+        <is>
+          <t>85000</t>
+        </is>
+      </c>
+      <c r="L143" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="9" t="inlineStr">
+    <row r="144">
+      <c r="A144" s="20" t="inlineStr">
         <is>
           <t>M005</t>
         </is>
       </c>
-      <c r="B141" s="10" t="inlineStr">
-        <is>
-          <t>Narration Match
-Lender Amount: 200000.00
-Borrower Amount: 200000.00</t>
-        </is>
-      </c>
-      <c r="C141" s="9" t="inlineStr"/>
-      <c r="D141" s="9" t="inlineStr"/>
-      <c r="E141" s="15" t="inlineStr">
-        <is>
-          <t>Advance Chq no-8163057.  paid to Odoo Bangladesh agt ERP Emplemention. Ref no-IT/2014/11/008. from CIL Steel unit but 50% bill Tk.2,00,000 recorded in CIL-Trancformer and CIL-Pole Tk.2,00,000 So, Now made voucher as interunit loan.</t>
-        </is>
-      </c>
-      <c r="F141" s="9" t="inlineStr"/>
-      <c r="G141" s="9" t="inlineStr"/>
-      <c r="H141" s="9" t="inlineStr"/>
-      <c r="I141" s="9" t="inlineStr"/>
-      <c r="J141" s="9" t="inlineStr"/>
-      <c r="K141" s="9" t="inlineStr"/>
-      <c r="L141" s="9" t="inlineStr">
-        <is>
-          <t>Narration</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="9" t="inlineStr">
-        <is>
-          <t>M005</t>
-        </is>
-      </c>
-      <c r="B142" s="10" t="inlineStr"/>
-      <c r="C142" s="9" t="inlineStr"/>
-      <c r="D142" s="9" t="inlineStr">
-        <is>
-          <t>Entered By :</t>
-        </is>
-      </c>
-      <c r="E142" s="16" t="inlineStr">
-        <is>
-          <t>ziaul</t>
-        </is>
-      </c>
-      <c r="F142" s="9" t="inlineStr"/>
-      <c r="G142" s="9" t="inlineStr"/>
-      <c r="H142" s="9" t="inlineStr"/>
-      <c r="I142" s="9" t="inlineStr"/>
-      <c r="J142" s="9" t="inlineStr"/>
-      <c r="K142" s="9" t="inlineStr"/>
-      <c r="L142" s="9" t="inlineStr">
-        <is>
-          <t>Narration</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="17" t="inlineStr">
-        <is>
-          <t>M007</t>
-        </is>
-      </c>
-      <c r="B143" s="18" t="inlineStr"/>
-      <c r="C143" s="19" t="inlineStr">
-        <is>
-          <t>23/Jun/2025</t>
-        </is>
-      </c>
-      <c r="D143" s="17" t="inlineStr">
-        <is>
-          <t>Dr</t>
-        </is>
-      </c>
-      <c r="E143" s="20" t="inlineStr">
-        <is>
-          <t>GULC#308524012043/24-Tap Changer &amp; AVR</t>
-        </is>
-      </c>
-      <c r="F143" s="17" t="inlineStr"/>
-      <c r="G143" s="17" t="inlineStr"/>
-      <c r="H143" s="21" t="inlineStr">
-        <is>
-          <t>Journal</t>
-        </is>
-      </c>
-      <c r="I143" s="17" t="inlineStr">
-        <is>
-          <t>901</t>
-        </is>
-      </c>
-      <c r="J143" s="17" t="inlineStr"/>
-      <c r="K143" s="22" t="inlineStr">
-        <is>
-          <t>85000</t>
-        </is>
-      </c>
-      <c r="L143" s="17" t="inlineStr">
-        <is>
-          <t>Narration</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="17" t="inlineStr">
-        <is>
-          <t>M007</t>
-        </is>
-      </c>
-      <c r="B144" s="18" t="inlineStr">
+      <c r="B144" s="21" t="inlineStr">
         <is>
           <t>LC Match: LC-308524012043/24
 Lender Amount: 85000.00
 Borrower Amount: 85000.00</t>
         </is>
       </c>
-      <c r="C144" s="17" t="inlineStr"/>
-      <c r="D144" s="17" t="inlineStr"/>
-      <c r="E144" s="23" t="inlineStr">
+      <c r="C144" s="20" t="inlineStr"/>
+      <c r="D144" s="20" t="inlineStr"/>
+      <c r="E144" s="26" t="inlineStr">
         <is>
           <t>Amount being paid as Port,Shipping &amp; Carrying Charges agt LC-308524012043/24-Transformer Unit-[Item-OLTC-Project-PBSH-G-89-Team-A][C-1164524]</t>
         </is>
       </c>
-      <c r="F144" s="17" t="inlineStr"/>
-      <c r="G144" s="17" t="inlineStr"/>
-      <c r="H144" s="17" t="inlineStr"/>
-      <c r="I144" s="17" t="inlineStr"/>
-      <c r="J144" s="17" t="inlineStr"/>
-      <c r="K144" s="17" t="inlineStr"/>
-      <c r="L144" s="17" t="inlineStr">
+      <c r="F144" s="20" t="inlineStr"/>
+      <c r="G144" s="20" t="inlineStr"/>
+      <c r="H144" s="20" t="inlineStr"/>
+      <c r="I144" s="20" t="inlineStr"/>
+      <c r="J144" s="20" t="inlineStr"/>
+      <c r="K144" s="20" t="inlineStr"/>
+      <c r="L144" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="17" t="inlineStr">
+      <c r="A145" s="20" t="inlineStr">
+        <is>
+          <t>M005</t>
+        </is>
+      </c>
+      <c r="B145" s="21" t="inlineStr"/>
+      <c r="C145" s="20" t="inlineStr"/>
+      <c r="D145" s="20" t="inlineStr">
+        <is>
+          <t>Entered By :</t>
+        </is>
+      </c>
+      <c r="E145" s="27" t="inlineStr">
+        <is>
+          <t>shabbirul</t>
+        </is>
+      </c>
+      <c r="F145" s="20" t="inlineStr"/>
+      <c r="G145" s="20" t="inlineStr"/>
+      <c r="H145" s="20" t="inlineStr"/>
+      <c r="I145" s="20" t="inlineStr"/>
+      <c r="J145" s="20" t="inlineStr"/>
+      <c r="K145" s="20" t="inlineStr"/>
+      <c r="L145" s="20" t="inlineStr">
+        <is>
+          <t>Narration</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="12" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="B146" s="13" t="inlineStr"/>
+      <c r="C146" s="14" t="inlineStr">
+        <is>
+          <t>23/Jun/2025</t>
+        </is>
+      </c>
+      <c r="D146" s="12" t="inlineStr">
+        <is>
+          <t>Dr</t>
+        </is>
+      </c>
+      <c r="E146" s="15" t="inlineStr">
+        <is>
+          <t>PBL-Time Loan-LD2432680080</t>
+        </is>
+      </c>
+      <c r="F146" s="12" t="inlineStr"/>
+      <c r="G146" s="12" t="inlineStr"/>
+      <c r="H146" s="16" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="I146" s="12" t="inlineStr">
+        <is>
+          <t>903</t>
+        </is>
+      </c>
+      <c r="J146" s="12" t="inlineStr"/>
+      <c r="K146" s="17" t="inlineStr">
+        <is>
+          <t>174172.7</t>
+        </is>
+      </c>
+      <c r="L146" s="12" t="inlineStr">
+        <is>
+          <t>Narration</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="12" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="B147" s="13" t="inlineStr">
+        <is>
+          <t>Narration Match
+Lender Amount: 0.00
+Borrower Amount: 0.00</t>
+        </is>
+      </c>
+      <c r="C147" s="12" t="inlineStr"/>
+      <c r="D147" s="12" t="inlineStr"/>
+      <c r="E147" s="18" t="inlineStr">
+        <is>
+          <t>Amount being paid as Principal &amp; Interest repayment of Time Loan-CIL Transformer-LD-2432680080</t>
+        </is>
+      </c>
+      <c r="F147" s="12" t="inlineStr"/>
+      <c r="G147" s="12" t="inlineStr"/>
+      <c r="H147" s="12" t="inlineStr"/>
+      <c r="I147" s="12" t="inlineStr"/>
+      <c r="J147" s="12" t="inlineStr"/>
+      <c r="K147" s="12" t="inlineStr"/>
+      <c r="L147" s="12" t="inlineStr">
+        <is>
+          <t>Narration</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="12" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="B148" s="13" t="inlineStr"/>
+      <c r="C148" s="12" t="inlineStr"/>
+      <c r="D148" s="12" t="inlineStr">
+        <is>
+          <t>Entered By :</t>
+        </is>
+      </c>
+      <c r="E148" s="19" t="inlineStr">
+        <is>
+          <t>shabbirul</t>
+        </is>
+      </c>
+      <c r="F148" s="12" t="inlineStr"/>
+      <c r="G148" s="12" t="inlineStr"/>
+      <c r="H148" s="12" t="inlineStr"/>
+      <c r="I148" s="12" t="inlineStr"/>
+      <c r="J148" s="12" t="inlineStr"/>
+      <c r="K148" s="12" t="inlineStr"/>
+      <c r="L148" s="12" t="inlineStr">
+        <is>
+          <t>Narration</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="20" t="inlineStr">
         <is>
           <t>M007</t>
         </is>
       </c>
-      <c r="B145" s="18" t="inlineStr"/>
-      <c r="C145" s="17" t="inlineStr"/>
-      <c r="D145" s="17" t="inlineStr">
+      <c r="B149" s="21" t="inlineStr"/>
+      <c r="C149" s="22" t="inlineStr">
+        <is>
+          <t>23/Jun/2025</t>
+        </is>
+      </c>
+      <c r="D149" s="20" t="inlineStr">
+        <is>
+          <t>Dr</t>
+        </is>
+      </c>
+      <c r="E149" s="23" t="inlineStr">
+        <is>
+          <t>PBL-Time Loan-LD2435445106</t>
+        </is>
+      </c>
+      <c r="F149" s="20" t="inlineStr"/>
+      <c r="G149" s="20" t="inlineStr"/>
+      <c r="H149" s="24" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="I149" s="20" t="inlineStr">
+        <is>
+          <t>904</t>
+        </is>
+      </c>
+      <c r="J149" s="20" t="inlineStr"/>
+      <c r="K149" s="25" t="inlineStr">
+        <is>
+          <t>272808.31</t>
+        </is>
+      </c>
+      <c r="L149" s="20" t="inlineStr">
+        <is>
+          <t>Narration</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="20" t="inlineStr">
+        <is>
+          <t>M007</t>
+        </is>
+      </c>
+      <c r="B150" s="21" t="inlineStr">
+        <is>
+          <t>Narration Match
+Lender Amount: 0.00
+Borrower Amount: 0.00</t>
+        </is>
+      </c>
+      <c r="C150" s="20" t="inlineStr"/>
+      <c r="D150" s="20" t="inlineStr"/>
+      <c r="E150" s="26" t="inlineStr">
+        <is>
+          <t>Amount being paid as Principal &amp; Interest Repayment of Time Loan of Transformer-LD-2435445106</t>
+        </is>
+      </c>
+      <c r="F150" s="20" t="inlineStr"/>
+      <c r="G150" s="20" t="inlineStr"/>
+      <c r="H150" s="20" t="inlineStr"/>
+      <c r="I150" s="20" t="inlineStr"/>
+      <c r="J150" s="20" t="inlineStr"/>
+      <c r="K150" s="20" t="inlineStr"/>
+      <c r="L150" s="20" t="inlineStr">
+        <is>
+          <t>Narration</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="20" t="inlineStr">
+        <is>
+          <t>M007</t>
+        </is>
+      </c>
+      <c r="B151" s="21" t="inlineStr"/>
+      <c r="C151" s="20" t="inlineStr"/>
+      <c r="D151" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E145" s="24" t="inlineStr">
+      <c r="E151" s="27" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F145" s="17" t="inlineStr"/>
-      <c r="G145" s="17" t="inlineStr"/>
-      <c r="H145" s="17" t="inlineStr"/>
-      <c r="I145" s="17" t="inlineStr"/>
-      <c r="J145" s="17" t="inlineStr"/>
-      <c r="K145" s="17" t="inlineStr"/>
-      <c r="L145" s="17" t="inlineStr">
+      <c r="F151" s="20" t="inlineStr"/>
+      <c r="G151" s="20" t="inlineStr"/>
+      <c r="H151" s="20" t="inlineStr"/>
+      <c r="I151" s="20" t="inlineStr"/>
+      <c r="J151" s="20" t="inlineStr"/>
+      <c r="K151" s="20" t="inlineStr"/>
+      <c r="L151" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="9" t="inlineStr">
-        <is>
-          <t>M013</t>
-        </is>
-      </c>
-      <c r="B146" s="10" t="inlineStr"/>
-      <c r="C146" s="11" t="inlineStr">
+    <row r="152">
+      <c r="A152" s="12" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B152" s="13" t="inlineStr"/>
+      <c r="C152" s="14" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D146" s="9" t="inlineStr">
+      <c r="D152" s="12" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E146" s="12" t="inlineStr">
-        <is>
-          <t>PBL-Time Loan-LD2432680080</t>
-        </is>
-      </c>
-      <c r="F146" s="9" t="inlineStr"/>
-      <c r="G146" s="9" t="inlineStr"/>
-      <c r="H146" s="13" t="inlineStr">
+      <c r="E152" s="15" t="inlineStr">
+        <is>
+          <t>PBL-Time Loan-LD2503002237</t>
+        </is>
+      </c>
+      <c r="F152" s="12" t="inlineStr"/>
+      <c r="G152" s="12" t="inlineStr"/>
+      <c r="H152" s="16" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I146" s="9" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="J146" s="9" t="inlineStr"/>
-      <c r="K146" s="14" t="inlineStr">
-        <is>
-          <t>174172.7</t>
-        </is>
-      </c>
-      <c r="L146" s="9" t="inlineStr">
+      <c r="I152" s="12" t="inlineStr">
+        <is>
+          <t>905</t>
+        </is>
+      </c>
+      <c r="J152" s="12" t="inlineStr"/>
+      <c r="K152" s="17" t="inlineStr">
+        <is>
+          <t>133619.23</t>
+        </is>
+      </c>
+      <c r="L152" s="12" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="9" t="inlineStr">
-        <is>
-          <t>M013</t>
-        </is>
-      </c>
-      <c r="B147" s="10" t="inlineStr">
+    <row r="153">
+      <c r="A153" s="12" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B153" s="13" t="inlineStr">
         <is>
           <t>Narration Match
-Lender Amount: 174172.70
-Borrower Amount: 174172.70</t>
-        </is>
-      </c>
-      <c r="C147" s="9" t="inlineStr"/>
-      <c r="D147" s="9" t="inlineStr"/>
-      <c r="E147" s="15" t="inlineStr">
-        <is>
-          <t>Amount being paid as Principal &amp; Interest repayment of Time Loan-CIL Transformer-LD-2432680080</t>
-        </is>
-      </c>
-      <c r="F147" s="9" t="inlineStr"/>
-      <c r="G147" s="9" t="inlineStr"/>
-      <c r="H147" s="9" t="inlineStr"/>
-      <c r="I147" s="9" t="inlineStr"/>
-      <c r="J147" s="9" t="inlineStr"/>
-      <c r="K147" s="9" t="inlineStr"/>
-      <c r="L147" s="9" t="inlineStr">
+Lender Amount: 0.00
+Borrower Amount: 0.00</t>
+        </is>
+      </c>
+      <c r="C153" s="12" t="inlineStr"/>
+      <c r="D153" s="12" t="inlineStr"/>
+      <c r="E153" s="18" t="inlineStr">
+        <is>
+          <t>Amount being paid as Principal &amp; Interest Repayment of Time Loan of Transformer-LD-2503002237</t>
+        </is>
+      </c>
+      <c r="F153" s="12" t="inlineStr"/>
+      <c r="G153" s="12" t="inlineStr"/>
+      <c r="H153" s="12" t="inlineStr"/>
+      <c r="I153" s="12" t="inlineStr"/>
+      <c r="J153" s="12" t="inlineStr"/>
+      <c r="K153" s="12" t="inlineStr"/>
+      <c r="L153" s="12" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="9" t="inlineStr">
-        <is>
-          <t>M013</t>
-        </is>
-      </c>
-      <c r="B148" s="10" t="inlineStr"/>
-      <c r="C148" s="9" t="inlineStr"/>
-      <c r="D148" s="9" t="inlineStr">
+    <row r="154">
+      <c r="A154" s="12" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B154" s="13" t="inlineStr"/>
+      <c r="C154" s="12" t="inlineStr"/>
+      <c r="D154" s="12" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E148" s="16" t="inlineStr">
+      <c r="E154" s="19" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F148" s="9" t="inlineStr"/>
-      <c r="G148" s="9" t="inlineStr"/>
-      <c r="H148" s="9" t="inlineStr"/>
-      <c r="I148" s="9" t="inlineStr"/>
-      <c r="J148" s="9" t="inlineStr"/>
-      <c r="K148" s="9" t="inlineStr"/>
-      <c r="L148" s="9" t="inlineStr">
+      <c r="F154" s="12" t="inlineStr"/>
+      <c r="G154" s="12" t="inlineStr"/>
+      <c r="H154" s="12" t="inlineStr"/>
+      <c r="I154" s="12" t="inlineStr"/>
+      <c r="J154" s="12" t="inlineStr"/>
+      <c r="K154" s="12" t="inlineStr"/>
+      <c r="L154" s="12" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="17" t="inlineStr">
-        <is>
-          <t>M009</t>
-        </is>
-      </c>
-      <c r="B149" s="18" t="inlineStr"/>
-      <c r="C149" s="19" t="inlineStr">
-        <is>
-          <t>23/Jun/2025</t>
-        </is>
-      </c>
-      <c r="D149" s="17" t="inlineStr">
-        <is>
-          <t>Dr</t>
-        </is>
-      </c>
-      <c r="E149" s="20" t="inlineStr">
-        <is>
-          <t>PBL-Time Loan-LD2435445106</t>
-        </is>
-      </c>
-      <c r="F149" s="17" t="inlineStr"/>
-      <c r="G149" s="17" t="inlineStr"/>
-      <c r="H149" s="21" t="inlineStr">
-        <is>
-          <t>Journal</t>
-        </is>
-      </c>
-      <c r="I149" s="17" t="inlineStr">
-        <is>
-          <t>904</t>
-        </is>
-      </c>
-      <c r="J149" s="17" t="inlineStr"/>
-      <c r="K149" s="22" t="inlineStr">
-        <is>
-          <t>272808.31</t>
-        </is>
-      </c>
-      <c r="L149" s="17" t="inlineStr">
-        <is>
-          <t>Narration</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="17" t="inlineStr">
-        <is>
-          <t>M009</t>
-        </is>
-      </c>
-      <c r="B150" s="18" t="inlineStr">
-        <is>
-          <t>Narration Match
-Lender Amount: 272808.31
-Borrower Amount: 272808.31</t>
-        </is>
-      </c>
-      <c r="C150" s="17" t="inlineStr"/>
-      <c r="D150" s="17" t="inlineStr"/>
-      <c r="E150" s="23" t="inlineStr">
-        <is>
-          <t>Amount being paid as Principal &amp; Interest Repayment of Time Loan of Transformer-LD-2435445106</t>
-        </is>
-      </c>
-      <c r="F150" s="17" t="inlineStr"/>
-      <c r="G150" s="17" t="inlineStr"/>
-      <c r="H150" s="17" t="inlineStr"/>
-      <c r="I150" s="17" t="inlineStr"/>
-      <c r="J150" s="17" t="inlineStr"/>
-      <c r="K150" s="17" t="inlineStr"/>
-      <c r="L150" s="17" t="inlineStr">
-        <is>
-          <t>Narration</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="17" t="inlineStr">
-        <is>
-          <t>M009</t>
-        </is>
-      </c>
-      <c r="B151" s="18" t="inlineStr"/>
-      <c r="C151" s="17" t="inlineStr"/>
-      <c r="D151" s="17" t="inlineStr">
-        <is>
-          <t>Entered By :</t>
-        </is>
-      </c>
-      <c r="E151" s="24" t="inlineStr">
-        <is>
-          <t>shabbirul</t>
-        </is>
-      </c>
-      <c r="F151" s="17" t="inlineStr"/>
-      <c r="G151" s="17" t="inlineStr"/>
-      <c r="H151" s="17" t="inlineStr"/>
-      <c r="I151" s="17" t="inlineStr"/>
-      <c r="J151" s="17" t="inlineStr"/>
-      <c r="K151" s="17" t="inlineStr"/>
-      <c r="L151" s="17" t="inlineStr">
-        <is>
-          <t>Narration</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="9" t="inlineStr">
-        <is>
-          <t>M011</t>
-        </is>
-      </c>
-      <c r="B152" s="10" t="inlineStr"/>
-      <c r="C152" s="11" t="inlineStr">
-        <is>
-          <t>23/Jun/2025</t>
-        </is>
-      </c>
-      <c r="D152" s="9" t="inlineStr">
-        <is>
-          <t>Dr</t>
-        </is>
-      </c>
-      <c r="E152" s="12" t="inlineStr">
-        <is>
-          <t>PBL-Time Loan-LD2503002237</t>
-        </is>
-      </c>
-      <c r="F152" s="9" t="inlineStr"/>
-      <c r="G152" s="9" t="inlineStr"/>
-      <c r="H152" s="13" t="inlineStr">
-        <is>
-          <t>Journal</t>
-        </is>
-      </c>
-      <c r="I152" s="9" t="inlineStr">
-        <is>
-          <t>905</t>
-        </is>
-      </c>
-      <c r="J152" s="9" t="inlineStr"/>
-      <c r="K152" s="14" t="inlineStr">
-        <is>
-          <t>133619.23</t>
-        </is>
-      </c>
-      <c r="L152" s="9" t="inlineStr">
-        <is>
-          <t>Narration</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="9" t="inlineStr">
-        <is>
-          <t>M011</t>
-        </is>
-      </c>
-      <c r="B153" s="10" t="inlineStr">
-        <is>
-          <t>Narration Match
-Lender Amount: 133619.23
-Borrower Amount: 133619.23</t>
-        </is>
-      </c>
-      <c r="C153" s="9" t="inlineStr"/>
-      <c r="D153" s="9" t="inlineStr"/>
-      <c r="E153" s="15" t="inlineStr">
-        <is>
-          <t>Amount being paid as Principal &amp; Interest Repayment of Time Loan of Transformer-LD-2503002237</t>
-        </is>
-      </c>
-      <c r="F153" s="9" t="inlineStr"/>
-      <c r="G153" s="9" t="inlineStr"/>
-      <c r="H153" s="9" t="inlineStr"/>
-      <c r="I153" s="9" t="inlineStr"/>
-      <c r="J153" s="9" t="inlineStr"/>
-      <c r="K153" s="9" t="inlineStr"/>
-      <c r="L153" s="9" t="inlineStr">
-        <is>
-          <t>Narration</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="9" t="inlineStr">
-        <is>
-          <t>M011</t>
-        </is>
-      </c>
-      <c r="B154" s="10" t="inlineStr"/>
-      <c r="C154" s="9" t="inlineStr"/>
-      <c r="D154" s="9" t="inlineStr">
-        <is>
-          <t>Entered By :</t>
-        </is>
-      </c>
-      <c r="E154" s="16" t="inlineStr">
-        <is>
-          <t>shabbirul</t>
-        </is>
-      </c>
-      <c r="F154" s="9" t="inlineStr"/>
-      <c r="G154" s="9" t="inlineStr"/>
-      <c r="H154" s="9" t="inlineStr"/>
-      <c r="I154" s="9" t="inlineStr"/>
-      <c r="J154" s="9" t="inlineStr"/>
-      <c r="K154" s="9" t="inlineStr"/>
-      <c r="L154" s="9" t="inlineStr">
-        <is>
-          <t>Narration</t>
-        </is>
-      </c>
-    </row>
     <row r="155">
-      <c r="A155" s="17" t="inlineStr">
-        <is>
-          <t>M022</t>
-        </is>
-      </c>
-      <c r="B155" s="18" t="inlineStr"/>
-      <c r="C155" s="19" t="inlineStr">
+      <c r="A155" s="20" t="inlineStr">
+        <is>
+          <t>M015</t>
+        </is>
+      </c>
+      <c r="B155" s="21" t="inlineStr"/>
+      <c r="C155" s="22" t="inlineStr">
         <is>
           <t>24/Jun/2025</t>
         </is>
       </c>
-      <c r="D155" s="17" t="inlineStr">
+      <c r="D155" s="20" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E155" s="20" t="inlineStr">
+      <c r="E155" s="23" t="inlineStr">
         <is>
           <t>PBL-SND- 2126312011060</t>
         </is>
       </c>
-      <c r="F155" s="17" t="inlineStr"/>
-      <c r="G155" s="17" t="inlineStr"/>
-      <c r="H155" s="21" t="inlineStr">
+      <c r="F155" s="20" t="inlineStr"/>
+      <c r="G155" s="20" t="inlineStr"/>
+      <c r="H155" s="24" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I155" s="17" t="inlineStr">
+      <c r="I155" s="20" t="inlineStr">
         <is>
           <t>18164</t>
         </is>
       </c>
-      <c r="J155" s="22" t="inlineStr">
+      <c r="J155" s="25" t="inlineStr">
         <is>
           <t>50000</t>
         </is>
       </c>
-      <c r="K155" s="17" t="inlineStr"/>
-      <c r="L155" s="17" t="inlineStr">
+      <c r="K155" s="20" t="inlineStr"/>
+      <c r="L155" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="17" t="inlineStr">
-        <is>
-          <t>M022</t>
-        </is>
-      </c>
-      <c r="B156" s="18" t="inlineStr">
+      <c r="A156" s="20" t="inlineStr">
+        <is>
+          <t>M015</t>
+        </is>
+      </c>
+      <c r="B156" s="21" t="inlineStr">
         <is>
           <t>Interunit Loan Match: PBL#1060
 Lender Amount: 50000.00
 Borrower Amount: 50000.00</t>
         </is>
       </c>
-      <c r="C156" s="17" t="inlineStr"/>
-      <c r="D156" s="17" t="inlineStr"/>
-      <c r="E156" s="23" t="inlineStr">
+      <c r="C156" s="20" t="inlineStr"/>
+      <c r="D156" s="20" t="inlineStr"/>
+      <c r="E156" s="26" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Interunit Loan A/C-Steel Unit,PBL#10855</t>
         </is>
       </c>
-      <c r="F156" s="17" t="inlineStr"/>
-      <c r="G156" s="17" t="inlineStr"/>
-      <c r="H156" s="17" t="inlineStr"/>
-      <c r="I156" s="17" t="inlineStr"/>
-      <c r="J156" s="17" t="inlineStr"/>
-      <c r="K156" s="17" t="inlineStr"/>
-      <c r="L156" s="17" t="inlineStr">
+      <c r="F156" s="20" t="inlineStr"/>
+      <c r="G156" s="20" t="inlineStr"/>
+      <c r="H156" s="20" t="inlineStr"/>
+      <c r="I156" s="20" t="inlineStr"/>
+      <c r="J156" s="20" t="inlineStr"/>
+      <c r="K156" s="20" t="inlineStr"/>
+      <c r="L156" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="17" t="inlineStr">
-        <is>
-          <t>M022</t>
-        </is>
-      </c>
-      <c r="B157" s="18" t="inlineStr"/>
-      <c r="C157" s="17" t="inlineStr"/>
-      <c r="D157" s="17" t="inlineStr">
+      <c r="A157" s="20" t="inlineStr">
+        <is>
+          <t>M015</t>
+        </is>
+      </c>
+      <c r="B157" s="21" t="inlineStr"/>
+      <c r="C157" s="20" t="inlineStr"/>
+      <c r="D157" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E157" s="24" t="inlineStr">
+      <c r="E157" s="27" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F157" s="17" t="inlineStr"/>
-      <c r="G157" s="17" t="inlineStr"/>
-      <c r="H157" s="17" t="inlineStr"/>
-      <c r="I157" s="17" t="inlineStr"/>
-      <c r="J157" s="17" t="inlineStr"/>
-      <c r="K157" s="17" t="inlineStr"/>
-      <c r="L157" s="17" t="inlineStr">
+      <c r="F157" s="20" t="inlineStr"/>
+      <c r="G157" s="20" t="inlineStr"/>
+      <c r="H157" s="20" t="inlineStr"/>
+      <c r="I157" s="20" t="inlineStr"/>
+      <c r="J157" s="20" t="inlineStr"/>
+      <c r="K157" s="20" t="inlineStr"/>
+      <c r="L157" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="9" t="inlineStr">
-        <is>
-          <t>M021</t>
-        </is>
-      </c>
-      <c r="B158" s="10" t="inlineStr"/>
-      <c r="C158" s="11" t="inlineStr">
+      <c r="A158" s="12" t="inlineStr">
+        <is>
+          <t>M014</t>
+        </is>
+      </c>
+      <c r="B158" s="13" t="inlineStr"/>
+      <c r="C158" s="14" t="inlineStr">
         <is>
           <t>25/Jun/2025</t>
         </is>
       </c>
-      <c r="D158" s="9" t="inlineStr">
+      <c r="D158" s="12" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E158" s="12" t="inlineStr">
+      <c r="E158" s="15" t="inlineStr">
         <is>
           <t>Eastern Bank ,STD-1011220144067</t>
         </is>
       </c>
-      <c r="F158" s="9" t="inlineStr"/>
-      <c r="G158" s="9" t="inlineStr"/>
-      <c r="H158" s="13" t="inlineStr">
+      <c r="F158" s="12" t="inlineStr"/>
+      <c r="G158" s="12" t="inlineStr"/>
+      <c r="H158" s="16" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I158" s="9" t="inlineStr">
+      <c r="I158" s="12" t="inlineStr">
         <is>
           <t>181</t>
         </is>
       </c>
-      <c r="J158" s="9" t="inlineStr"/>
-      <c r="K158" s="14" t="inlineStr">
+      <c r="J158" s="12" t="inlineStr"/>
+      <c r="K158" s="17" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="L158" s="9" t="inlineStr">
+      <c r="L158" s="12" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="9" t="inlineStr">
-        <is>
-          <t>M021</t>
-        </is>
-      </c>
-      <c r="B159" s="10" t="inlineStr">
+      <c r="A159" s="12" t="inlineStr">
+        <is>
+          <t>M014</t>
+        </is>
+      </c>
+      <c r="B159" s="13" t="inlineStr">
         <is>
           <t>Interunit Loan Match: EBL#4056
 Lender Amount: 200000.00
 Borrower Amount: 200000.00</t>
         </is>
       </c>
-      <c r="C159" s="9" t="inlineStr"/>
-      <c r="D159" s="9" t="inlineStr"/>
-      <c r="E159" s="15" t="inlineStr">
+      <c r="C159" s="12" t="inlineStr"/>
+      <c r="D159" s="12" t="inlineStr"/>
+      <c r="E159" s="18" t="inlineStr">
         <is>
           <t>Amount received as Interunit Loan A/C-Steel Unit, EBL#44056</t>
         </is>
       </c>
-      <c r="F159" s="9" t="inlineStr"/>
-      <c r="G159" s="9" t="inlineStr"/>
-      <c r="H159" s="9" t="inlineStr"/>
-      <c r="I159" s="9" t="inlineStr"/>
-      <c r="J159" s="9" t="inlineStr"/>
-      <c r="K159" s="9" t="inlineStr"/>
-      <c r="L159" s="9" t="inlineStr">
+      <c r="F159" s="12" t="inlineStr"/>
+      <c r="G159" s="12" t="inlineStr"/>
+      <c r="H159" s="12" t="inlineStr"/>
+      <c r="I159" s="12" t="inlineStr"/>
+      <c r="J159" s="12" t="inlineStr"/>
+      <c r="K159" s="12" t="inlineStr"/>
+      <c r="L159" s="12" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="9" t="inlineStr">
-        <is>
-          <t>M021</t>
-        </is>
-      </c>
-      <c r="B160" s="10" t="inlineStr"/>
-      <c r="C160" s="9" t="inlineStr"/>
-      <c r="D160" s="9" t="inlineStr">
+      <c r="A160" s="12" t="inlineStr">
+        <is>
+          <t>M014</t>
+        </is>
+      </c>
+      <c r="B160" s="13" t="inlineStr"/>
+      <c r="C160" s="12" t="inlineStr"/>
+      <c r="D160" s="12" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E160" s="16" t="inlineStr">
+      <c r="E160" s="19" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F160" s="9" t="inlineStr"/>
-      <c r="G160" s="9" t="inlineStr"/>
-      <c r="H160" s="9" t="inlineStr"/>
-      <c r="I160" s="9" t="inlineStr"/>
-      <c r="J160" s="9" t="inlineStr"/>
-      <c r="K160" s="9" t="inlineStr"/>
-      <c r="L160" s="9" t="inlineStr">
+      <c r="F160" s="12" t="inlineStr"/>
+      <c r="G160" s="12" t="inlineStr"/>
+      <c r="H160" s="12" t="inlineStr"/>
+      <c r="I160" s="12" t="inlineStr"/>
+      <c r="J160" s="12" t="inlineStr"/>
+      <c r="K160" s="12" t="inlineStr"/>
+      <c r="L160" s="12" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="17" t="inlineStr">
-        <is>
-          <t>M023</t>
-        </is>
-      </c>
-      <c r="B161" s="18" t="inlineStr"/>
-      <c r="C161" s="19" t="inlineStr">
+      <c r="A161" s="20" t="inlineStr">
+        <is>
+          <t>M016</t>
+        </is>
+      </c>
+      <c r="B161" s="21" t="inlineStr"/>
+      <c r="C161" s="22" t="inlineStr">
         <is>
           <t>25/Jun/2025</t>
         </is>
       </c>
-      <c r="D161" s="17" t="inlineStr">
+      <c r="D161" s="20" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E161" s="20" t="inlineStr">
+      <c r="E161" s="23" t="inlineStr">
         <is>
           <t>Midland Bank Ltd-CE-0011-1060000313</t>
         </is>
       </c>
-      <c r="F161" s="17" t="inlineStr"/>
-      <c r="G161" s="17" t="inlineStr"/>
-      <c r="H161" s="21" t="inlineStr">
+      <c r="F161" s="20" t="inlineStr"/>
+      <c r="G161" s="20" t="inlineStr"/>
+      <c r="H161" s="24" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I161" s="17" t="inlineStr">
+      <c r="I161" s="20" t="inlineStr">
         <is>
           <t>183</t>
         </is>
       </c>
-      <c r="J161" s="17" t="inlineStr"/>
-      <c r="K161" s="22" t="inlineStr">
+      <c r="J161" s="20" t="inlineStr"/>
+      <c r="K161" s="25" t="inlineStr">
         <is>
           <t>4000000</t>
         </is>
       </c>
-      <c r="L161" s="17" t="inlineStr">
+      <c r="L161" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="17" t="inlineStr">
-        <is>
-          <t>M023</t>
-        </is>
-      </c>
-      <c r="B162" s="18" t="inlineStr">
+      <c r="A162" s="20" t="inlineStr">
+        <is>
+          <t>M016</t>
+        </is>
+      </c>
+      <c r="B162" s="21" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0331
 Lender Amount: 4000000.00
 Borrower Amount: 4000000.00</t>
         </is>
       </c>
-      <c r="C162" s="17" t="inlineStr"/>
-      <c r="D162" s="17" t="inlineStr"/>
-      <c r="E162" s="23" t="inlineStr">
+      <c r="C162" s="20" t="inlineStr"/>
+      <c r="D162" s="20" t="inlineStr"/>
+      <c r="E162" s="26" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Interunit Loan A/C-Steel Unit, MDB#0331</t>
         </is>
       </c>
-      <c r="F162" s="17" t="inlineStr"/>
-      <c r="G162" s="17" t="inlineStr"/>
-      <c r="H162" s="17" t="inlineStr"/>
-      <c r="I162" s="17" t="inlineStr"/>
-      <c r="J162" s="17" t="inlineStr"/>
-      <c r="K162" s="17" t="inlineStr"/>
-      <c r="L162" s="17" t="inlineStr">
+      <c r="F162" s="20" t="inlineStr"/>
+      <c r="G162" s="20" t="inlineStr"/>
+      <c r="H162" s="20" t="inlineStr"/>
+      <c r="I162" s="20" t="inlineStr"/>
+      <c r="J162" s="20" t="inlineStr"/>
+      <c r="K162" s="20" t="inlineStr"/>
+      <c r="L162" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="17" t="inlineStr">
-        <is>
-          <t>M023</t>
-        </is>
-      </c>
-      <c r="B163" s="18" t="inlineStr"/>
-      <c r="C163" s="17" t="inlineStr"/>
-      <c r="D163" s="17" t="inlineStr">
+      <c r="A163" s="20" t="inlineStr">
+        <is>
+          <t>M016</t>
+        </is>
+      </c>
+      <c r="B163" s="21" t="inlineStr"/>
+      <c r="C163" s="20" t="inlineStr"/>
+      <c r="D163" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E163" s="24" t="inlineStr">
+      <c r="E163" s="27" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F163" s="17" t="inlineStr"/>
-      <c r="G163" s="17" t="inlineStr"/>
-      <c r="H163" s="17" t="inlineStr"/>
-      <c r="I163" s="17" t="inlineStr"/>
-      <c r="J163" s="17" t="inlineStr"/>
-      <c r="K163" s="17" t="inlineStr"/>
-      <c r="L163" s="17" t="inlineStr">
+      <c r="F163" s="20" t="inlineStr"/>
+      <c r="G163" s="20" t="inlineStr"/>
+      <c r="H163" s="20" t="inlineStr"/>
+      <c r="I163" s="20" t="inlineStr"/>
+      <c r="J163" s="20" t="inlineStr"/>
+      <c r="K163" s="20" t="inlineStr"/>
+      <c r="L163" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="9" t="inlineStr">
-        <is>
-          <t>M056</t>
-        </is>
-      </c>
-      <c r="B164" s="10" t="inlineStr"/>
-      <c r="C164" s="11" t="inlineStr">
+      <c r="A164" s="1" t="inlineStr"/>
+      <c r="B164" s="2" t="inlineStr"/>
+      <c r="C164" s="6" t="inlineStr">
         <is>
           <t>26/Jun/2025</t>
         </is>
       </c>
-      <c r="D164" s="9" t="inlineStr">
+      <c r="D164" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E164" s="12" t="inlineStr">
+      <c r="E164" s="7" t="inlineStr">
         <is>
           <t>Adv-RR-Imperial Electricals Limited</t>
         </is>
       </c>
-      <c r="F164" s="9" t="inlineStr"/>
-      <c r="G164" s="9" t="inlineStr"/>
-      <c r="H164" s="13" t="inlineStr">
+      <c r="F164" s="1" t="inlineStr"/>
+      <c r="G164" s="1" t="inlineStr"/>
+      <c r="H164" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I164" s="9" t="inlineStr">
+      <c r="I164" s="1" t="inlineStr">
         <is>
           <t>926</t>
         </is>
       </c>
-      <c r="J164" s="9" t="inlineStr"/>
-      <c r="K164" s="14" t="inlineStr">
+      <c r="J164" s="1" t="inlineStr"/>
+      <c r="K164" s="8" t="inlineStr">
         <is>
           <t>5137392</t>
         </is>
       </c>
-      <c r="L164" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L164" s="1" t="inlineStr"/>
     </row>
     <row r="165">
-      <c r="A165" s="9" t="inlineStr">
-        <is>
-          <t>M056</t>
-        </is>
-      </c>
-      <c r="B165" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 5137392.00
-Borrower Amount: 5137392.00</t>
-        </is>
-      </c>
-      <c r="C165" s="9" t="inlineStr"/>
-      <c r="D165" s="9" t="inlineStr"/>
-      <c r="E165" s="15" t="inlineStr">
+      <c r="A165" s="1" t="inlineStr"/>
+      <c r="B165" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block</t>
+        </is>
+      </c>
+      <c r="C165" s="1" t="inlineStr"/>
+      <c r="D165" s="1" t="inlineStr"/>
+      <c r="E165" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to RR-Imperial Electricals Limited . Supply of , Invoice Number:  1270, Challan Number: , Work Order Number: BRE/PO/2025/6/34287, BA Team (A), Company Unit: Transformer, Project Name : BREB/DP/PBSF-G-89-Lot-1/1/086/2023-2024 (REB) 3-Phase Power Transformer , Work Order date: 2025-06-24, Goods Received Date: , Work Order Value: 5275000.0, Total Bill Amount: 5137392.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F165" s="9" t="inlineStr"/>
-      <c r="G165" s="9" t="inlineStr"/>
-      <c r="H165" s="9" t="inlineStr"/>
-      <c r="I165" s="9" t="inlineStr"/>
-      <c r="J165" s="9" t="inlineStr"/>
-      <c r="K165" s="9" t="inlineStr"/>
-      <c r="L165" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F165" s="1" t="inlineStr"/>
+      <c r="G165" s="1" t="inlineStr"/>
+      <c r="H165" s="1" t="inlineStr"/>
+      <c r="I165" s="1" t="inlineStr"/>
+      <c r="J165" s="1" t="inlineStr"/>
+      <c r="K165" s="1" t="inlineStr"/>
+      <c r="L165" s="1" t="inlineStr"/>
     </row>
     <row r="166">
-      <c r="A166" s="9" t="inlineStr">
-        <is>
-          <t>M056</t>
-        </is>
-      </c>
-      <c r="B166" s="10" t="inlineStr"/>
-      <c r="C166" s="9" t="inlineStr"/>
-      <c r="D166" s="9" t="inlineStr">
+      <c r="A166" s="1" t="inlineStr"/>
+      <c r="B166" s="2" t="inlineStr"/>
+      <c r="C166" s="1" t="inlineStr"/>
+      <c r="D166" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E166" s="16" t="inlineStr">
+      <c r="E166" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F166" s="9" t="inlineStr"/>
-      <c r="G166" s="9" t="inlineStr"/>
-      <c r="H166" s="9" t="inlineStr"/>
-      <c r="I166" s="9" t="inlineStr"/>
-      <c r="J166" s="9" t="inlineStr"/>
-      <c r="K166" s="9" t="inlineStr"/>
-      <c r="L166" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F166" s="1" t="inlineStr"/>
+      <c r="G166" s="1" t="inlineStr"/>
+      <c r="H166" s="1" t="inlineStr"/>
+      <c r="I166" s="1" t="inlineStr"/>
+      <c r="J166" s="1" t="inlineStr"/>
+      <c r="K166" s="1" t="inlineStr"/>
+      <c r="L166" s="1" t="inlineStr"/>
     </row>
     <row r="167">
-      <c r="A167" s="17" t="inlineStr">
-        <is>
-          <t>M057</t>
-        </is>
-      </c>
-      <c r="B167" s="18" t="inlineStr"/>
-      <c r="C167" s="19" t="inlineStr">
+      <c r="A167" s="1" t="inlineStr"/>
+      <c r="B167" s="2" t="inlineStr"/>
+      <c r="C167" s="6" t="inlineStr">
         <is>
           <t>29/Jun/2025</t>
         </is>
       </c>
-      <c r="D167" s="17" t="inlineStr">
+      <c r="D167" s="1" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E167" s="20" t="inlineStr">
+      <c r="E167" s="7" t="inlineStr">
         <is>
           <t>Adv-Rangpur Metal Industries Limited</t>
         </is>
       </c>
-      <c r="F167" s="17" t="inlineStr"/>
-      <c r="G167" s="17" t="inlineStr"/>
-      <c r="H167" s="21" t="inlineStr">
+      <c r="F167" s="1" t="inlineStr"/>
+      <c r="G167" s="1" t="inlineStr"/>
+      <c r="H167" s="9" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I167" s="17" t="inlineStr">
+      <c r="I167" s="1" t="inlineStr">
         <is>
           <t>934</t>
         </is>
       </c>
-      <c r="J167" s="17" t="inlineStr"/>
-      <c r="K167" s="22" t="inlineStr">
+      <c r="J167" s="1" t="inlineStr"/>
+      <c r="K167" s="8" t="inlineStr">
         <is>
           <t>11780452</t>
         </is>
       </c>
-      <c r="L167" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="L167" s="1" t="inlineStr"/>
     </row>
     <row r="168">
-      <c r="A168" s="17" t="inlineStr">
-        <is>
-          <t>M057</t>
-        </is>
-      </c>
-      <c r="B168" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 11780452.00
-Borrower Amount: 11780452.00</t>
-        </is>
-      </c>
-      <c r="C168" s="17" t="inlineStr"/>
-      <c r="D168" s="17" t="inlineStr"/>
-      <c r="E168" s="23" t="inlineStr">
+      <c r="A168" s="1" t="inlineStr"/>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 2 block</t>
+        </is>
+      </c>
+      <c r="C168" s="1" t="inlineStr"/>
+      <c r="D168" s="1" t="inlineStr"/>
+      <c r="E168" s="10" t="inlineStr">
         <is>
           <t>Being the amount paid to Rangpur Metal Industries Limited. Supply of , Invoice Number:  advanced/CIT/10, Challan Number: , Work Order Number: DHK/PO/2025/6/34312, BA Team (A), Company Unit: Transformer, Project Name : DHK-1 PBS (1-Phase Distribution Transformer), Work Order date: 2025-06-25, Goods Received Date: , Work Order Value: 3.389904E7, Total Bill Amount: 1.2096E7, TDS Deduction Amount: 315548.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F168" s="17" t="inlineStr"/>
-      <c r="G168" s="17" t="inlineStr"/>
-      <c r="H168" s="17" t="inlineStr"/>
-      <c r="I168" s="17" t="inlineStr"/>
-      <c r="J168" s="17" t="inlineStr"/>
-      <c r="K168" s="17" t="inlineStr"/>
-      <c r="L168" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F168" s="1" t="inlineStr"/>
+      <c r="G168" s="1" t="inlineStr"/>
+      <c r="H168" s="1" t="inlineStr"/>
+      <c r="I168" s="1" t="inlineStr"/>
+      <c r="J168" s="1" t="inlineStr"/>
+      <c r="K168" s="1" t="inlineStr"/>
+      <c r="L168" s="1" t="inlineStr"/>
     </row>
     <row r="169">
-      <c r="A169" s="17" t="inlineStr">
-        <is>
-          <t>M057</t>
-        </is>
-      </c>
-      <c r="B169" s="18" t="inlineStr"/>
-      <c r="C169" s="17" t="inlineStr"/>
-      <c r="D169" s="17" t="inlineStr">
+      <c r="A169" s="1" t="inlineStr"/>
+      <c r="B169" s="2" t="inlineStr"/>
+      <c r="C169" s="1" t="inlineStr"/>
+      <c r="D169" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E169" s="24" t="inlineStr">
+      <c r="E169" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F169" s="17" t="inlineStr"/>
-      <c r="G169" s="17" t="inlineStr"/>
-      <c r="H169" s="17" t="inlineStr"/>
-      <c r="I169" s="17" t="inlineStr"/>
-      <c r="J169" s="17" t="inlineStr"/>
-      <c r="K169" s="17" t="inlineStr"/>
-      <c r="L169" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F169" s="1" t="inlineStr"/>
+      <c r="G169" s="1" t="inlineStr"/>
+      <c r="H169" s="1" t="inlineStr"/>
+      <c r="I169" s="1" t="inlineStr"/>
+      <c r="J169" s="1" t="inlineStr"/>
+      <c r="K169" s="1" t="inlineStr"/>
+      <c r="L169" s="1" t="inlineStr"/>
     </row>
     <row r="170">
-      <c r="A170" s="9" t="inlineStr">
-        <is>
-          <t>M024</t>
-        </is>
-      </c>
-      <c r="B170" s="10" t="inlineStr"/>
-      <c r="C170" s="11" t="inlineStr">
+      <c r="A170" s="12" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
+      <c r="B170" s="13" t="inlineStr"/>
+      <c r="C170" s="14" t="inlineStr">
         <is>
           <t>29/Jun/2025</t>
         </is>
       </c>
-      <c r="D170" s="9" t="inlineStr">
+      <c r="D170" s="12" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E170" s="12" t="inlineStr">
+      <c r="E170" s="15" t="inlineStr">
         <is>
           <t>Midland Bank Ltd-CE-0011-1060000313</t>
         </is>
       </c>
-      <c r="F170" s="9" t="inlineStr"/>
-      <c r="G170" s="9" t="inlineStr"/>
-      <c r="H170" s="13" t="inlineStr">
+      <c r="F170" s="12" t="inlineStr"/>
+      <c r="G170" s="12" t="inlineStr"/>
+      <c r="H170" s="16" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I170" s="9" t="inlineStr">
+      <c r="I170" s="12" t="inlineStr">
         <is>
           <t>186</t>
         </is>
       </c>
-      <c r="J170" s="9" t="inlineStr"/>
-      <c r="K170" s="14" t="inlineStr">
+      <c r="J170" s="12" t="inlineStr"/>
+      <c r="K170" s="17" t="inlineStr">
         <is>
           <t>400000</t>
         </is>
       </c>
-      <c r="L170" s="9" t="inlineStr">
+      <c r="L170" s="12" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="9" t="inlineStr">
-        <is>
-          <t>M024</t>
-        </is>
-      </c>
-      <c r="B171" s="10" t="inlineStr">
+      <c r="A171" s="12" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
+      <c r="B171" s="13" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0331
 Lender Amount: 400000.00
 Borrower Amount: 400000.00</t>
         </is>
       </c>
-      <c r="C171" s="9" t="inlineStr"/>
-      <c r="D171" s="9" t="inlineStr"/>
-      <c r="E171" s="15" t="inlineStr">
+      <c r="C171" s="12" t="inlineStr"/>
+      <c r="D171" s="12" t="inlineStr"/>
+      <c r="E171" s="18" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Interunit Loan A/C-Steel Unit, MDB#0331</t>
         </is>
       </c>
-      <c r="F171" s="9" t="inlineStr"/>
-      <c r="G171" s="9" t="inlineStr"/>
-      <c r="H171" s="9" t="inlineStr"/>
-      <c r="I171" s="9" t="inlineStr"/>
-      <c r="J171" s="9" t="inlineStr"/>
-      <c r="K171" s="9" t="inlineStr"/>
-      <c r="L171" s="9" t="inlineStr">
+      <c r="F171" s="12" t="inlineStr"/>
+      <c r="G171" s="12" t="inlineStr"/>
+      <c r="H171" s="12" t="inlineStr"/>
+      <c r="I171" s="12" t="inlineStr"/>
+      <c r="J171" s="12" t="inlineStr"/>
+      <c r="K171" s="12" t="inlineStr"/>
+      <c r="L171" s="12" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="9" t="inlineStr">
-        <is>
-          <t>M024</t>
-        </is>
-      </c>
-      <c r="B172" s="10" t="inlineStr"/>
-      <c r="C172" s="9" t="inlineStr"/>
-      <c r="D172" s="9" t="inlineStr">
+      <c r="A172" s="12" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
+      <c r="B172" s="13" t="inlineStr"/>
+      <c r="C172" s="12" t="inlineStr"/>
+      <c r="D172" s="12" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E172" s="16" t="inlineStr">
+      <c r="E172" s="19" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F172" s="9" t="inlineStr"/>
-      <c r="G172" s="9" t="inlineStr"/>
-      <c r="H172" s="9" t="inlineStr"/>
-      <c r="I172" s="9" t="inlineStr"/>
-      <c r="J172" s="9" t="inlineStr"/>
-      <c r="K172" s="9" t="inlineStr"/>
-      <c r="L172" s="9" t="inlineStr">
+      <c r="F172" s="12" t="inlineStr"/>
+      <c r="G172" s="12" t="inlineStr"/>
+      <c r="H172" s="12" t="inlineStr"/>
+      <c r="I172" s="12" t="inlineStr"/>
+      <c r="J172" s="12" t="inlineStr"/>
+      <c r="K172" s="12" t="inlineStr"/>
+      <c r="L172" s="12" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="17" t="inlineStr">
-        <is>
-          <t>M020</t>
-        </is>
-      </c>
-      <c r="B173" s="18" t="inlineStr"/>
-      <c r="C173" s="19" t="inlineStr">
+      <c r="A173" s="20" t="inlineStr">
+        <is>
+          <t>M013</t>
+        </is>
+      </c>
+      <c r="B173" s="21" t="inlineStr"/>
+      <c r="C173" s="22" t="inlineStr">
         <is>
           <t>30/Jun/2025</t>
         </is>
       </c>
-      <c r="D173" s="17" t="inlineStr">
+      <c r="D173" s="20" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E173" s="20" t="inlineStr">
+      <c r="E173" s="23" t="inlineStr">
         <is>
           <t>PBL-Time Loan-LD2502802705</t>
         </is>
       </c>
-      <c r="F173" s="17" t="inlineStr"/>
-      <c r="G173" s="17" t="inlineStr"/>
-      <c r="H173" s="21" t="inlineStr">
+      <c r="F173" s="20" t="inlineStr"/>
+      <c r="G173" s="20" t="inlineStr"/>
+      <c r="H173" s="24" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I173" s="17" t="inlineStr">
+      <c r="I173" s="20" t="inlineStr">
         <is>
           <t>971</t>
         </is>
       </c>
-      <c r="J173" s="17" t="inlineStr"/>
-      <c r="K173" s="22" t="inlineStr">
+      <c r="J173" s="20" t="inlineStr"/>
+      <c r="K173" s="25" t="inlineStr">
         <is>
           <t>83197.81</t>
         </is>
       </c>
-      <c r="L173" s="17" t="inlineStr">
+      <c r="L173" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="17" t="inlineStr">
-        <is>
-          <t>M020</t>
-        </is>
-      </c>
-      <c r="B174" s="18" t="inlineStr">
+      <c r="A174" s="20" t="inlineStr">
+        <is>
+          <t>M013</t>
+        </is>
+      </c>
+      <c r="B174" s="21" t="inlineStr">
         <is>
           <t>Interunit Loan Match: PBL#10855
 Lender Amount: 83197.81
 Borrower Amount: 83197.81</t>
         </is>
       </c>
-      <c r="C174" s="17" t="inlineStr"/>
-      <c r="D174" s="17" t="inlineStr"/>
-      <c r="E174" s="23" t="inlineStr">
+      <c r="C174" s="20" t="inlineStr"/>
+      <c r="D174" s="20" t="inlineStr"/>
+      <c r="E174" s="26" t="inlineStr">
         <is>
           <t>Time Loan repayment from CIL steel Unit PBL-10855</t>
         </is>
       </c>
-      <c r="F174" s="17" t="inlineStr"/>
-      <c r="G174" s="17" t="inlineStr"/>
-      <c r="H174" s="17" t="inlineStr"/>
-      <c r="I174" s="17" t="inlineStr"/>
-      <c r="J174" s="17" t="inlineStr"/>
-      <c r="K174" s="17" t="inlineStr"/>
-      <c r="L174" s="17" t="inlineStr">
+      <c r="F174" s="20" t="inlineStr"/>
+      <c r="G174" s="20" t="inlineStr"/>
+      <c r="H174" s="20" t="inlineStr"/>
+      <c r="I174" s="20" t="inlineStr"/>
+      <c r="J174" s="20" t="inlineStr"/>
+      <c r="K174" s="20" t="inlineStr"/>
+      <c r="L174" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="17" t="inlineStr">
-        <is>
-          <t>M020</t>
-        </is>
-      </c>
-      <c r="B175" s="18" t="inlineStr"/>
-      <c r="C175" s="17" t="inlineStr"/>
-      <c r="D175" s="17" t="inlineStr">
+      <c r="A175" s="20" t="inlineStr">
+        <is>
+          <t>M013</t>
+        </is>
+      </c>
+      <c r="B175" s="21" t="inlineStr"/>
+      <c r="C175" s="20" t="inlineStr"/>
+      <c r="D175" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E175" s="24" t="inlineStr">
+      <c r="E175" s="27" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F175" s="17" t="inlineStr"/>
-      <c r="G175" s="17" t="inlineStr"/>
-      <c r="H175" s="17" t="inlineStr"/>
-      <c r="I175" s="17" t="inlineStr"/>
-      <c r="J175" s="17" t="inlineStr"/>
-      <c r="K175" s="17" t="inlineStr"/>
-      <c r="L175" s="17" t="inlineStr">
+      <c r="F175" s="20" t="inlineStr"/>
+      <c r="G175" s="20" t="inlineStr"/>
+      <c r="H175" s="20" t="inlineStr"/>
+      <c r="I175" s="20" t="inlineStr"/>
+      <c r="J175" s="20" t="inlineStr"/>
+      <c r="K175" s="20" t="inlineStr"/>
+      <c r="L175" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>

--- a/Resources/Steel-Trans/Trans book Steel_MATCHED.xlsx
+++ b/Resources/Steel-Trans/Trans book Steel_MATCHED.xlsx
@@ -76,7 +76,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -101,15 +101,6 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -766,5104 +757,5904 @@
       <c r="L10" s="1" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr"/>
-      <c r="B11" s="2" t="inlineStr"/>
-      <c r="C11" s="6" t="inlineStr">
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="inlineStr"/>
+      <c r="C11" s="11" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="D11" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="E11" s="12" t="inlineStr">
         <is>
           <t>(as per details)</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr"/>
-      <c r="G11" s="1" t="inlineStr"/>
-      <c r="H11" s="9" t="inlineStr">
+      <c r="F11" s="9" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr"/>
+      <c r="H11" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="I11" s="9" t="inlineStr">
         <is>
           <t>847</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr"/>
-      <c r="K11" s="8" t="inlineStr">
+      <c r="J11" s="9" t="inlineStr"/>
+      <c r="K11" s="14" t="inlineStr">
         <is>
           <t>36010</t>
         </is>
       </c>
-      <c r="L11" s="1" t="inlineStr"/>
+      <c r="L11" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr"/>
-      <c r="B12" s="2" t="inlineStr"/>
-      <c r="C12" s="1" t="inlineStr"/>
-      <c r="D12" s="1" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr">
+      <c r="A12" s="9" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="inlineStr"/>
+      <c r="C12" s="9" t="inlineStr"/>
+      <c r="D12" s="9" t="inlineStr"/>
+      <c r="E12" s="12" t="inlineStr">
         <is>
           <t>AP-Stardust Telecom Ltd.</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr"/>
-      <c r="G12" s="1" t="inlineStr"/>
-      <c r="H12" s="1" t="inlineStr"/>
-      <c r="I12" s="1" t="inlineStr"/>
-      <c r="J12" s="8" t="inlineStr">
+      <c r="F12" s="9" t="inlineStr"/>
+      <c r="G12" s="9" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr"/>
+      <c r="I12" s="9" t="inlineStr"/>
+      <c r="J12" s="14" t="inlineStr">
         <is>
           <t>1528</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr"/>
-      <c r="L12" s="1" t="inlineStr"/>
+      <c r="K12" s="9" t="inlineStr"/>
+      <c r="L12" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr"/>
-      <c r="B13" s="2" t="inlineStr"/>
-      <c r="C13" s="1" t="inlineStr"/>
-      <c r="D13" s="1" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr">
+      <c r="A13" s="9" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="inlineStr"/>
+      <c r="C13" s="9" t="inlineStr"/>
+      <c r="D13" s="9" t="inlineStr"/>
+      <c r="E13" s="12" t="inlineStr">
         <is>
           <t>AP-Stardust Telecom Ltd.</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr"/>
-      <c r="G13" s="1" t="inlineStr"/>
-      <c r="H13" s="1" t="inlineStr"/>
-      <c r="I13" s="1" t="inlineStr"/>
-      <c r="J13" s="8" t="inlineStr">
+      <c r="F13" s="9" t="inlineStr"/>
+      <c r="G13" s="9" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr"/>
+      <c r="I13" s="9" t="inlineStr"/>
+      <c r="J13" s="14" t="inlineStr">
         <is>
           <t>25950</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr"/>
-      <c r="L13" s="1" t="inlineStr"/>
+      <c r="K13" s="9" t="inlineStr"/>
+      <c r="L13" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr"/>
-      <c r="B14" s="2" t="inlineStr"/>
-      <c r="C14" s="1" t="inlineStr"/>
-      <c r="D14" s="1" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr">
+      <c r="A14" s="9" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="inlineStr"/>
+      <c r="C14" s="9" t="inlineStr"/>
+      <c r="D14" s="9" t="inlineStr"/>
+      <c r="E14" s="12" t="inlineStr">
         <is>
           <t>AP-Stardust Telecom Ltd.</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr"/>
-      <c r="G14" s="1" t="inlineStr"/>
-      <c r="H14" s="1" t="inlineStr"/>
-      <c r="I14" s="1" t="inlineStr"/>
-      <c r="J14" s="8" t="inlineStr">
+      <c r="F14" s="9" t="inlineStr"/>
+      <c r="G14" s="9" t="inlineStr"/>
+      <c r="H14" s="9" t="inlineStr"/>
+      <c r="I14" s="9" t="inlineStr"/>
+      <c r="J14" s="14" t="inlineStr">
         <is>
           <t>5575</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr"/>
-      <c r="L14" s="1" t="inlineStr"/>
+      <c r="K14" s="9" t="inlineStr"/>
+      <c r="L14" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr"/>
-      <c r="B15" s="2" t="inlineStr"/>
-      <c r="C15" s="1" t="inlineStr"/>
-      <c r="D15" s="1" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr">
+      <c r="A15" s="9" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="inlineStr"/>
+      <c r="C15" s="9" t="inlineStr"/>
+      <c r="D15" s="9" t="inlineStr"/>
+      <c r="E15" s="12" t="inlineStr">
         <is>
           <t>AP-Stardust Telecom Ltd.</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr"/>
-      <c r="G15" s="1" t="inlineStr"/>
-      <c r="H15" s="1" t="inlineStr"/>
-      <c r="I15" s="1" t="inlineStr"/>
-      <c r="J15" s="8" t="inlineStr">
+      <c r="F15" s="9" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr"/>
+      <c r="H15" s="9" t="inlineStr"/>
+      <c r="I15" s="9" t="inlineStr"/>
+      <c r="J15" s="14" t="inlineStr">
         <is>
           <t>2957</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr"/>
-      <c r="L15" s="1" t="inlineStr"/>
+      <c r="K15" s="9" t="inlineStr"/>
+      <c r="L15" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr"/>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr"/>
-      <c r="D16" s="1" t="inlineStr"/>
-      <c r="E16" s="10" t="inlineStr">
+      <c r="A16" s="9" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 36010.00
+Borrower Amount: 36010.00</t>
+        </is>
+      </c>
+      <c r="C16" s="9" t="inlineStr"/>
+      <c r="D16" s="9" t="inlineStr"/>
+      <c r="E16" s="15" t="inlineStr">
         <is>
           <t>Amount paid to Stardust Telecom Ltd agt ISP Expenses for the month of December-2024. Bill no. MIME/2425/00012870, INV/DEC/202403167  MIME/2425/00012871, MIME/2425/00012872</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr"/>
-      <c r="G16" s="1" t="inlineStr"/>
-      <c r="H16" s="1" t="inlineStr"/>
-      <c r="I16" s="1" t="inlineStr"/>
-      <c r="J16" s="1" t="inlineStr"/>
-      <c r="K16" s="1" t="inlineStr"/>
-      <c r="L16" s="1" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr"/>
+      <c r="G16" s="9" t="inlineStr"/>
+      <c r="H16" s="9" t="inlineStr"/>
+      <c r="I16" s="9" t="inlineStr"/>
+      <c r="J16" s="9" t="inlineStr"/>
+      <c r="K16" s="9" t="inlineStr"/>
+      <c r="L16" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr"/>
-      <c r="B17" s="2" t="inlineStr"/>
-      <c r="C17" s="1" t="inlineStr"/>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="A17" s="9" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="inlineStr"/>
+      <c r="C17" s="9" t="inlineStr"/>
+      <c r="D17" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E17" s="11" t="inlineStr">
+      <c r="E17" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr"/>
-      <c r="G17" s="1" t="inlineStr"/>
-      <c r="H17" s="1" t="inlineStr"/>
-      <c r="I17" s="1" t="inlineStr"/>
-      <c r="J17" s="1" t="inlineStr"/>
-      <c r="K17" s="1" t="inlineStr"/>
-      <c r="L17" s="1" t="inlineStr"/>
+      <c r="F17" s="9" t="inlineStr"/>
+      <c r="G17" s="9" t="inlineStr"/>
+      <c r="H17" s="9" t="inlineStr"/>
+      <c r="I17" s="9" t="inlineStr"/>
+      <c r="J17" s="9" t="inlineStr"/>
+      <c r="K17" s="9" t="inlineStr"/>
+      <c r="L17" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="12" t="inlineStr">
+      <c r="A18" s="17" t="inlineStr">
         <is>
           <t>M018</t>
         </is>
       </c>
-      <c r="B18" s="13" t="inlineStr"/>
-      <c r="C18" s="14" t="inlineStr">
+      <c r="B18" s="18" t="inlineStr"/>
+      <c r="C18" s="19" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D18" s="12" t="inlineStr">
+      <c r="D18" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E18" s="15" t="inlineStr">
+      <c r="E18" s="20" t="inlineStr">
         <is>
           <t>Payable to Suhel Mia-ID:11370</t>
         </is>
       </c>
-      <c r="F18" s="12" t="inlineStr"/>
-      <c r="G18" s="12" t="inlineStr"/>
-      <c r="H18" s="16" t="inlineStr">
+      <c r="F18" s="17" t="inlineStr"/>
+      <c r="G18" s="17" t="inlineStr"/>
+      <c r="H18" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I18" s="12" t="inlineStr">
+      <c r="I18" s="17" t="inlineStr">
         <is>
           <t>848</t>
         </is>
       </c>
-      <c r="J18" s="12" t="inlineStr"/>
-      <c r="K18" s="17" t="inlineStr">
+      <c r="J18" s="17" t="inlineStr"/>
+      <c r="K18" s="22" t="inlineStr">
         <is>
           <t>99317</t>
         </is>
       </c>
-      <c r="L18" s="12" t="inlineStr">
+      <c r="L18" s="17" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="12" t="inlineStr">
+      <c r="A19" s="17" t="inlineStr">
         <is>
           <t>M018</t>
         </is>
       </c>
-      <c r="B19" s="13" t="inlineStr">
+      <c r="B19" s="18" t="inlineStr">
         <is>
           <t>Settlement Match (ID: 11370) - 'Final Settlement' keyword found
 Lender Amount: 99317.00
 Borrower Amount: 99317.00</t>
         </is>
       </c>
-      <c r="C19" s="12" t="inlineStr"/>
-      <c r="D19" s="12" t="inlineStr"/>
-      <c r="E19" s="18" t="inlineStr">
+      <c r="C19" s="17" t="inlineStr"/>
+      <c r="D19" s="17" t="inlineStr"/>
+      <c r="E19" s="23" t="inlineStr">
         <is>
           <t>Amount paid to Suhel Mia, Technician for final settlement. Employee ID: 11370</t>
         </is>
       </c>
-      <c r="F19" s="12" t="inlineStr"/>
-      <c r="G19" s="12" t="inlineStr"/>
-      <c r="H19" s="12" t="inlineStr"/>
-      <c r="I19" s="12" t="inlineStr"/>
-      <c r="J19" s="12" t="inlineStr"/>
-      <c r="K19" s="12" t="inlineStr"/>
-      <c r="L19" s="12" t="inlineStr">
+      <c r="F19" s="17" t="inlineStr"/>
+      <c r="G19" s="17" t="inlineStr"/>
+      <c r="H19" s="17" t="inlineStr"/>
+      <c r="I19" s="17" t="inlineStr"/>
+      <c r="J19" s="17" t="inlineStr"/>
+      <c r="K19" s="17" t="inlineStr"/>
+      <c r="L19" s="17" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="12" t="inlineStr">
+      <c r="A20" s="17" t="inlineStr">
         <is>
           <t>M018</t>
         </is>
       </c>
-      <c r="B20" s="13" t="inlineStr"/>
-      <c r="C20" s="12" t="inlineStr"/>
-      <c r="D20" s="12" t="inlineStr">
+      <c r="B20" s="18" t="inlineStr"/>
+      <c r="C20" s="17" t="inlineStr"/>
+      <c r="D20" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E20" s="19" t="inlineStr">
+      <c r="E20" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F20" s="12" t="inlineStr"/>
-      <c r="G20" s="12" t="inlineStr"/>
-      <c r="H20" s="12" t="inlineStr"/>
-      <c r="I20" s="12" t="inlineStr"/>
-      <c r="J20" s="12" t="inlineStr"/>
-      <c r="K20" s="12" t="inlineStr"/>
-      <c r="L20" s="12" t="inlineStr">
+      <c r="F20" s="17" t="inlineStr"/>
+      <c r="G20" s="17" t="inlineStr"/>
+      <c r="H20" s="17" t="inlineStr"/>
+      <c r="I20" s="17" t="inlineStr"/>
+      <c r="J20" s="17" t="inlineStr"/>
+      <c r="K20" s="17" t="inlineStr"/>
+      <c r="L20" s="17" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="20" t="inlineStr">
+      <c r="A21" s="9" t="inlineStr">
         <is>
           <t>M019</t>
         </is>
       </c>
-      <c r="B21" s="21" t="inlineStr"/>
-      <c r="C21" s="22" t="inlineStr">
+      <c r="B21" s="10" t="inlineStr"/>
+      <c r="C21" s="11" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D21" s="20" t="inlineStr">
+      <c r="D21" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E21" s="23" t="inlineStr">
+      <c r="E21" s="12" t="inlineStr">
         <is>
           <t>Payable to Poritosh Chandra Das-ID:10199</t>
         </is>
       </c>
-      <c r="F21" s="20" t="inlineStr"/>
-      <c r="G21" s="20" t="inlineStr"/>
-      <c r="H21" s="24" t="inlineStr">
+      <c r="F21" s="9" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr"/>
+      <c r="H21" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I21" s="20" t="inlineStr">
+      <c r="I21" s="9" t="inlineStr">
         <is>
           <t>849</t>
         </is>
       </c>
-      <c r="J21" s="20" t="inlineStr"/>
-      <c r="K21" s="25" t="inlineStr">
+      <c r="J21" s="9" t="inlineStr"/>
+      <c r="K21" s="14" t="inlineStr">
         <is>
           <t>20130</t>
         </is>
       </c>
-      <c r="L21" s="20" t="inlineStr">
+      <c r="L21" s="9" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="20" t="inlineStr">
+      <c r="A22" s="9" t="inlineStr">
         <is>
           <t>M019</t>
         </is>
       </c>
-      <c r="B22" s="21" t="inlineStr">
+      <c r="B22" s="10" t="inlineStr">
         <is>
           <t>Settlement Match (ID: 10199) - 'Final Settlement' keyword found
 Lender Amount: 20130.00
 Borrower Amount: 20130.00</t>
         </is>
       </c>
-      <c r="C22" s="20" t="inlineStr"/>
-      <c r="D22" s="20" t="inlineStr"/>
-      <c r="E22" s="26" t="inlineStr">
+      <c r="C22" s="9" t="inlineStr"/>
+      <c r="D22" s="9" t="inlineStr"/>
+      <c r="E22" s="15" t="inlineStr">
         <is>
           <t>Amount paid to Poritosh Chandra Das, Security Supervisor-Human Resources &amp; Administration for final settlement. Employee ID: 10199</t>
         </is>
       </c>
-      <c r="F22" s="20" t="inlineStr"/>
-      <c r="G22" s="20" t="inlineStr"/>
-      <c r="H22" s="20" t="inlineStr"/>
-      <c r="I22" s="20" t="inlineStr"/>
-      <c r="J22" s="20" t="inlineStr"/>
-      <c r="K22" s="20" t="inlineStr"/>
-      <c r="L22" s="20" t="inlineStr">
+      <c r="F22" s="9" t="inlineStr"/>
+      <c r="G22" s="9" t="inlineStr"/>
+      <c r="H22" s="9" t="inlineStr"/>
+      <c r="I22" s="9" t="inlineStr"/>
+      <c r="J22" s="9" t="inlineStr"/>
+      <c r="K22" s="9" t="inlineStr"/>
+      <c r="L22" s="9" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="20" t="inlineStr">
+      <c r="A23" s="9" t="inlineStr">
         <is>
           <t>M019</t>
         </is>
       </c>
-      <c r="B23" s="21" t="inlineStr"/>
-      <c r="C23" s="20" t="inlineStr"/>
-      <c r="D23" s="20" t="inlineStr">
+      <c r="B23" s="10" t="inlineStr"/>
+      <c r="C23" s="9" t="inlineStr"/>
+      <c r="D23" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E23" s="27" t="inlineStr">
+      <c r="E23" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F23" s="20" t="inlineStr"/>
-      <c r="G23" s="20" t="inlineStr"/>
-      <c r="H23" s="20" t="inlineStr"/>
-      <c r="I23" s="20" t="inlineStr"/>
-      <c r="J23" s="20" t="inlineStr"/>
-      <c r="K23" s="20" t="inlineStr"/>
-      <c r="L23" s="20" t="inlineStr">
+      <c r="F23" s="9" t="inlineStr"/>
+      <c r="G23" s="9" t="inlineStr"/>
+      <c r="H23" s="9" t="inlineStr"/>
+      <c r="I23" s="9" t="inlineStr"/>
+      <c r="J23" s="9" t="inlineStr"/>
+      <c r="K23" s="9" t="inlineStr"/>
+      <c r="L23" s="9" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="12" t="inlineStr">
+      <c r="A24" s="17" t="inlineStr">
         <is>
           <t>M020</t>
         </is>
       </c>
-      <c r="B24" s="13" t="inlineStr"/>
-      <c r="C24" s="14" t="inlineStr">
+      <c r="B24" s="18" t="inlineStr"/>
+      <c r="C24" s="19" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D24" s="12" t="inlineStr">
+      <c r="D24" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E24" s="15" t="inlineStr">
+      <c r="E24" s="20" t="inlineStr">
         <is>
           <t>Payable to Md. Nor Mohammad-ID:11711</t>
         </is>
       </c>
-      <c r="F24" s="12" t="inlineStr"/>
-      <c r="G24" s="12" t="inlineStr"/>
-      <c r="H24" s="16" t="inlineStr">
+      <c r="F24" s="17" t="inlineStr"/>
+      <c r="G24" s="17" t="inlineStr"/>
+      <c r="H24" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I24" s="12" t="inlineStr">
+      <c r="I24" s="17" t="inlineStr">
         <is>
           <t>850</t>
         </is>
       </c>
-      <c r="J24" s="12" t="inlineStr"/>
-      <c r="K24" s="17" t="inlineStr">
+      <c r="J24" s="17" t="inlineStr"/>
+      <c r="K24" s="22" t="inlineStr">
         <is>
           <t>94109</t>
         </is>
       </c>
-      <c r="L24" s="12" t="inlineStr">
+      <c r="L24" s="17" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="12" t="inlineStr">
+      <c r="A25" s="17" t="inlineStr">
         <is>
           <t>M020</t>
         </is>
       </c>
-      <c r="B25" s="13" t="inlineStr">
+      <c r="B25" s="18" t="inlineStr">
         <is>
           <t>Settlement Match (ID: 11711) - 'Final Settlement' keyword found
 Lender Amount: 94109.00
 Borrower Amount: 94109.00</t>
         </is>
       </c>
-      <c r="C25" s="12" t="inlineStr"/>
-      <c r="D25" s="12" t="inlineStr"/>
-      <c r="E25" s="18" t="inlineStr">
+      <c r="C25" s="17" t="inlineStr"/>
+      <c r="D25" s="17" t="inlineStr"/>
+      <c r="E25" s="23" t="inlineStr">
         <is>
           <t>Amount paid to Md. Nor Mahammad, Technician for final settlement. Employee ID: 11711</t>
         </is>
       </c>
-      <c r="F25" s="12" t="inlineStr"/>
-      <c r="G25" s="12" t="inlineStr"/>
-      <c r="H25" s="12" t="inlineStr"/>
-      <c r="I25" s="12" t="inlineStr"/>
-      <c r="J25" s="12" t="inlineStr"/>
-      <c r="K25" s="12" t="inlineStr"/>
-      <c r="L25" s="12" t="inlineStr">
+      <c r="F25" s="17" t="inlineStr"/>
+      <c r="G25" s="17" t="inlineStr"/>
+      <c r="H25" s="17" t="inlineStr"/>
+      <c r="I25" s="17" t="inlineStr"/>
+      <c r="J25" s="17" t="inlineStr"/>
+      <c r="K25" s="17" t="inlineStr"/>
+      <c r="L25" s="17" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="12" t="inlineStr">
+      <c r="A26" s="17" t="inlineStr">
         <is>
           <t>M020</t>
         </is>
       </c>
-      <c r="B26" s="13" t="inlineStr"/>
-      <c r="C26" s="12" t="inlineStr"/>
-      <c r="D26" s="12" t="inlineStr">
+      <c r="B26" s="18" t="inlineStr"/>
+      <c r="C26" s="17" t="inlineStr"/>
+      <c r="D26" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E26" s="19" t="inlineStr">
+      <c r="E26" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F26" s="12" t="inlineStr"/>
-      <c r="G26" s="12" t="inlineStr"/>
-      <c r="H26" s="12" t="inlineStr"/>
-      <c r="I26" s="12" t="inlineStr"/>
-      <c r="J26" s="12" t="inlineStr"/>
-      <c r="K26" s="12" t="inlineStr"/>
-      <c r="L26" s="12" t="inlineStr">
+      <c r="F26" s="17" t="inlineStr"/>
+      <c r="G26" s="17" t="inlineStr"/>
+      <c r="H26" s="17" t="inlineStr"/>
+      <c r="I26" s="17" t="inlineStr"/>
+      <c r="J26" s="17" t="inlineStr"/>
+      <c r="K26" s="17" t="inlineStr"/>
+      <c r="L26" s="17" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="20" t="inlineStr">
+      <c r="A27" s="9" t="inlineStr">
         <is>
           <t>M022</t>
         </is>
       </c>
-      <c r="B27" s="21" t="inlineStr"/>
-      <c r="C27" s="22" t="inlineStr">
+      <c r="B27" s="10" t="inlineStr"/>
+      <c r="C27" s="11" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D27" s="20" t="inlineStr">
+      <c r="D27" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E27" s="23" t="inlineStr">
+      <c r="E27" s="12" t="inlineStr">
         <is>
           <t>Payable to Md. Ahsan Habib-ID:12107</t>
         </is>
       </c>
-      <c r="F27" s="20" t="inlineStr"/>
-      <c r="G27" s="20" t="inlineStr"/>
-      <c r="H27" s="24" t="inlineStr">
+      <c r="F27" s="9" t="inlineStr"/>
+      <c r="G27" s="9" t="inlineStr"/>
+      <c r="H27" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I27" s="20" t="inlineStr">
+      <c r="I27" s="9" t="inlineStr">
         <is>
           <t>851</t>
         </is>
       </c>
-      <c r="J27" s="20" t="inlineStr"/>
-      <c r="K27" s="25" t="inlineStr">
+      <c r="J27" s="9" t="inlineStr"/>
+      <c r="K27" s="14" t="inlineStr">
         <is>
           <t>93314</t>
         </is>
       </c>
-      <c r="L27" s="20" t="inlineStr">
+      <c r="L27" s="9" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="20" t="inlineStr">
+      <c r="A28" s="9" t="inlineStr">
         <is>
           <t>M022</t>
         </is>
       </c>
-      <c r="B28" s="21" t="inlineStr">
+      <c r="B28" s="10" t="inlineStr">
         <is>
           <t>Settlement Match (ID: 12107) - 'Final Settlement' keyword found
 Lender Amount: 93314.00
 Borrower Amount: 93314.00</t>
         </is>
       </c>
-      <c r="C28" s="20" t="inlineStr"/>
-      <c r="D28" s="20" t="inlineStr"/>
-      <c r="E28" s="26" t="inlineStr">
+      <c r="C28" s="9" t="inlineStr"/>
+      <c r="D28" s="9" t="inlineStr"/>
+      <c r="E28" s="15" t="inlineStr">
         <is>
           <t>Amount paid to Md. Ahsan Habib, Executive-Internal Audit &amp; Compliance for final settlement. Employee ID: 12107</t>
         </is>
       </c>
-      <c r="F28" s="20" t="inlineStr"/>
-      <c r="G28" s="20" t="inlineStr"/>
-      <c r="H28" s="20" t="inlineStr"/>
-      <c r="I28" s="20" t="inlineStr"/>
-      <c r="J28" s="20" t="inlineStr"/>
-      <c r="K28" s="20" t="inlineStr"/>
-      <c r="L28" s="20" t="inlineStr">
+      <c r="F28" s="9" t="inlineStr"/>
+      <c r="G28" s="9" t="inlineStr"/>
+      <c r="H28" s="9" t="inlineStr"/>
+      <c r="I28" s="9" t="inlineStr"/>
+      <c r="J28" s="9" t="inlineStr"/>
+      <c r="K28" s="9" t="inlineStr"/>
+      <c r="L28" s="9" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="20" t="inlineStr">
+      <c r="A29" s="9" t="inlineStr">
         <is>
           <t>M022</t>
         </is>
       </c>
-      <c r="B29" s="21" t="inlineStr"/>
-      <c r="C29" s="20" t="inlineStr"/>
-      <c r="D29" s="20" t="inlineStr">
+      <c r="B29" s="10" t="inlineStr"/>
+      <c r="C29" s="9" t="inlineStr"/>
+      <c r="D29" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E29" s="27" t="inlineStr">
+      <c r="E29" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F29" s="20" t="inlineStr"/>
-      <c r="G29" s="20" t="inlineStr"/>
-      <c r="H29" s="20" t="inlineStr"/>
-      <c r="I29" s="20" t="inlineStr"/>
-      <c r="J29" s="20" t="inlineStr"/>
-      <c r="K29" s="20" t="inlineStr"/>
-      <c r="L29" s="20" t="inlineStr">
+      <c r="F29" s="9" t="inlineStr"/>
+      <c r="G29" s="9" t="inlineStr"/>
+      <c r="H29" s="9" t="inlineStr"/>
+      <c r="I29" s="9" t="inlineStr"/>
+      <c r="J29" s="9" t="inlineStr"/>
+      <c r="K29" s="9" t="inlineStr"/>
+      <c r="L29" s="9" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="12" t="inlineStr">
+      <c r="A30" s="17" t="inlineStr">
         <is>
           <t>M021</t>
         </is>
       </c>
-      <c r="B30" s="13" t="inlineStr"/>
-      <c r="C30" s="14" t="inlineStr">
+      <c r="B30" s="18" t="inlineStr"/>
+      <c r="C30" s="19" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D30" s="12" t="inlineStr">
+      <c r="D30" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E30" s="15" t="inlineStr">
+      <c r="E30" s="20" t="inlineStr">
         <is>
           <t>Payable to Md. Salah Uddin-ID:11134</t>
         </is>
       </c>
-      <c r="F30" s="12" t="inlineStr"/>
-      <c r="G30" s="12" t="inlineStr"/>
-      <c r="H30" s="16" t="inlineStr">
+      <c r="F30" s="17" t="inlineStr"/>
+      <c r="G30" s="17" t="inlineStr"/>
+      <c r="H30" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I30" s="12" t="inlineStr">
+      <c r="I30" s="17" t="inlineStr">
         <is>
           <t>852</t>
         </is>
       </c>
-      <c r="J30" s="12" t="inlineStr"/>
-      <c r="K30" s="17" t="inlineStr">
+      <c r="J30" s="17" t="inlineStr"/>
+      <c r="K30" s="22" t="inlineStr">
         <is>
           <t>13909</t>
         </is>
       </c>
-      <c r="L30" s="12" t="inlineStr">
+      <c r="L30" s="17" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="12" t="inlineStr">
+      <c r="A31" s="17" t="inlineStr">
         <is>
           <t>M021</t>
         </is>
       </c>
-      <c r="B31" s="13" t="inlineStr">
+      <c r="B31" s="18" t="inlineStr">
         <is>
           <t>Settlement Match (ID: 11134) - 'Final Settlement' keyword found
 Lender Amount: 13909.00
 Borrower Amount: 13909.00</t>
         </is>
       </c>
-      <c r="C31" s="12" t="inlineStr"/>
-      <c r="D31" s="12" t="inlineStr"/>
-      <c r="E31" s="18" t="inlineStr">
+      <c r="C31" s="17" t="inlineStr"/>
+      <c r="D31" s="17" t="inlineStr"/>
+      <c r="E31" s="23" t="inlineStr">
         <is>
           <t>Amount paid to Md. Salah Uddin, Office Assistant-Human Resources &amp; Administration for final settlement. Employee ID: 11134</t>
         </is>
       </c>
-      <c r="F31" s="12" t="inlineStr"/>
-      <c r="G31" s="12" t="inlineStr"/>
-      <c r="H31" s="12" t="inlineStr"/>
-      <c r="I31" s="12" t="inlineStr"/>
-      <c r="J31" s="12" t="inlineStr"/>
-      <c r="K31" s="12" t="inlineStr"/>
-      <c r="L31" s="12" t="inlineStr">
+      <c r="F31" s="17" t="inlineStr"/>
+      <c r="G31" s="17" t="inlineStr"/>
+      <c r="H31" s="17" t="inlineStr"/>
+      <c r="I31" s="17" t="inlineStr"/>
+      <c r="J31" s="17" t="inlineStr"/>
+      <c r="K31" s="17" t="inlineStr"/>
+      <c r="L31" s="17" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="12" t="inlineStr">
+      <c r="A32" s="17" t="inlineStr">
         <is>
           <t>M021</t>
         </is>
       </c>
-      <c r="B32" s="13" t="inlineStr"/>
-      <c r="C32" s="12" t="inlineStr"/>
-      <c r="D32" s="12" t="inlineStr">
+      <c r="B32" s="18" t="inlineStr"/>
+      <c r="C32" s="17" t="inlineStr"/>
+      <c r="D32" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E32" s="19" t="inlineStr">
+      <c r="E32" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F32" s="12" t="inlineStr"/>
-      <c r="G32" s="12" t="inlineStr"/>
-      <c r="H32" s="12" t="inlineStr"/>
-      <c r="I32" s="12" t="inlineStr"/>
-      <c r="J32" s="12" t="inlineStr"/>
-      <c r="K32" s="12" t="inlineStr"/>
-      <c r="L32" s="12" t="inlineStr">
+      <c r="F32" s="17" t="inlineStr"/>
+      <c r="G32" s="17" t="inlineStr"/>
+      <c r="H32" s="17" t="inlineStr"/>
+      <c r="I32" s="17" t="inlineStr"/>
+      <c r="J32" s="17" t="inlineStr"/>
+      <c r="K32" s="17" t="inlineStr"/>
+      <c r="L32" s="17" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="20" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
-      <c r="B33" s="21" t="inlineStr"/>
-      <c r="C33" s="22" t="inlineStr">
+      <c r="A33" s="9" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
+      <c r="B33" s="10" t="inlineStr"/>
+      <c r="C33" s="11" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D33" s="20" t="inlineStr">
+      <c r="D33" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E33" s="23" t="inlineStr">
+      <c r="E33" s="12" t="inlineStr">
         <is>
           <t>(as per details)</t>
         </is>
       </c>
-      <c r="F33" s="20" t="inlineStr"/>
-      <c r="G33" s="20" t="inlineStr"/>
-      <c r="H33" s="24" t="inlineStr">
+      <c r="F33" s="9" t="inlineStr"/>
+      <c r="G33" s="9" t="inlineStr"/>
+      <c r="H33" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I33" s="20" t="inlineStr">
+      <c r="I33" s="9" t="inlineStr">
         <is>
           <t>855</t>
         </is>
       </c>
-      <c r="J33" s="25" t="inlineStr">
+      <c r="J33" s="14" t="inlineStr">
         <is>
           <t>83402</t>
         </is>
       </c>
-      <c r="K33" s="20" t="inlineStr"/>
-      <c r="L33" s="20" t="inlineStr">
+      <c r="K33" s="9" t="inlineStr"/>
+      <c r="L33" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="20" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
-      <c r="B34" s="21" t="inlineStr"/>
-      <c r="C34" s="20" t="inlineStr"/>
-      <c r="D34" s="20" t="inlineStr"/>
-      <c r="E34" s="23" t="inlineStr">
+      <c r="A34" s="9" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
+      <c r="B34" s="10" t="inlineStr"/>
+      <c r="C34" s="9" t="inlineStr"/>
+      <c r="D34" s="9" t="inlineStr"/>
+      <c r="E34" s="12" t="inlineStr">
         <is>
           <t>Sundry Receivable-Pioneer Insurance Co. Ltd.</t>
         </is>
       </c>
-      <c r="F34" s="20" t="inlineStr"/>
-      <c r="G34" s="20" t="inlineStr"/>
-      <c r="H34" s="20" t="inlineStr"/>
-      <c r="I34" s="20" t="inlineStr"/>
-      <c r="J34" s="25" t="inlineStr">
+      <c r="F34" s="9" t="inlineStr"/>
+      <c r="G34" s="9" t="inlineStr"/>
+      <c r="H34" s="9" t="inlineStr"/>
+      <c r="I34" s="9" t="inlineStr"/>
+      <c r="J34" s="14" t="inlineStr">
         <is>
           <t>35023</t>
         </is>
       </c>
-      <c r="K34" s="20" t="inlineStr"/>
-      <c r="L34" s="20" t="inlineStr">
+      <c r="K34" s="9" t="inlineStr"/>
+      <c r="L34" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="20" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
-      <c r="B35" s="21" t="inlineStr"/>
-      <c r="C35" s="20" t="inlineStr"/>
-      <c r="D35" s="20" t="inlineStr"/>
-      <c r="E35" s="23" t="inlineStr">
+      <c r="A35" s="9" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
+      <c r="B35" s="10" t="inlineStr"/>
+      <c r="C35" s="9" t="inlineStr"/>
+      <c r="D35" s="9" t="inlineStr"/>
+      <c r="E35" s="12" t="inlineStr">
         <is>
           <t>AP-Pioneer Insurance Company Limited</t>
         </is>
       </c>
-      <c r="F35" s="20" t="inlineStr"/>
-      <c r="G35" s="20" t="inlineStr"/>
-      <c r="H35" s="20" t="inlineStr"/>
-      <c r="I35" s="20" t="inlineStr"/>
-      <c r="J35" s="20" t="inlineStr"/>
-      <c r="K35" s="25" t="inlineStr">
+      <c r="F35" s="9" t="inlineStr"/>
+      <c r="G35" s="9" t="inlineStr"/>
+      <c r="H35" s="9" t="inlineStr"/>
+      <c r="I35" s="9" t="inlineStr"/>
+      <c r="J35" s="9" t="inlineStr"/>
+      <c r="K35" s="14" t="inlineStr">
         <is>
           <t>118425</t>
         </is>
       </c>
-      <c r="L35" s="20" t="inlineStr">
+      <c r="L35" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="20" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
-      <c r="B36" s="21" t="inlineStr">
+      <c r="A36" s="9" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
+      <c r="B36" s="10" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 0.00
 Borrower Amount: 0.00</t>
         </is>
       </c>
-      <c r="C36" s="20" t="inlineStr"/>
-      <c r="D36" s="20" t="inlineStr"/>
-      <c r="E36" s="26" t="inlineStr">
+      <c r="C36" s="9" t="inlineStr"/>
+      <c r="D36" s="9" t="inlineStr"/>
+      <c r="E36" s="15" t="inlineStr">
         <is>
           <t>Being the amount payable &amp; receivable 35% On Net premium To Pioneer Insurance Co Ltd agt Insurance Premium cost. LC no.12043</t>
         </is>
       </c>
-      <c r="F36" s="20" t="inlineStr"/>
-      <c r="G36" s="20" t="inlineStr"/>
-      <c r="H36" s="20" t="inlineStr"/>
-      <c r="I36" s="20" t="inlineStr"/>
-      <c r="J36" s="20" t="inlineStr"/>
-      <c r="K36" s="20" t="inlineStr"/>
-      <c r="L36" s="20" t="inlineStr">
+      <c r="F36" s="9" t="inlineStr"/>
+      <c r="G36" s="9" t="inlineStr"/>
+      <c r="H36" s="9" t="inlineStr"/>
+      <c r="I36" s="9" t="inlineStr"/>
+      <c r="J36" s="9" t="inlineStr"/>
+      <c r="K36" s="9" t="inlineStr"/>
+      <c r="L36" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="20" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
-      <c r="B37" s="21" t="inlineStr"/>
-      <c r="C37" s="20" t="inlineStr"/>
-      <c r="D37" s="20" t="inlineStr">
+      <c r="A37" s="9" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
+      <c r="B37" s="10" t="inlineStr"/>
+      <c r="C37" s="9" t="inlineStr"/>
+      <c r="D37" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E37" s="27" t="inlineStr">
+      <c r="E37" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F37" s="20" t="inlineStr"/>
-      <c r="G37" s="20" t="inlineStr"/>
-      <c r="H37" s="20" t="inlineStr"/>
-      <c r="I37" s="20" t="inlineStr"/>
-      <c r="J37" s="20" t="inlineStr"/>
-      <c r="K37" s="20" t="inlineStr"/>
-      <c r="L37" s="20" t="inlineStr">
+      <c r="F37" s="9" t="inlineStr"/>
+      <c r="G37" s="9" t="inlineStr"/>
+      <c r="H37" s="9" t="inlineStr"/>
+      <c r="I37" s="9" t="inlineStr"/>
+      <c r="J37" s="9" t="inlineStr"/>
+      <c r="K37" s="9" t="inlineStr"/>
+      <c r="L37" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr"/>
-      <c r="B38" s="2" t="inlineStr"/>
-      <c r="C38" s="6" t="inlineStr">
+      <c r="A38" s="17" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B38" s="18" t="inlineStr"/>
+      <c r="C38" s="19" t="inlineStr">
         <is>
           <t>02/Jun/2025</t>
         </is>
       </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="D38" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E38" s="7" t="inlineStr">
+      <c r="E38" s="20" t="inlineStr">
         <is>
           <t>Sundry Parties-Jiangsu Dechun Power Electric Co Ltd</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr"/>
-      <c r="G38" s="1" t="inlineStr"/>
-      <c r="H38" s="9" t="inlineStr">
+      <c r="F38" s="17" t="inlineStr"/>
+      <c r="G38" s="17" t="inlineStr"/>
+      <c r="H38" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="I38" s="17" t="inlineStr">
         <is>
           <t>860</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr"/>
-      <c r="K38" s="8" t="inlineStr">
+      <c r="J38" s="17" t="inlineStr"/>
+      <c r="K38" s="22" t="inlineStr">
         <is>
           <t>9075000</t>
         </is>
       </c>
-      <c r="L38" s="1" t="inlineStr"/>
+      <c r="L38" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr"/>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr"/>
-      <c r="D39" s="1" t="inlineStr"/>
-      <c r="E39" s="10" t="inlineStr">
+      <c r="A39" s="17" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B39" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 9075000.00
+Borrower Amount: 9075000.00</t>
+        </is>
+      </c>
+      <c r="C39" s="17" t="inlineStr"/>
+      <c r="D39" s="17" t="inlineStr"/>
+      <c r="E39" s="23" t="inlineStr">
         <is>
           <t>Amounts being payment Jiangsu Dechun Power Electric Co Ltd $75000@121, Previous total received(Received Voucher: Amounts received as Advance agt PO number : 27.24.0000.014.14.001.18.125. GD-5, Total $3,68,299 @117/-, CIL-218299 &amp; Jiangsu-150,000)</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr"/>
-      <c r="G39" s="1" t="inlineStr"/>
-      <c r="H39" s="1" t="inlineStr"/>
-      <c r="I39" s="1" t="inlineStr"/>
-      <c r="J39" s="1" t="inlineStr"/>
-      <c r="K39" s="1" t="inlineStr"/>
-      <c r="L39" s="1" t="inlineStr"/>
+      <c r="F39" s="17" t="inlineStr"/>
+      <c r="G39" s="17" t="inlineStr"/>
+      <c r="H39" s="17" t="inlineStr"/>
+      <c r="I39" s="17" t="inlineStr"/>
+      <c r="J39" s="17" t="inlineStr"/>
+      <c r="K39" s="17" t="inlineStr"/>
+      <c r="L39" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr"/>
-      <c r="B40" s="2" t="inlineStr"/>
-      <c r="C40" s="1" t="inlineStr"/>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="A40" s="17" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B40" s="18" t="inlineStr"/>
+      <c r="C40" s="17" t="inlineStr"/>
+      <c r="D40" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E40" s="11" t="inlineStr">
+      <c r="E40" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr"/>
-      <c r="G40" s="1" t="inlineStr"/>
-      <c r="H40" s="1" t="inlineStr"/>
-      <c r="I40" s="1" t="inlineStr"/>
-      <c r="J40" s="1" t="inlineStr"/>
-      <c r="K40" s="1" t="inlineStr"/>
-      <c r="L40" s="1" t="inlineStr"/>
+      <c r="F40" s="17" t="inlineStr"/>
+      <c r="G40" s="17" t="inlineStr"/>
+      <c r="H40" s="17" t="inlineStr"/>
+      <c r="I40" s="17" t="inlineStr"/>
+      <c r="J40" s="17" t="inlineStr"/>
+      <c r="K40" s="17" t="inlineStr"/>
+      <c r="L40" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="12" t="inlineStr">
-        <is>
-          <t>M006</t>
-        </is>
-      </c>
-      <c r="B41" s="13" t="inlineStr"/>
-      <c r="C41" s="14" t="inlineStr">
+      <c r="A41" s="9" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="B41" s="10" t="inlineStr"/>
+      <c r="C41" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D41" s="12" t="inlineStr">
+      <c r="D41" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E41" s="15" t="inlineStr">
+      <c r="E41" s="12" t="inlineStr">
         <is>
           <t>PBL-SND- 2126312011060</t>
         </is>
       </c>
-      <c r="F41" s="12" t="inlineStr"/>
-      <c r="G41" s="12" t="inlineStr"/>
-      <c r="H41" s="16" t="inlineStr">
+      <c r="F41" s="9" t="inlineStr"/>
+      <c r="G41" s="9" t="inlineStr"/>
+      <c r="H41" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I41" s="12" t="inlineStr">
+      <c r="I41" s="9" t="inlineStr">
         <is>
           <t>18143</t>
         </is>
       </c>
-      <c r="J41" s="17" t="inlineStr">
+      <c r="J41" s="14" t="inlineStr">
         <is>
           <t>9539</t>
         </is>
       </c>
-      <c r="K41" s="12" t="inlineStr"/>
-      <c r="L41" s="12" t="inlineStr">
+      <c r="K41" s="9" t="inlineStr"/>
+      <c r="L41" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="12" t="inlineStr">
-        <is>
-          <t>M006</t>
-        </is>
-      </c>
-      <c r="B42" s="13" t="inlineStr">
+      <c r="A42" s="9" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="B42" s="10" t="inlineStr">
         <is>
           <t>Interunit Loan Match: PBL#11060
 Lender Amount: 9539.00
 Borrower Amount: 9539.00</t>
         </is>
       </c>
-      <c r="C42" s="12" t="inlineStr"/>
-      <c r="D42" s="12" t="inlineStr"/>
-      <c r="E42" s="18" t="inlineStr">
+      <c r="C42" s="9" t="inlineStr"/>
+      <c r="D42" s="9" t="inlineStr"/>
+      <c r="E42" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to IDLC Finance Ltd. agt. Interest for the Loan 1026109496388134  Over Due interest for April-2025, Supporting as Email, date on 03 June-2025 also Bank Dr. same date from CIL-PBL-2126312011060</t>
         </is>
       </c>
-      <c r="F42" s="12" t="inlineStr"/>
-      <c r="G42" s="12" t="inlineStr"/>
-      <c r="H42" s="12" t="inlineStr"/>
-      <c r="I42" s="12" t="inlineStr"/>
-      <c r="J42" s="12" t="inlineStr"/>
-      <c r="K42" s="12" t="inlineStr"/>
-      <c r="L42" s="12" t="inlineStr">
+      <c r="F42" s="9" t="inlineStr"/>
+      <c r="G42" s="9" t="inlineStr"/>
+      <c r="H42" s="9" t="inlineStr"/>
+      <c r="I42" s="9" t="inlineStr"/>
+      <c r="J42" s="9" t="inlineStr"/>
+      <c r="K42" s="9" t="inlineStr"/>
+      <c r="L42" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="12" t="inlineStr">
-        <is>
-          <t>M006</t>
-        </is>
-      </c>
-      <c r="B43" s="13" t="inlineStr"/>
-      <c r="C43" s="12" t="inlineStr"/>
-      <c r="D43" s="12" t="inlineStr">
+      <c r="A43" s="9" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="B43" s="10" t="inlineStr"/>
+      <c r="C43" s="9" t="inlineStr"/>
+      <c r="D43" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E43" s="19" t="inlineStr">
+      <c r="E43" s="16" t="inlineStr">
         <is>
           <t>ziaul</t>
         </is>
       </c>
-      <c r="F43" s="12" t="inlineStr"/>
-      <c r="G43" s="12" t="inlineStr"/>
-      <c r="H43" s="12" t="inlineStr"/>
-      <c r="I43" s="12" t="inlineStr"/>
-      <c r="J43" s="12" t="inlineStr"/>
-      <c r="K43" s="12" t="inlineStr"/>
-      <c r="L43" s="12" t="inlineStr">
+      <c r="F43" s="9" t="inlineStr"/>
+      <c r="G43" s="9" t="inlineStr"/>
+      <c r="H43" s="9" t="inlineStr"/>
+      <c r="I43" s="9" t="inlineStr"/>
+      <c r="J43" s="9" t="inlineStr"/>
+      <c r="K43" s="9" t="inlineStr"/>
+      <c r="L43" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="20" t="inlineStr">
+      <c r="A44" s="17" t="inlineStr">
         <is>
           <t>M010</t>
         </is>
       </c>
-      <c r="B44" s="21" t="inlineStr"/>
-      <c r="C44" s="22" t="inlineStr">
+      <c r="B44" s="18" t="inlineStr"/>
+      <c r="C44" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D44" s="20" t="inlineStr">
+      <c r="D44" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E44" s="23" t="inlineStr">
+      <c r="E44" s="20" t="inlineStr">
         <is>
           <t>Midland Bank Ltd-CE-0011-1060000313</t>
         </is>
       </c>
-      <c r="F44" s="20" t="inlineStr"/>
-      <c r="G44" s="20" t="inlineStr"/>
-      <c r="H44" s="24" t="inlineStr">
+      <c r="F44" s="17" t="inlineStr"/>
+      <c r="G44" s="17" t="inlineStr"/>
+      <c r="H44" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I44" s="20" t="inlineStr">
+      <c r="I44" s="17" t="inlineStr">
         <is>
           <t>18148</t>
         </is>
       </c>
-      <c r="J44" s="25" t="inlineStr">
+      <c r="J44" s="22" t="inlineStr">
         <is>
           <t>3700000</t>
         </is>
       </c>
-      <c r="K44" s="20" t="inlineStr"/>
-      <c r="L44" s="20" t="inlineStr">
+      <c r="K44" s="17" t="inlineStr"/>
+      <c r="L44" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="20" t="inlineStr">
+      <c r="A45" s="17" t="inlineStr">
         <is>
           <t>M010</t>
         </is>
       </c>
-      <c r="B45" s="21" t="inlineStr">
+      <c r="B45" s="18" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0313
 Lender Amount: 3700000.00
 Borrower Amount: 3700000.00</t>
         </is>
       </c>
-      <c r="C45" s="20" t="inlineStr"/>
-      <c r="D45" s="20" t="inlineStr"/>
-      <c r="E45" s="26" t="inlineStr">
+      <c r="C45" s="17" t="inlineStr"/>
+      <c r="D45" s="17" t="inlineStr"/>
+      <c r="E45" s="23" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Interunit Loan A/C-Steel Unit, DBBL#3834</t>
         </is>
       </c>
-      <c r="F45" s="20" t="inlineStr"/>
-      <c r="G45" s="20" t="inlineStr"/>
-      <c r="H45" s="20" t="inlineStr"/>
-      <c r="I45" s="20" t="inlineStr"/>
-      <c r="J45" s="20" t="inlineStr"/>
-      <c r="K45" s="20" t="inlineStr"/>
-      <c r="L45" s="20" t="inlineStr">
+      <c r="F45" s="17" t="inlineStr"/>
+      <c r="G45" s="17" t="inlineStr"/>
+      <c r="H45" s="17" t="inlineStr"/>
+      <c r="I45" s="17" t="inlineStr"/>
+      <c r="J45" s="17" t="inlineStr"/>
+      <c r="K45" s="17" t="inlineStr"/>
+      <c r="L45" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="20" t="inlineStr">
+      <c r="A46" s="17" t="inlineStr">
         <is>
           <t>M010</t>
         </is>
       </c>
-      <c r="B46" s="21" t="inlineStr"/>
-      <c r="C46" s="20" t="inlineStr"/>
-      <c r="D46" s="20" t="inlineStr">
+      <c r="B46" s="18" t="inlineStr"/>
+      <c r="C46" s="17" t="inlineStr"/>
+      <c r="D46" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E46" s="27" t="inlineStr">
+      <c r="E46" s="24" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F46" s="20" t="inlineStr"/>
-      <c r="G46" s="20" t="inlineStr"/>
-      <c r="H46" s="20" t="inlineStr"/>
-      <c r="I46" s="20" t="inlineStr"/>
-      <c r="J46" s="20" t="inlineStr"/>
-      <c r="K46" s="20" t="inlineStr"/>
-      <c r="L46" s="20" t="inlineStr">
+      <c r="F46" s="17" t="inlineStr"/>
+      <c r="G46" s="17" t="inlineStr"/>
+      <c r="H46" s="17" t="inlineStr"/>
+      <c r="I46" s="17" t="inlineStr"/>
+      <c r="J46" s="17" t="inlineStr"/>
+      <c r="K46" s="17" t="inlineStr"/>
+      <c r="L46" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr"/>
-      <c r="B47" s="2" t="inlineStr"/>
-      <c r="C47" s="6" t="inlineStr">
+      <c r="A47" s="9" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B47" s="10" t="inlineStr"/>
+      <c r="C47" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="D47" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E47" s="7" t="inlineStr">
+      <c r="E47" s="12" t="inlineStr">
         <is>
           <t>AP-Kansai Nerolac Paints Bangladesh Ltd.</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr"/>
-      <c r="G47" s="1" t="inlineStr"/>
-      <c r="H47" s="9" t="inlineStr">
+      <c r="F47" s="9" t="inlineStr"/>
+      <c r="G47" s="9" t="inlineStr"/>
+      <c r="H47" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="I47" s="9" t="inlineStr">
         <is>
           <t>863</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr"/>
-      <c r="K47" s="8" t="inlineStr">
+      <c r="J47" s="9" t="inlineStr"/>
+      <c r="K47" s="14" t="inlineStr">
         <is>
           <t>297501</t>
         </is>
       </c>
-      <c r="L47" s="1" t="inlineStr"/>
+      <c r="L47" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr"/>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block
-2. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr"/>
-      <c r="D48" s="1" t="inlineStr"/>
-      <c r="E48" s="10" t="inlineStr">
+      <c r="A48" s="9" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B48" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 297501.00
+Borrower Amount: 297501.00</t>
+        </is>
+      </c>
+      <c r="C48" s="9" t="inlineStr"/>
+      <c r="D48" s="9" t="inlineStr"/>
+      <c r="E48" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to Kansai Nerolac Paints (Bangladesh) Limited. Supply of , Invoice Number:  KMBL-JAN'25-001, Challan Number: D303-86125355, Work Order Number: 271/PO/2024/12/30965, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2024-12-10, Goods Received Date: 2025-01-28, Work Order Value: 305640.0, Total Bill Amount: 305470.2, TDS Deduction Amount: 7969.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr"/>
-      <c r="G48" s="1" t="inlineStr"/>
-      <c r="H48" s="1" t="inlineStr"/>
-      <c r="I48" s="1" t="inlineStr"/>
-      <c r="J48" s="1" t="inlineStr"/>
-      <c r="K48" s="1" t="inlineStr"/>
-      <c r="L48" s="1" t="inlineStr"/>
+      <c r="F48" s="9" t="inlineStr"/>
+      <c r="G48" s="9" t="inlineStr"/>
+      <c r="H48" s="9" t="inlineStr"/>
+      <c r="I48" s="9" t="inlineStr"/>
+      <c r="J48" s="9" t="inlineStr"/>
+      <c r="K48" s="9" t="inlineStr"/>
+      <c r="L48" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr"/>
-      <c r="B49" s="2" t="inlineStr"/>
-      <c r="C49" s="1" t="inlineStr"/>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="A49" s="9" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B49" s="10" t="inlineStr"/>
+      <c r="C49" s="9" t="inlineStr"/>
+      <c r="D49" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E49" s="11" t="inlineStr">
+      <c r="E49" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr"/>
-      <c r="G49" s="1" t="inlineStr"/>
-      <c r="H49" s="1" t="inlineStr"/>
-      <c r="I49" s="1" t="inlineStr"/>
-      <c r="J49" s="1" t="inlineStr"/>
-      <c r="K49" s="1" t="inlineStr"/>
-      <c r="L49" s="1" t="inlineStr"/>
+      <c r="F49" s="9" t="inlineStr"/>
+      <c r="G49" s="9" t="inlineStr"/>
+      <c r="H49" s="9" t="inlineStr"/>
+      <c r="I49" s="9" t="inlineStr"/>
+      <c r="J49" s="9" t="inlineStr"/>
+      <c r="K49" s="9" t="inlineStr"/>
+      <c r="L49" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr"/>
-      <c r="B50" s="2" t="inlineStr"/>
-      <c r="C50" s="6" t="inlineStr">
+      <c r="A50" s="17" t="inlineStr">
+        <is>
+          <t>M026</t>
+        </is>
+      </c>
+      <c r="B50" s="18" t="inlineStr"/>
+      <c r="C50" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="D50" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E50" s="7" t="inlineStr">
+      <c r="E50" s="20" t="inlineStr">
         <is>
           <t>AP-Kansai Nerolac Paints Bangladesh Ltd.</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr"/>
-      <c r="G50" s="1" t="inlineStr"/>
-      <c r="H50" s="9" t="inlineStr">
+      <c r="F50" s="17" t="inlineStr"/>
+      <c r="G50" s="17" t="inlineStr"/>
+      <c r="H50" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="I50" s="17" t="inlineStr">
         <is>
           <t>864</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr"/>
-      <c r="K50" s="8" t="inlineStr">
+      <c r="J50" s="17" t="inlineStr"/>
+      <c r="K50" s="22" t="inlineStr">
         <is>
           <t>95000</t>
         </is>
       </c>
-      <c r="L50" s="1" t="inlineStr"/>
+      <c r="L50" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr"/>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. Borrower's narration does not contain lender's short code</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr"/>
-      <c r="D51" s="1" t="inlineStr"/>
-      <c r="E51" s="10" t="inlineStr">
+      <c r="A51" s="17" t="inlineStr">
+        <is>
+          <t>M026</t>
+        </is>
+      </c>
+      <c r="B51" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 95000.00
+Borrower Amount: 95000.00</t>
+        </is>
+      </c>
+      <c r="C51" s="17" t="inlineStr"/>
+      <c r="D51" s="17" t="inlineStr"/>
+      <c r="E51" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to Kansai Nerolac Paints (Bangladesh) Limited. Supply of , Invoice Number:  KMBL-JAN'25-002, Challan Number: D303-86127504 &amp; D303-86126949,D303-86125356,D303-86126523, Work Order Number: DES/PO/2024/12/30966, BA Team (A), Company Unit: Transformer, Project Name : DESCO 3-Phase Distribution Transformer (GD-5), Work Order date: 2024-12-10, Goods Received Date: 2025-01-28, Work Order Value: 2176430.69, Total Bill Amount: 853945.9212000002, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr"/>
-      <c r="G51" s="1" t="inlineStr"/>
-      <c r="H51" s="1" t="inlineStr"/>
-      <c r="I51" s="1" t="inlineStr"/>
-      <c r="J51" s="1" t="inlineStr"/>
-      <c r="K51" s="1" t="inlineStr"/>
-      <c r="L51" s="1" t="inlineStr"/>
+      <c r="F51" s="17" t="inlineStr"/>
+      <c r="G51" s="17" t="inlineStr"/>
+      <c r="H51" s="17" t="inlineStr"/>
+      <c r="I51" s="17" t="inlineStr"/>
+      <c r="J51" s="17" t="inlineStr"/>
+      <c r="K51" s="17" t="inlineStr"/>
+      <c r="L51" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr"/>
-      <c r="B52" s="2" t="inlineStr"/>
-      <c r="C52" s="1" t="inlineStr"/>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="A52" s="17" t="inlineStr">
+        <is>
+          <t>M026</t>
+        </is>
+      </c>
+      <c r="B52" s="18" t="inlineStr"/>
+      <c r="C52" s="17" t="inlineStr"/>
+      <c r="D52" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E52" s="11" t="inlineStr">
+      <c r="E52" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr"/>
-      <c r="G52" s="1" t="inlineStr"/>
-      <c r="H52" s="1" t="inlineStr"/>
-      <c r="I52" s="1" t="inlineStr"/>
-      <c r="J52" s="1" t="inlineStr"/>
-      <c r="K52" s="1" t="inlineStr"/>
-      <c r="L52" s="1" t="inlineStr"/>
+      <c r="F52" s="17" t="inlineStr"/>
+      <c r="G52" s="17" t="inlineStr"/>
+      <c r="H52" s="17" t="inlineStr"/>
+      <c r="I52" s="17" t="inlineStr"/>
+      <c r="J52" s="17" t="inlineStr"/>
+      <c r="K52" s="17" t="inlineStr"/>
+      <c r="L52" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr"/>
-      <c r="B53" s="2" t="inlineStr"/>
-      <c r="C53" s="6" t="inlineStr">
+      <c r="A53" s="9" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
+      <c r="B53" s="10" t="inlineStr"/>
+      <c r="C53" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="D53" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E53" s="7" t="inlineStr">
+      <c r="E53" s="12" t="inlineStr">
         <is>
           <t>AP-Computer Archives IT Service &amp; Solution</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr"/>
-      <c r="G53" s="1" t="inlineStr"/>
-      <c r="H53" s="9" t="inlineStr">
+      <c r="F53" s="9" t="inlineStr"/>
+      <c r="G53" s="9" t="inlineStr"/>
+      <c r="H53" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="I53" s="9" t="inlineStr">
         <is>
           <t>865</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr"/>
-      <c r="K53" s="8" t="inlineStr">
+      <c r="J53" s="9" t="inlineStr"/>
+      <c r="K53" s="14" t="inlineStr">
         <is>
           <t>3300</t>
         </is>
       </c>
-      <c r="L53" s="1" t="inlineStr"/>
+      <c r="L53" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr"/>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr"/>
-      <c r="D54" s="1" t="inlineStr"/>
-      <c r="E54" s="10" t="inlineStr">
+      <c r="A54" s="9" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
+      <c r="B54" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 3300.00
+Borrower Amount: 3300.00</t>
+        </is>
+      </c>
+      <c r="C54" s="9" t="inlineStr"/>
+      <c r="D54" s="9" t="inlineStr"/>
+      <c r="E54" s="15" t="inlineStr">
         <is>
           <t>Amount paid to Computer Archives IT Service &amp; Solution agt SSD 256GB M.2 SATA Kingspec S/N-031617. Bill no.2025/04-0417</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr"/>
-      <c r="G54" s="1" t="inlineStr"/>
-      <c r="H54" s="1" t="inlineStr"/>
-      <c r="I54" s="1" t="inlineStr"/>
-      <c r="J54" s="1" t="inlineStr"/>
-      <c r="K54" s="1" t="inlineStr"/>
-      <c r="L54" s="1" t="inlineStr"/>
+      <c r="F54" s="9" t="inlineStr"/>
+      <c r="G54" s="9" t="inlineStr"/>
+      <c r="H54" s="9" t="inlineStr"/>
+      <c r="I54" s="9" t="inlineStr"/>
+      <c r="J54" s="9" t="inlineStr"/>
+      <c r="K54" s="9" t="inlineStr"/>
+      <c r="L54" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr"/>
-      <c r="B55" s="2" t="inlineStr"/>
-      <c r="C55" s="1" t="inlineStr"/>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="A55" s="9" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
+      <c r="B55" s="10" t="inlineStr"/>
+      <c r="C55" s="9" t="inlineStr"/>
+      <c r="D55" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E55" s="11" t="inlineStr">
+      <c r="E55" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr"/>
-      <c r="G55" s="1" t="inlineStr"/>
-      <c r="H55" s="1" t="inlineStr"/>
-      <c r="I55" s="1" t="inlineStr"/>
-      <c r="J55" s="1" t="inlineStr"/>
-      <c r="K55" s="1" t="inlineStr"/>
-      <c r="L55" s="1" t="inlineStr"/>
+      <c r="F55" s="9" t="inlineStr"/>
+      <c r="G55" s="9" t="inlineStr"/>
+      <c r="H55" s="9" t="inlineStr"/>
+      <c r="I55" s="9" t="inlineStr"/>
+      <c r="J55" s="9" t="inlineStr"/>
+      <c r="K55" s="9" t="inlineStr"/>
+      <c r="L55" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr"/>
-      <c r="B56" s="2" t="inlineStr"/>
-      <c r="C56" s="6" t="inlineStr">
+      <c r="A56" s="17" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
+      <c r="B56" s="18" t="inlineStr"/>
+      <c r="C56" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="D56" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E56" s="7" t="inlineStr">
+      <c r="E56" s="20" t="inlineStr">
         <is>
           <t>AP-B, Art &amp; Block</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr"/>
-      <c r="G56" s="1" t="inlineStr"/>
-      <c r="H56" s="9" t="inlineStr">
+      <c r="F56" s="17" t="inlineStr"/>
+      <c r="G56" s="17" t="inlineStr"/>
+      <c r="H56" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="I56" s="17" t="inlineStr">
         <is>
           <t>866</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr"/>
-      <c r="K56" s="8" t="inlineStr">
+      <c r="J56" s="17" t="inlineStr"/>
+      <c r="K56" s="22" t="inlineStr">
         <is>
           <t>11250</t>
         </is>
       </c>
-      <c r="L56" s="1" t="inlineStr"/>
+      <c r="L56" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr"/>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr"/>
-      <c r="D57" s="1" t="inlineStr"/>
-      <c r="E57" s="10" t="inlineStr">
+      <c r="A57" s="17" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
+      <c r="B57" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 11250.00
+Borrower Amount: 11250.00</t>
+        </is>
+      </c>
+      <c r="C57" s="17" t="inlineStr"/>
+      <c r="D57" s="17" t="inlineStr"/>
+      <c r="E57" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to B. Art &amp; Block. Supply of , Invoice Number:  005, Challan Number: 1266, Work Order Number: MCE/PO/2025/2/32389, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-02-22, Goods Received Date: 2025-03-01, Work Order Value: 169200.0, Total Bill Amount: 11250.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr"/>
-      <c r="G57" s="1" t="inlineStr"/>
-      <c r="H57" s="1" t="inlineStr"/>
-      <c r="I57" s="1" t="inlineStr"/>
-      <c r="J57" s="1" t="inlineStr"/>
-      <c r="K57" s="1" t="inlineStr"/>
-      <c r="L57" s="1" t="inlineStr"/>
+      <c r="F57" s="17" t="inlineStr"/>
+      <c r="G57" s="17" t="inlineStr"/>
+      <c r="H57" s="17" t="inlineStr"/>
+      <c r="I57" s="17" t="inlineStr"/>
+      <c r="J57" s="17" t="inlineStr"/>
+      <c r="K57" s="17" t="inlineStr"/>
+      <c r="L57" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr"/>
-      <c r="B58" s="2" t="inlineStr"/>
-      <c r="C58" s="1" t="inlineStr"/>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="A58" s="17" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
+      <c r="B58" s="18" t="inlineStr"/>
+      <c r="C58" s="17" t="inlineStr"/>
+      <c r="D58" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E58" s="11" t="inlineStr">
+      <c r="E58" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr"/>
-      <c r="G58" s="1" t="inlineStr"/>
-      <c r="H58" s="1" t="inlineStr"/>
-      <c r="I58" s="1" t="inlineStr"/>
-      <c r="J58" s="1" t="inlineStr"/>
-      <c r="K58" s="1" t="inlineStr"/>
-      <c r="L58" s="1" t="inlineStr"/>
+      <c r="F58" s="17" t="inlineStr"/>
+      <c r="G58" s="17" t="inlineStr"/>
+      <c r="H58" s="17" t="inlineStr"/>
+      <c r="I58" s="17" t="inlineStr"/>
+      <c r="J58" s="17" t="inlineStr"/>
+      <c r="K58" s="17" t="inlineStr"/>
+      <c r="L58" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="inlineStr"/>
-      <c r="B59" s="2" t="inlineStr"/>
-      <c r="C59" s="6" t="inlineStr">
+      <c r="A59" s="9" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B59" s="10" t="inlineStr"/>
+      <c r="C59" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="D59" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E59" s="7" t="inlineStr">
+      <c r="E59" s="12" t="inlineStr">
         <is>
           <t>AP-Berger Paints Bangladesh Ltd</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr"/>
-      <c r="G59" s="1" t="inlineStr"/>
-      <c r="H59" s="9" t="inlineStr">
+      <c r="F59" s="9" t="inlineStr"/>
+      <c r="G59" s="9" t="inlineStr"/>
+      <c r="H59" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="I59" s="9" t="inlineStr">
         <is>
           <t>867</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr"/>
-      <c r="K59" s="8" t="inlineStr">
+      <c r="J59" s="9" t="inlineStr"/>
+      <c r="K59" s="14" t="inlineStr">
         <is>
           <t>240723</t>
         </is>
       </c>
-      <c r="L59" s="1" t="inlineStr"/>
+      <c r="L59" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr"/>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block
-2. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr"/>
-      <c r="D60" s="1" t="inlineStr"/>
-      <c r="E60" s="10" t="inlineStr">
+      <c r="A60" s="9" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B60" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 240723.00
+Borrower Amount: 240723.00</t>
+        </is>
+      </c>
+      <c r="C60" s="9" t="inlineStr"/>
+      <c r="D60" s="9" t="inlineStr"/>
+      <c r="E60" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to Berger Paints Bangladesh Ltd.. Supply of , Invoice Number:  185859258, Challan Number: 185859258, Work Order Number: 271/PO/2025/2/31943, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-02-05, Goods Received Date: 2025-03-10, Work Order Value: 577664.4, Total Bill Amount: 240723.4, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr"/>
-      <c r="G60" s="1" t="inlineStr"/>
-      <c r="H60" s="1" t="inlineStr"/>
-      <c r="I60" s="1" t="inlineStr"/>
-      <c r="J60" s="1" t="inlineStr"/>
-      <c r="K60" s="1" t="inlineStr"/>
-      <c r="L60" s="1" t="inlineStr"/>
+      <c r="F60" s="9" t="inlineStr"/>
+      <c r="G60" s="9" t="inlineStr"/>
+      <c r="H60" s="9" t="inlineStr"/>
+      <c r="I60" s="9" t="inlineStr"/>
+      <c r="J60" s="9" t="inlineStr"/>
+      <c r="K60" s="9" t="inlineStr"/>
+      <c r="L60" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr"/>
-      <c r="B61" s="2" t="inlineStr"/>
-      <c r="C61" s="1" t="inlineStr"/>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="A61" s="9" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B61" s="10" t="inlineStr"/>
+      <c r="C61" s="9" t="inlineStr"/>
+      <c r="D61" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E61" s="11" t="inlineStr">
+      <c r="E61" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr"/>
-      <c r="G61" s="1" t="inlineStr"/>
-      <c r="H61" s="1" t="inlineStr"/>
-      <c r="I61" s="1" t="inlineStr"/>
-      <c r="J61" s="1" t="inlineStr"/>
-      <c r="K61" s="1" t="inlineStr"/>
-      <c r="L61" s="1" t="inlineStr"/>
+      <c r="F61" s="9" t="inlineStr"/>
+      <c r="G61" s="9" t="inlineStr"/>
+      <c r="H61" s="9" t="inlineStr"/>
+      <c r="I61" s="9" t="inlineStr"/>
+      <c r="J61" s="9" t="inlineStr"/>
+      <c r="K61" s="9" t="inlineStr"/>
+      <c r="L61" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr"/>
-      <c r="B62" s="2" t="inlineStr"/>
-      <c r="C62" s="6" t="inlineStr">
+      <c r="A62" s="17" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
+      <c r="B62" s="18" t="inlineStr"/>
+      <c r="C62" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="D62" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E62" s="7" t="inlineStr">
+      <c r="E62" s="20" t="inlineStr">
         <is>
           <t>AP-Delwar Paint &amp; Hardware</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr"/>
-      <c r="G62" s="1" t="inlineStr"/>
-      <c r="H62" s="9" t="inlineStr">
+      <c r="F62" s="17" t="inlineStr"/>
+      <c r="G62" s="17" t="inlineStr"/>
+      <c r="H62" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="I62" s="17" t="inlineStr">
         <is>
           <t>868</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr"/>
-      <c r="K62" s="8" t="inlineStr">
+      <c r="J62" s="17" t="inlineStr"/>
+      <c r="K62" s="22" t="inlineStr">
         <is>
           <t>59000</t>
         </is>
       </c>
-      <c r="L62" s="1" t="inlineStr"/>
+      <c r="L62" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr"/>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block</t>
-        </is>
-      </c>
-      <c r="C63" s="1" t="inlineStr"/>
-      <c r="D63" s="1" t="inlineStr"/>
-      <c r="E63" s="10" t="inlineStr">
+      <c r="A63" s="17" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
+      <c r="B63" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 59000.00
+Borrower Amount: 59000.00</t>
+        </is>
+      </c>
+      <c r="C63" s="17" t="inlineStr"/>
+      <c r="D63" s="17" t="inlineStr"/>
+      <c r="E63" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to Delwar Paint &amp; Hardware . Supply of , Invoice Number:  32644, Challan Number: 342, Work Order Number: MCE/PO/2025/3/32644, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-03-06, Goods Received Date: 2025-03-11, Work Order Value: 59000.0, Total Bill Amount: 59000.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F63" s="1" t="inlineStr"/>
-      <c r="G63" s="1" t="inlineStr"/>
-      <c r="H63" s="1" t="inlineStr"/>
-      <c r="I63" s="1" t="inlineStr"/>
-      <c r="J63" s="1" t="inlineStr"/>
-      <c r="K63" s="1" t="inlineStr"/>
-      <c r="L63" s="1" t="inlineStr"/>
+      <c r="F63" s="17" t="inlineStr"/>
+      <c r="G63" s="17" t="inlineStr"/>
+      <c r="H63" s="17" t="inlineStr"/>
+      <c r="I63" s="17" t="inlineStr"/>
+      <c r="J63" s="17" t="inlineStr"/>
+      <c r="K63" s="17" t="inlineStr"/>
+      <c r="L63" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="inlineStr"/>
-      <c r="B64" s="2" t="inlineStr"/>
-      <c r="C64" s="1" t="inlineStr"/>
-      <c r="D64" s="1" t="inlineStr">
+      <c r="A64" s="17" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
+      <c r="B64" s="18" t="inlineStr"/>
+      <c r="C64" s="17" t="inlineStr"/>
+      <c r="D64" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E64" s="11" t="inlineStr">
+      <c r="E64" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F64" s="1" t="inlineStr"/>
-      <c r="G64" s="1" t="inlineStr"/>
-      <c r="H64" s="1" t="inlineStr"/>
-      <c r="I64" s="1" t="inlineStr"/>
-      <c r="J64" s="1" t="inlineStr"/>
-      <c r="K64" s="1" t="inlineStr"/>
-      <c r="L64" s="1" t="inlineStr"/>
+      <c r="F64" s="17" t="inlineStr"/>
+      <c r="G64" s="17" t="inlineStr"/>
+      <c r="H64" s="17" t="inlineStr"/>
+      <c r="I64" s="17" t="inlineStr"/>
+      <c r="J64" s="17" t="inlineStr"/>
+      <c r="K64" s="17" t="inlineStr"/>
+      <c r="L64" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="inlineStr"/>
-      <c r="B65" s="2" t="inlineStr"/>
-      <c r="C65" s="6" t="inlineStr">
+      <c r="A65" s="9" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
+      <c r="B65" s="10" t="inlineStr"/>
+      <c r="C65" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D65" s="1" t="inlineStr">
+      <c r="D65" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E65" s="7" t="inlineStr">
+      <c r="E65" s="12" t="inlineStr">
         <is>
           <t>AP-MS. Fardin Enterprise</t>
         </is>
       </c>
-      <c r="F65" s="1" t="inlineStr"/>
-      <c r="G65" s="1" t="inlineStr"/>
-      <c r="H65" s="9" t="inlineStr">
+      <c r="F65" s="9" t="inlineStr"/>
+      <c r="G65" s="9" t="inlineStr"/>
+      <c r="H65" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I65" s="1" t="inlineStr">
+      <c r="I65" s="9" t="inlineStr">
         <is>
           <t>869</t>
         </is>
       </c>
-      <c r="J65" s="1" t="inlineStr"/>
-      <c r="K65" s="8" t="inlineStr">
+      <c r="J65" s="9" t="inlineStr"/>
+      <c r="K65" s="14" t="inlineStr">
         <is>
           <t>3400</t>
         </is>
       </c>
-      <c r="L65" s="1" t="inlineStr"/>
+      <c r="L65" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr"/>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block</t>
-        </is>
-      </c>
-      <c r="C66" s="1" t="inlineStr"/>
-      <c r="D66" s="1" t="inlineStr"/>
-      <c r="E66" s="10" t="inlineStr">
+      <c r="A66" s="9" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
+      <c r="B66" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 3400.00
+Borrower Amount: 3400.00</t>
+        </is>
+      </c>
+      <c r="C66" s="9" t="inlineStr"/>
+      <c r="D66" s="9" t="inlineStr"/>
+      <c r="E66" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to Fardin Enterprise. Supply of , Invoice Number:  642, Challan Number: 642, Work Order Number: MCE/PO/2025/2/32143, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-02-16, Goods Received Date: 2025-02-26, Work Order Value: 277630.0, Total Bill Amount: 3400.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F66" s="1" t="inlineStr"/>
-      <c r="G66" s="1" t="inlineStr"/>
-      <c r="H66" s="1" t="inlineStr"/>
-      <c r="I66" s="1" t="inlineStr"/>
-      <c r="J66" s="1" t="inlineStr"/>
-      <c r="K66" s="1" t="inlineStr"/>
-      <c r="L66" s="1" t="inlineStr"/>
+      <c r="F66" s="9" t="inlineStr"/>
+      <c r="G66" s="9" t="inlineStr"/>
+      <c r="H66" s="9" t="inlineStr"/>
+      <c r="I66" s="9" t="inlineStr"/>
+      <c r="J66" s="9" t="inlineStr"/>
+      <c r="K66" s="9" t="inlineStr"/>
+      <c r="L66" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr"/>
-      <c r="B67" s="2" t="inlineStr"/>
-      <c r="C67" s="1" t="inlineStr"/>
-      <c r="D67" s="1" t="inlineStr">
+      <c r="A67" s="9" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
+      <c r="B67" s="10" t="inlineStr"/>
+      <c r="C67" s="9" t="inlineStr"/>
+      <c r="D67" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E67" s="11" t="inlineStr">
+      <c r="E67" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F67" s="1" t="inlineStr"/>
-      <c r="G67" s="1" t="inlineStr"/>
-      <c r="H67" s="1" t="inlineStr"/>
-      <c r="I67" s="1" t="inlineStr"/>
-      <c r="J67" s="1" t="inlineStr"/>
-      <c r="K67" s="1" t="inlineStr"/>
-      <c r="L67" s="1" t="inlineStr"/>
+      <c r="F67" s="9" t="inlineStr"/>
+      <c r="G67" s="9" t="inlineStr"/>
+      <c r="H67" s="9" t="inlineStr"/>
+      <c r="I67" s="9" t="inlineStr"/>
+      <c r="J67" s="9" t="inlineStr"/>
+      <c r="K67" s="9" t="inlineStr"/>
+      <c r="L67" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="inlineStr"/>
-      <c r="B68" s="2" t="inlineStr"/>
-      <c r="C68" s="6" t="inlineStr">
+      <c r="A68" s="17" t="inlineStr">
+        <is>
+          <t>M032</t>
+        </is>
+      </c>
+      <c r="B68" s="18" t="inlineStr"/>
+      <c r="C68" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D68" s="1" t="inlineStr">
+      <c r="D68" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E68" s="7" t="inlineStr">
+      <c r="E68" s="20" t="inlineStr">
         <is>
           <t>AP-MS. Fardin Enterprise</t>
         </is>
       </c>
-      <c r="F68" s="1" t="inlineStr"/>
-      <c r="G68" s="1" t="inlineStr"/>
-      <c r="H68" s="9" t="inlineStr">
+      <c r="F68" s="17" t="inlineStr"/>
+      <c r="G68" s="17" t="inlineStr"/>
+      <c r="H68" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I68" s="1" t="inlineStr">
+      <c r="I68" s="17" t="inlineStr">
         <is>
           <t>870</t>
         </is>
       </c>
-      <c r="J68" s="1" t="inlineStr"/>
-      <c r="K68" s="8" t="inlineStr">
+      <c r="J68" s="17" t="inlineStr"/>
+      <c r="K68" s="22" t="inlineStr">
         <is>
           <t>2250</t>
         </is>
       </c>
-      <c r="L68" s="1" t="inlineStr"/>
+      <c r="L68" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="inlineStr"/>
-      <c r="B69" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block
-2. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
-        </is>
-      </c>
-      <c r="C69" s="1" t="inlineStr"/>
-      <c r="D69" s="1" t="inlineStr"/>
-      <c r="E69" s="10" t="inlineStr">
+      <c r="A69" s="17" t="inlineStr">
+        <is>
+          <t>M032</t>
+        </is>
+      </c>
+      <c r="B69" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 2250.00
+Borrower Amount: 2250.00</t>
+        </is>
+      </c>
+      <c r="C69" s="17" t="inlineStr"/>
+      <c r="D69" s="17" t="inlineStr"/>
+      <c r="E69" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to Fardin Enterprise. Supply of , Invoice Number:  768, Challan Number: 768, Work Order Number: 271/PO/2025/3/32672, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-03-11, Goods Received Date: 2025-03-15, Work Order Value: 2250.0, Total Bill Amount: 2250.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F69" s="1" t="inlineStr"/>
-      <c r="G69" s="1" t="inlineStr"/>
-      <c r="H69" s="1" t="inlineStr"/>
-      <c r="I69" s="1" t="inlineStr"/>
-      <c r="J69" s="1" t="inlineStr"/>
-      <c r="K69" s="1" t="inlineStr"/>
-      <c r="L69" s="1" t="inlineStr"/>
+      <c r="F69" s="17" t="inlineStr"/>
+      <c r="G69" s="17" t="inlineStr"/>
+      <c r="H69" s="17" t="inlineStr"/>
+      <c r="I69" s="17" t="inlineStr"/>
+      <c r="J69" s="17" t="inlineStr"/>
+      <c r="K69" s="17" t="inlineStr"/>
+      <c r="L69" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr"/>
-      <c r="B70" s="2" t="inlineStr"/>
-      <c r="C70" s="1" t="inlineStr"/>
-      <c r="D70" s="1" t="inlineStr">
+      <c r="A70" s="17" t="inlineStr">
+        <is>
+          <t>M032</t>
+        </is>
+      </c>
+      <c r="B70" s="18" t="inlineStr"/>
+      <c r="C70" s="17" t="inlineStr"/>
+      <c r="D70" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E70" s="11" t="inlineStr">
+      <c r="E70" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F70" s="1" t="inlineStr"/>
-      <c r="G70" s="1" t="inlineStr"/>
-      <c r="H70" s="1" t="inlineStr"/>
-      <c r="I70" s="1" t="inlineStr"/>
-      <c r="J70" s="1" t="inlineStr"/>
-      <c r="K70" s="1" t="inlineStr"/>
-      <c r="L70" s="1" t="inlineStr"/>
+      <c r="F70" s="17" t="inlineStr"/>
+      <c r="G70" s="17" t="inlineStr"/>
+      <c r="H70" s="17" t="inlineStr"/>
+      <c r="I70" s="17" t="inlineStr"/>
+      <c r="J70" s="17" t="inlineStr"/>
+      <c r="K70" s="17" t="inlineStr"/>
+      <c r="L70" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="inlineStr"/>
-      <c r="B71" s="2" t="inlineStr"/>
-      <c r="C71" s="6" t="inlineStr">
+      <c r="A71" s="9" t="inlineStr">
+        <is>
+          <t>M033</t>
+        </is>
+      </c>
+      <c r="B71" s="10" t="inlineStr"/>
+      <c r="C71" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D71" s="1" t="inlineStr">
+      <c r="D71" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E71" s="7" t="inlineStr">
+      <c r="E71" s="12" t="inlineStr">
         <is>
           <t>AP-MS. Fardin Enterprise</t>
         </is>
       </c>
-      <c r="F71" s="1" t="inlineStr"/>
-      <c r="G71" s="1" t="inlineStr"/>
-      <c r="H71" s="9" t="inlineStr">
+      <c r="F71" s="9" t="inlineStr"/>
+      <c r="G71" s="9" t="inlineStr"/>
+      <c r="H71" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I71" s="1" t="inlineStr">
+      <c r="I71" s="9" t="inlineStr">
         <is>
           <t>871</t>
         </is>
       </c>
-      <c r="J71" s="1" t="inlineStr"/>
-      <c r="K71" s="8" t="inlineStr">
+      <c r="J71" s="9" t="inlineStr"/>
+      <c r="K71" s="14" t="inlineStr">
         <is>
           <t>4360</t>
         </is>
       </c>
-      <c r="L71" s="1" t="inlineStr"/>
+      <c r="L71" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="inlineStr"/>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block</t>
-        </is>
-      </c>
-      <c r="C72" s="1" t="inlineStr"/>
-      <c r="D72" s="1" t="inlineStr"/>
-      <c r="E72" s="10" t="inlineStr">
+      <c r="A72" s="9" t="inlineStr">
+        <is>
+          <t>M033</t>
+        </is>
+      </c>
+      <c r="B72" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 4360.00
+Borrower Amount: 4360.00</t>
+        </is>
+      </c>
+      <c r="C72" s="9" t="inlineStr"/>
+      <c r="D72" s="9" t="inlineStr"/>
+      <c r="E72" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to Fardin Enterprise. Supply of , Invoice Number:  10, Challan Number: 766, Work Order Number: MCE/PO/2025/3/32679, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-03-11, Goods Received Date: 2025-03-25, Work Order Value: 4360.0, Total Bill Amount: 4360.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F72" s="1" t="inlineStr"/>
-      <c r="G72" s="1" t="inlineStr"/>
-      <c r="H72" s="1" t="inlineStr"/>
-      <c r="I72" s="1" t="inlineStr"/>
-      <c r="J72" s="1" t="inlineStr"/>
-      <c r="K72" s="1" t="inlineStr"/>
-      <c r="L72" s="1" t="inlineStr"/>
+      <c r="F72" s="9" t="inlineStr"/>
+      <c r="G72" s="9" t="inlineStr"/>
+      <c r="H72" s="9" t="inlineStr"/>
+      <c r="I72" s="9" t="inlineStr"/>
+      <c r="J72" s="9" t="inlineStr"/>
+      <c r="K72" s="9" t="inlineStr"/>
+      <c r="L72" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="inlineStr"/>
-      <c r="B73" s="2" t="inlineStr"/>
-      <c r="C73" s="1" t="inlineStr"/>
-      <c r="D73" s="1" t="inlineStr">
+      <c r="A73" s="9" t="inlineStr">
+        <is>
+          <t>M033</t>
+        </is>
+      </c>
+      <c r="B73" s="10" t="inlineStr"/>
+      <c r="C73" s="9" t="inlineStr"/>
+      <c r="D73" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E73" s="11" t="inlineStr">
+      <c r="E73" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F73" s="1" t="inlineStr"/>
-      <c r="G73" s="1" t="inlineStr"/>
-      <c r="H73" s="1" t="inlineStr"/>
-      <c r="I73" s="1" t="inlineStr"/>
-      <c r="J73" s="1" t="inlineStr"/>
-      <c r="K73" s="1" t="inlineStr"/>
-      <c r="L73" s="1" t="inlineStr"/>
+      <c r="F73" s="9" t="inlineStr"/>
+      <c r="G73" s="9" t="inlineStr"/>
+      <c r="H73" s="9" t="inlineStr"/>
+      <c r="I73" s="9" t="inlineStr"/>
+      <c r="J73" s="9" t="inlineStr"/>
+      <c r="K73" s="9" t="inlineStr"/>
+      <c r="L73" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr"/>
-      <c r="B74" s="2" t="inlineStr"/>
-      <c r="C74" s="6" t="inlineStr">
+      <c r="A74" s="17" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B74" s="18" t="inlineStr"/>
+      <c r="C74" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D74" s="1" t="inlineStr">
+      <c r="D74" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E74" s="7" t="inlineStr">
+      <c r="E74" s="20" t="inlineStr">
         <is>
           <t>AP-MS. Fardin Enterprise</t>
         </is>
       </c>
-      <c r="F74" s="1" t="inlineStr"/>
-      <c r="G74" s="1" t="inlineStr"/>
-      <c r="H74" s="9" t="inlineStr">
+      <c r="F74" s="17" t="inlineStr"/>
+      <c r="G74" s="17" t="inlineStr"/>
+      <c r="H74" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I74" s="1" t="inlineStr">
+      <c r="I74" s="17" t="inlineStr">
         <is>
           <t>872</t>
         </is>
       </c>
-      <c r="J74" s="1" t="inlineStr"/>
-      <c r="K74" s="8" t="inlineStr">
+      <c r="J74" s="17" t="inlineStr"/>
+      <c r="K74" s="22" t="inlineStr">
         <is>
           <t>14940</t>
         </is>
       </c>
-      <c r="L74" s="1" t="inlineStr"/>
+      <c r="L74" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="inlineStr"/>
-      <c r="B75" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block</t>
-        </is>
-      </c>
-      <c r="C75" s="1" t="inlineStr"/>
-      <c r="D75" s="1" t="inlineStr"/>
-      <c r="E75" s="10" t="inlineStr">
+      <c r="A75" s="17" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B75" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 14940.00
+Borrower Amount: 14940.00</t>
+        </is>
+      </c>
+      <c r="C75" s="17" t="inlineStr"/>
+      <c r="D75" s="17" t="inlineStr"/>
+      <c r="E75" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to Fardin Enterprise. Supply of , Invoice Number:  11, Challan Number: 767, Work Order Number: MCE/PO/2025/2/32143, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-02-16, Goods Received Date: 2025-03-23, Work Order Value: 277630.0, Total Bill Amount: 14940.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F75" s="1" t="inlineStr"/>
-      <c r="G75" s="1" t="inlineStr"/>
-      <c r="H75" s="1" t="inlineStr"/>
-      <c r="I75" s="1" t="inlineStr"/>
-      <c r="J75" s="1" t="inlineStr"/>
-      <c r="K75" s="1" t="inlineStr"/>
-      <c r="L75" s="1" t="inlineStr"/>
+      <c r="F75" s="17" t="inlineStr"/>
+      <c r="G75" s="17" t="inlineStr"/>
+      <c r="H75" s="17" t="inlineStr"/>
+      <c r="I75" s="17" t="inlineStr"/>
+      <c r="J75" s="17" t="inlineStr"/>
+      <c r="K75" s="17" t="inlineStr"/>
+      <c r="L75" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="inlineStr"/>
-      <c r="B76" s="2" t="inlineStr"/>
-      <c r="C76" s="1" t="inlineStr"/>
-      <c r="D76" s="1" t="inlineStr">
+      <c r="A76" s="17" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B76" s="18" t="inlineStr"/>
+      <c r="C76" s="17" t="inlineStr"/>
+      <c r="D76" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E76" s="11" t="inlineStr">
+      <c r="E76" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F76" s="1" t="inlineStr"/>
-      <c r="G76" s="1" t="inlineStr"/>
-      <c r="H76" s="1" t="inlineStr"/>
-      <c r="I76" s="1" t="inlineStr"/>
-      <c r="J76" s="1" t="inlineStr"/>
-      <c r="K76" s="1" t="inlineStr"/>
-      <c r="L76" s="1" t="inlineStr"/>
+      <c r="F76" s="17" t="inlineStr"/>
+      <c r="G76" s="17" t="inlineStr"/>
+      <c r="H76" s="17" t="inlineStr"/>
+      <c r="I76" s="17" t="inlineStr"/>
+      <c r="J76" s="17" t="inlineStr"/>
+      <c r="K76" s="17" t="inlineStr"/>
+      <c r="L76" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="inlineStr"/>
-      <c r="B77" s="2" t="inlineStr"/>
-      <c r="C77" s="6" t="inlineStr">
+      <c r="A77" s="9" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
+      <c r="B77" s="10" t="inlineStr"/>
+      <c r="C77" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D77" s="1" t="inlineStr">
+      <c r="D77" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E77" s="7" t="inlineStr">
+      <c r="E77" s="12" t="inlineStr">
         <is>
           <t>AP-Islam Electric Co.</t>
         </is>
       </c>
-      <c r="F77" s="1" t="inlineStr"/>
-      <c r="G77" s="1" t="inlineStr"/>
-      <c r="H77" s="9" t="inlineStr">
+      <c r="F77" s="9" t="inlineStr"/>
+      <c r="G77" s="9" t="inlineStr"/>
+      <c r="H77" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I77" s="1" t="inlineStr">
+      <c r="I77" s="9" t="inlineStr">
         <is>
           <t>873</t>
         </is>
       </c>
-      <c r="J77" s="1" t="inlineStr"/>
-      <c r="K77" s="8" t="inlineStr">
+      <c r="J77" s="9" t="inlineStr"/>
+      <c r="K77" s="14" t="inlineStr">
         <is>
           <t>3027.5</t>
         </is>
       </c>
-      <c r="L77" s="1" t="inlineStr"/>
+      <c r="L77" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="inlineStr"/>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block
-2. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
-        </is>
-      </c>
-      <c r="C78" s="1" t="inlineStr"/>
-      <c r="D78" s="1" t="inlineStr"/>
-      <c r="E78" s="10" t="inlineStr">
+      <c r="A78" s="9" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
+      <c r="B78" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 3027.50
+Borrower Amount: 3027.50</t>
+        </is>
+      </c>
+      <c r="C78" s="9" t="inlineStr"/>
+      <c r="D78" s="9" t="inlineStr"/>
+      <c r="E78" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to Islam Electric Co.. Supply of , Invoice Number:  6453, Challan Number: 6161, Work Order Number: 271/PO/2025/3/32791, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-03-18, Goods Received Date: 2025-03-23, Work Order Value: 3027.5, Total Bill Amount: 3027.5, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F78" s="1" t="inlineStr"/>
-      <c r="G78" s="1" t="inlineStr"/>
-      <c r="H78" s="1" t="inlineStr"/>
-      <c r="I78" s="1" t="inlineStr"/>
-      <c r="J78" s="1" t="inlineStr"/>
-      <c r="K78" s="1" t="inlineStr"/>
-      <c r="L78" s="1" t="inlineStr"/>
+      <c r="F78" s="9" t="inlineStr"/>
+      <c r="G78" s="9" t="inlineStr"/>
+      <c r="H78" s="9" t="inlineStr"/>
+      <c r="I78" s="9" t="inlineStr"/>
+      <c r="J78" s="9" t="inlineStr"/>
+      <c r="K78" s="9" t="inlineStr"/>
+      <c r="L78" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="inlineStr"/>
-      <c r="B79" s="2" t="inlineStr"/>
-      <c r="C79" s="1" t="inlineStr"/>
-      <c r="D79" s="1" t="inlineStr">
+      <c r="A79" s="9" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
+      <c r="B79" s="10" t="inlineStr"/>
+      <c r="C79" s="9" t="inlineStr"/>
+      <c r="D79" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E79" s="11" t="inlineStr">
+      <c r="E79" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F79" s="1" t="inlineStr"/>
-      <c r="G79" s="1" t="inlineStr"/>
-      <c r="H79" s="1" t="inlineStr"/>
-      <c r="I79" s="1" t="inlineStr"/>
-      <c r="J79" s="1" t="inlineStr"/>
-      <c r="K79" s="1" t="inlineStr"/>
-      <c r="L79" s="1" t="inlineStr"/>
+      <c r="F79" s="9" t="inlineStr"/>
+      <c r="G79" s="9" t="inlineStr"/>
+      <c r="H79" s="9" t="inlineStr"/>
+      <c r="I79" s="9" t="inlineStr"/>
+      <c r="J79" s="9" t="inlineStr"/>
+      <c r="K79" s="9" t="inlineStr"/>
+      <c r="L79" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="inlineStr"/>
-      <c r="B80" s="2" t="inlineStr"/>
-      <c r="C80" s="6" t="inlineStr">
+      <c r="A80" s="17" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
+      <c r="B80" s="18" t="inlineStr"/>
+      <c r="C80" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D80" s="1" t="inlineStr">
+      <c r="D80" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E80" s="7" t="inlineStr">
+      <c r="E80" s="20" t="inlineStr">
         <is>
           <t>AP-Islam Electric Co.</t>
         </is>
       </c>
-      <c r="F80" s="1" t="inlineStr"/>
-      <c r="G80" s="1" t="inlineStr"/>
-      <c r="H80" s="9" t="inlineStr">
+      <c r="F80" s="17" t="inlineStr"/>
+      <c r="G80" s="17" t="inlineStr"/>
+      <c r="H80" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I80" s="1" t="inlineStr">
+      <c r="I80" s="17" t="inlineStr">
         <is>
           <t>874</t>
         </is>
       </c>
-      <c r="J80" s="1" t="inlineStr"/>
-      <c r="K80" s="8" t="inlineStr">
+      <c r="J80" s="17" t="inlineStr"/>
+      <c r="K80" s="22" t="inlineStr">
         <is>
           <t>91900</t>
         </is>
       </c>
-      <c r="L80" s="1" t="inlineStr"/>
+      <c r="L80" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="inlineStr"/>
-      <c r="B81" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block</t>
-        </is>
-      </c>
-      <c r="C81" s="1" t="inlineStr"/>
-      <c r="D81" s="1" t="inlineStr"/>
-      <c r="E81" s="10" t="inlineStr">
+      <c r="A81" s="17" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
+      <c r="B81" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 91900.00
+Borrower Amount: 91900.00</t>
+        </is>
+      </c>
+      <c r="C81" s="17" t="inlineStr"/>
+      <c r="D81" s="17" t="inlineStr"/>
+      <c r="E81" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to Islam Electric Co.. Supply of , Invoice Number:  6457, Challan Number: 6162, Work Order Number: MCE/PO/2025/3/32675, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-03-11, Goods Received Date: 2025-03-25, Work Order Value: 309400.0, Total Bill Amount: 91900.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F81" s="1" t="inlineStr"/>
-      <c r="G81" s="1" t="inlineStr"/>
-      <c r="H81" s="1" t="inlineStr"/>
-      <c r="I81" s="1" t="inlineStr"/>
-      <c r="J81" s="1" t="inlineStr"/>
-      <c r="K81" s="1" t="inlineStr"/>
-      <c r="L81" s="1" t="inlineStr"/>
+      <c r="F81" s="17" t="inlineStr"/>
+      <c r="G81" s="17" t="inlineStr"/>
+      <c r="H81" s="17" t="inlineStr"/>
+      <c r="I81" s="17" t="inlineStr"/>
+      <c r="J81" s="17" t="inlineStr"/>
+      <c r="K81" s="17" t="inlineStr"/>
+      <c r="L81" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr"/>
-      <c r="B82" s="2" t="inlineStr"/>
-      <c r="C82" s="1" t="inlineStr"/>
-      <c r="D82" s="1" t="inlineStr">
+      <c r="A82" s="17" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
+      <c r="B82" s="18" t="inlineStr"/>
+      <c r="C82" s="17" t="inlineStr"/>
+      <c r="D82" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E82" s="11" t="inlineStr">
+      <c r="E82" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F82" s="1" t="inlineStr"/>
-      <c r="G82" s="1" t="inlineStr"/>
-      <c r="H82" s="1" t="inlineStr"/>
-      <c r="I82" s="1" t="inlineStr"/>
-      <c r="J82" s="1" t="inlineStr"/>
-      <c r="K82" s="1" t="inlineStr"/>
-      <c r="L82" s="1" t="inlineStr"/>
+      <c r="F82" s="17" t="inlineStr"/>
+      <c r="G82" s="17" t="inlineStr"/>
+      <c r="H82" s="17" t="inlineStr"/>
+      <c r="I82" s="17" t="inlineStr"/>
+      <c r="J82" s="17" t="inlineStr"/>
+      <c r="K82" s="17" t="inlineStr"/>
+      <c r="L82" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="inlineStr"/>
-      <c r="B83" s="2" t="inlineStr"/>
-      <c r="C83" s="6" t="inlineStr">
+      <c r="A83" s="9" t="inlineStr">
+        <is>
+          <t>M037</t>
+        </is>
+      </c>
+      <c r="B83" s="10" t="inlineStr"/>
+      <c r="C83" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D83" s="1" t="inlineStr">
+      <c r="D83" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E83" s="7" t="inlineStr">
+      <c r="E83" s="12" t="inlineStr">
         <is>
           <t>AP-Jononi Enterprise</t>
         </is>
       </c>
-      <c r="F83" s="1" t="inlineStr"/>
-      <c r="G83" s="1" t="inlineStr"/>
-      <c r="H83" s="9" t="inlineStr">
+      <c r="F83" s="9" t="inlineStr"/>
+      <c r="G83" s="9" t="inlineStr"/>
+      <c r="H83" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I83" s="1" t="inlineStr">
+      <c r="I83" s="9" t="inlineStr">
         <is>
           <t>875</t>
         </is>
       </c>
-      <c r="J83" s="1" t="inlineStr"/>
-      <c r="K83" s="8" t="inlineStr">
+      <c r="J83" s="9" t="inlineStr"/>
+      <c r="K83" s="14" t="inlineStr">
         <is>
           <t>31050</t>
         </is>
       </c>
-      <c r="L83" s="1" t="inlineStr"/>
+      <c r="L83" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="inlineStr"/>
-      <c r="B84" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block
-2. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
-        </is>
-      </c>
-      <c r="C84" s="1" t="inlineStr"/>
-      <c r="D84" s="1" t="inlineStr"/>
-      <c r="E84" s="10" t="inlineStr">
+      <c r="A84" s="9" t="inlineStr">
+        <is>
+          <t>M037</t>
+        </is>
+      </c>
+      <c r="B84" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 31050.00
+Borrower Amount: 31050.00</t>
+        </is>
+      </c>
+      <c r="C84" s="9" t="inlineStr"/>
+      <c r="D84" s="9" t="inlineStr"/>
+      <c r="E84" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to Jononi Enterprise. Supply of , Invoice Number:  649, Challan Number: 649, Work Order Number: 271/PO/2025/3/32724, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-03-13, Goods Received Date: 2025-03-25, Work Order Value: 31050.0, Total Bill Amount: 31050.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F84" s="1" t="inlineStr"/>
-      <c r="G84" s="1" t="inlineStr"/>
-      <c r="H84" s="1" t="inlineStr"/>
-      <c r="I84" s="1" t="inlineStr"/>
-      <c r="J84" s="1" t="inlineStr"/>
-      <c r="K84" s="1" t="inlineStr"/>
-      <c r="L84" s="1" t="inlineStr"/>
+      <c r="F84" s="9" t="inlineStr"/>
+      <c r="G84" s="9" t="inlineStr"/>
+      <c r="H84" s="9" t="inlineStr"/>
+      <c r="I84" s="9" t="inlineStr"/>
+      <c r="J84" s="9" t="inlineStr"/>
+      <c r="K84" s="9" t="inlineStr"/>
+      <c r="L84" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="inlineStr"/>
-      <c r="B85" s="2" t="inlineStr"/>
-      <c r="C85" s="1" t="inlineStr"/>
-      <c r="D85" s="1" t="inlineStr">
+      <c r="A85" s="9" t="inlineStr">
+        <is>
+          <t>M037</t>
+        </is>
+      </c>
+      <c r="B85" s="10" t="inlineStr"/>
+      <c r="C85" s="9" t="inlineStr"/>
+      <c r="D85" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E85" s="11" t="inlineStr">
+      <c r="E85" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F85" s="1" t="inlineStr"/>
-      <c r="G85" s="1" t="inlineStr"/>
-      <c r="H85" s="1" t="inlineStr"/>
-      <c r="I85" s="1" t="inlineStr"/>
-      <c r="J85" s="1" t="inlineStr"/>
-      <c r="K85" s="1" t="inlineStr"/>
-      <c r="L85" s="1" t="inlineStr"/>
+      <c r="F85" s="9" t="inlineStr"/>
+      <c r="G85" s="9" t="inlineStr"/>
+      <c r="H85" s="9" t="inlineStr"/>
+      <c r="I85" s="9" t="inlineStr"/>
+      <c r="J85" s="9" t="inlineStr"/>
+      <c r="K85" s="9" t="inlineStr"/>
+      <c r="L85" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="inlineStr"/>
-      <c r="B86" s="2" t="inlineStr"/>
-      <c r="C86" s="6" t="inlineStr">
+      <c r="A86" s="17" t="inlineStr">
+        <is>
+          <t>M038</t>
+        </is>
+      </c>
+      <c r="B86" s="18" t="inlineStr"/>
+      <c r="C86" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D86" s="1" t="inlineStr">
+      <c r="D86" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E86" s="7" t="inlineStr">
+      <c r="E86" s="20" t="inlineStr">
         <is>
           <t>AP-JRS Corporation.</t>
         </is>
       </c>
-      <c r="F86" s="1" t="inlineStr"/>
-      <c r="G86" s="1" t="inlineStr"/>
-      <c r="H86" s="9" t="inlineStr">
+      <c r="F86" s="17" t="inlineStr"/>
+      <c r="G86" s="17" t="inlineStr"/>
+      <c r="H86" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I86" s="1" t="inlineStr">
+      <c r="I86" s="17" t="inlineStr">
         <is>
           <t>876</t>
         </is>
       </c>
-      <c r="J86" s="1" t="inlineStr"/>
-      <c r="K86" s="8" t="inlineStr">
+      <c r="J86" s="17" t="inlineStr"/>
+      <c r="K86" s="22" t="inlineStr">
         <is>
           <t>20000</t>
         </is>
       </c>
-      <c r="L86" s="1" t="inlineStr"/>
+      <c r="L86" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="inlineStr"/>
-      <c r="B87" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block</t>
-        </is>
-      </c>
-      <c r="C87" s="1" t="inlineStr"/>
-      <c r="D87" s="1" t="inlineStr"/>
-      <c r="E87" s="10" t="inlineStr">
+      <c r="A87" s="17" t="inlineStr">
+        <is>
+          <t>M038</t>
+        </is>
+      </c>
+      <c r="B87" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 20000.00
+Borrower Amount: 20000.00</t>
+        </is>
+      </c>
+      <c r="C87" s="17" t="inlineStr"/>
+      <c r="D87" s="17" t="inlineStr"/>
+      <c r="E87" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to JRS Corporation. Supply of , Invoice Number:  JRS-0015, Challan Number: 220225, Work Order Number: DES/PO/2024/12/31363, BA Team (A), Company Unit: Transformer, Project Name : DESCO 3-Phase Distribution Transformer (GD-5), Work Order date: 2024-12-29, Goods Received Date: 2025-02-26, Work Order Value: 251400.0, Total Bill Amount: 20000.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F87" s="1" t="inlineStr"/>
-      <c r="G87" s="1" t="inlineStr"/>
-      <c r="H87" s="1" t="inlineStr"/>
-      <c r="I87" s="1" t="inlineStr"/>
-      <c r="J87" s="1" t="inlineStr"/>
-      <c r="K87" s="1" t="inlineStr"/>
-      <c r="L87" s="1" t="inlineStr"/>
+      <c r="F87" s="17" t="inlineStr"/>
+      <c r="G87" s="17" t="inlineStr"/>
+      <c r="H87" s="17" t="inlineStr"/>
+      <c r="I87" s="17" t="inlineStr"/>
+      <c r="J87" s="17" t="inlineStr"/>
+      <c r="K87" s="17" t="inlineStr"/>
+      <c r="L87" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="inlineStr"/>
-      <c r="B88" s="2" t="inlineStr"/>
-      <c r="C88" s="1" t="inlineStr"/>
-      <c r="D88" s="1" t="inlineStr">
+      <c r="A88" s="17" t="inlineStr">
+        <is>
+          <t>M038</t>
+        </is>
+      </c>
+      <c r="B88" s="18" t="inlineStr"/>
+      <c r="C88" s="17" t="inlineStr"/>
+      <c r="D88" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E88" s="11" t="inlineStr">
+      <c r="E88" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F88" s="1" t="inlineStr"/>
-      <c r="G88" s="1" t="inlineStr"/>
-      <c r="H88" s="1" t="inlineStr"/>
-      <c r="I88" s="1" t="inlineStr"/>
-      <c r="J88" s="1" t="inlineStr"/>
-      <c r="K88" s="1" t="inlineStr"/>
-      <c r="L88" s="1" t="inlineStr"/>
+      <c r="F88" s="17" t="inlineStr"/>
+      <c r="G88" s="17" t="inlineStr"/>
+      <c r="H88" s="17" t="inlineStr"/>
+      <c r="I88" s="17" t="inlineStr"/>
+      <c r="J88" s="17" t="inlineStr"/>
+      <c r="K88" s="17" t="inlineStr"/>
+      <c r="L88" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="inlineStr"/>
-      <c r="B89" s="2" t="inlineStr"/>
-      <c r="C89" s="6" t="inlineStr">
+      <c r="A89" s="9" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
+      <c r="B89" s="10" t="inlineStr"/>
+      <c r="C89" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D89" s="1" t="inlineStr">
+      <c r="D89" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E89" s="7" t="inlineStr">
+      <c r="E89" s="12" t="inlineStr">
         <is>
           <t>AP-JRS Corporation.</t>
         </is>
       </c>
-      <c r="F89" s="1" t="inlineStr"/>
-      <c r="G89" s="1" t="inlineStr"/>
-      <c r="H89" s="9" t="inlineStr">
+      <c r="F89" s="9" t="inlineStr"/>
+      <c r="G89" s="9" t="inlineStr"/>
+      <c r="H89" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I89" s="1" t="inlineStr">
+      <c r="I89" s="9" t="inlineStr">
         <is>
           <t>877</t>
         </is>
       </c>
-      <c r="J89" s="1" t="inlineStr"/>
-      <c r="K89" s="8" t="inlineStr">
+      <c r="J89" s="9" t="inlineStr"/>
+      <c r="K89" s="14" t="inlineStr">
         <is>
           <t>55440</t>
         </is>
       </c>
-      <c r="L89" s="1" t="inlineStr"/>
+      <c r="L89" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="inlineStr"/>
-      <c r="B90" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block</t>
-        </is>
-      </c>
-      <c r="C90" s="1" t="inlineStr"/>
-      <c r="D90" s="1" t="inlineStr"/>
-      <c r="E90" s="10" t="inlineStr">
+      <c r="A90" s="9" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
+      <c r="B90" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 55440.00
+Borrower Amount: 55440.00</t>
+        </is>
+      </c>
+      <c r="C90" s="9" t="inlineStr"/>
+      <c r="D90" s="9" t="inlineStr"/>
+      <c r="E90" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to JRS Corporation. Supply of , Invoice Number:  JRS Bill-0018, Challan Number: 803, Work Order Number: DES/PO/2024/12/31363, BA Team (A), Company Unit: Transformer, Project Name : DESCO 3-Phase Distribution Transformer (GD-5), Work Order date: 2024-12-29, Goods Received Date: 2025-04-22, Work Order Value: 251400.0, Total Bill Amount: 55440.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F90" s="1" t="inlineStr"/>
-      <c r="G90" s="1" t="inlineStr"/>
-      <c r="H90" s="1" t="inlineStr"/>
-      <c r="I90" s="1" t="inlineStr"/>
-      <c r="J90" s="1" t="inlineStr"/>
-      <c r="K90" s="1" t="inlineStr"/>
-      <c r="L90" s="1" t="inlineStr"/>
+      <c r="F90" s="9" t="inlineStr"/>
+      <c r="G90" s="9" t="inlineStr"/>
+      <c r="H90" s="9" t="inlineStr"/>
+      <c r="I90" s="9" t="inlineStr"/>
+      <c r="J90" s="9" t="inlineStr"/>
+      <c r="K90" s="9" t="inlineStr"/>
+      <c r="L90" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="inlineStr"/>
-      <c r="B91" s="2" t="inlineStr"/>
-      <c r="C91" s="1" t="inlineStr"/>
-      <c r="D91" s="1" t="inlineStr">
+      <c r="A91" s="9" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
+      <c r="B91" s="10" t="inlineStr"/>
+      <c r="C91" s="9" t="inlineStr"/>
+      <c r="D91" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E91" s="11" t="inlineStr">
+      <c r="E91" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F91" s="1" t="inlineStr"/>
-      <c r="G91" s="1" t="inlineStr"/>
-      <c r="H91" s="1" t="inlineStr"/>
-      <c r="I91" s="1" t="inlineStr"/>
-      <c r="J91" s="1" t="inlineStr"/>
-      <c r="K91" s="1" t="inlineStr"/>
-      <c r="L91" s="1" t="inlineStr"/>
+      <c r="F91" s="9" t="inlineStr"/>
+      <c r="G91" s="9" t="inlineStr"/>
+      <c r="H91" s="9" t="inlineStr"/>
+      <c r="I91" s="9" t="inlineStr"/>
+      <c r="J91" s="9" t="inlineStr"/>
+      <c r="K91" s="9" t="inlineStr"/>
+      <c r="L91" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="inlineStr"/>
-      <c r="B92" s="2" t="inlineStr"/>
-      <c r="C92" s="6" t="inlineStr">
+      <c r="A92" s="17" t="inlineStr">
+        <is>
+          <t>M040</t>
+        </is>
+      </c>
+      <c r="B92" s="18" t="inlineStr"/>
+      <c r="C92" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D92" s="1" t="inlineStr">
+      <c r="D92" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E92" s="7" t="inlineStr">
+      <c r="E92" s="20" t="inlineStr">
         <is>
           <t>AP-M/S Hafsa Enterprise</t>
         </is>
       </c>
-      <c r="F92" s="1" t="inlineStr"/>
-      <c r="G92" s="1" t="inlineStr"/>
-      <c r="H92" s="9" t="inlineStr">
+      <c r="F92" s="17" t="inlineStr"/>
+      <c r="G92" s="17" t="inlineStr"/>
+      <c r="H92" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I92" s="1" t="inlineStr">
+      <c r="I92" s="17" t="inlineStr">
         <is>
           <t>878</t>
         </is>
       </c>
-      <c r="J92" s="1" t="inlineStr"/>
-      <c r="K92" s="8" t="inlineStr">
+      <c r="J92" s="17" t="inlineStr"/>
+      <c r="K92" s="22" t="inlineStr">
         <is>
           <t>4500</t>
         </is>
       </c>
-      <c r="L92" s="1" t="inlineStr"/>
+      <c r="L92" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="inlineStr"/>
-      <c r="B93" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block
-2. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
-        </is>
-      </c>
-      <c r="C93" s="1" t="inlineStr"/>
-      <c r="D93" s="1" t="inlineStr"/>
-      <c r="E93" s="10" t="inlineStr">
+      <c r="A93" s="17" t="inlineStr">
+        <is>
+          <t>M040</t>
+        </is>
+      </c>
+      <c r="B93" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 4500.00
+Borrower Amount: 4500.00</t>
+        </is>
+      </c>
+      <c r="C93" s="17" t="inlineStr"/>
+      <c r="D93" s="17" t="inlineStr"/>
+      <c r="E93" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to M/S. Hafsa Enterprise. Supply of , Invoice Number:  2184, Challan Number: 588, Work Order Number: 271/PO/2025/3/32891, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-03-20, Goods Received Date: 2025-05-08, Work Order Value: 46250.0, Total Bill Amount: 4500.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F93" s="1" t="inlineStr"/>
-      <c r="G93" s="1" t="inlineStr"/>
-      <c r="H93" s="1" t="inlineStr"/>
-      <c r="I93" s="1" t="inlineStr"/>
-      <c r="J93" s="1" t="inlineStr"/>
-      <c r="K93" s="1" t="inlineStr"/>
-      <c r="L93" s="1" t="inlineStr"/>
+      <c r="F93" s="17" t="inlineStr"/>
+      <c r="G93" s="17" t="inlineStr"/>
+      <c r="H93" s="17" t="inlineStr"/>
+      <c r="I93" s="17" t="inlineStr"/>
+      <c r="J93" s="17" t="inlineStr"/>
+      <c r="K93" s="17" t="inlineStr"/>
+      <c r="L93" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="inlineStr"/>
-      <c r="B94" s="2" t="inlineStr"/>
-      <c r="C94" s="1" t="inlineStr"/>
-      <c r="D94" s="1" t="inlineStr">
+      <c r="A94" s="17" t="inlineStr">
+        <is>
+          <t>M040</t>
+        </is>
+      </c>
+      <c r="B94" s="18" t="inlineStr"/>
+      <c r="C94" s="17" t="inlineStr"/>
+      <c r="D94" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E94" s="11" t="inlineStr">
+      <c r="E94" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F94" s="1" t="inlineStr"/>
-      <c r="G94" s="1" t="inlineStr"/>
-      <c r="H94" s="1" t="inlineStr"/>
-      <c r="I94" s="1" t="inlineStr"/>
-      <c r="J94" s="1" t="inlineStr"/>
-      <c r="K94" s="1" t="inlineStr"/>
-      <c r="L94" s="1" t="inlineStr"/>
+      <c r="F94" s="17" t="inlineStr"/>
+      <c r="G94" s="17" t="inlineStr"/>
+      <c r="H94" s="17" t="inlineStr"/>
+      <c r="I94" s="17" t="inlineStr"/>
+      <c r="J94" s="17" t="inlineStr"/>
+      <c r="K94" s="17" t="inlineStr"/>
+      <c r="L94" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="inlineStr"/>
-      <c r="B95" s="2" t="inlineStr"/>
-      <c r="C95" s="6" t="inlineStr">
+      <c r="A95" s="9" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B95" s="10" t="inlineStr"/>
+      <c r="C95" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D95" s="1" t="inlineStr">
+      <c r="D95" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E95" s="7" t="inlineStr">
+      <c r="E95" s="12" t="inlineStr">
         <is>
           <t>AP-M/S.Ishaque Electric</t>
         </is>
       </c>
-      <c r="F95" s="1" t="inlineStr"/>
-      <c r="G95" s="1" t="inlineStr"/>
-      <c r="H95" s="9" t="inlineStr">
+      <c r="F95" s="9" t="inlineStr"/>
+      <c r="G95" s="9" t="inlineStr"/>
+      <c r="H95" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I95" s="1" t="inlineStr">
+      <c r="I95" s="9" t="inlineStr">
         <is>
           <t>879</t>
         </is>
       </c>
-      <c r="J95" s="1" t="inlineStr"/>
-      <c r="K95" s="8" t="inlineStr">
+      <c r="J95" s="9" t="inlineStr"/>
+      <c r="K95" s="14" t="inlineStr">
         <is>
           <t>140000</t>
         </is>
       </c>
-      <c r="L95" s="1" t="inlineStr"/>
+      <c r="L95" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="inlineStr"/>
-      <c r="B96" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block
-2. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
-        </is>
-      </c>
-      <c r="C96" s="1" t="inlineStr"/>
-      <c r="D96" s="1" t="inlineStr"/>
-      <c r="E96" s="10" t="inlineStr">
+      <c r="A96" s="9" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B96" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 140000.00
+Borrower Amount: 140000.00</t>
+        </is>
+      </c>
+      <c r="C96" s="9" t="inlineStr"/>
+      <c r="D96" s="9" t="inlineStr"/>
+      <c r="E96" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to M/S. Ishaque Electric. Supply of , Invoice Number:  329, Challan Number: 902, Work Order Number: 271/PO/2025/4/33395, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-04-28, Goods Received Date: 2025-05-04, Work Order Value: 140000.0, Total Bill Amount: 140000.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F96" s="1" t="inlineStr"/>
-      <c r="G96" s="1" t="inlineStr"/>
-      <c r="H96" s="1" t="inlineStr"/>
-      <c r="I96" s="1" t="inlineStr"/>
-      <c r="J96" s="1" t="inlineStr"/>
-      <c r="K96" s="1" t="inlineStr"/>
-      <c r="L96" s="1" t="inlineStr"/>
+      <c r="F96" s="9" t="inlineStr"/>
+      <c r="G96" s="9" t="inlineStr"/>
+      <c r="H96" s="9" t="inlineStr"/>
+      <c r="I96" s="9" t="inlineStr"/>
+      <c r="J96" s="9" t="inlineStr"/>
+      <c r="K96" s="9" t="inlineStr"/>
+      <c r="L96" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="inlineStr"/>
-      <c r="B97" s="2" t="inlineStr"/>
-      <c r="C97" s="1" t="inlineStr"/>
-      <c r="D97" s="1" t="inlineStr">
+      <c r="A97" s="9" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B97" s="10" t="inlineStr"/>
+      <c r="C97" s="9" t="inlineStr"/>
+      <c r="D97" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E97" s="11" t="inlineStr">
+      <c r="E97" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F97" s="1" t="inlineStr"/>
-      <c r="G97" s="1" t="inlineStr"/>
-      <c r="H97" s="1" t="inlineStr"/>
-      <c r="I97" s="1" t="inlineStr"/>
-      <c r="J97" s="1" t="inlineStr"/>
-      <c r="K97" s="1" t="inlineStr"/>
-      <c r="L97" s="1" t="inlineStr"/>
+      <c r="F97" s="9" t="inlineStr"/>
+      <c r="G97" s="9" t="inlineStr"/>
+      <c r="H97" s="9" t="inlineStr"/>
+      <c r="I97" s="9" t="inlineStr"/>
+      <c r="J97" s="9" t="inlineStr"/>
+      <c r="K97" s="9" t="inlineStr"/>
+      <c r="L97" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="inlineStr"/>
-      <c r="B98" s="2" t="inlineStr"/>
-      <c r="C98" s="6" t="inlineStr">
+      <c r="A98" s="17" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B98" s="18" t="inlineStr"/>
+      <c r="C98" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D98" s="1" t="inlineStr">
+      <c r="D98" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E98" s="7" t="inlineStr">
+      <c r="E98" s="20" t="inlineStr">
         <is>
           <t>AP-M/S.Ishaque Electric</t>
         </is>
       </c>
-      <c r="F98" s="1" t="inlineStr"/>
-      <c r="G98" s="1" t="inlineStr"/>
-      <c r="H98" s="9" t="inlineStr">
+      <c r="F98" s="17" t="inlineStr"/>
+      <c r="G98" s="17" t="inlineStr"/>
+      <c r="H98" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I98" s="1" t="inlineStr">
+      <c r="I98" s="17" t="inlineStr">
         <is>
           <t>880</t>
         </is>
       </c>
-      <c r="J98" s="1" t="inlineStr"/>
-      <c r="K98" s="8" t="inlineStr">
+      <c r="J98" s="17" t="inlineStr"/>
+      <c r="K98" s="22" t="inlineStr">
         <is>
           <t>38240</t>
         </is>
       </c>
-      <c r="L98" s="1" t="inlineStr"/>
+      <c r="L98" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="inlineStr"/>
-      <c r="B99" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block</t>
-        </is>
-      </c>
-      <c r="C99" s="1" t="inlineStr"/>
-      <c r="D99" s="1" t="inlineStr"/>
-      <c r="E99" s="10" t="inlineStr">
+      <c r="A99" s="17" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B99" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 38240.00
+Borrower Amount: 38240.00</t>
+        </is>
+      </c>
+      <c r="C99" s="17" t="inlineStr"/>
+      <c r="D99" s="17" t="inlineStr"/>
+      <c r="E99" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to M/S. Ishaque Electric. Supply of , Invoice Number:  330, Challan Number: 798, Work Order Number: BRE/PO/2025/4/33339, BA Team (A), Company Unit: Transformer, Project Name : BREB/DP/PBSF-G-89-Lot-1/1/086/2023-2024 (REB) 3-Phase Power Transformer , Work Order date: 2025-04-24, Goods Received Date: 2025-05-04, Work Order Value: 382400.0, Total Bill Amount: 38240.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F99" s="1" t="inlineStr"/>
-      <c r="G99" s="1" t="inlineStr"/>
-      <c r="H99" s="1" t="inlineStr"/>
-      <c r="I99" s="1" t="inlineStr"/>
-      <c r="J99" s="1" t="inlineStr"/>
-      <c r="K99" s="1" t="inlineStr"/>
-      <c r="L99" s="1" t="inlineStr"/>
+      <c r="F99" s="17" t="inlineStr"/>
+      <c r="G99" s="17" t="inlineStr"/>
+      <c r="H99" s="17" t="inlineStr"/>
+      <c r="I99" s="17" t="inlineStr"/>
+      <c r="J99" s="17" t="inlineStr"/>
+      <c r="K99" s="17" t="inlineStr"/>
+      <c r="L99" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="inlineStr"/>
-      <c r="B100" s="2" t="inlineStr"/>
-      <c r="C100" s="1" t="inlineStr"/>
-      <c r="D100" s="1" t="inlineStr">
+      <c r="A100" s="17" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B100" s="18" t="inlineStr"/>
+      <c r="C100" s="17" t="inlineStr"/>
+      <c r="D100" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E100" s="11" t="inlineStr">
+      <c r="E100" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F100" s="1" t="inlineStr"/>
-      <c r="G100" s="1" t="inlineStr"/>
-      <c r="H100" s="1" t="inlineStr"/>
-      <c r="I100" s="1" t="inlineStr"/>
-      <c r="J100" s="1" t="inlineStr"/>
-      <c r="K100" s="1" t="inlineStr"/>
-      <c r="L100" s="1" t="inlineStr"/>
+      <c r="F100" s="17" t="inlineStr"/>
+      <c r="G100" s="17" t="inlineStr"/>
+      <c r="H100" s="17" t="inlineStr"/>
+      <c r="I100" s="17" t="inlineStr"/>
+      <c r="J100" s="17" t="inlineStr"/>
+      <c r="K100" s="17" t="inlineStr"/>
+      <c r="L100" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="inlineStr"/>
-      <c r="B101" s="2" t="inlineStr"/>
-      <c r="C101" s="6" t="inlineStr">
+      <c r="A101" s="9" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B101" s="10" t="inlineStr"/>
+      <c r="C101" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D101" s="1" t="inlineStr">
+      <c r="D101" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E101" s="7" t="inlineStr">
+      <c r="E101" s="12" t="inlineStr">
         <is>
           <t>AP-M/s.Salam &amp; Brothers</t>
         </is>
       </c>
-      <c r="F101" s="1" t="inlineStr"/>
-      <c r="G101" s="1" t="inlineStr"/>
-      <c r="H101" s="9" t="inlineStr">
+      <c r="F101" s="9" t="inlineStr"/>
+      <c r="G101" s="9" t="inlineStr"/>
+      <c r="H101" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I101" s="1" t="inlineStr">
+      <c r="I101" s="9" t="inlineStr">
         <is>
           <t>881</t>
         </is>
       </c>
-      <c r="J101" s="1" t="inlineStr"/>
-      <c r="K101" s="8" t="inlineStr">
+      <c r="J101" s="9" t="inlineStr"/>
+      <c r="K101" s="14" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="L101" s="1" t="inlineStr"/>
+      <c r="L101" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="inlineStr"/>
-      <c r="B102" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block
-2. No interunit account found in File 2 block
-3. No interunit account found in File 2 block
-4. No interunit account found in File 2 block
-5. No interunit account found in File 2 block
-6. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']
-7. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']
-8. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
-        </is>
-      </c>
-      <c r="C102" s="1" t="inlineStr"/>
-      <c r="D102" s="1" t="inlineStr"/>
-      <c r="E102" s="10" t="inlineStr">
+      <c r="A102" s="9" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B102" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 200000.00
+Borrower Amount: 200000.00</t>
+        </is>
+      </c>
+      <c r="C102" s="9" t="inlineStr"/>
+      <c r="D102" s="9" t="inlineStr"/>
+      <c r="E102" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to Salam &amp; Brothers. Supply of , Invoice Number:  1623/24-25, Challan Number: 060225,1450/24-25, Work Order Number: 271/PO/2025/1/31492, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-01-06, Goods Received Date: 2025-01-23,2025-02-10, Work Order Value: 822000.0, Total Bill Amount: 200000.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F102" s="1" t="inlineStr"/>
-      <c r="G102" s="1" t="inlineStr"/>
-      <c r="H102" s="1" t="inlineStr"/>
-      <c r="I102" s="1" t="inlineStr"/>
-      <c r="J102" s="1" t="inlineStr"/>
-      <c r="K102" s="1" t="inlineStr"/>
-      <c r="L102" s="1" t="inlineStr"/>
+      <c r="F102" s="9" t="inlineStr"/>
+      <c r="G102" s="9" t="inlineStr"/>
+      <c r="H102" s="9" t="inlineStr"/>
+      <c r="I102" s="9" t="inlineStr"/>
+      <c r="J102" s="9" t="inlineStr"/>
+      <c r="K102" s="9" t="inlineStr"/>
+      <c r="L102" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="inlineStr"/>
-      <c r="B103" s="2" t="inlineStr"/>
-      <c r="C103" s="1" t="inlineStr"/>
-      <c r="D103" s="1" t="inlineStr">
+      <c r="A103" s="9" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B103" s="10" t="inlineStr"/>
+      <c r="C103" s="9" t="inlineStr"/>
+      <c r="D103" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E103" s="11" t="inlineStr">
+      <c r="E103" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F103" s="1" t="inlineStr"/>
-      <c r="G103" s="1" t="inlineStr"/>
-      <c r="H103" s="1" t="inlineStr"/>
-      <c r="I103" s="1" t="inlineStr"/>
-      <c r="J103" s="1" t="inlineStr"/>
-      <c r="K103" s="1" t="inlineStr"/>
-      <c r="L103" s="1" t="inlineStr"/>
+      <c r="F103" s="9" t="inlineStr"/>
+      <c r="G103" s="9" t="inlineStr"/>
+      <c r="H103" s="9" t="inlineStr"/>
+      <c r="I103" s="9" t="inlineStr"/>
+      <c r="J103" s="9" t="inlineStr"/>
+      <c r="K103" s="9" t="inlineStr"/>
+      <c r="L103" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="inlineStr"/>
-      <c r="B104" s="2" t="inlineStr"/>
-      <c r="C104" s="6" t="inlineStr">
+      <c r="A104" s="17" t="inlineStr">
+        <is>
+          <t>M044</t>
+        </is>
+      </c>
+      <c r="B104" s="18" t="inlineStr"/>
+      <c r="C104" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D104" s="1" t="inlineStr">
+      <c r="D104" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E104" s="7" t="inlineStr">
+      <c r="E104" s="20" t="inlineStr">
         <is>
           <t>AP-United Traders</t>
         </is>
       </c>
-      <c r="F104" s="1" t="inlineStr"/>
-      <c r="G104" s="1" t="inlineStr"/>
-      <c r="H104" s="9" t="inlineStr">
+      <c r="F104" s="17" t="inlineStr"/>
+      <c r="G104" s="17" t="inlineStr"/>
+      <c r="H104" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I104" s="1" t="inlineStr">
+      <c r="I104" s="17" t="inlineStr">
         <is>
           <t>882</t>
         </is>
       </c>
-      <c r="J104" s="1" t="inlineStr"/>
-      <c r="K104" s="8" t="inlineStr">
+      <c r="J104" s="17" t="inlineStr"/>
+      <c r="K104" s="22" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="L104" s="1" t="inlineStr"/>
+      <c r="L104" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="inlineStr"/>
-      <c r="B105" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block
-2. No interunit account found in File 2 block
-3. No interunit account found in File 2 block
-4. No interunit account found in File 2 block
-5. No interunit account found in File 2 block</t>
-        </is>
-      </c>
-      <c r="C105" s="1" t="inlineStr"/>
-      <c r="D105" s="1" t="inlineStr"/>
-      <c r="E105" s="10" t="inlineStr">
+      <c r="A105" s="17" t="inlineStr">
+        <is>
+          <t>M044</t>
+        </is>
+      </c>
+      <c r="B105" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 200000.00
+Borrower Amount: 200000.00</t>
+        </is>
+      </c>
+      <c r="C105" s="17" t="inlineStr"/>
+      <c r="D105" s="17" t="inlineStr"/>
+      <c r="E105" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to United Traders. Supply of , Invoice Number:  523, Challan Number: 1137, Work Order Number: MCE/PO/2025/2/32380, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-02-20, Goods Received Date: 2025-03-04, Work Order Value: 733200.0, Total Bill Amount: 200000.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F105" s="1" t="inlineStr"/>
-      <c r="G105" s="1" t="inlineStr"/>
-      <c r="H105" s="1" t="inlineStr"/>
-      <c r="I105" s="1" t="inlineStr"/>
-      <c r="J105" s="1" t="inlineStr"/>
-      <c r="K105" s="1" t="inlineStr"/>
-      <c r="L105" s="1" t="inlineStr"/>
+      <c r="F105" s="17" t="inlineStr"/>
+      <c r="G105" s="17" t="inlineStr"/>
+      <c r="H105" s="17" t="inlineStr"/>
+      <c r="I105" s="17" t="inlineStr"/>
+      <c r="J105" s="17" t="inlineStr"/>
+      <c r="K105" s="17" t="inlineStr"/>
+      <c r="L105" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="inlineStr"/>
-      <c r="B106" s="2" t="inlineStr"/>
-      <c r="C106" s="1" t="inlineStr"/>
-      <c r="D106" s="1" t="inlineStr">
+      <c r="A106" s="17" t="inlineStr">
+        <is>
+          <t>M044</t>
+        </is>
+      </c>
+      <c r="B106" s="18" t="inlineStr"/>
+      <c r="C106" s="17" t="inlineStr"/>
+      <c r="D106" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E106" s="11" t="inlineStr">
+      <c r="E106" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F106" s="1" t="inlineStr"/>
-      <c r="G106" s="1" t="inlineStr"/>
-      <c r="H106" s="1" t="inlineStr"/>
-      <c r="I106" s="1" t="inlineStr"/>
-      <c r="J106" s="1" t="inlineStr"/>
-      <c r="K106" s="1" t="inlineStr"/>
-      <c r="L106" s="1" t="inlineStr"/>
+      <c r="F106" s="17" t="inlineStr"/>
+      <c r="G106" s="17" t="inlineStr"/>
+      <c r="H106" s="17" t="inlineStr"/>
+      <c r="I106" s="17" t="inlineStr"/>
+      <c r="J106" s="17" t="inlineStr"/>
+      <c r="K106" s="17" t="inlineStr"/>
+      <c r="L106" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="inlineStr"/>
-      <c r="B107" s="2" t="inlineStr"/>
-      <c r="C107" s="6" t="inlineStr">
+      <c r="A107" s="9" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
+      <c r="B107" s="10" t="inlineStr"/>
+      <c r="C107" s="11" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D107" s="1" t="inlineStr">
+      <c r="D107" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E107" s="7" t="inlineStr">
+      <c r="E107" s="12" t="inlineStr">
         <is>
           <t>AP-Wintel Limited</t>
         </is>
       </c>
-      <c r="F107" s="1" t="inlineStr"/>
-      <c r="G107" s="1" t="inlineStr"/>
-      <c r="H107" s="9" t="inlineStr">
+      <c r="F107" s="9" t="inlineStr"/>
+      <c r="G107" s="9" t="inlineStr"/>
+      <c r="H107" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I107" s="1" t="inlineStr">
+      <c r="I107" s="9" t="inlineStr">
         <is>
           <t>884</t>
         </is>
       </c>
-      <c r="J107" s="1" t="inlineStr"/>
-      <c r="K107" s="8" t="inlineStr">
+      <c r="J107" s="9" t="inlineStr"/>
+      <c r="K107" s="14" t="inlineStr">
         <is>
           <t>1234</t>
         </is>
       </c>
-      <c r="L107" s="1" t="inlineStr"/>
+      <c r="L107" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="inlineStr"/>
-      <c r="B108" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block</t>
-        </is>
-      </c>
-      <c r="C108" s="1" t="inlineStr"/>
-      <c r="D108" s="1" t="inlineStr"/>
-      <c r="E108" s="10" t="inlineStr">
+      <c r="A108" s="9" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
+      <c r="B108" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 1234.00
+Borrower Amount: 1234.00</t>
+        </is>
+      </c>
+      <c r="C108" s="9" t="inlineStr"/>
+      <c r="D108" s="9" t="inlineStr"/>
+      <c r="E108" s="15" t="inlineStr">
         <is>
           <t>Amount paid against Monthly Mobile bill for the month of May-2025. (MBD-7th Floor).</t>
         </is>
       </c>
-      <c r="F108" s="1" t="inlineStr"/>
-      <c r="G108" s="1" t="inlineStr"/>
-      <c r="H108" s="1" t="inlineStr"/>
-      <c r="I108" s="1" t="inlineStr"/>
-      <c r="J108" s="1" t="inlineStr"/>
-      <c r="K108" s="1" t="inlineStr"/>
-      <c r="L108" s="1" t="inlineStr"/>
+      <c r="F108" s="9" t="inlineStr"/>
+      <c r="G108" s="9" t="inlineStr"/>
+      <c r="H108" s="9" t="inlineStr"/>
+      <c r="I108" s="9" t="inlineStr"/>
+      <c r="J108" s="9" t="inlineStr"/>
+      <c r="K108" s="9" t="inlineStr"/>
+      <c r="L108" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="inlineStr"/>
-      <c r="B109" s="2" t="inlineStr"/>
-      <c r="C109" s="1" t="inlineStr"/>
-      <c r="D109" s="1" t="inlineStr">
+      <c r="A109" s="9" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
+      <c r="B109" s="10" t="inlineStr"/>
+      <c r="C109" s="9" t="inlineStr"/>
+      <c r="D109" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E109" s="11" t="inlineStr">
+      <c r="E109" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F109" s="1" t="inlineStr"/>
-      <c r="G109" s="1" t="inlineStr"/>
-      <c r="H109" s="1" t="inlineStr"/>
-      <c r="I109" s="1" t="inlineStr"/>
-      <c r="J109" s="1" t="inlineStr"/>
-      <c r="K109" s="1" t="inlineStr"/>
-      <c r="L109" s="1" t="inlineStr"/>
+      <c r="F109" s="9" t="inlineStr"/>
+      <c r="G109" s="9" t="inlineStr"/>
+      <c r="H109" s="9" t="inlineStr"/>
+      <c r="I109" s="9" t="inlineStr"/>
+      <c r="J109" s="9" t="inlineStr"/>
+      <c r="K109" s="9" t="inlineStr"/>
+      <c r="L109" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="inlineStr"/>
-      <c r="B110" s="2" t="inlineStr"/>
-      <c r="C110" s="6" t="inlineStr">
+      <c r="A110" s="17" t="inlineStr">
+        <is>
+          <t>M045</t>
+        </is>
+      </c>
+      <c r="B110" s="18" t="inlineStr"/>
+      <c r="C110" s="19" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D110" s="1" t="inlineStr">
+      <c r="D110" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E110" s="7" t="inlineStr">
+      <c r="E110" s="20" t="inlineStr">
         <is>
           <t>AP-A.B.M Anas Engineering</t>
         </is>
       </c>
-      <c r="F110" s="1" t="inlineStr"/>
-      <c r="G110" s="1" t="inlineStr"/>
-      <c r="H110" s="9" t="inlineStr">
+      <c r="F110" s="17" t="inlineStr"/>
+      <c r="G110" s="17" t="inlineStr"/>
+      <c r="H110" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I110" s="1" t="inlineStr">
+      <c r="I110" s="17" t="inlineStr">
         <is>
           <t>885</t>
         </is>
       </c>
-      <c r="J110" s="1" t="inlineStr"/>
-      <c r="K110" s="8" t="inlineStr">
+      <c r="J110" s="17" t="inlineStr"/>
+      <c r="K110" s="22" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="L110" s="1" t="inlineStr"/>
+      <c r="L110" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="inlineStr"/>
-      <c r="B111" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block
-2. No interunit account found in File 2 block
-3. No interunit account found in File 2 block
-4. No interunit account found in File 2 block
-5. No interunit account found in File 2 block</t>
-        </is>
-      </c>
-      <c r="C111" s="1" t="inlineStr"/>
-      <c r="D111" s="1" t="inlineStr"/>
-      <c r="E111" s="10" t="inlineStr">
+      <c r="A111" s="17" t="inlineStr">
+        <is>
+          <t>M045</t>
+        </is>
+      </c>
+      <c r="B111" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 200000.00
+Borrower Amount: 200000.00</t>
+        </is>
+      </c>
+      <c r="C111" s="17" t="inlineStr"/>
+      <c r="D111" s="17" t="inlineStr"/>
+      <c r="E111" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to ABM Anas Engineering. Supply of , Invoice Number:  25-03, Challan Number: 100,026, Work Order Number: MCE/PO/2025/2/32359, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-02-19, Goods Received Date: 2025-03-12, Work Order Value: 5404000.0, Total Bill Amount: 200000.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F111" s="1" t="inlineStr"/>
-      <c r="G111" s="1" t="inlineStr"/>
-      <c r="H111" s="1" t="inlineStr"/>
-      <c r="I111" s="1" t="inlineStr"/>
-      <c r="J111" s="1" t="inlineStr"/>
-      <c r="K111" s="1" t="inlineStr"/>
-      <c r="L111" s="1" t="inlineStr"/>
+      <c r="F111" s="17" t="inlineStr"/>
+      <c r="G111" s="17" t="inlineStr"/>
+      <c r="H111" s="17" t="inlineStr"/>
+      <c r="I111" s="17" t="inlineStr"/>
+      <c r="J111" s="17" t="inlineStr"/>
+      <c r="K111" s="17" t="inlineStr"/>
+      <c r="L111" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="inlineStr"/>
-      <c r="B112" s="2" t="inlineStr"/>
-      <c r="C112" s="1" t="inlineStr"/>
-      <c r="D112" s="1" t="inlineStr">
+      <c r="A112" s="17" t="inlineStr">
+        <is>
+          <t>M045</t>
+        </is>
+      </c>
+      <c r="B112" s="18" t="inlineStr"/>
+      <c r="C112" s="17" t="inlineStr"/>
+      <c r="D112" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E112" s="11" t="inlineStr">
+      <c r="E112" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F112" s="1" t="inlineStr"/>
-      <c r="G112" s="1" t="inlineStr"/>
-      <c r="H112" s="1" t="inlineStr"/>
-      <c r="I112" s="1" t="inlineStr"/>
-      <c r="J112" s="1" t="inlineStr"/>
-      <c r="K112" s="1" t="inlineStr"/>
-      <c r="L112" s="1" t="inlineStr"/>
+      <c r="F112" s="17" t="inlineStr"/>
+      <c r="G112" s="17" t="inlineStr"/>
+      <c r="H112" s="17" t="inlineStr"/>
+      <c r="I112" s="17" t="inlineStr"/>
+      <c r="J112" s="17" t="inlineStr"/>
+      <c r="K112" s="17" t="inlineStr"/>
+      <c r="L112" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="inlineStr"/>
-      <c r="B113" s="2" t="inlineStr"/>
-      <c r="C113" s="6" t="inlineStr">
+      <c r="A113" s="9" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B113" s="10" t="inlineStr"/>
+      <c r="C113" s="11" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D113" s="1" t="inlineStr">
+      <c r="D113" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E113" s="7" t="inlineStr">
+      <c r="E113" s="12" t="inlineStr">
         <is>
           <t>AP-A.B.M Anas Engineering</t>
         </is>
       </c>
-      <c r="F113" s="1" t="inlineStr"/>
-      <c r="G113" s="1" t="inlineStr"/>
-      <c r="H113" s="9" t="inlineStr">
+      <c r="F113" s="9" t="inlineStr"/>
+      <c r="G113" s="9" t="inlineStr"/>
+      <c r="H113" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I113" s="1" t="inlineStr">
+      <c r="I113" s="9" t="inlineStr">
         <is>
           <t>886</t>
         </is>
       </c>
-      <c r="J113" s="1" t="inlineStr"/>
-      <c r="K113" s="8" t="inlineStr">
+      <c r="J113" s="9" t="inlineStr"/>
+      <c r="K113" s="14" t="inlineStr">
         <is>
           <t>36900</t>
         </is>
       </c>
-      <c r="L113" s="1" t="inlineStr"/>
+      <c r="L113" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="inlineStr"/>
-      <c r="B114" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block
-2. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
-        </is>
-      </c>
-      <c r="C114" s="1" t="inlineStr"/>
-      <c r="D114" s="1" t="inlineStr"/>
-      <c r="E114" s="10" t="inlineStr">
+      <c r="A114" s="9" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B114" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 36900.00
+Borrower Amount: 36900.00</t>
+        </is>
+      </c>
+      <c r="C114" s="9" t="inlineStr"/>
+      <c r="D114" s="9" t="inlineStr"/>
+      <c r="E114" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to ABM Anas Engineering. Supply of , Invoice Number:  25-04, Challan Number: 027, Work Order Number: 271/PO/2025/3/32677, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-03-11, Goods Received Date: 2025-04-06, Work Order Value: 36900.0, Total Bill Amount: 36900.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F114" s="1" t="inlineStr"/>
-      <c r="G114" s="1" t="inlineStr"/>
-      <c r="H114" s="1" t="inlineStr"/>
-      <c r="I114" s="1" t="inlineStr"/>
-      <c r="J114" s="1" t="inlineStr"/>
-      <c r="K114" s="1" t="inlineStr"/>
-      <c r="L114" s="1" t="inlineStr"/>
+      <c r="F114" s="9" t="inlineStr"/>
+      <c r="G114" s="9" t="inlineStr"/>
+      <c r="H114" s="9" t="inlineStr"/>
+      <c r="I114" s="9" t="inlineStr"/>
+      <c r="J114" s="9" t="inlineStr"/>
+      <c r="K114" s="9" t="inlineStr"/>
+      <c r="L114" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="inlineStr"/>
-      <c r="B115" s="2" t="inlineStr"/>
-      <c r="C115" s="1" t="inlineStr"/>
-      <c r="D115" s="1" t="inlineStr">
+      <c r="A115" s="9" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B115" s="10" t="inlineStr"/>
+      <c r="C115" s="9" t="inlineStr"/>
+      <c r="D115" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E115" s="11" t="inlineStr">
+      <c r="E115" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F115" s="1" t="inlineStr"/>
-      <c r="G115" s="1" t="inlineStr"/>
-      <c r="H115" s="1" t="inlineStr"/>
-      <c r="I115" s="1" t="inlineStr"/>
-      <c r="J115" s="1" t="inlineStr"/>
-      <c r="K115" s="1" t="inlineStr"/>
-      <c r="L115" s="1" t="inlineStr"/>
+      <c r="F115" s="9" t="inlineStr"/>
+      <c r="G115" s="9" t="inlineStr"/>
+      <c r="H115" s="9" t="inlineStr"/>
+      <c r="I115" s="9" t="inlineStr"/>
+      <c r="J115" s="9" t="inlineStr"/>
+      <c r="K115" s="9" t="inlineStr"/>
+      <c r="L115" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="12" t="inlineStr">
+      <c r="A116" s="17" t="inlineStr">
         <is>
           <t>M011</t>
         </is>
       </c>
-      <c r="B116" s="13" t="inlineStr"/>
-      <c r="C116" s="14" t="inlineStr">
+      <c r="B116" s="18" t="inlineStr"/>
+      <c r="C116" s="19" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D116" s="12" t="inlineStr">
+      <c r="D116" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E116" s="15" t="inlineStr">
+      <c r="E116" s="20" t="inlineStr">
         <is>
           <t>Midland Bank Ltd-CE-0011-1060000313</t>
         </is>
       </c>
-      <c r="F116" s="12" t="inlineStr"/>
-      <c r="G116" s="12" t="inlineStr"/>
-      <c r="H116" s="16" t="inlineStr">
+      <c r="F116" s="17" t="inlineStr"/>
+      <c r="G116" s="17" t="inlineStr"/>
+      <c r="H116" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I116" s="12" t="inlineStr">
+      <c r="I116" s="17" t="inlineStr">
         <is>
           <t>18149</t>
         </is>
       </c>
-      <c r="J116" s="17" t="inlineStr">
+      <c r="J116" s="22" t="inlineStr">
         <is>
           <t>12000000</t>
         </is>
       </c>
-      <c r="K116" s="12" t="inlineStr"/>
-      <c r="L116" s="12" t="inlineStr">
+      <c r="K116" s="17" t="inlineStr"/>
+      <c r="L116" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="12" t="inlineStr">
+      <c r="A117" s="17" t="inlineStr">
         <is>
           <t>M011</t>
         </is>
       </c>
-      <c r="B117" s="13" t="inlineStr">
+      <c r="B117" s="18" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0313
 Lender Amount: 12000000.00
 Borrower Amount: 12000000.00</t>
         </is>
       </c>
-      <c r="C117" s="12" t="inlineStr"/>
-      <c r="D117" s="12" t="inlineStr"/>
-      <c r="E117" s="18" t="inlineStr">
+      <c r="C117" s="17" t="inlineStr"/>
+      <c r="D117" s="17" t="inlineStr"/>
+      <c r="E117" s="23" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Interunit Loan A/C-Steel Unit, DBL#1833</t>
         </is>
       </c>
-      <c r="F117" s="12" t="inlineStr"/>
-      <c r="G117" s="12" t="inlineStr"/>
-      <c r="H117" s="12" t="inlineStr"/>
-      <c r="I117" s="12" t="inlineStr"/>
-      <c r="J117" s="12" t="inlineStr"/>
-      <c r="K117" s="12" t="inlineStr"/>
-      <c r="L117" s="12" t="inlineStr">
+      <c r="F117" s="17" t="inlineStr"/>
+      <c r="G117" s="17" t="inlineStr"/>
+      <c r="H117" s="17" t="inlineStr"/>
+      <c r="I117" s="17" t="inlineStr"/>
+      <c r="J117" s="17" t="inlineStr"/>
+      <c r="K117" s="17" t="inlineStr"/>
+      <c r="L117" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="12" t="inlineStr">
+      <c r="A118" s="17" t="inlineStr">
         <is>
           <t>M011</t>
         </is>
       </c>
-      <c r="B118" s="13" t="inlineStr"/>
-      <c r="C118" s="12" t="inlineStr"/>
-      <c r="D118" s="12" t="inlineStr">
+      <c r="B118" s="18" t="inlineStr"/>
+      <c r="C118" s="17" t="inlineStr"/>
+      <c r="D118" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E118" s="19" t="inlineStr">
+      <c r="E118" s="24" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F118" s="12" t="inlineStr"/>
-      <c r="G118" s="12" t="inlineStr"/>
-      <c r="H118" s="12" t="inlineStr"/>
-      <c r="I118" s="12" t="inlineStr"/>
-      <c r="J118" s="12" t="inlineStr"/>
-      <c r="K118" s="12" t="inlineStr"/>
-      <c r="L118" s="12" t="inlineStr">
+      <c r="F118" s="17" t="inlineStr"/>
+      <c r="G118" s="17" t="inlineStr"/>
+      <c r="H118" s="17" t="inlineStr"/>
+      <c r="I118" s="17" t="inlineStr"/>
+      <c r="J118" s="17" t="inlineStr"/>
+      <c r="K118" s="17" t="inlineStr"/>
+      <c r="L118" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="20" t="inlineStr">
+      <c r="A119" s="9" t="inlineStr">
         <is>
           <t>M012</t>
         </is>
       </c>
-      <c r="B119" s="21" t="inlineStr"/>
-      <c r="C119" s="22" t="inlineStr">
+      <c r="B119" s="10" t="inlineStr"/>
+      <c r="C119" s="11" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D119" s="20" t="inlineStr">
+      <c r="D119" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E119" s="23" t="inlineStr">
+      <c r="E119" s="12" t="inlineStr">
         <is>
           <t>Midland Bank Ltd-CE-0011-1060000313</t>
         </is>
       </c>
-      <c r="F119" s="20" t="inlineStr"/>
-      <c r="G119" s="20" t="inlineStr"/>
-      <c r="H119" s="24" t="inlineStr">
+      <c r="F119" s="9" t="inlineStr"/>
+      <c r="G119" s="9" t="inlineStr"/>
+      <c r="H119" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I119" s="20" t="inlineStr">
+      <c r="I119" s="9" t="inlineStr">
         <is>
           <t>18150</t>
         </is>
       </c>
-      <c r="J119" s="25" t="inlineStr">
+      <c r="J119" s="14" t="inlineStr">
         <is>
           <t>22000000</t>
         </is>
       </c>
-      <c r="K119" s="20" t="inlineStr"/>
-      <c r="L119" s="20" t="inlineStr">
+      <c r="K119" s="9" t="inlineStr"/>
+      <c r="L119" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="20" t="inlineStr">
+      <c r="A120" s="9" t="inlineStr">
         <is>
           <t>M012</t>
         </is>
       </c>
-      <c r="B120" s="21" t="inlineStr">
+      <c r="B120" s="10" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0313
 Lender Amount: 22000000.00
 Borrower Amount: 22000000.00</t>
         </is>
       </c>
-      <c r="C120" s="20" t="inlineStr"/>
-      <c r="D120" s="20" t="inlineStr"/>
-      <c r="E120" s="26" t="inlineStr">
+      <c r="C120" s="9" t="inlineStr"/>
+      <c r="D120" s="9" t="inlineStr"/>
+      <c r="E120" s="15" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Interunit Loan A/C-Steel Unit, MDB#0331</t>
         </is>
       </c>
-      <c r="F120" s="20" t="inlineStr"/>
-      <c r="G120" s="20" t="inlineStr"/>
-      <c r="H120" s="20" t="inlineStr"/>
-      <c r="I120" s="20" t="inlineStr"/>
-      <c r="J120" s="20" t="inlineStr"/>
-      <c r="K120" s="20" t="inlineStr"/>
-      <c r="L120" s="20" t="inlineStr">
+      <c r="F120" s="9" t="inlineStr"/>
+      <c r="G120" s="9" t="inlineStr"/>
+      <c r="H120" s="9" t="inlineStr"/>
+      <c r="I120" s="9" t="inlineStr"/>
+      <c r="J120" s="9" t="inlineStr"/>
+      <c r="K120" s="9" t="inlineStr"/>
+      <c r="L120" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="20" t="inlineStr">
+      <c r="A121" s="9" t="inlineStr">
         <is>
           <t>M012</t>
         </is>
       </c>
-      <c r="B121" s="21" t="inlineStr"/>
-      <c r="C121" s="20" t="inlineStr"/>
-      <c r="D121" s="20" t="inlineStr">
+      <c r="B121" s="10" t="inlineStr"/>
+      <c r="C121" s="9" t="inlineStr"/>
+      <c r="D121" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E121" s="27" t="inlineStr">
+      <c r="E121" s="16" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F121" s="20" t="inlineStr"/>
-      <c r="G121" s="20" t="inlineStr"/>
-      <c r="H121" s="20" t="inlineStr"/>
-      <c r="I121" s="20" t="inlineStr"/>
-      <c r="J121" s="20" t="inlineStr"/>
-      <c r="K121" s="20" t="inlineStr"/>
-      <c r="L121" s="20" t="inlineStr">
+      <c r="F121" s="9" t="inlineStr"/>
+      <c r="G121" s="9" t="inlineStr"/>
+      <c r="H121" s="9" t="inlineStr"/>
+      <c r="I121" s="9" t="inlineStr"/>
+      <c r="J121" s="9" t="inlineStr"/>
+      <c r="K121" s="9" t="inlineStr"/>
+      <c r="L121" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="inlineStr"/>
-      <c r="B122" s="2" t="inlineStr"/>
-      <c r="C122" s="6" t="inlineStr">
+      <c r="A122" s="17" t="inlineStr">
+        <is>
+          <t>M049</t>
+        </is>
+      </c>
+      <c r="B122" s="18" t="inlineStr"/>
+      <c r="C122" s="19" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D122" s="1" t="inlineStr">
+      <c r="D122" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E122" s="7" t="inlineStr">
+      <c r="E122" s="20" t="inlineStr">
         <is>
           <t>AP-Pragati Life Insurance Limited</t>
         </is>
       </c>
-      <c r="F122" s="1" t="inlineStr"/>
-      <c r="G122" s="1" t="inlineStr"/>
-      <c r="H122" s="9" t="inlineStr">
+      <c r="F122" s="17" t="inlineStr"/>
+      <c r="G122" s="17" t="inlineStr"/>
+      <c r="H122" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I122" s="1" t="inlineStr">
+      <c r="I122" s="17" t="inlineStr">
         <is>
           <t>889</t>
         </is>
       </c>
-      <c r="J122" s="1" t="inlineStr"/>
-      <c r="K122" s="8" t="inlineStr">
+      <c r="J122" s="17" t="inlineStr"/>
+      <c r="K122" s="22" t="inlineStr">
         <is>
           <t>58108</t>
         </is>
       </c>
-      <c r="L122" s="1" t="inlineStr"/>
+      <c r="L122" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="inlineStr"/>
-      <c r="B123" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block</t>
-        </is>
-      </c>
-      <c r="C123" s="1" t="inlineStr"/>
-      <c r="D123" s="1" t="inlineStr"/>
-      <c r="E123" s="10" t="inlineStr">
+      <c r="A123" s="17" t="inlineStr">
+        <is>
+          <t>M049</t>
+        </is>
+      </c>
+      <c r="B123" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 58108.00
+Borrower Amount: 58108.00</t>
+        </is>
+      </c>
+      <c r="C123" s="17" t="inlineStr"/>
+      <c r="D123" s="17" t="inlineStr"/>
+      <c r="E123" s="23" t="inlineStr">
         <is>
           <t>Amount paid to Pragati Life Insurance Limited against group insurance .Bill-00636 &amp; 00636-C Bill period: 01/03/25 to 28/02/26, Bill dt.27.03.25, Contract no.1748-02/2022</t>
         </is>
       </c>
-      <c r="F123" s="1" t="inlineStr"/>
-      <c r="G123" s="1" t="inlineStr"/>
-      <c r="H123" s="1" t="inlineStr"/>
-      <c r="I123" s="1" t="inlineStr"/>
-      <c r="J123" s="1" t="inlineStr"/>
-      <c r="K123" s="1" t="inlineStr"/>
-      <c r="L123" s="1" t="inlineStr"/>
+      <c r="F123" s="17" t="inlineStr"/>
+      <c r="G123" s="17" t="inlineStr"/>
+      <c r="H123" s="17" t="inlineStr"/>
+      <c r="I123" s="17" t="inlineStr"/>
+      <c r="J123" s="17" t="inlineStr"/>
+      <c r="K123" s="17" t="inlineStr"/>
+      <c r="L123" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="inlineStr"/>
-      <c r="B124" s="2" t="inlineStr"/>
-      <c r="C124" s="1" t="inlineStr"/>
-      <c r="D124" s="1" t="inlineStr">
+      <c r="A124" s="17" t="inlineStr">
+        <is>
+          <t>M049</t>
+        </is>
+      </c>
+      <c r="B124" s="18" t="inlineStr"/>
+      <c r="C124" s="17" t="inlineStr"/>
+      <c r="D124" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E124" s="11" t="inlineStr">
+      <c r="E124" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F124" s="1" t="inlineStr"/>
-      <c r="G124" s="1" t="inlineStr"/>
-      <c r="H124" s="1" t="inlineStr"/>
-      <c r="I124" s="1" t="inlineStr"/>
-      <c r="J124" s="1" t="inlineStr"/>
-      <c r="K124" s="1" t="inlineStr"/>
-      <c r="L124" s="1" t="inlineStr"/>
+      <c r="F124" s="17" t="inlineStr"/>
+      <c r="G124" s="17" t="inlineStr"/>
+      <c r="H124" s="17" t="inlineStr"/>
+      <c r="I124" s="17" t="inlineStr"/>
+      <c r="J124" s="17" t="inlineStr"/>
+      <c r="K124" s="17" t="inlineStr"/>
+      <c r="L124" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="inlineStr"/>
-      <c r="B125" s="2" t="inlineStr"/>
-      <c r="C125" s="6" t="inlineStr">
+      <c r="A125" s="9" t="inlineStr">
+        <is>
+          <t>M050</t>
+        </is>
+      </c>
+      <c r="B125" s="10" t="inlineStr"/>
+      <c r="C125" s="11" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D125" s="1" t="inlineStr">
+      <c r="D125" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E125" s="7" t="inlineStr">
+      <c r="E125" s="12" t="inlineStr">
         <is>
           <t>AP-A.R.K Fire Fighting Manufacture Co.</t>
         </is>
       </c>
-      <c r="F125" s="1" t="inlineStr"/>
-      <c r="G125" s="1" t="inlineStr"/>
-      <c r="H125" s="9" t="inlineStr">
+      <c r="F125" s="9" t="inlineStr"/>
+      <c r="G125" s="9" t="inlineStr"/>
+      <c r="H125" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I125" s="1" t="inlineStr">
+      <c r="I125" s="9" t="inlineStr">
         <is>
           <t>890</t>
         </is>
       </c>
-      <c r="J125" s="1" t="inlineStr"/>
-      <c r="K125" s="8" t="inlineStr">
+      <c r="J125" s="9" t="inlineStr"/>
+      <c r="K125" s="14" t="inlineStr">
         <is>
           <t>11535</t>
         </is>
       </c>
-      <c r="L125" s="1" t="inlineStr"/>
+      <c r="L125" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="inlineStr"/>
-      <c r="B126" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block</t>
-        </is>
-      </c>
-      <c r="C126" s="1" t="inlineStr"/>
-      <c r="D126" s="1" t="inlineStr"/>
-      <c r="E126" s="10" t="inlineStr">
+      <c r="A126" s="9" t="inlineStr">
+        <is>
+          <t>M050</t>
+        </is>
+      </c>
+      <c r="B126" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 11535.00
+Borrower Amount: 11535.00</t>
+        </is>
+      </c>
+      <c r="C126" s="9" t="inlineStr"/>
+      <c r="D126" s="9" t="inlineStr"/>
+      <c r="E126" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to A.R.K Fire Fighting Manufacture Co.. Supply of , Invoice Number:  111, Challan Number: 111, Work Order Number: MCE/PO/2025/3/32798, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-03-19, Goods Received Date: 2025-03-25, Work Order Value: 11535.0, Total Bill Amount: 11535.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F126" s="1" t="inlineStr"/>
-      <c r="G126" s="1" t="inlineStr"/>
-      <c r="H126" s="1" t="inlineStr"/>
-      <c r="I126" s="1" t="inlineStr"/>
-      <c r="J126" s="1" t="inlineStr"/>
-      <c r="K126" s="1" t="inlineStr"/>
-      <c r="L126" s="1" t="inlineStr"/>
+      <c r="F126" s="9" t="inlineStr"/>
+      <c r="G126" s="9" t="inlineStr"/>
+      <c r="H126" s="9" t="inlineStr"/>
+      <c r="I126" s="9" t="inlineStr"/>
+      <c r="J126" s="9" t="inlineStr"/>
+      <c r="K126" s="9" t="inlineStr"/>
+      <c r="L126" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="inlineStr"/>
-      <c r="B127" s="2" t="inlineStr"/>
-      <c r="C127" s="1" t="inlineStr"/>
-      <c r="D127" s="1" t="inlineStr">
+      <c r="A127" s="9" t="inlineStr">
+        <is>
+          <t>M050</t>
+        </is>
+      </c>
+      <c r="B127" s="10" t="inlineStr"/>
+      <c r="C127" s="9" t="inlineStr"/>
+      <c r="D127" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E127" s="11" t="inlineStr">
+      <c r="E127" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F127" s="1" t="inlineStr"/>
-      <c r="G127" s="1" t="inlineStr"/>
-      <c r="H127" s="1" t="inlineStr"/>
-      <c r="I127" s="1" t="inlineStr"/>
-      <c r="J127" s="1" t="inlineStr"/>
-      <c r="K127" s="1" t="inlineStr"/>
-      <c r="L127" s="1" t="inlineStr"/>
+      <c r="F127" s="9" t="inlineStr"/>
+      <c r="G127" s="9" t="inlineStr"/>
+      <c r="H127" s="9" t="inlineStr"/>
+      <c r="I127" s="9" t="inlineStr"/>
+      <c r="J127" s="9" t="inlineStr"/>
+      <c r="K127" s="9" t="inlineStr"/>
+      <c r="L127" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="inlineStr"/>
-      <c r="B128" s="2" t="inlineStr"/>
-      <c r="C128" s="6" t="inlineStr">
+      <c r="A128" s="17" t="inlineStr">
+        <is>
+          <t>M051</t>
+        </is>
+      </c>
+      <c r="B128" s="18" t="inlineStr"/>
+      <c r="C128" s="19" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D128" s="1" t="inlineStr">
+      <c r="D128" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E128" s="7" t="inlineStr">
+      <c r="E128" s="20" t="inlineStr">
         <is>
           <t>Adv-Rangpur Metal Industries Limited</t>
         </is>
       </c>
-      <c r="F128" s="1" t="inlineStr"/>
-      <c r="G128" s="1" t="inlineStr"/>
-      <c r="H128" s="9" t="inlineStr">
+      <c r="F128" s="17" t="inlineStr"/>
+      <c r="G128" s="17" t="inlineStr"/>
+      <c r="H128" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I128" s="1" t="inlineStr">
+      <c r="I128" s="17" t="inlineStr">
         <is>
           <t>891</t>
         </is>
       </c>
-      <c r="J128" s="1" t="inlineStr"/>
-      <c r="K128" s="8" t="inlineStr">
+      <c r="J128" s="17" t="inlineStr"/>
+      <c r="K128" s="22" t="inlineStr">
         <is>
           <t>1344000</t>
         </is>
       </c>
-      <c r="L128" s="1" t="inlineStr"/>
+      <c r="L128" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="inlineStr"/>
-      <c r="B129" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block</t>
-        </is>
-      </c>
-      <c r="C129" s="1" t="inlineStr"/>
-      <c r="D129" s="1" t="inlineStr"/>
-      <c r="E129" s="10" t="inlineStr">
+      <c r="A129" s="17" t="inlineStr">
+        <is>
+          <t>M051</t>
+        </is>
+      </c>
+      <c r="B129" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 1344000.00
+Borrower Amount: 1344000.00</t>
+        </is>
+      </c>
+      <c r="C129" s="17" t="inlineStr"/>
+      <c r="D129" s="17" t="inlineStr"/>
+      <c r="E129" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to Rangpur Metal Industries Limited. Supply of , Invoice Number:  Advanced/CIT/06, Challan Number: , Work Order Number: DES/PO/2025/2/31942, BA Team (A), Company Unit: Transformer, Project Name : DESCO 3-Phase Distribution Transformer (GD-5), Work Order date: 2025-02-05, Goods Received Date: , Work Order Value: 1.38E7, Total Bill Amount: 1380000.0, TDS Deduction Amount: 36000.00, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F129" s="1" t="inlineStr"/>
-      <c r="G129" s="1" t="inlineStr"/>
-      <c r="H129" s="1" t="inlineStr"/>
-      <c r="I129" s="1" t="inlineStr"/>
-      <c r="J129" s="1" t="inlineStr"/>
-      <c r="K129" s="1" t="inlineStr"/>
-      <c r="L129" s="1" t="inlineStr"/>
+      <c r="F129" s="17" t="inlineStr"/>
+      <c r="G129" s="17" t="inlineStr"/>
+      <c r="H129" s="17" t="inlineStr"/>
+      <c r="I129" s="17" t="inlineStr"/>
+      <c r="J129" s="17" t="inlineStr"/>
+      <c r="K129" s="17" t="inlineStr"/>
+      <c r="L129" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="inlineStr"/>
-      <c r="B130" s="2" t="inlineStr"/>
-      <c r="C130" s="1" t="inlineStr"/>
-      <c r="D130" s="1" t="inlineStr">
+      <c r="A130" s="17" t="inlineStr">
+        <is>
+          <t>M051</t>
+        </is>
+      </c>
+      <c r="B130" s="18" t="inlineStr"/>
+      <c r="C130" s="17" t="inlineStr"/>
+      <c r="D130" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E130" s="11" t="inlineStr">
+      <c r="E130" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F130" s="1" t="inlineStr"/>
-      <c r="G130" s="1" t="inlineStr"/>
-      <c r="H130" s="1" t="inlineStr"/>
-      <c r="I130" s="1" t="inlineStr"/>
-      <c r="J130" s="1" t="inlineStr"/>
-      <c r="K130" s="1" t="inlineStr"/>
-      <c r="L130" s="1" t="inlineStr"/>
+      <c r="F130" s="17" t="inlineStr"/>
+      <c r="G130" s="17" t="inlineStr"/>
+      <c r="H130" s="17" t="inlineStr"/>
+      <c r="I130" s="17" t="inlineStr"/>
+      <c r="J130" s="17" t="inlineStr"/>
+      <c r="K130" s="17" t="inlineStr"/>
+      <c r="L130" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="inlineStr"/>
-      <c r="B131" s="2" t="inlineStr"/>
-      <c r="C131" s="6" t="inlineStr">
+      <c r="A131" s="9" t="inlineStr">
+        <is>
+          <t>M052</t>
+        </is>
+      </c>
+      <c r="B131" s="10" t="inlineStr"/>
+      <c r="C131" s="11" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D131" s="1" t="inlineStr">
+      <c r="D131" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E131" s="7" t="inlineStr">
+      <c r="E131" s="12" t="inlineStr">
         <is>
           <t>Adv-Rangpur Metal Industries Limited</t>
         </is>
       </c>
-      <c r="F131" s="1" t="inlineStr"/>
-      <c r="G131" s="1" t="inlineStr"/>
-      <c r="H131" s="9" t="inlineStr">
+      <c r="F131" s="9" t="inlineStr"/>
+      <c r="G131" s="9" t="inlineStr"/>
+      <c r="H131" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I131" s="1" t="inlineStr">
+      <c r="I131" s="9" t="inlineStr">
         <is>
           <t>892</t>
         </is>
       </c>
-      <c r="J131" s="1" t="inlineStr"/>
-      <c r="K131" s="8" t="inlineStr">
+      <c r="J131" s="9" t="inlineStr"/>
+      <c r="K131" s="14" t="inlineStr">
         <is>
           <t>3457391</t>
         </is>
       </c>
-      <c r="L131" s="1" t="inlineStr"/>
+      <c r="L131" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="inlineStr"/>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block</t>
-        </is>
-      </c>
-      <c r="C132" s="1" t="inlineStr"/>
-      <c r="D132" s="1" t="inlineStr"/>
-      <c r="E132" s="10" t="inlineStr">
+      <c r="A132" s="9" t="inlineStr">
+        <is>
+          <t>M052</t>
+        </is>
+      </c>
+      <c r="B132" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 3457391.00
+Borrower Amount: 3457391.00</t>
+        </is>
+      </c>
+      <c r="C132" s="9" t="inlineStr"/>
+      <c r="D132" s="9" t="inlineStr"/>
+      <c r="E132" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to Rangpur Metal Industries Limited. Supply of , Invoice Number:  Advanced CIT 08, Challan Number: , Work Order Number: MCE/PO/2025/3/32583, BA Team (A), Company Unit: Transformer, Project Name : MCEP/BREB/DMD-DT-G-22 (Transformer), Work Order date: 2025-03-02, Goods Received Date: , Work Order Value: 5.183E7, Total Bill Amount: 3550000.0, TDS Deduction Amount: 92609.00, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F132" s="1" t="inlineStr"/>
-      <c r="G132" s="1" t="inlineStr"/>
-      <c r="H132" s="1" t="inlineStr"/>
-      <c r="I132" s="1" t="inlineStr"/>
-      <c r="J132" s="1" t="inlineStr"/>
-      <c r="K132" s="1" t="inlineStr"/>
-      <c r="L132" s="1" t="inlineStr"/>
+      <c r="F132" s="9" t="inlineStr"/>
+      <c r="G132" s="9" t="inlineStr"/>
+      <c r="H132" s="9" t="inlineStr"/>
+      <c r="I132" s="9" t="inlineStr"/>
+      <c r="J132" s="9" t="inlineStr"/>
+      <c r="K132" s="9" t="inlineStr"/>
+      <c r="L132" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="inlineStr"/>
-      <c r="B133" s="2" t="inlineStr"/>
-      <c r="C133" s="1" t="inlineStr"/>
-      <c r="D133" s="1" t="inlineStr">
+      <c r="A133" s="9" t="inlineStr">
+        <is>
+          <t>M052</t>
+        </is>
+      </c>
+      <c r="B133" s="10" t="inlineStr"/>
+      <c r="C133" s="9" t="inlineStr"/>
+      <c r="D133" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E133" s="11" t="inlineStr">
+      <c r="E133" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F133" s="1" t="inlineStr"/>
-      <c r="G133" s="1" t="inlineStr"/>
-      <c r="H133" s="1" t="inlineStr"/>
-      <c r="I133" s="1" t="inlineStr"/>
-      <c r="J133" s="1" t="inlineStr"/>
-      <c r="K133" s="1" t="inlineStr"/>
-      <c r="L133" s="1" t="inlineStr"/>
+      <c r="F133" s="9" t="inlineStr"/>
+      <c r="G133" s="9" t="inlineStr"/>
+      <c r="H133" s="9" t="inlineStr"/>
+      <c r="I133" s="9" t="inlineStr"/>
+      <c r="J133" s="9" t="inlineStr"/>
+      <c r="K133" s="9" t="inlineStr"/>
+      <c r="L133" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="inlineStr"/>
-      <c r="B134" s="2" t="inlineStr"/>
-      <c r="C134" s="6" t="inlineStr">
+      <c r="A134" s="17" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
+      <c r="B134" s="18" t="inlineStr"/>
+      <c r="C134" s="19" t="inlineStr">
         <is>
           <t>18/Jun/2025</t>
         </is>
       </c>
-      <c r="D134" s="1" t="inlineStr">
+      <c r="D134" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E134" s="7" t="inlineStr">
+      <c r="E134" s="20" t="inlineStr">
         <is>
           <t>AP-Sadharan Bima Corporation</t>
         </is>
       </c>
-      <c r="F134" s="1" t="inlineStr"/>
-      <c r="G134" s="1" t="inlineStr"/>
-      <c r="H134" s="9" t="inlineStr">
+      <c r="F134" s="17" t="inlineStr"/>
+      <c r="G134" s="17" t="inlineStr"/>
+      <c r="H134" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I134" s="1" t="inlineStr">
+      <c r="I134" s="17" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="J134" s="1" t="inlineStr"/>
-      <c r="K134" s="8" t="inlineStr">
+      <c r="J134" s="17" t="inlineStr"/>
+      <c r="K134" s="22" t="inlineStr">
         <is>
           <t>1531483</t>
         </is>
       </c>
-      <c r="L134" s="1" t="inlineStr"/>
+      <c r="L134" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="inlineStr"/>
-      <c r="B135" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block
-2. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
-        </is>
-      </c>
-      <c r="C135" s="1" t="inlineStr"/>
-      <c r="D135" s="1" t="inlineStr"/>
-      <c r="E135" s="10" t="inlineStr">
+      <c r="A135" s="17" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
+      <c r="B135" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 1531483.00
+Borrower Amount: 1531483.00</t>
+        </is>
+      </c>
+      <c r="C135" s="17" t="inlineStr"/>
+      <c r="D135" s="17" t="inlineStr"/>
+      <c r="E135" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to SADHARAN BIMA CORPORATION. Supply of , Invoice Number:  10March2025_Pur-110, Challan Number: , Work Order Number: 271/PO/2025/4/33396, BA Team (A), Company Unit: Transformer, Project Name : 27.11.0000.304.24.110.24.1202 - Pur-110 (ID-921175) 3-Phase Distribution Transformer BPDB, Work Order date: 2025-04-29, Goods Received Date: , Work Order Value: 1531483.0, Total Bill Amount: 1531483.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F135" s="1" t="inlineStr"/>
-      <c r="G135" s="1" t="inlineStr"/>
-      <c r="H135" s="1" t="inlineStr"/>
-      <c r="I135" s="1" t="inlineStr"/>
-      <c r="J135" s="1" t="inlineStr"/>
-      <c r="K135" s="1" t="inlineStr"/>
-      <c r="L135" s="1" t="inlineStr"/>
+      <c r="F135" s="17" t="inlineStr"/>
+      <c r="G135" s="17" t="inlineStr"/>
+      <c r="H135" s="17" t="inlineStr"/>
+      <c r="I135" s="17" t="inlineStr"/>
+      <c r="J135" s="17" t="inlineStr"/>
+      <c r="K135" s="17" t="inlineStr"/>
+      <c r="L135" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="inlineStr"/>
-      <c r="B136" s="2" t="inlineStr"/>
-      <c r="C136" s="1" t="inlineStr"/>
-      <c r="D136" s="1" t="inlineStr">
+      <c r="A136" s="17" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
+      <c r="B136" s="18" t="inlineStr"/>
+      <c r="C136" s="17" t="inlineStr"/>
+      <c r="D136" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E136" s="11" t="inlineStr">
+      <c r="E136" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F136" s="1" t="inlineStr"/>
-      <c r="G136" s="1" t="inlineStr"/>
-      <c r="H136" s="1" t="inlineStr"/>
-      <c r="I136" s="1" t="inlineStr"/>
-      <c r="J136" s="1" t="inlineStr"/>
-      <c r="K136" s="1" t="inlineStr"/>
-      <c r="L136" s="1" t="inlineStr"/>
+      <c r="F136" s="17" t="inlineStr"/>
+      <c r="G136" s="17" t="inlineStr"/>
+      <c r="H136" s="17" t="inlineStr"/>
+      <c r="I136" s="17" t="inlineStr"/>
+      <c r="J136" s="17" t="inlineStr"/>
+      <c r="K136" s="17" t="inlineStr"/>
+      <c r="L136" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="inlineStr"/>
-      <c r="B137" s="2" t="inlineStr"/>
-      <c r="C137" s="6" t="inlineStr">
+      <c r="A137" s="9" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B137" s="10" t="inlineStr"/>
+      <c r="C137" s="11" t="inlineStr">
         <is>
           <t>18/Jun/2025</t>
         </is>
       </c>
-      <c r="D137" s="1" t="inlineStr">
+      <c r="D137" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E137" s="7" t="inlineStr">
+      <c r="E137" s="12" t="inlineStr">
         <is>
           <t>AP-Narayanganj Palli Biddyut Samity-1</t>
         </is>
       </c>
-      <c r="F137" s="1" t="inlineStr"/>
-      <c r="G137" s="1" t="inlineStr"/>
-      <c r="H137" s="9" t="inlineStr">
+      <c r="F137" s="9" t="inlineStr"/>
+      <c r="G137" s="9" t="inlineStr"/>
+      <c r="H137" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I137" s="1" t="inlineStr">
+      <c r="I137" s="9" t="inlineStr">
         <is>
           <t>897</t>
         </is>
       </c>
-      <c r="J137" s="1" t="inlineStr"/>
-      <c r="K137" s="8" t="inlineStr">
+      <c r="J137" s="9" t="inlineStr"/>
+      <c r="K137" s="14" t="inlineStr">
         <is>
           <t>589625</t>
         </is>
       </c>
-      <c r="L137" s="1" t="inlineStr"/>
+      <c r="L137" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="inlineStr"/>
-      <c r="B138" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block</t>
-        </is>
-      </c>
-      <c r="C138" s="1" t="inlineStr"/>
-      <c r="D138" s="1" t="inlineStr"/>
-      <c r="E138" s="10" t="inlineStr">
+      <c r="A138" s="9" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B138" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 589625.00
+Borrower Amount: 589625.00</t>
+        </is>
+      </c>
+      <c r="C138" s="9" t="inlineStr"/>
+      <c r="D138" s="9" t="inlineStr"/>
+      <c r="E138" s="15" t="inlineStr">
         <is>
           <t>Amount Paid to Narayanganj Palli Bidduyat Samity-1 for Electricty bill for the month of May-2025. Bill no.107001161221000525 Metar no-09000316</t>
         </is>
       </c>
-      <c r="F138" s="1" t="inlineStr"/>
-      <c r="G138" s="1" t="inlineStr"/>
-      <c r="H138" s="1" t="inlineStr"/>
-      <c r="I138" s="1" t="inlineStr"/>
-      <c r="J138" s="1" t="inlineStr"/>
-      <c r="K138" s="1" t="inlineStr"/>
-      <c r="L138" s="1" t="inlineStr"/>
+      <c r="F138" s="9" t="inlineStr"/>
+      <c r="G138" s="9" t="inlineStr"/>
+      <c r="H138" s="9" t="inlineStr"/>
+      <c r="I138" s="9" t="inlineStr"/>
+      <c r="J138" s="9" t="inlineStr"/>
+      <c r="K138" s="9" t="inlineStr"/>
+      <c r="L138" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="inlineStr"/>
-      <c r="B139" s="2" t="inlineStr"/>
-      <c r="C139" s="1" t="inlineStr"/>
-      <c r="D139" s="1" t="inlineStr">
+      <c r="A139" s="9" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B139" s="10" t="inlineStr"/>
+      <c r="C139" s="9" t="inlineStr"/>
+      <c r="D139" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E139" s="11" t="inlineStr">
+      <c r="E139" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F139" s="1" t="inlineStr"/>
-      <c r="G139" s="1" t="inlineStr"/>
-      <c r="H139" s="1" t="inlineStr"/>
-      <c r="I139" s="1" t="inlineStr"/>
-      <c r="J139" s="1" t="inlineStr"/>
-      <c r="K139" s="1" t="inlineStr"/>
-      <c r="L139" s="1" t="inlineStr"/>
+      <c r="F139" s="9" t="inlineStr"/>
+      <c r="G139" s="9" t="inlineStr"/>
+      <c r="H139" s="9" t="inlineStr"/>
+      <c r="I139" s="9" t="inlineStr"/>
+      <c r="J139" s="9" t="inlineStr"/>
+      <c r="K139" s="9" t="inlineStr"/>
+      <c r="L139" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="140">
-      <c r="A140" s="12" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
-      <c r="B140" s="13" t="inlineStr"/>
-      <c r="C140" s="14" t="inlineStr">
+      <c r="A140" s="17" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B140" s="18" t="inlineStr"/>
+      <c r="C140" s="19" t="inlineStr">
         <is>
           <t>21/Jun/2025</t>
         </is>
       </c>
-      <c r="D140" s="12" t="inlineStr">
+      <c r="D140" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E140" s="15" t="inlineStr">
+      <c r="E140" s="20" t="inlineStr">
         <is>
           <t>AP-Odoo Bangladesh</t>
         </is>
       </c>
-      <c r="F140" s="12" t="inlineStr"/>
-      <c r="G140" s="12" t="inlineStr"/>
-      <c r="H140" s="16" t="inlineStr">
+      <c r="F140" s="17" t="inlineStr"/>
+      <c r="G140" s="17" t="inlineStr"/>
+      <c r="H140" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I140" s="12" t="inlineStr">
+      <c r="I140" s="17" t="inlineStr">
         <is>
           <t>898</t>
         </is>
       </c>
-      <c r="J140" s="12" t="inlineStr"/>
-      <c r="K140" s="17" t="inlineStr">
+      <c r="J140" s="17" t="inlineStr"/>
+      <c r="K140" s="22" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="L140" s="12" t="inlineStr">
+      <c r="L140" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="12" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
-      <c r="B141" s="13" t="inlineStr">
+      <c r="A141" s="17" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B141" s="18" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 0.00
 Borrower Amount: 0.00</t>
         </is>
       </c>
-      <c r="C141" s="12" t="inlineStr"/>
-      <c r="D141" s="12" t="inlineStr"/>
-      <c r="E141" s="18" t="inlineStr">
+      <c r="C141" s="17" t="inlineStr"/>
+      <c r="D141" s="17" t="inlineStr"/>
+      <c r="E141" s="23" t="inlineStr">
         <is>
           <t>Advance Chq no-8163057.  paid to Odoo Bangladesh agt ERP Emplemention. Ref no-IT/2014/11/008. from CIL Steel unit but 50% bill Tk.2,00,000 recorded in CIL-Trancformer and CIL-Pole Tk.2,00,000 So, Now made voucher as interunit loan.</t>
         </is>
       </c>
-      <c r="F141" s="12" t="inlineStr"/>
-      <c r="G141" s="12" t="inlineStr"/>
-      <c r="H141" s="12" t="inlineStr"/>
-      <c r="I141" s="12" t="inlineStr"/>
-      <c r="J141" s="12" t="inlineStr"/>
-      <c r="K141" s="12" t="inlineStr"/>
-      <c r="L141" s="12" t="inlineStr">
+      <c r="F141" s="17" t="inlineStr"/>
+      <c r="G141" s="17" t="inlineStr"/>
+      <c r="H141" s="17" t="inlineStr"/>
+      <c r="I141" s="17" t="inlineStr"/>
+      <c r="J141" s="17" t="inlineStr"/>
+      <c r="K141" s="17" t="inlineStr"/>
+      <c r="L141" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="12" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
-      <c r="B142" s="13" t="inlineStr"/>
-      <c r="C142" s="12" t="inlineStr"/>
-      <c r="D142" s="12" t="inlineStr">
+      <c r="A142" s="17" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B142" s="18" t="inlineStr"/>
+      <c r="C142" s="17" t="inlineStr"/>
+      <c r="D142" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E142" s="19" t="inlineStr">
+      <c r="E142" s="24" t="inlineStr">
         <is>
           <t>ziaul</t>
         </is>
       </c>
-      <c r="F142" s="12" t="inlineStr"/>
-      <c r="G142" s="12" t="inlineStr"/>
-      <c r="H142" s="12" t="inlineStr"/>
-      <c r="I142" s="12" t="inlineStr"/>
-      <c r="J142" s="12" t="inlineStr"/>
-      <c r="K142" s="12" t="inlineStr"/>
-      <c r="L142" s="12" t="inlineStr">
+      <c r="F142" s="17" t="inlineStr"/>
+      <c r="G142" s="17" t="inlineStr"/>
+      <c r="H142" s="17" t="inlineStr"/>
+      <c r="I142" s="17" t="inlineStr"/>
+      <c r="J142" s="17" t="inlineStr"/>
+      <c r="K142" s="17" t="inlineStr"/>
+      <c r="L142" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="20" t="inlineStr">
+      <c r="A143" s="9" t="inlineStr">
         <is>
           <t>M005</t>
         </is>
       </c>
-      <c r="B143" s="21" t="inlineStr"/>
-      <c r="C143" s="22" t="inlineStr">
+      <c r="B143" s="10" t="inlineStr"/>
+      <c r="C143" s="11" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D143" s="20" t="inlineStr">
+      <c r="D143" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E143" s="23" t="inlineStr">
+      <c r="E143" s="12" t="inlineStr">
         <is>
           <t>GULC#308524012043/24-Tap Changer &amp; AVR</t>
         </is>
       </c>
-      <c r="F143" s="20" t="inlineStr"/>
-      <c r="G143" s="20" t="inlineStr"/>
-      <c r="H143" s="24" t="inlineStr">
+      <c r="F143" s="9" t="inlineStr"/>
+      <c r="G143" s="9" t="inlineStr"/>
+      <c r="H143" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I143" s="20" t="inlineStr">
+      <c r="I143" s="9" t="inlineStr">
         <is>
           <t>901</t>
         </is>
       </c>
-      <c r="J143" s="20" t="inlineStr"/>
-      <c r="K143" s="25" t="inlineStr">
+      <c r="J143" s="9" t="inlineStr"/>
+      <c r="K143" s="14" t="inlineStr">
         <is>
           <t>85000</t>
         </is>
       </c>
-      <c r="L143" s="20" t="inlineStr">
+      <c r="L143" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="20" t="inlineStr">
+      <c r="A144" s="9" t="inlineStr">
         <is>
           <t>M005</t>
         </is>
       </c>
-      <c r="B144" s="21" t="inlineStr">
+      <c r="B144" s="10" t="inlineStr">
         <is>
           <t>LC Match: LC-308524012043/24
 Lender Amount: 85000.00
 Borrower Amount: 85000.00</t>
         </is>
       </c>
-      <c r="C144" s="20" t="inlineStr"/>
-      <c r="D144" s="20" t="inlineStr"/>
-      <c r="E144" s="26" t="inlineStr">
+      <c r="C144" s="9" t="inlineStr"/>
+      <c r="D144" s="9" t="inlineStr"/>
+      <c r="E144" s="15" t="inlineStr">
         <is>
           <t>Amount being paid as Port,Shipping &amp; Carrying Charges agt LC-308524012043/24-Transformer Unit-[Item-OLTC-Project-PBSH-G-89-Team-A][C-1164524]</t>
         </is>
       </c>
-      <c r="F144" s="20" t="inlineStr"/>
-      <c r="G144" s="20" t="inlineStr"/>
-      <c r="H144" s="20" t="inlineStr"/>
-      <c r="I144" s="20" t="inlineStr"/>
-      <c r="J144" s="20" t="inlineStr"/>
-      <c r="K144" s="20" t="inlineStr"/>
-      <c r="L144" s="20" t="inlineStr">
+      <c r="F144" s="9" t="inlineStr"/>
+      <c r="G144" s="9" t="inlineStr"/>
+      <c r="H144" s="9" t="inlineStr"/>
+      <c r="I144" s="9" t="inlineStr"/>
+      <c r="J144" s="9" t="inlineStr"/>
+      <c r="K144" s="9" t="inlineStr"/>
+      <c r="L144" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="20" t="inlineStr">
+      <c r="A145" s="9" t="inlineStr">
         <is>
           <t>M005</t>
         </is>
       </c>
-      <c r="B145" s="21" t="inlineStr"/>
-      <c r="C145" s="20" t="inlineStr"/>
-      <c r="D145" s="20" t="inlineStr">
+      <c r="B145" s="10" t="inlineStr"/>
+      <c r="C145" s="9" t="inlineStr"/>
+      <c r="D145" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E145" s="27" t="inlineStr">
+      <c r="E145" s="16" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F145" s="20" t="inlineStr"/>
-      <c r="G145" s="20" t="inlineStr"/>
-      <c r="H145" s="20" t="inlineStr"/>
-      <c r="I145" s="20" t="inlineStr"/>
-      <c r="J145" s="20" t="inlineStr"/>
-      <c r="K145" s="20" t="inlineStr"/>
-      <c r="L145" s="20" t="inlineStr">
+      <c r="F145" s="9" t="inlineStr"/>
+      <c r="G145" s="9" t="inlineStr"/>
+      <c r="H145" s="9" t="inlineStr"/>
+      <c r="I145" s="9" t="inlineStr"/>
+      <c r="J145" s="9" t="inlineStr"/>
+      <c r="K145" s="9" t="inlineStr"/>
+      <c r="L145" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="12" t="inlineStr">
-        <is>
-          <t>M004</t>
-        </is>
-      </c>
-      <c r="B146" s="13" t="inlineStr"/>
-      <c r="C146" s="14" t="inlineStr">
+      <c r="A146" s="17" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B146" s="18" t="inlineStr"/>
+      <c r="C146" s="19" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D146" s="12" t="inlineStr">
+      <c r="D146" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E146" s="15" t="inlineStr">
+      <c r="E146" s="20" t="inlineStr">
         <is>
           <t>PBL-Time Loan-LD2432680080</t>
         </is>
       </c>
-      <c r="F146" s="12" t="inlineStr"/>
-      <c r="G146" s="12" t="inlineStr"/>
-      <c r="H146" s="16" t="inlineStr">
+      <c r="F146" s="17" t="inlineStr"/>
+      <c r="G146" s="17" t="inlineStr"/>
+      <c r="H146" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I146" s="12" t="inlineStr">
+      <c r="I146" s="17" t="inlineStr">
         <is>
           <t>903</t>
         </is>
       </c>
-      <c r="J146" s="12" t="inlineStr"/>
-      <c r="K146" s="17" t="inlineStr">
+      <c r="J146" s="17" t="inlineStr"/>
+      <c r="K146" s="22" t="inlineStr">
         <is>
           <t>174172.7</t>
         </is>
       </c>
-      <c r="L146" s="12" t="inlineStr">
+      <c r="L146" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="12" t="inlineStr">
-        <is>
-          <t>M004</t>
-        </is>
-      </c>
-      <c r="B147" s="13" t="inlineStr">
+      <c r="A147" s="17" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B147" s="18" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 0.00
 Borrower Amount: 0.00</t>
         </is>
       </c>
-      <c r="C147" s="12" t="inlineStr"/>
-      <c r="D147" s="12" t="inlineStr"/>
-      <c r="E147" s="18" t="inlineStr">
+      <c r="C147" s="17" t="inlineStr"/>
+      <c r="D147" s="17" t="inlineStr"/>
+      <c r="E147" s="23" t="inlineStr">
         <is>
           <t>Amount being paid as Principal &amp; Interest repayment of Time Loan-CIL Transformer-LD-2432680080</t>
         </is>
       </c>
-      <c r="F147" s="12" t="inlineStr"/>
-      <c r="G147" s="12" t="inlineStr"/>
-      <c r="H147" s="12" t="inlineStr"/>
-      <c r="I147" s="12" t="inlineStr"/>
-      <c r="J147" s="12" t="inlineStr"/>
-      <c r="K147" s="12" t="inlineStr"/>
-      <c r="L147" s="12" t="inlineStr">
+      <c r="F147" s="17" t="inlineStr"/>
+      <c r="G147" s="17" t="inlineStr"/>
+      <c r="H147" s="17" t="inlineStr"/>
+      <c r="I147" s="17" t="inlineStr"/>
+      <c r="J147" s="17" t="inlineStr"/>
+      <c r="K147" s="17" t="inlineStr"/>
+      <c r="L147" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="12" t="inlineStr">
-        <is>
-          <t>M004</t>
-        </is>
-      </c>
-      <c r="B148" s="13" t="inlineStr"/>
-      <c r="C148" s="12" t="inlineStr"/>
-      <c r="D148" s="12" t="inlineStr">
+      <c r="A148" s="17" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B148" s="18" t="inlineStr"/>
+      <c r="C148" s="17" t="inlineStr"/>
+      <c r="D148" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E148" s="19" t="inlineStr">
+      <c r="E148" s="24" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F148" s="12" t="inlineStr"/>
-      <c r="G148" s="12" t="inlineStr"/>
-      <c r="H148" s="12" t="inlineStr"/>
-      <c r="I148" s="12" t="inlineStr"/>
-      <c r="J148" s="12" t="inlineStr"/>
-      <c r="K148" s="12" t="inlineStr"/>
-      <c r="L148" s="12" t="inlineStr">
+      <c r="F148" s="17" t="inlineStr"/>
+      <c r="G148" s="17" t="inlineStr"/>
+      <c r="H148" s="17" t="inlineStr"/>
+      <c r="I148" s="17" t="inlineStr"/>
+      <c r="J148" s="17" t="inlineStr"/>
+      <c r="K148" s="17" t="inlineStr"/>
+      <c r="L148" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="20" t="inlineStr">
+      <c r="A149" s="9" t="inlineStr">
         <is>
           <t>M007</t>
         </is>
       </c>
-      <c r="B149" s="21" t="inlineStr"/>
-      <c r="C149" s="22" t="inlineStr">
+      <c r="B149" s="10" t="inlineStr"/>
+      <c r="C149" s="11" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D149" s="20" t="inlineStr">
+      <c r="D149" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E149" s="23" t="inlineStr">
+      <c r="E149" s="12" t="inlineStr">
         <is>
           <t>PBL-Time Loan-LD2435445106</t>
         </is>
       </c>
-      <c r="F149" s="20" t="inlineStr"/>
-      <c r="G149" s="20" t="inlineStr"/>
-      <c r="H149" s="24" t="inlineStr">
+      <c r="F149" s="9" t="inlineStr"/>
+      <c r="G149" s="9" t="inlineStr"/>
+      <c r="H149" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I149" s="20" t="inlineStr">
+      <c r="I149" s="9" t="inlineStr">
         <is>
           <t>904</t>
         </is>
       </c>
-      <c r="J149" s="20" t="inlineStr"/>
-      <c r="K149" s="25" t="inlineStr">
+      <c r="J149" s="9" t="inlineStr"/>
+      <c r="K149" s="14" t="inlineStr">
         <is>
           <t>272808.31</t>
         </is>
       </c>
-      <c r="L149" s="20" t="inlineStr">
+      <c r="L149" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="20" t="inlineStr">
+      <c r="A150" s="9" t="inlineStr">
         <is>
           <t>M007</t>
         </is>
       </c>
-      <c r="B150" s="21" t="inlineStr">
+      <c r="B150" s="10" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 0.00
 Borrower Amount: 0.00</t>
         </is>
       </c>
-      <c r="C150" s="20" t="inlineStr"/>
-      <c r="D150" s="20" t="inlineStr"/>
-      <c r="E150" s="26" t="inlineStr">
+      <c r="C150" s="9" t="inlineStr"/>
+      <c r="D150" s="9" t="inlineStr"/>
+      <c r="E150" s="15" t="inlineStr">
         <is>
           <t>Amount being paid as Principal &amp; Interest Repayment of Time Loan of Transformer-LD-2435445106</t>
         </is>
       </c>
-      <c r="F150" s="20" t="inlineStr"/>
-      <c r="G150" s="20" t="inlineStr"/>
-      <c r="H150" s="20" t="inlineStr"/>
-      <c r="I150" s="20" t="inlineStr"/>
-      <c r="J150" s="20" t="inlineStr"/>
-      <c r="K150" s="20" t="inlineStr"/>
-      <c r="L150" s="20" t="inlineStr">
+      <c r="F150" s="9" t="inlineStr"/>
+      <c r="G150" s="9" t="inlineStr"/>
+      <c r="H150" s="9" t="inlineStr"/>
+      <c r="I150" s="9" t="inlineStr"/>
+      <c r="J150" s="9" t="inlineStr"/>
+      <c r="K150" s="9" t="inlineStr"/>
+      <c r="L150" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="20" t="inlineStr">
+      <c r="A151" s="9" t="inlineStr">
         <is>
           <t>M007</t>
         </is>
       </c>
-      <c r="B151" s="21" t="inlineStr"/>
-      <c r="C151" s="20" t="inlineStr"/>
-      <c r="D151" s="20" t="inlineStr">
+      <c r="B151" s="10" t="inlineStr"/>
+      <c r="C151" s="9" t="inlineStr"/>
+      <c r="D151" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E151" s="27" t="inlineStr">
+      <c r="E151" s="16" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F151" s="20" t="inlineStr"/>
-      <c r="G151" s="20" t="inlineStr"/>
-      <c r="H151" s="20" t="inlineStr"/>
-      <c r="I151" s="20" t="inlineStr"/>
-      <c r="J151" s="20" t="inlineStr"/>
-      <c r="K151" s="20" t="inlineStr"/>
-      <c r="L151" s="20" t="inlineStr">
+      <c r="F151" s="9" t="inlineStr"/>
+      <c r="G151" s="9" t="inlineStr"/>
+      <c r="H151" s="9" t="inlineStr"/>
+      <c r="I151" s="9" t="inlineStr"/>
+      <c r="J151" s="9" t="inlineStr"/>
+      <c r="K151" s="9" t="inlineStr"/>
+      <c r="L151" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="12" t="inlineStr">
+      <c r="A152" s="17" t="inlineStr">
         <is>
           <t>M002</t>
         </is>
       </c>
-      <c r="B152" s="13" t="inlineStr"/>
-      <c r="C152" s="14" t="inlineStr">
+      <c r="B152" s="18" t="inlineStr"/>
+      <c r="C152" s="19" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D152" s="12" t="inlineStr">
+      <c r="D152" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E152" s="15" t="inlineStr">
+      <c r="E152" s="20" t="inlineStr">
         <is>
           <t>PBL-Time Loan-LD2503002237</t>
         </is>
       </c>
-      <c r="F152" s="12" t="inlineStr"/>
-      <c r="G152" s="12" t="inlineStr"/>
-      <c r="H152" s="16" t="inlineStr">
+      <c r="F152" s="17" t="inlineStr"/>
+      <c r="G152" s="17" t="inlineStr"/>
+      <c r="H152" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I152" s="12" t="inlineStr">
+      <c r="I152" s="17" t="inlineStr">
         <is>
           <t>905</t>
         </is>
       </c>
-      <c r="J152" s="12" t="inlineStr"/>
-      <c r="K152" s="17" t="inlineStr">
+      <c r="J152" s="17" t="inlineStr"/>
+      <c r="K152" s="22" t="inlineStr">
         <is>
           <t>133619.23</t>
         </is>
       </c>
-      <c r="L152" s="12" t="inlineStr">
+      <c r="L152" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="12" t="inlineStr">
+      <c r="A153" s="17" t="inlineStr">
         <is>
           <t>M002</t>
         </is>
       </c>
-      <c r="B153" s="13" t="inlineStr">
+      <c r="B153" s="18" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 0.00
 Borrower Amount: 0.00</t>
         </is>
       </c>
-      <c r="C153" s="12" t="inlineStr"/>
-      <c r="D153" s="12" t="inlineStr"/>
-      <c r="E153" s="18" t="inlineStr">
+      <c r="C153" s="17" t="inlineStr"/>
+      <c r="D153" s="17" t="inlineStr"/>
+      <c r="E153" s="23" t="inlineStr">
         <is>
           <t>Amount being paid as Principal &amp; Interest Repayment of Time Loan of Transformer-LD-2503002237</t>
         </is>
       </c>
-      <c r="F153" s="12" t="inlineStr"/>
-      <c r="G153" s="12" t="inlineStr"/>
-      <c r="H153" s="12" t="inlineStr"/>
-      <c r="I153" s="12" t="inlineStr"/>
-      <c r="J153" s="12" t="inlineStr"/>
-      <c r="K153" s="12" t="inlineStr"/>
-      <c r="L153" s="12" t="inlineStr">
+      <c r="F153" s="17" t="inlineStr"/>
+      <c r="G153" s="17" t="inlineStr"/>
+      <c r="H153" s="17" t="inlineStr"/>
+      <c r="I153" s="17" t="inlineStr"/>
+      <c r="J153" s="17" t="inlineStr"/>
+      <c r="K153" s="17" t="inlineStr"/>
+      <c r="L153" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="12" t="inlineStr">
+      <c r="A154" s="17" t="inlineStr">
         <is>
           <t>M002</t>
         </is>
       </c>
-      <c r="B154" s="13" t="inlineStr"/>
-      <c r="C154" s="12" t="inlineStr"/>
-      <c r="D154" s="12" t="inlineStr">
+      <c r="B154" s="18" t="inlineStr"/>
+      <c r="C154" s="17" t="inlineStr"/>
+      <c r="D154" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E154" s="19" t="inlineStr">
+      <c r="E154" s="24" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F154" s="12" t="inlineStr"/>
-      <c r="G154" s="12" t="inlineStr"/>
-      <c r="H154" s="12" t="inlineStr"/>
-      <c r="I154" s="12" t="inlineStr"/>
-      <c r="J154" s="12" t="inlineStr"/>
-      <c r="K154" s="12" t="inlineStr"/>
-      <c r="L154" s="12" t="inlineStr">
+      <c r="F154" s="17" t="inlineStr"/>
+      <c r="G154" s="17" t="inlineStr"/>
+      <c r="H154" s="17" t="inlineStr"/>
+      <c r="I154" s="17" t="inlineStr"/>
+      <c r="J154" s="17" t="inlineStr"/>
+      <c r="K154" s="17" t="inlineStr"/>
+      <c r="L154" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="20" t="inlineStr">
+      <c r="A155" s="9" t="inlineStr">
         <is>
           <t>M015</t>
         </is>
       </c>
-      <c r="B155" s="21" t="inlineStr"/>
-      <c r="C155" s="22" t="inlineStr">
+      <c r="B155" s="10" t="inlineStr"/>
+      <c r="C155" s="11" t="inlineStr">
         <is>
           <t>24/Jun/2025</t>
         </is>
       </c>
-      <c r="D155" s="20" t="inlineStr">
+      <c r="D155" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E155" s="23" t="inlineStr">
+      <c r="E155" s="12" t="inlineStr">
         <is>
           <t>PBL-SND- 2126312011060</t>
         </is>
       </c>
-      <c r="F155" s="20" t="inlineStr"/>
-      <c r="G155" s="20" t="inlineStr"/>
-      <c r="H155" s="24" t="inlineStr">
+      <c r="F155" s="9" t="inlineStr"/>
+      <c r="G155" s="9" t="inlineStr"/>
+      <c r="H155" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I155" s="20" t="inlineStr">
+      <c r="I155" s="9" t="inlineStr">
         <is>
           <t>18164</t>
         </is>
       </c>
-      <c r="J155" s="25" t="inlineStr">
+      <c r="J155" s="14" t="inlineStr">
         <is>
           <t>50000</t>
         </is>
       </c>
-      <c r="K155" s="20" t="inlineStr"/>
-      <c r="L155" s="20" t="inlineStr">
+      <c r="K155" s="9" t="inlineStr"/>
+      <c r="L155" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="20" t="inlineStr">
+      <c r="A156" s="9" t="inlineStr">
         <is>
           <t>M015</t>
         </is>
       </c>
-      <c r="B156" s="21" t="inlineStr">
+      <c r="B156" s="10" t="inlineStr">
         <is>
           <t>Interunit Loan Match: PBL#1060
 Lender Amount: 50000.00
 Borrower Amount: 50000.00</t>
         </is>
       </c>
-      <c r="C156" s="20" t="inlineStr"/>
-      <c r="D156" s="20" t="inlineStr"/>
-      <c r="E156" s="26" t="inlineStr">
+      <c r="C156" s="9" t="inlineStr"/>
+      <c r="D156" s="9" t="inlineStr"/>
+      <c r="E156" s="15" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Interunit Loan A/C-Steel Unit,PBL#10855</t>
         </is>
       </c>
-      <c r="F156" s="20" t="inlineStr"/>
-      <c r="G156" s="20" t="inlineStr"/>
-      <c r="H156" s="20" t="inlineStr"/>
-      <c r="I156" s="20" t="inlineStr"/>
-      <c r="J156" s="20" t="inlineStr"/>
-      <c r="K156" s="20" t="inlineStr"/>
-      <c r="L156" s="20" t="inlineStr">
+      <c r="F156" s="9" t="inlineStr"/>
+      <c r="G156" s="9" t="inlineStr"/>
+      <c r="H156" s="9" t="inlineStr"/>
+      <c r="I156" s="9" t="inlineStr"/>
+      <c r="J156" s="9" t="inlineStr"/>
+      <c r="K156" s="9" t="inlineStr"/>
+      <c r="L156" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="20" t="inlineStr">
+      <c r="A157" s="9" t="inlineStr">
         <is>
           <t>M015</t>
         </is>
       </c>
-      <c r="B157" s="21" t="inlineStr"/>
-      <c r="C157" s="20" t="inlineStr"/>
-      <c r="D157" s="20" t="inlineStr">
+      <c r="B157" s="10" t="inlineStr"/>
+      <c r="C157" s="9" t="inlineStr"/>
+      <c r="D157" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E157" s="27" t="inlineStr">
+      <c r="E157" s="16" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F157" s="20" t="inlineStr"/>
-      <c r="G157" s="20" t="inlineStr"/>
-      <c r="H157" s="20" t="inlineStr"/>
-      <c r="I157" s="20" t="inlineStr"/>
-      <c r="J157" s="20" t="inlineStr"/>
-      <c r="K157" s="20" t="inlineStr"/>
-      <c r="L157" s="20" t="inlineStr">
+      <c r="F157" s="9" t="inlineStr"/>
+      <c r="G157" s="9" t="inlineStr"/>
+      <c r="H157" s="9" t="inlineStr"/>
+      <c r="I157" s="9" t="inlineStr"/>
+      <c r="J157" s="9" t="inlineStr"/>
+      <c r="K157" s="9" t="inlineStr"/>
+      <c r="L157" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="12" t="inlineStr">
+      <c r="A158" s="17" t="inlineStr">
         <is>
           <t>M014</t>
         </is>
       </c>
-      <c r="B158" s="13" t="inlineStr"/>
-      <c r="C158" s="14" t="inlineStr">
+      <c r="B158" s="18" t="inlineStr"/>
+      <c r="C158" s="19" t="inlineStr">
         <is>
           <t>25/Jun/2025</t>
         </is>
       </c>
-      <c r="D158" s="12" t="inlineStr">
+      <c r="D158" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E158" s="15" t="inlineStr">
+      <c r="E158" s="20" t="inlineStr">
         <is>
           <t>Eastern Bank ,STD-1011220144067</t>
         </is>
       </c>
-      <c r="F158" s="12" t="inlineStr"/>
-      <c r="G158" s="12" t="inlineStr"/>
-      <c r="H158" s="16" t="inlineStr">
+      <c r="F158" s="17" t="inlineStr"/>
+      <c r="G158" s="17" t="inlineStr"/>
+      <c r="H158" s="21" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I158" s="12" t="inlineStr">
+      <c r="I158" s="17" t="inlineStr">
         <is>
           <t>181</t>
         </is>
       </c>
-      <c r="J158" s="12" t="inlineStr"/>
-      <c r="K158" s="17" t="inlineStr">
+      <c r="J158" s="17" t="inlineStr"/>
+      <c r="K158" s="22" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="L158" s="12" t="inlineStr">
+      <c r="L158" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="12" t="inlineStr">
+      <c r="A159" s="17" t="inlineStr">
         <is>
           <t>M014</t>
         </is>
       </c>
-      <c r="B159" s="13" t="inlineStr">
+      <c r="B159" s="18" t="inlineStr">
         <is>
           <t>Interunit Loan Match: EBL#4056
 Lender Amount: 200000.00
 Borrower Amount: 200000.00</t>
         </is>
       </c>
-      <c r="C159" s="12" t="inlineStr"/>
-      <c r="D159" s="12" t="inlineStr"/>
-      <c r="E159" s="18" t="inlineStr">
+      <c r="C159" s="17" t="inlineStr"/>
+      <c r="D159" s="17" t="inlineStr"/>
+      <c r="E159" s="23" t="inlineStr">
         <is>
           <t>Amount received as Interunit Loan A/C-Steel Unit, EBL#44056</t>
         </is>
       </c>
-      <c r="F159" s="12" t="inlineStr"/>
-      <c r="G159" s="12" t="inlineStr"/>
-      <c r="H159" s="12" t="inlineStr"/>
-      <c r="I159" s="12" t="inlineStr"/>
-      <c r="J159" s="12" t="inlineStr"/>
-      <c r="K159" s="12" t="inlineStr"/>
-      <c r="L159" s="12" t="inlineStr">
+      <c r="F159" s="17" t="inlineStr"/>
+      <c r="G159" s="17" t="inlineStr"/>
+      <c r="H159" s="17" t="inlineStr"/>
+      <c r="I159" s="17" t="inlineStr"/>
+      <c r="J159" s="17" t="inlineStr"/>
+      <c r="K159" s="17" t="inlineStr"/>
+      <c r="L159" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="12" t="inlineStr">
+      <c r="A160" s="17" t="inlineStr">
         <is>
           <t>M014</t>
         </is>
       </c>
-      <c r="B160" s="13" t="inlineStr"/>
-      <c r="C160" s="12" t="inlineStr"/>
-      <c r="D160" s="12" t="inlineStr">
+      <c r="B160" s="18" t="inlineStr"/>
+      <c r="C160" s="17" t="inlineStr"/>
+      <c r="D160" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E160" s="19" t="inlineStr">
+      <c r="E160" s="24" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F160" s="12" t="inlineStr"/>
-      <c r="G160" s="12" t="inlineStr"/>
-      <c r="H160" s="12" t="inlineStr"/>
-      <c r="I160" s="12" t="inlineStr"/>
-      <c r="J160" s="12" t="inlineStr"/>
-      <c r="K160" s="12" t="inlineStr"/>
-      <c r="L160" s="12" t="inlineStr">
+      <c r="F160" s="17" t="inlineStr"/>
+      <c r="G160" s="17" t="inlineStr"/>
+      <c r="H160" s="17" t="inlineStr"/>
+      <c r="I160" s="17" t="inlineStr"/>
+      <c r="J160" s="17" t="inlineStr"/>
+      <c r="K160" s="17" t="inlineStr"/>
+      <c r="L160" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="20" t="inlineStr">
+      <c r="A161" s="9" t="inlineStr">
         <is>
           <t>M016</t>
         </is>
       </c>
-      <c r="B161" s="21" t="inlineStr"/>
-      <c r="C161" s="22" t="inlineStr">
+      <c r="B161" s="10" t="inlineStr"/>
+      <c r="C161" s="11" t="inlineStr">
         <is>
           <t>25/Jun/2025</t>
         </is>
       </c>
-      <c r="D161" s="20" t="inlineStr">
+      <c r="D161" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E161" s="23" t="inlineStr">
+      <c r="E161" s="12" t="inlineStr">
         <is>
           <t>Midland Bank Ltd-CE-0011-1060000313</t>
         </is>
       </c>
-      <c r="F161" s="20" t="inlineStr"/>
-      <c r="G161" s="20" t="inlineStr"/>
-      <c r="H161" s="24" t="inlineStr">
+      <c r="F161" s="9" t="inlineStr"/>
+      <c r="G161" s="9" t="inlineStr"/>
+      <c r="H161" s="13" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I161" s="20" t="inlineStr">
+      <c r="I161" s="9" t="inlineStr">
         <is>
           <t>183</t>
         </is>
       </c>
-      <c r="J161" s="20" t="inlineStr"/>
-      <c r="K161" s="25" t="inlineStr">
+      <c r="J161" s="9" t="inlineStr"/>
+      <c r="K161" s="14" t="inlineStr">
         <is>
           <t>4000000</t>
         </is>
       </c>
-      <c r="L161" s="20" t="inlineStr">
+      <c r="L161" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="20" t="inlineStr">
+      <c r="A162" s="9" t="inlineStr">
         <is>
           <t>M016</t>
         </is>
       </c>
-      <c r="B162" s="21" t="inlineStr">
+      <c r="B162" s="10" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0331
 Lender Amount: 4000000.00
 Borrower Amount: 4000000.00</t>
         </is>
       </c>
-      <c r="C162" s="20" t="inlineStr"/>
-      <c r="D162" s="20" t="inlineStr"/>
-      <c r="E162" s="26" t="inlineStr">
+      <c r="C162" s="9" t="inlineStr"/>
+      <c r="D162" s="9" t="inlineStr"/>
+      <c r="E162" s="15" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Interunit Loan A/C-Steel Unit, MDB#0331</t>
         </is>
       </c>
-      <c r="F162" s="20" t="inlineStr"/>
-      <c r="G162" s="20" t="inlineStr"/>
-      <c r="H162" s="20" t="inlineStr"/>
-      <c r="I162" s="20" t="inlineStr"/>
-      <c r="J162" s="20" t="inlineStr"/>
-      <c r="K162" s="20" t="inlineStr"/>
-      <c r="L162" s="20" t="inlineStr">
+      <c r="F162" s="9" t="inlineStr"/>
+      <c r="G162" s="9" t="inlineStr"/>
+      <c r="H162" s="9" t="inlineStr"/>
+      <c r="I162" s="9" t="inlineStr"/>
+      <c r="J162" s="9" t="inlineStr"/>
+      <c r="K162" s="9" t="inlineStr"/>
+      <c r="L162" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="20" t="inlineStr">
+      <c r="A163" s="9" t="inlineStr">
         <is>
           <t>M016</t>
         </is>
       </c>
-      <c r="B163" s="21" t="inlineStr"/>
-      <c r="C163" s="20" t="inlineStr"/>
-      <c r="D163" s="20" t="inlineStr">
+      <c r="B163" s="10" t="inlineStr"/>
+      <c r="C163" s="9" t="inlineStr"/>
+      <c r="D163" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E163" s="27" t="inlineStr">
+      <c r="E163" s="16" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F163" s="20" t="inlineStr"/>
-      <c r="G163" s="20" t="inlineStr"/>
-      <c r="H163" s="20" t="inlineStr"/>
-      <c r="I163" s="20" t="inlineStr"/>
-      <c r="J163" s="20" t="inlineStr"/>
-      <c r="K163" s="20" t="inlineStr"/>
-      <c r="L163" s="20" t="inlineStr">
+      <c r="F163" s="9" t="inlineStr"/>
+      <c r="G163" s="9" t="inlineStr"/>
+      <c r="H163" s="9" t="inlineStr"/>
+      <c r="I163" s="9" t="inlineStr"/>
+      <c r="J163" s="9" t="inlineStr"/>
+      <c r="K163" s="9" t="inlineStr"/>
+      <c r="L163" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="inlineStr"/>
-      <c r="B164" s="2" t="inlineStr"/>
-      <c r="C164" s="6" t="inlineStr">
+      <c r="A164" s="17" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
+      <c r="B164" s="18" t="inlineStr"/>
+      <c r="C164" s="19" t="inlineStr">
         <is>
           <t>26/Jun/2025</t>
         </is>
       </c>
-      <c r="D164" s="1" t="inlineStr">
+      <c r="D164" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E164" s="7" t="inlineStr">
+      <c r="E164" s="20" t="inlineStr">
         <is>
           <t>Adv-RR-Imperial Electricals Limited</t>
         </is>
       </c>
-      <c r="F164" s="1" t="inlineStr"/>
-      <c r="G164" s="1" t="inlineStr"/>
-      <c r="H164" s="9" t="inlineStr">
+      <c r="F164" s="17" t="inlineStr"/>
+      <c r="G164" s="17" t="inlineStr"/>
+      <c r="H164" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I164" s="1" t="inlineStr">
+      <c r="I164" s="17" t="inlineStr">
         <is>
           <t>926</t>
         </is>
       </c>
-      <c r="J164" s="1" t="inlineStr"/>
-      <c r="K164" s="8" t="inlineStr">
+      <c r="J164" s="17" t="inlineStr"/>
+      <c r="K164" s="22" t="inlineStr">
         <is>
           <t>5137392</t>
         </is>
       </c>
-      <c r="L164" s="1" t="inlineStr"/>
+      <c r="L164" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="inlineStr"/>
-      <c r="B165" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block</t>
-        </is>
-      </c>
-      <c r="C165" s="1" t="inlineStr"/>
-      <c r="D165" s="1" t="inlineStr"/>
-      <c r="E165" s="10" t="inlineStr">
+      <c r="A165" s="17" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
+      <c r="B165" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 5137392.00
+Borrower Amount: 5137392.00</t>
+        </is>
+      </c>
+      <c r="C165" s="17" t="inlineStr"/>
+      <c r="D165" s="17" t="inlineStr"/>
+      <c r="E165" s="23" t="inlineStr">
         <is>
           <t>Being the amount paid to RR-Imperial Electricals Limited . Supply of , Invoice Number:  1270, Challan Number: , Work Order Number: BRE/PO/2025/6/34287, BA Team (A), Company Unit: Transformer, Project Name : BREB/DP/PBSF-G-89-Lot-1/1/086/2023-2024 (REB) 3-Phase Power Transformer , Work Order date: 2025-06-24, Goods Received Date: , Work Order Value: 5275000.0, Total Bill Amount: 5137392.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F165" s="1" t="inlineStr"/>
-      <c r="G165" s="1" t="inlineStr"/>
-      <c r="H165" s="1" t="inlineStr"/>
-      <c r="I165" s="1" t="inlineStr"/>
-      <c r="J165" s="1" t="inlineStr"/>
-      <c r="K165" s="1" t="inlineStr"/>
-      <c r="L165" s="1" t="inlineStr"/>
+      <c r="F165" s="17" t="inlineStr"/>
+      <c r="G165" s="17" t="inlineStr"/>
+      <c r="H165" s="17" t="inlineStr"/>
+      <c r="I165" s="17" t="inlineStr"/>
+      <c r="J165" s="17" t="inlineStr"/>
+      <c r="K165" s="17" t="inlineStr"/>
+      <c r="L165" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="inlineStr"/>
-      <c r="B166" s="2" t="inlineStr"/>
-      <c r="C166" s="1" t="inlineStr"/>
-      <c r="D166" s="1" t="inlineStr">
+      <c r="A166" s="17" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
+      <c r="B166" s="18" t="inlineStr"/>
+      <c r="C166" s="17" t="inlineStr"/>
+      <c r="D166" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E166" s="11" t="inlineStr">
+      <c r="E166" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F166" s="1" t="inlineStr"/>
-      <c r="G166" s="1" t="inlineStr"/>
-      <c r="H166" s="1" t="inlineStr"/>
-      <c r="I166" s="1" t="inlineStr"/>
-      <c r="J166" s="1" t="inlineStr"/>
-      <c r="K166" s="1" t="inlineStr"/>
-      <c r="L166" s="1" t="inlineStr"/>
+      <c r="F166" s="17" t="inlineStr"/>
+      <c r="G166" s="17" t="inlineStr"/>
+      <c r="H166" s="17" t="inlineStr"/>
+      <c r="I166" s="17" t="inlineStr"/>
+      <c r="J166" s="17" t="inlineStr"/>
+      <c r="K166" s="17" t="inlineStr"/>
+      <c r="L166" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="inlineStr"/>
-      <c r="B167" s="2" t="inlineStr"/>
-      <c r="C167" s="6" t="inlineStr">
+      <c r="A167" s="9" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B167" s="10" t="inlineStr"/>
+      <c r="C167" s="11" t="inlineStr">
         <is>
           <t>29/Jun/2025</t>
         </is>
       </c>
-      <c r="D167" s="1" t="inlineStr">
+      <c r="D167" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E167" s="7" t="inlineStr">
+      <c r="E167" s="12" t="inlineStr">
         <is>
           <t>Adv-Rangpur Metal Industries Limited</t>
         </is>
       </c>
-      <c r="F167" s="1" t="inlineStr"/>
-      <c r="G167" s="1" t="inlineStr"/>
-      <c r="H167" s="9" t="inlineStr">
+      <c r="F167" s="9" t="inlineStr"/>
+      <c r="G167" s="9" t="inlineStr"/>
+      <c r="H167" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I167" s="1" t="inlineStr">
+      <c r="I167" s="9" t="inlineStr">
         <is>
           <t>934</t>
         </is>
       </c>
-      <c r="J167" s="1" t="inlineStr"/>
-      <c r="K167" s="8" t="inlineStr">
+      <c r="J167" s="9" t="inlineStr"/>
+      <c r="K167" s="14" t="inlineStr">
         <is>
           <t>11780452</t>
         </is>
       </c>
-      <c r="L167" s="1" t="inlineStr"/>
+      <c r="L167" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="inlineStr"/>
-      <c r="B168" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 2 block</t>
-        </is>
-      </c>
-      <c r="C168" s="1" t="inlineStr"/>
-      <c r="D168" s="1" t="inlineStr"/>
-      <c r="E168" s="10" t="inlineStr">
+      <c r="A168" s="9" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B168" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 11780452.00
+Borrower Amount: 11780452.00</t>
+        </is>
+      </c>
+      <c r="C168" s="9" t="inlineStr"/>
+      <c r="D168" s="9" t="inlineStr"/>
+      <c r="E168" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to Rangpur Metal Industries Limited. Supply of , Invoice Number:  advanced/CIT/10, Challan Number: , Work Order Number: DHK/PO/2025/6/34312, BA Team (A), Company Unit: Transformer, Project Name : DHK-1 PBS (1-Phase Distribution Transformer), Work Order date: 2025-06-25, Goods Received Date: , Work Order Value: 3.389904E7, Total Bill Amount: 1.2096E7, TDS Deduction Amount: 315548.0, VDS Deduction Amount: 0.0</t>
         </is>
       </c>
-      <c r="F168" s="1" t="inlineStr"/>
-      <c r="G168" s="1" t="inlineStr"/>
-      <c r="H168" s="1" t="inlineStr"/>
-      <c r="I168" s="1" t="inlineStr"/>
-      <c r="J168" s="1" t="inlineStr"/>
-      <c r="K168" s="1" t="inlineStr"/>
-      <c r="L168" s="1" t="inlineStr"/>
+      <c r="F168" s="9" t="inlineStr"/>
+      <c r="G168" s="9" t="inlineStr"/>
+      <c r="H168" s="9" t="inlineStr"/>
+      <c r="I168" s="9" t="inlineStr"/>
+      <c r="J168" s="9" t="inlineStr"/>
+      <c r="K168" s="9" t="inlineStr"/>
+      <c r="L168" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="inlineStr"/>
-      <c r="B169" s="2" t="inlineStr"/>
-      <c r="C169" s="1" t="inlineStr"/>
-      <c r="D169" s="1" t="inlineStr">
+      <c r="A169" s="9" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B169" s="10" t="inlineStr"/>
+      <c r="C169" s="9" t="inlineStr"/>
+      <c r="D169" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E169" s="11" t="inlineStr">
+      <c r="E169" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F169" s="1" t="inlineStr"/>
-      <c r="G169" s="1" t="inlineStr"/>
-      <c r="H169" s="1" t="inlineStr"/>
-      <c r="I169" s="1" t="inlineStr"/>
-      <c r="J169" s="1" t="inlineStr"/>
-      <c r="K169" s="1" t="inlineStr"/>
-      <c r="L169" s="1" t="inlineStr"/>
+      <c r="F169" s="9" t="inlineStr"/>
+      <c r="G169" s="9" t="inlineStr"/>
+      <c r="H169" s="9" t="inlineStr"/>
+      <c r="I169" s="9" t="inlineStr"/>
+      <c r="J169" s="9" t="inlineStr"/>
+      <c r="K169" s="9" t="inlineStr"/>
+      <c r="L169" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="170">
-      <c r="A170" s="12" t="inlineStr">
+      <c r="A170" s="17" t="inlineStr">
         <is>
           <t>M017</t>
         </is>
       </c>
-      <c r="B170" s="13" t="inlineStr"/>
-      <c r="C170" s="14" t="inlineStr">
+      <c r="B170" s="18" t="inlineStr"/>
+      <c r="C170" s="19" t="inlineStr">
         <is>
           <t>29/Jun/2025</t>
         </is>
       </c>
-      <c r="D170" s="12" t="inlineStr">
+      <c r="D170" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E170" s="15" t="inlineStr">
+      <c r="E170" s="20" t="inlineStr">
         <is>
           <t>Midland Bank Ltd-CE-0011-1060000313</t>
         </is>
       </c>
-      <c r="F170" s="12" t="inlineStr"/>
-      <c r="G170" s="12" t="inlineStr"/>
-      <c r="H170" s="16" t="inlineStr">
+      <c r="F170" s="17" t="inlineStr"/>
+      <c r="G170" s="17" t="inlineStr"/>
+      <c r="H170" s="21" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I170" s="12" t="inlineStr">
+      <c r="I170" s="17" t="inlineStr">
         <is>
           <t>186</t>
         </is>
       </c>
-      <c r="J170" s="12" t="inlineStr"/>
-      <c r="K170" s="17" t="inlineStr">
+      <c r="J170" s="17" t="inlineStr"/>
+      <c r="K170" s="22" t="inlineStr">
         <is>
           <t>400000</t>
         </is>
       </c>
-      <c r="L170" s="12" t="inlineStr">
+      <c r="L170" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="12" t="inlineStr">
+      <c r="A171" s="17" t="inlineStr">
         <is>
           <t>M017</t>
         </is>
       </c>
-      <c r="B171" s="13" t="inlineStr">
+      <c r="B171" s="18" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0331
 Lender Amount: 400000.00
 Borrower Amount: 400000.00</t>
         </is>
       </c>
-      <c r="C171" s="12" t="inlineStr"/>
-      <c r="D171" s="12" t="inlineStr"/>
-      <c r="E171" s="18" t="inlineStr">
+      <c r="C171" s="17" t="inlineStr"/>
+      <c r="D171" s="17" t="inlineStr"/>
+      <c r="E171" s="23" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Interunit Loan A/C-Steel Unit, MDB#0331</t>
         </is>
       </c>
-      <c r="F171" s="12" t="inlineStr"/>
-      <c r="G171" s="12" t="inlineStr"/>
-      <c r="H171" s="12" t="inlineStr"/>
-      <c r="I171" s="12" t="inlineStr"/>
-      <c r="J171" s="12" t="inlineStr"/>
-      <c r="K171" s="12" t="inlineStr"/>
-      <c r="L171" s="12" t="inlineStr">
+      <c r="F171" s="17" t="inlineStr"/>
+      <c r="G171" s="17" t="inlineStr"/>
+      <c r="H171" s="17" t="inlineStr"/>
+      <c r="I171" s="17" t="inlineStr"/>
+      <c r="J171" s="17" t="inlineStr"/>
+      <c r="K171" s="17" t="inlineStr"/>
+      <c r="L171" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="12" t="inlineStr">
+      <c r="A172" s="17" t="inlineStr">
         <is>
           <t>M017</t>
         </is>
       </c>
-      <c r="B172" s="13" t="inlineStr"/>
-      <c r="C172" s="12" t="inlineStr"/>
-      <c r="D172" s="12" t="inlineStr">
+      <c r="B172" s="18" t="inlineStr"/>
+      <c r="C172" s="17" t="inlineStr"/>
+      <c r="D172" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E172" s="19" t="inlineStr">
+      <c r="E172" s="24" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F172" s="12" t="inlineStr"/>
-      <c r="G172" s="12" t="inlineStr"/>
-      <c r="H172" s="12" t="inlineStr"/>
-      <c r="I172" s="12" t="inlineStr"/>
-      <c r="J172" s="12" t="inlineStr"/>
-      <c r="K172" s="12" t="inlineStr"/>
-      <c r="L172" s="12" t="inlineStr">
+      <c r="F172" s="17" t="inlineStr"/>
+      <c r="G172" s="17" t="inlineStr"/>
+      <c r="H172" s="17" t="inlineStr"/>
+      <c r="I172" s="17" t="inlineStr"/>
+      <c r="J172" s="17" t="inlineStr"/>
+      <c r="K172" s="17" t="inlineStr"/>
+      <c r="L172" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="20" t="inlineStr">
+      <c r="A173" s="9" t="inlineStr">
         <is>
           <t>M013</t>
         </is>
       </c>
-      <c r="B173" s="21" t="inlineStr"/>
-      <c r="C173" s="22" t="inlineStr">
+      <c r="B173" s="10" t="inlineStr"/>
+      <c r="C173" s="11" t="inlineStr">
         <is>
           <t>30/Jun/2025</t>
         </is>
       </c>
-      <c r="D173" s="20" t="inlineStr">
+      <c r="D173" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E173" s="23" t="inlineStr">
+      <c r="E173" s="12" t="inlineStr">
         <is>
           <t>PBL-Time Loan-LD2502802705</t>
         </is>
       </c>
-      <c r="F173" s="20" t="inlineStr"/>
-      <c r="G173" s="20" t="inlineStr"/>
-      <c r="H173" s="24" t="inlineStr">
+      <c r="F173" s="9" t="inlineStr"/>
+      <c r="G173" s="9" t="inlineStr"/>
+      <c r="H173" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I173" s="20" t="inlineStr">
+      <c r="I173" s="9" t="inlineStr">
         <is>
           <t>971</t>
         </is>
       </c>
-      <c r="J173" s="20" t="inlineStr"/>
-      <c r="K173" s="25" t="inlineStr">
+      <c r="J173" s="9" t="inlineStr"/>
+      <c r="K173" s="14" t="inlineStr">
         <is>
           <t>83197.81</t>
         </is>
       </c>
-      <c r="L173" s="20" t="inlineStr">
+      <c r="L173" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="20" t="inlineStr">
+      <c r="A174" s="9" t="inlineStr">
         <is>
           <t>M013</t>
         </is>
       </c>
-      <c r="B174" s="21" t="inlineStr">
+      <c r="B174" s="10" t="inlineStr">
         <is>
           <t>Interunit Loan Match: PBL#10855
 Lender Amount: 83197.81
 Borrower Amount: 83197.81</t>
         </is>
       </c>
-      <c r="C174" s="20" t="inlineStr"/>
-      <c r="D174" s="20" t="inlineStr"/>
-      <c r="E174" s="26" t="inlineStr">
+      <c r="C174" s="9" t="inlineStr"/>
+      <c r="D174" s="9" t="inlineStr"/>
+      <c r="E174" s="15" t="inlineStr">
         <is>
           <t>Time Loan repayment from CIL steel Unit PBL-10855</t>
         </is>
       </c>
-      <c r="F174" s="20" t="inlineStr"/>
-      <c r="G174" s="20" t="inlineStr"/>
-      <c r="H174" s="20" t="inlineStr"/>
-      <c r="I174" s="20" t="inlineStr"/>
-      <c r="J174" s="20" t="inlineStr"/>
-      <c r="K174" s="20" t="inlineStr"/>
-      <c r="L174" s="20" t="inlineStr">
+      <c r="F174" s="9" t="inlineStr"/>
+      <c r="G174" s="9" t="inlineStr"/>
+      <c r="H174" s="9" t="inlineStr"/>
+      <c r="I174" s="9" t="inlineStr"/>
+      <c r="J174" s="9" t="inlineStr"/>
+      <c r="K174" s="9" t="inlineStr"/>
+      <c r="L174" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="20" t="inlineStr">
+      <c r="A175" s="9" t="inlineStr">
         <is>
           <t>M013</t>
         </is>
       </c>
-      <c r="B175" s="21" t="inlineStr"/>
-      <c r="C175" s="20" t="inlineStr"/>
-      <c r="D175" s="20" t="inlineStr">
+      <c r="B175" s="10" t="inlineStr"/>
+      <c r="C175" s="9" t="inlineStr"/>
+      <c r="D175" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E175" s="27" t="inlineStr">
+      <c r="E175" s="16" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F175" s="20" t="inlineStr"/>
-      <c r="G175" s="20" t="inlineStr"/>
-      <c r="H175" s="20" t="inlineStr"/>
-      <c r="I175" s="20" t="inlineStr"/>
-      <c r="J175" s="20" t="inlineStr"/>
-      <c r="K175" s="20" t="inlineStr"/>
-      <c r="L175" s="20" t="inlineStr">
+      <c r="F175" s="9" t="inlineStr"/>
+      <c r="G175" s="9" t="inlineStr"/>
+      <c r="H175" s="9" t="inlineStr"/>
+      <c r="I175" s="9" t="inlineStr"/>
+      <c r="J175" s="9" t="inlineStr"/>
+      <c r="K175" s="9" t="inlineStr"/>
+      <c r="L175" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
@@ -5884,7 +6675,7 @@
       <c r="H176" s="1" t="inlineStr"/>
       <c r="I176" s="1" t="inlineStr"/>
       <c r="J176" s="1" t="inlineStr"/>
-      <c r="K176" s="28" t="inlineStr">
+      <c r="K176" s="25" t="inlineStr">
         <is>
           <t>40644588.55</t>
         </is>
@@ -5910,7 +6701,7 @@
       <c r="H177" s="1" t="inlineStr"/>
       <c r="I177" s="1" t="inlineStr"/>
       <c r="J177" s="1" t="inlineStr"/>
-      <c r="K177" s="28" t="inlineStr">
+      <c r="K177" s="25" t="inlineStr">
         <is>
           <t>54945561.71</t>
         </is>
@@ -5932,7 +6723,7 @@
       <c r="H178" s="1" t="inlineStr"/>
       <c r="I178" s="1" t="inlineStr"/>
       <c r="J178" s="1" t="inlineStr"/>
-      <c r="K178" s="28" t="inlineStr">
+      <c r="K178" s="25" t="inlineStr">
         <is>
           <t>95590150.26</t>
         </is>
